--- a/03_設計/06_データオブジェクト/データオブジェクト定義書.xlsx
+++ b/03_設計/06_データオブジェクト/データオブジェクト定義書.xlsx
@@ -15,6 +15,7 @@
     <sheet name="スクリーンDTO" sheetId="5" r:id="rId1"/>
     <sheet name="スクリーン_オブジェクトDTO" sheetId="2" r:id="rId2"/>
     <sheet name="スクリーン_オブジェクト_グループDTO" sheetId="4" r:id="rId3"/>
+    <sheet name="リクエストスクリーンDTO" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="61">
   <si>
     <t>論理名</t>
     <rPh sb="0" eb="3">
@@ -249,6 +250,73 @@
   </si>
   <si>
     <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RequestScreenDto</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>言語区分</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンゴ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地域ID</t>
+    <rPh sb="0" eb="2">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>施設グループID</t>
+    <rPh sb="0" eb="2">
+      <t>シセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>施設ID</t>
+    <rPh sb="0" eb="2">
+      <t>シセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクリーンオブジェクトID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>langDiv</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>screenObjId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>regionId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>facilityGrpId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>facilityId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リクエストスクリーンDTO</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -311,7 +379,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -379,13 +447,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -433,6 +514,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1486,4 +1570,308 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.375" style="2" customWidth="1"/>
+    <col min="2" max="4" width="43.75" style="1" customWidth="1"/>
+    <col min="5" max="8" width="5" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="F1" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="7">
+        <f t="shared" ref="A5:A9" si="0">ROW()-4</f>
+        <v>1</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="8" t="str">
+        <f t="shared" ref="F5:F7" si="1">"   /* "&amp;B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;D5&amp;" "&amp;C5&amp;";"</f>
+        <v xml:space="preserve">   /* 言語区分 */
+   private String langDiv;</v>
+      </c>
+      <c r="G5" s="8" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;D5&amp;" get"&amp;UPPER(LEFT(C5,1))&amp;RIGHT(C5,LEN(C5)-1)&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;C5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 言語区分を取得します。
+    * 
+    * @return 言語区分
+    */
+   public String getLangDiv(){
+      return langDiv;
+   }
+</v>
+      </c>
+      <c r="H5" s="8" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;C5&amp;" "&amp;B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;UPPER(LEFT(C5,1))&amp;RIGHT(C5,LEN(C5)-1)&amp;"("&amp;D5&amp;" "&amp;C5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;C5&amp;" = "&amp;C5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 言語区分を設定します。
+    * 
+    * @param langDiv 言語区分
+    */
+   public void setLangDiv(String langDiv){
+      this.langDiv = langDiv;
+   }
+</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">   /* スクリーンオブジェクトID */
+   private Integer screenObjId;</v>
+      </c>
+      <c r="G6" s="10" t="str">
+        <f t="shared" ref="G6:G7" si="2">"   /**"&amp;CHAR(10)&amp;"    * "&amp;B6&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;D6&amp;" get"&amp;UPPER(LEFT(C6,1))&amp;RIGHT(C6,LEN(C6)-1)&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;C6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * スクリーンオブジェクトIDを取得します。
+    * 
+    * @return スクリーンオブジェクトID
+    */
+   public Integer getScreenObjId(){
+      return screenObjId;
+   }
+</v>
+      </c>
+      <c r="H6" s="10" t="str">
+        <f t="shared" ref="H6:H7" si="3">"   /**"&amp;CHAR(10)&amp;"    * "&amp;B6&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;C6&amp;" "&amp;B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;UPPER(LEFT(C6,1))&amp;RIGHT(C6,LEN(C6)-1)&amp;"("&amp;D6&amp;" "&amp;C6&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;C6&amp;" = "&amp;C6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * スクリーンオブジェクトIDを設定します。
+    * 
+    * @param screenObjId スクリーンオブジェクトID
+    */
+   public void setScreenObjId(Integer screenObjId){
+      this.screenObjId = screenObjId;
+   }
+</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">   /* 地域ID */
+   private Integer regionId;</v>
+      </c>
+      <c r="G7" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">   /**
+    * 地域IDを取得します。
+    * 
+    * @return 地域ID
+    */
+   public Integer getRegionId(){
+      return regionId;
+   }
+</v>
+      </c>
+      <c r="H7" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">   /**
+    * 地域IDを設定します。
+    * 
+    * @param regionId 地域ID
+    */
+   public void setRegionId(Integer regionId){
+      this.regionId = regionId;
+   }
+</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="F8" s="10" t="str">
+        <f t="shared" ref="F8:F9" si="4">"   /* "&amp;B8&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;D8&amp;" "&amp;C8&amp;";"</f>
+        <v xml:space="preserve">   /* 施設グループID */
+   private Integer facilityGrpId;</v>
+      </c>
+      <c r="G8" s="10" t="str">
+        <f t="shared" ref="G8:G9" si="5">"   /**"&amp;CHAR(10)&amp;"    * "&amp;B8&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;B8&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;D8&amp;" get"&amp;UPPER(LEFT(C8,1))&amp;RIGHT(C8,LEN(C8)-1)&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;C8&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 施設グループIDを取得します。
+    * 
+    * @return 施設グループID
+    */
+   public Integer getFacilityGrpId(){
+      return facilityGrpId;
+   }
+</v>
+      </c>
+      <c r="H8" s="10" t="str">
+        <f t="shared" ref="H8:H9" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;B8&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;C8&amp;" "&amp;B8&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;UPPER(LEFT(C8,1))&amp;RIGHT(C8,LEN(C8)-1)&amp;"("&amp;D8&amp;" "&amp;C8&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;C8&amp;" = "&amp;C8&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 施設グループIDを設定します。
+    * 
+    * @param facilityGrpId 施設グループID
+    */
+   public void setFacilityGrpId(Integer facilityGrpId){
+      this.facilityGrpId = facilityGrpId;
+   }
+</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">   /* 施設ID */
+   private Integer facilityId;</v>
+      </c>
+      <c r="G9" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">   /**
+    * 施設IDを取得します。
+    * 
+    * @return 施設ID
+    */
+   public Integer getFacilityId(){
+      return facilityId;
+   }
+</v>
+      </c>
+      <c r="H9" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   /**
+    * 施設IDを設定します。
+    * 
+    * @param facilityId 施設ID
+    */
+   public void setFacilityId(Integer facilityId){
+      this.facilityId = facilityId;
+   }
+</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/03_設計/06_データオブジェクト/データオブジェクト定義書.xlsx
+++ b/03_設計/06_データオブジェクト/データオブジェクト定義書.xlsx
@@ -13,9 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="スクリーンDTO" sheetId="5" r:id="rId1"/>
-    <sheet name="スクリーン_オブジェクトDTO" sheetId="2" r:id="rId2"/>
-    <sheet name="スクリーン_オブジェクト_グループDTO" sheetId="4" r:id="rId3"/>
-    <sheet name="リクエストスクリーンDTO" sheetId="6" r:id="rId4"/>
+    <sheet name="スクリーンオブジェクトDTO" sheetId="7" r:id="rId2"/>
+    <sheet name="スクリーンオブジェクトグループDTO" sheetId="8" r:id="rId3"/>
+    <sheet name="リクエストスクリーンDTO" sheetId="9" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="64">
   <si>
     <t>論理名</t>
     <rPh sb="0" eb="3">
@@ -62,38 +62,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>targetLayoutId</t>
-  </si>
-  <si>
-    <t>targetScreenId</t>
-  </si>
-  <si>
-    <t>screenObjDtoList</t>
-  </si>
-  <si>
-    <t>screenObjGrpDtoList</t>
-  </si>
-  <si>
-    <t>遷移先_レイアウトID</t>
-    <rPh sb="0" eb="3">
-      <t>センイサキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>遷移先_スクリーンID</t>
-    <rPh sb="0" eb="3">
-      <t>センイサキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スクリーン_オブジェクリスト</t>
-  </si>
-  <si>
-    <t>スクリーン_オブジェクト_グループリスト</t>
-  </si>
-  <si>
     <t>Integer</t>
   </si>
   <si>
@@ -122,83 +90,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>layoutObjId</t>
-  </si>
-  <si>
-    <t>screenObjId</t>
-  </si>
-  <si>
-    <t>attGrpId</t>
-  </si>
-  <si>
-    <t>attGrpType</t>
-  </si>
-  <si>
-    <t>attGrpNm</t>
-  </si>
-  <si>
-    <t>attVal</t>
-  </si>
-  <si>
-    <t>attCdVal</t>
-  </si>
-  <si>
     <t>String</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レイアウト_オブジェクトID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スクリーン_オブジェクトID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>属性_グループID</t>
-    <rPh sb="0" eb="2">
-      <t>ゾクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>属性_グループ名称</t>
-    <rPh sb="0" eb="2">
-      <t>ゾクセイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>メイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>属性_グループ種別</t>
-    <rPh sb="0" eb="2">
-      <t>ゾクセイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シュベツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>属性_値</t>
-    <rPh sb="0" eb="2">
-      <t>ゾクセイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>アタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>属性_コード値</t>
-    <rPh sb="0" eb="2">
-      <t>ゾクセイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>アタイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -217,31 +109,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スクリーン_オブジェクトDTO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スクリーン_オブジェクト_グループDTO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ScreenObjGrpDto</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スクリーン_オブジェクト_DTOリスト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>screenObjDtoList</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ScreenDto</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スクリーンDTO</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -296,27 +168,180 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>langDiv</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>screenObjId</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>regionId</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>facilityGrpId</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>facilityId</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>リクエストスクリーンDTO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Target Layout Id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Target Screen Id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Screen Obj Dto List</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Screen Obj Grp Dto List</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>get/set</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>camel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>field</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Layout Obj Id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Screen Obj Id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Att Grp Id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Att Grp Type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Att Grp Nm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Att Val</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Att Cd Val</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクリーンDTO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Screen Obj Dto List</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクリーンオブジェクトDTO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクリーンオブジェクトグループDTO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクリーンオブジェクトDTOリスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイアウトオブジェクトID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクリーンオブジェクトID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>属性グループID</t>
+    <rPh sb="0" eb="2">
+      <t>ゾクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>属性グループ種別</t>
+    <rPh sb="0" eb="2">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>属性グループ名称</t>
+    <rPh sb="0" eb="2">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>属性値</t>
+    <rPh sb="0" eb="2">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>属性コード値</t>
+    <rPh sb="0" eb="2">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遷移先レイアウトID</t>
+    <rPh sb="0" eb="3">
+      <t>センイサキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遷移先スクリーンID</t>
+    <rPh sb="0" eb="3">
+      <t>センイサキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクリーンオブジェクリスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクリーンオブジェクトグループリスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lang Div</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Region Id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Facility Grp Id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Facility Id</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -379,7 +404,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -447,19 +472,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -515,7 +527,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -803,7 +815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <sheetPr>
+    <outlinePr summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
@@ -812,40 +827,49 @@
       <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.375" style="2" customWidth="1"/>
-    <col min="2" max="4" width="43.75" style="1" customWidth="1"/>
-    <col min="5" max="8" width="5" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="43.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.75" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="6" width="6.25" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="43.75" style="1" customWidth="1"/>
+    <col min="8" max="12" width="5" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="I1" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="F1" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="14"/>
+      <c r="C2" s="16"/>
       <c r="D2" s="14"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>0</v>
@@ -854,61 +878,90 @@
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="H4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <f t="shared" ref="A5:A8" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="8" t="str">
+        <f>SUBSTITUTE($C5," ","")</f>
+        <v>TargetLayoutId</v>
+      </c>
+      <c r="E5" s="8" t="str">
+        <f>LOWER(LEFT($C5,1))&amp;RIGHT($D5,LEN($D5)-1)</f>
+        <v>targetLayoutId</v>
+      </c>
+      <c r="F5" s="8" t="str">
+        <f>UPPER(SUBSTITUTE($C5," ","_"))</f>
+        <v>TARGET_LAYOUT_ID</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="8" t="str">
-        <f t="shared" ref="F5:F8" si="1">"   /* "&amp;B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;D5&amp;" "&amp;C5&amp;";"</f>
-        <v xml:space="preserve">   /* 遷移先_レイアウトID */
+      <c r="H5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="8" t="str">
+        <f t="shared" ref="I5:I8" si="1">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
+        <v xml:space="preserve">   /** 遷移先レイアウトIDのフィールド名 */
+   public static final String FIELD_TARGET_LAYOUT_ID = "targetLayoutId";</v>
+      </c>
+      <c r="J5" s="8" t="str">
+        <f t="shared" ref="J5:J8" si="2">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G5&amp;" "&amp;$E5&amp;";"</f>
+        <v xml:space="preserve">   /** 遷移先レイアウトID */
    private Integer targetLayoutId;</v>
       </c>
-      <c r="G5" s="8" t="str">
-        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;D5&amp;" get"&amp;UPPER(LEFT(C5,1))&amp;RIGHT(C5,LEN(C5)-1)&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;C5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
-        <v xml:space="preserve">   /**
-    * 遷移先_レイアウトIDを取得します。
-    * 
-    * @return 遷移先_レイアウトID
+      <c r="K5" s="8" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G5&amp;" get"&amp;$D5&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 遷移先レイアウトIDを取得します。
+    * 
+    * @return 遷移先レイアウトID
     */
    public Integer getTargetLayoutId(){
       return targetLayoutId;
    }
 </v>
       </c>
-      <c r="H5" s="8" t="str">
-        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;C5&amp;" "&amp;B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;UPPER(LEFT(C5,1))&amp;RIGHT(C5,LEN(C5)-1)&amp;"("&amp;D5&amp;" "&amp;C5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;C5&amp;" = "&amp;C5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
-        <v xml:space="preserve">   /**
-    * 遷移先_レイアウトIDを設定します。
-    * 
-    * @param targetLayoutId 遷移先_レイアウトID
+      <c r="L5" s="8" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E5&amp;" "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D5&amp;"("&amp;$G5&amp;" "&amp;$E5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E5&amp;" = "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 遷移先レイアウトIDを設定します。
+    * 
+    * @param targetLayoutId 遷移先レイアウトID
     */
    public void setTargetLayoutId(Integer targetLayoutId){
       this.targetLayoutId = targetLayoutId;
@@ -916,46 +969,63 @@
 </v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>47</v>
+        <v>31</v>
+      </c>
+      <c r="D6" s="10" t="str">
+        <f t="shared" ref="D6:D8" si="3">SUBSTITUTE($C6," ","")</f>
+        <v>TargetScreenId</v>
+      </c>
+      <c r="E6" s="10" t="str">
+        <f>LOWER(LEFT($C6,1))&amp;RIGHT($D6,LEN($D6)-1)</f>
+        <v>targetScreenId</v>
       </c>
       <c r="F6" s="10" t="str">
+        <f t="shared" ref="F6:F8" si="4">UPPER(SUBSTITUTE($C6," ","_"))</f>
+        <v>TARGET_SCREEN_ID</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="10" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">   /* 遷移先_スクリーンID */
+        <v xml:space="preserve">   /** 遷移先スクリーンIDのフィールド名 */
+   public static final String FIELD_TARGET_SCREEN_ID = "targetScreenId";</v>
+      </c>
+      <c r="J6" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">   /** 遷移先スクリーンID */
    private Integer targetScreenId;</v>
       </c>
-      <c r="G6" s="10" t="str">
-        <f t="shared" ref="G6:G8" si="2">"   /**"&amp;CHAR(10)&amp;"    * "&amp;B6&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;D6&amp;" get"&amp;UPPER(LEFT(C6,1))&amp;RIGHT(C6,LEN(C6)-1)&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;C6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
-        <v xml:space="preserve">   /**
-    * 遷移先_スクリーンIDを取得します。
-    * 
-    * @return 遷移先_スクリーンID
+      <c r="K6" s="10" t="str">
+        <f t="shared" ref="K6:K8" si="5">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G6&amp;" get"&amp;$D6&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 遷移先スクリーンIDを取得します。
+    * 
+    * @return 遷移先スクリーンID
     */
    public Integer getTargetScreenId(){
       return targetScreenId;
    }
 </v>
       </c>
-      <c r="H6" s="10" t="str">
-        <f t="shared" ref="H6:H8" si="3">"   /**"&amp;CHAR(10)&amp;"    * "&amp;B6&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;C6&amp;" "&amp;B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;UPPER(LEFT(C6,1))&amp;RIGHT(C6,LEN(C6)-1)&amp;"("&amp;D6&amp;" "&amp;C6&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;C6&amp;" = "&amp;C6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
-        <v xml:space="preserve">   /**
-    * 遷移先_スクリーンIDを設定します。
-    * 
-    * @param targetScreenId 遷移先_スクリーンID
+      <c r="L6" s="10" t="str">
+        <f t="shared" ref="L6:L8" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E6&amp;" "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D6&amp;"("&amp;$G6&amp;" "&amp;$E6&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E6&amp;" = "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 遷移先スクリーンIDを設定します。
+    * 
+    * @param targetScreenId 遷移先スクリーンID
     */
    public void setTargetScreenId(Integer targetScreenId){
       this.targetScreenId = targetScreenId;
@@ -963,44 +1033,61 @@
 </v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="C7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>ScreenObjDtoList</v>
+      </c>
+      <c r="E7" s="10" t="str">
+        <f>LOWER(LEFT($C7,1))&amp;RIGHT($D7,LEN($D7)-1)</f>
+        <v>screenObjDtoList</v>
+      </c>
+      <c r="F7" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>SCREEN_OBJ_DTO_LIST</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10" t="str">
+      <c r="H7" s="10"/>
+      <c r="I7" s="10" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">   /* スクリーン_オブジェクリスト */
+        <v xml:space="preserve">   /** スクリーンオブジェクリストのフィールド名 */
+   public static final String FIELD_SCREEN_OBJ_DTO_LIST = "screenObjDtoList";</v>
+      </c>
+      <c r="J7" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">   /** スクリーンオブジェクリスト */
    private ArrayList&lt;ScreenObjDto&gt; screenObjDtoList;</v>
       </c>
-      <c r="G7" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">   /**
-    * スクリーン_オブジェクリストを取得します。
-    * 
-    * @return スクリーン_オブジェクリスト
+      <c r="K7" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">   /**
+    * スクリーンオブジェクリストを取得します。
+    * 
+    * @return スクリーンオブジェクリスト
     */
    public ArrayList&lt;ScreenObjDto&gt; getScreenObjDtoList(){
       return screenObjDtoList;
    }
 </v>
       </c>
-      <c r="H7" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">   /**
-    * スクリーン_オブジェクリストを設定します。
-    * 
-    * @param screenObjDtoList スクリーン_オブジェクリスト
+      <c r="L7" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   /**
+    * スクリーンオブジェクリストを設定します。
+    * 
+    * @param screenObjDtoList スクリーンオブジェクリスト
     */
    public void setScreenObjDtoList(ArrayList&lt;ScreenObjDto&gt; screenObjDtoList){
       this.screenObjDtoList = screenObjDtoList;
@@ -1008,44 +1095,61 @@
 </v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="12"/>
+        <v>33</v>
+      </c>
+      <c r="D8" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>ScreenObjGrpDtoList</v>
+      </c>
+      <c r="E8" s="12" t="str">
+        <f>LOWER(LEFT($C8,1))&amp;RIGHT($D8,LEN($D8)-1)</f>
+        <v>screenObjGrpDtoList</v>
+      </c>
       <c r="F8" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>SCREEN_OBJ_GRP_DTO_LIST</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">   /* スクリーン_オブジェクト_グループリスト */
+        <v xml:space="preserve">   /** スクリーンオブジェクトグループリストのフィールド名 */
+   public static final String FIELD_SCREEN_OBJ_GRP_DTO_LIST = "screenObjGrpDtoList";</v>
+      </c>
+      <c r="J8" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">   /** スクリーンオブジェクトグループリスト */
    private ArrayList&lt;ScreenObjGrpDto&gt; screenObjGrpDtoList;</v>
       </c>
-      <c r="G8" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">   /**
-    * スクリーン_オブジェクト_グループリストを取得します。
-    * 
-    * @return スクリーン_オブジェクト_グループリスト
+      <c r="K8" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">   /**
+    * スクリーンオブジェクトグループリストを取得します。
+    * 
+    * @return スクリーンオブジェクトグループリスト
     */
    public ArrayList&lt;ScreenObjGrpDto&gt; getScreenObjGrpDtoList(){
       return screenObjGrpDtoList;
    }
 </v>
       </c>
-      <c r="H8" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">   /**
-    * スクリーン_オブジェクト_グループリストを設定します。
-    * 
-    * @param screenObjGrpDtoList スクリーン_オブジェクト_グループリスト
+      <c r="L8" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   /**
+    * スクリーンオブジェクトグループリストを設定します。
+    * 
+    * @param screenObjGrpDtoList スクリーンオブジェクトグループリスト
     */
    public void setScreenObjGrpDtoList(ArrayList&lt;ScreenObjGrpDto&gt; screenObjGrpDtoList){
       this.screenObjGrpDtoList = screenObjGrpDtoList;
@@ -1062,7 +1166,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <sheetPr>
+    <outlinePr summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
@@ -1071,36 +1178,49 @@
       <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.375" style="2" customWidth="1"/>
-    <col min="2" max="4" width="43.75" style="1" customWidth="1"/>
-    <col min="5" max="8" width="5" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="43.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.75" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="6" width="6.25" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="43.75" style="1" customWidth="1"/>
+    <col min="8" max="12" width="5" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="I1" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C2" s="16"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>0</v>
@@ -1109,61 +1229,90 @@
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="H4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <f t="shared" ref="A5:A11" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>47</v>
+        <v>37</v>
+      </c>
+      <c r="D5" s="8" t="str">
+        <f>SUBSTITUTE($C5," ","")</f>
+        <v>LayoutObjId</v>
+      </c>
+      <c r="E5" s="8" t="str">
+        <f>LOWER(LEFT($C5,1))&amp;RIGHT($D5,LEN($D5)-1)</f>
+        <v>layoutObjId</v>
       </c>
       <c r="F5" s="8" t="str">
-        <f t="shared" ref="F5:F11" si="1">"   /* "&amp;B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;D5&amp;" "&amp;C5&amp;";"</f>
-        <v xml:space="preserve">   /* レイアウト_オブジェクトID */
+        <f>UPPER(SUBSTITUTE($C5," ","_"))</f>
+        <v>LAYOUT_OBJ_ID</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="8" t="str">
+        <f t="shared" ref="I5:I11" si="1">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
+        <v xml:space="preserve">   /** レイアウトオブジェクトIDのフィールド名 */
+   public static final String FIELD_LAYOUT_OBJ_ID = "layoutObjId";</v>
+      </c>
+      <c r="J5" s="8" t="str">
+        <f t="shared" ref="J5:J11" si="2">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G5&amp;" "&amp;$E5&amp;";"</f>
+        <v xml:space="preserve">   /** レイアウトオブジェクトID */
    private Integer layoutObjId;</v>
       </c>
-      <c r="G5" s="8" t="str">
-        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;D5&amp;" get"&amp;UPPER(LEFT(C5,1))&amp;RIGHT(C5,LEN(C5)-1)&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;C5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
-        <v xml:space="preserve">   /**
-    * レイアウト_オブジェクトIDを取得します。
-    * 
-    * @return レイアウト_オブジェクトID
+      <c r="K5" s="8" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G5&amp;" get"&amp;$D5&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * レイアウトオブジェクトIDを取得します。
+    * 
+    * @return レイアウトオブジェクトID
     */
    public Integer getLayoutObjId(){
       return layoutObjId;
    }
 </v>
       </c>
-      <c r="H5" s="8" t="str">
-        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;C5&amp;" "&amp;B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;UPPER(LEFT(C5,1))&amp;RIGHT(C5,LEN(C5)-1)&amp;"("&amp;D5&amp;" "&amp;C5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;C5&amp;" = "&amp;C5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
-        <v xml:space="preserve">   /**
-    * レイアウト_オブジェクトIDを設定します。
-    * 
-    * @param layoutObjId レイアウト_オブジェクトID
+      <c r="L5" s="8" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E5&amp;" "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D5&amp;"("&amp;$G5&amp;" "&amp;$E5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E5&amp;" = "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * レイアウトオブジェクトIDを設定します。
+    * 
+    * @param layoutObjId レイアウトオブジェクトID
     */
    public void setLayoutObjId(Integer layoutObjId){
       this.layoutObjId = layoutObjId;
@@ -1171,46 +1320,63 @@
 </v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>47</v>
+        <v>38</v>
+      </c>
+      <c r="D6" s="10" t="str">
+        <f t="shared" ref="D6:D11" si="3">SUBSTITUTE($C6," ","")</f>
+        <v>ScreenObjId</v>
+      </c>
+      <c r="E6" s="10" t="str">
+        <f>LOWER(LEFT($C6,1))&amp;RIGHT($D6,LEN($D6)-1)</f>
+        <v>screenObjId</v>
       </c>
       <c r="F6" s="10" t="str">
+        <f t="shared" ref="F6:F11" si="4">UPPER(SUBSTITUTE($C6," ","_"))</f>
+        <v>SCREEN_OBJ_ID</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="10" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">   /* スクリーン_オブジェクトID */
+        <v xml:space="preserve">   /** スクリーンオブジェクトIDのフィールド名 */
+   public static final String FIELD_SCREEN_OBJ_ID = "screenObjId";</v>
+      </c>
+      <c r="J6" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">   /** スクリーンオブジェクトID */
    private Integer screenObjId;</v>
       </c>
-      <c r="G6" s="10" t="str">
-        <f t="shared" ref="G6:G11" si="2">"   /**"&amp;CHAR(10)&amp;"    * "&amp;B6&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;D6&amp;" get"&amp;UPPER(LEFT(C6,1))&amp;RIGHT(C6,LEN(C6)-1)&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;C6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
-        <v xml:space="preserve">   /**
-    * スクリーン_オブジェクトIDを取得します。
-    * 
-    * @return スクリーン_オブジェクトID
+      <c r="K6" s="10" t="str">
+        <f t="shared" ref="K6:K11" si="5">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G6&amp;" get"&amp;$D6&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * スクリーンオブジェクトIDを取得します。
+    * 
+    * @return スクリーンオブジェクトID
     */
    public Integer getScreenObjId(){
       return screenObjId;
    }
 </v>
       </c>
-      <c r="H6" s="10" t="str">
-        <f t="shared" ref="H6:H11" si="3">"   /**"&amp;CHAR(10)&amp;"    * "&amp;B6&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;C6&amp;" "&amp;B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;UPPER(LEFT(C6,1))&amp;RIGHT(C6,LEN(C6)-1)&amp;"("&amp;D6&amp;" "&amp;C6&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;C6&amp;" = "&amp;C6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
-        <v xml:space="preserve">   /**
-    * スクリーン_オブジェクトIDを設定します。
-    * 
-    * @param screenObjId スクリーン_オブジェクトID
+      <c r="L6" s="10" t="str">
+        <f t="shared" ref="L6:L11" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E6&amp;" "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D6&amp;"("&amp;$G6&amp;" "&amp;$E6&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E6&amp;" = "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * スクリーンオブジェクトIDを設定します。
+    * 
+    * @param screenObjId スクリーンオブジェクトID
     */
    public void setScreenObjId(Integer screenObjId){
       this.screenObjId = screenObjId;
@@ -1218,46 +1384,63 @@
 </v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>47</v>
+        <v>39</v>
+      </c>
+      <c r="D7" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>AttGrpId</v>
+      </c>
+      <c r="E7" s="10" t="str">
+        <f>LOWER(LEFT($C7,1))&amp;RIGHT($D7,LEN($D7)-1)</f>
+        <v>attGrpId</v>
       </c>
       <c r="F7" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>ATT_GRP_ID</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="10" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">   /* 属性_グループID */
+        <v xml:space="preserve">   /** 属性グループIDのフィールド名 */
+   public static final String FIELD_ATT_GRP_ID = "attGrpId";</v>
+      </c>
+      <c r="J7" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">   /** 属性グループID */
    private Integer attGrpId;</v>
       </c>
-      <c r="G7" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">   /**
-    * 属性_グループIDを取得します。
-    * 
-    * @return 属性_グループID
+      <c r="K7" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">   /**
+    * 属性グループIDを取得します。
+    * 
+    * @return 属性グループID
     */
    public Integer getAttGrpId(){
       return attGrpId;
    }
 </v>
       </c>
-      <c r="H7" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">   /**
-    * 属性_グループIDを設定します。
-    * 
-    * @param attGrpId 属性_グループID
+      <c r="L7" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   /**
+    * 属性グループIDを設定します。
+    * 
+    * @param attGrpId 属性グループID
     */
    public void setAttGrpId(Integer attGrpId){
       this.attGrpId = attGrpId;
@@ -1265,46 +1448,63 @@
 </v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>47</v>
+        <v>40</v>
+      </c>
+      <c r="D8" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>AttGrpType</v>
+      </c>
+      <c r="E8" s="10" t="str">
+        <f>LOWER(LEFT($C8,1))&amp;RIGHT($D8,LEN($D8)-1)</f>
+        <v>attGrpType</v>
       </c>
       <c r="F8" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>ATT_GRP_TYPE</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="10" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">   /* 属性_グループ種別 */
+        <v xml:space="preserve">   /** 属性グループ種別のフィールド名 */
+   public static final String FIELD_ATT_GRP_TYPE = "attGrpType";</v>
+      </c>
+      <c r="J8" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">   /** 属性グループ種別 */
    private String attGrpType;</v>
       </c>
-      <c r="G8" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">   /**
-    * 属性_グループ種別を取得します。
-    * 
-    * @return 属性_グループ種別
+      <c r="K8" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">   /**
+    * 属性グループ種別を取得します。
+    * 
+    * @return 属性グループ種別
     */
    public String getAttGrpType(){
       return attGrpType;
    }
 </v>
       </c>
-      <c r="H8" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">   /**
-    * 属性_グループ種別を設定します。
-    * 
-    * @param attGrpType 属性_グループ種別
+      <c r="L8" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   /**
+    * 属性グループ種別を設定します。
+    * 
+    * @param attGrpType 属性グループ種別
     */
    public void setAttGrpType(String attGrpType){
       this.attGrpType = attGrpType;
@@ -1312,44 +1512,61 @@
 </v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="10"/>
+        <v>41</v>
+      </c>
+      <c r="D9" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>AttGrpNm</v>
+      </c>
+      <c r="E9" s="10" t="str">
+        <f t="shared" ref="E9:E11" si="7">LOWER(LEFT($C9,1))&amp;RIGHT($D9,LEN($D9)-1)</f>
+        <v>attGrpNm</v>
+      </c>
       <c r="F9" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>ATT_GRP_NM</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">   /* 属性_グループ名称 */
+        <v xml:space="preserve">   /** 属性グループ名称のフィールド名 */
+   public static final String FIELD_ATT_GRP_NM = "attGrpNm";</v>
+      </c>
+      <c r="J9" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">   /** 属性グループ名称 */
    private String attGrpNm;</v>
       </c>
-      <c r="G9" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">   /**
-    * 属性_グループ名称を取得します。
-    * 
-    * @return 属性_グループ名称
+      <c r="K9" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">   /**
+    * 属性グループ名称を取得します。
+    * 
+    * @return 属性グループ名称
     */
    public String getAttGrpNm(){
       return attGrpNm;
    }
 </v>
       </c>
-      <c r="H9" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">   /**
-    * 属性_グループ名称を設定します。
-    * 
-    * @param attGrpNm 属性_グループ名称
+      <c r="L9" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   /**
+    * 属性グループ名称を設定します。
+    * 
+    * @param attGrpNm 属性グループ名称
     */
    public void setAttGrpNm(String attGrpNm){
       this.attGrpNm = attGrpNm;
@@ -1357,44 +1574,61 @@
 </v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="10"/>
+        <v>42</v>
+      </c>
+      <c r="D10" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>AttVal</v>
+      </c>
+      <c r="E10" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>attVal</v>
+      </c>
       <c r="F10" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>ATT_VAL</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">   /* 属性_値 */
+        <v xml:space="preserve">   /** 属性値のフィールド名 */
+   public static final String FIELD_ATT_VAL = "attVal";</v>
+      </c>
+      <c r="J10" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">   /** 属性値 */
    private String attVal;</v>
       </c>
-      <c r="G10" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">   /**
-    * 属性_値を取得します。
-    * 
-    * @return 属性_値
+      <c r="K10" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">   /**
+    * 属性値を取得します。
+    * 
+    * @return 属性値
     */
    public String getAttVal(){
       return attVal;
    }
 </v>
       </c>
-      <c r="H10" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">   /**
-    * 属性_値を設定します。
-    * 
-    * @param attVal 属性_値
+      <c r="L10" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   /**
+    * 属性値を設定します。
+    * 
+    * @param attVal 属性値
     */
    public void setAttVal(String attVal){
       this.attVal = attVal;
@@ -1402,44 +1636,61 @@
 </v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="12"/>
+        <v>43</v>
+      </c>
+      <c r="D11" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>AttCdVal</v>
+      </c>
+      <c r="E11" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>attCdVal</v>
+      </c>
       <c r="F11" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>ATT_CD_VAL</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">   /* 属性_コード値 */
+        <v xml:space="preserve">   /** 属性コード値のフィールド名 */
+   public static final String FIELD_ATT_CD_VAL = "attCdVal";</v>
+      </c>
+      <c r="J11" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">   /** 属性コード値 */
    private String attCdVal;</v>
       </c>
-      <c r="G11" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">   /**
-    * 属性_コード値を取得します。
-    * 
-    * @return 属性_コード値
+      <c r="K11" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">   /**
+    * 属性コード値を取得します。
+    * 
+    * @return 属性コード値
     */
    public String getAttCdVal(){
       return attCdVal;
    }
 </v>
       </c>
-      <c r="H11" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">   /**
-    * 属性_コード値を設定します。
-    * 
-    * @param attCdVal 属性_コード値
+      <c r="L11" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   /**
+    * 属性コード値を設定します。
+    * 
+    * @param attCdVal 属性コード値
     */
    public void setAttCdVal(String attCdVal){
       this.attCdVal = attCdVal;
@@ -1456,7 +1707,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <sheetPr>
+    <outlinePr summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
@@ -1465,36 +1719,49 @@
       <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.375" style="2" customWidth="1"/>
-    <col min="2" max="4" width="43.75" style="1" customWidth="1"/>
-    <col min="5" max="8" width="5" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="43.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.75" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="6" width="6.25" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="43.75" style="1" customWidth="1"/>
+    <col min="8" max="12" width="5" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="I1" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>0</v>
@@ -1503,61 +1770,90 @@
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="H4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <f t="shared" ref="A5" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
+      </c>
+      <c r="D5" s="6" t="str">
+        <f>SUBSTITUTE($C5," ","")</f>
+        <v>ScreenObjDtoList</v>
+      </c>
+      <c r="E5" s="6" t="str">
+        <f>LOWER(LEFT($C5,1))&amp;RIGHT($D5,LEN($D5)-1)</f>
+        <v>screenObjDtoList</v>
       </c>
       <c r="F5" s="6" t="str">
-        <f t="shared" ref="F5" si="1">"   /* "&amp;B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;D5&amp;" "&amp;C5&amp;";"</f>
-        <v xml:space="preserve">   /* スクリーン_オブジェクト_DTOリスト */
+        <f>UPPER(SUBSTITUTE($C5," ","_"))</f>
+        <v>SCREEN_OBJ_DTO_LIST</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="6" t="str">
+        <f>"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
+        <v xml:space="preserve">   /** スクリーンオブジェクトDTOリストのフィールド名 */
+   public static final String FIELD_SCREEN_OBJ_DTO_LIST = "screenObjDtoList";</v>
+      </c>
+      <c r="J5" s="6" t="str">
+        <f>"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G5&amp;" "&amp;$E5&amp;";"</f>
+        <v xml:space="preserve">   /** スクリーンオブジェクトDTOリスト */
    private ArrayList&lt;ScreenObjDto&gt; screenObjDtoList;</v>
       </c>
-      <c r="G5" s="6" t="str">
-        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;D5&amp;" get"&amp;UPPER(LEFT(C5,1))&amp;RIGHT(C5,LEN(C5)-1)&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;C5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
-        <v xml:space="preserve">   /**
-    * スクリーン_オブジェクト_DTOリストを取得します。
-    * 
-    * @return スクリーン_オブジェクト_DTOリスト
+      <c r="K5" s="6" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G5&amp;" get"&amp;$D5&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * スクリーンオブジェクトDTOリストを取得します。
+    * 
+    * @return スクリーンオブジェクトDTOリスト
     */
    public ArrayList&lt;ScreenObjDto&gt; getScreenObjDtoList(){
       return screenObjDtoList;
    }
 </v>
       </c>
-      <c r="H5" s="6" t="str">
-        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;C5&amp;" "&amp;B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;UPPER(LEFT(C5,1))&amp;RIGHT(C5,LEN(C5)-1)&amp;"("&amp;D5&amp;" "&amp;C5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;C5&amp;" = "&amp;C5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
-        <v xml:space="preserve">   /**
-    * スクリーン_オブジェクト_DTOリストを設定します。
-    * 
-    * @param screenObjDtoList スクリーン_オブジェクト_DTOリスト
+      <c r="L5" s="6" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E5&amp;" "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D5&amp;"("&amp;$G5&amp;" "&amp;$E5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E5&amp;" = "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * スクリーンオブジェクトDTOリストを設定します。
+    * 
+    * @param screenObjDtoList スクリーンオブジェクトDTOリスト
     */
    public void setScreenObjDtoList(ArrayList&lt;ScreenObjDto&gt; screenObjDtoList){
       this.screenObjDtoList = screenObjDtoList;
@@ -1574,7 +1870,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <sheetPr>
+    <outlinePr summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
@@ -1583,40 +1882,49 @@
       <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.375" style="2" customWidth="1"/>
-    <col min="2" max="4" width="43.75" style="1" customWidth="1"/>
-    <col min="5" max="8" width="5" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="43.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.75" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="6" width="6.25" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="43.75" style="1" customWidth="1"/>
+    <col min="8" max="12" width="5" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="14"/>
+        <v>21</v>
+      </c>
+      <c r="C1" s="16"/>
       <c r="D1" s="14"/>
-      <c r="F1" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="I1" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="14"/>
+        <v>28</v>
+      </c>
+      <c r="C2" s="16"/>
       <c r="D2" s="14"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>0</v>
@@ -1625,45 +1933,74 @@
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="H4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <f t="shared" ref="A5:A9" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>47</v>
+        <v>60</v>
+      </c>
+      <c r="D5" s="8" t="str">
+        <f>SUBSTITUTE($C5," ","")</f>
+        <v>LangDiv</v>
+      </c>
+      <c r="E5" s="8" t="str">
+        <f>LOWER(LEFT($C5,1))&amp;RIGHT($D5,LEN($D5)-1)</f>
+        <v>langDiv</v>
       </c>
       <c r="F5" s="8" t="str">
-        <f t="shared" ref="F5:F7" si="1">"   /* "&amp;B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;D5&amp;" "&amp;C5&amp;";"</f>
-        <v xml:space="preserve">   /* 言語区分 */
+        <f>UPPER(SUBSTITUTE($C5," ","_"))</f>
+        <v>LANG_DIV</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="8" t="str">
+        <f t="shared" ref="I5:I9" si="1">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
+        <v xml:space="preserve">   /** 言語区分のフィールド名 */
+   public static final String FIELD_LANG_DIV = "langDiv";</v>
+      </c>
+      <c r="J5" s="8" t="str">
+        <f t="shared" ref="J5:J9" si="2">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G5&amp;" "&amp;$E5&amp;";"</f>
+        <v xml:space="preserve">   /** 言語区分 */
    private String langDiv;</v>
       </c>
-      <c r="G5" s="8" t="str">
-        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;D5&amp;" get"&amp;UPPER(LEFT(C5,1))&amp;RIGHT(C5,LEN(C5)-1)&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;C5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+      <c r="K5" s="8" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G5&amp;" get"&amp;$D5&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
     * 言語区分を取得します。
     * 
@@ -1674,8 +2011,8 @@
    }
 </v>
       </c>
-      <c r="H5" s="8" t="str">
-        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;C5&amp;" "&amp;B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;UPPER(LEFT(C5,1))&amp;RIGHT(C5,LEN(C5)-1)&amp;"("&amp;D5&amp;" "&amp;C5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;C5&amp;" = "&amp;C5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+      <c r="L5" s="8" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E5&amp;" "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D5&amp;"("&amp;$G5&amp;" "&amp;$E5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E5&amp;" = "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
     * 言語区分を設定します。
     * 
@@ -1687,30 +2024,47 @@
 </v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>47</v>
+        <v>38</v>
+      </c>
+      <c r="D6" s="10" t="str">
+        <f t="shared" ref="D6:D9" si="3">SUBSTITUTE($C6," ","")</f>
+        <v>ScreenObjId</v>
+      </c>
+      <c r="E6" s="10" t="str">
+        <f>LOWER(LEFT($C6,1))&amp;RIGHT($D6,LEN($D6)-1)</f>
+        <v>screenObjId</v>
       </c>
       <c r="F6" s="10" t="str">
+        <f t="shared" ref="F6:F9" si="4">UPPER(SUBSTITUTE($C6," ","_"))</f>
+        <v>SCREEN_OBJ_ID</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="10" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">   /* スクリーンオブジェクトID */
+        <v xml:space="preserve">   /** スクリーンオブジェクトIDのフィールド名 */
+   public static final String FIELD_SCREEN_OBJ_ID = "screenObjId";</v>
+      </c>
+      <c r="J6" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">   /** スクリーンオブジェクトID */
    private Integer screenObjId;</v>
       </c>
-      <c r="G6" s="10" t="str">
-        <f t="shared" ref="G6:G7" si="2">"   /**"&amp;CHAR(10)&amp;"    * "&amp;B6&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;D6&amp;" get"&amp;UPPER(LEFT(C6,1))&amp;RIGHT(C6,LEN(C6)-1)&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;C6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+      <c r="K6" s="10" t="str">
+        <f t="shared" ref="K6:K9" si="5">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G6&amp;" get"&amp;$D6&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
     * スクリーンオブジェクトIDを取得します。
     * 
@@ -1721,8 +2075,8 @@
    }
 </v>
       </c>
-      <c r="H6" s="10" t="str">
-        <f t="shared" ref="H6:H7" si="3">"   /**"&amp;CHAR(10)&amp;"    * "&amp;B6&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;C6&amp;" "&amp;B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;UPPER(LEFT(C6,1))&amp;RIGHT(C6,LEN(C6)-1)&amp;"("&amp;D6&amp;" "&amp;C6&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;C6&amp;" = "&amp;C6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+      <c r="L6" s="10" t="str">
+        <f t="shared" ref="L6:L9" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E6&amp;" "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D6&amp;"("&amp;$G6&amp;" "&amp;$E6&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E6&amp;" = "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
     * スクリーンオブジェクトIDを設定します。
     * 
@@ -1734,28 +2088,47 @@
 </v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="10"/>
+        <v>61</v>
+      </c>
+      <c r="D7" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>RegionId</v>
+      </c>
+      <c r="E7" s="10" t="str">
+        <f>LOWER(LEFT($C7,1))&amp;RIGHT($D7,LEN($D7)-1)</f>
+        <v>regionId</v>
+      </c>
       <c r="F7" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>REGION_ID</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="10" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">   /* 地域ID */
+        <v xml:space="preserve">   /** 地域IDのフィールド名 */
+   public static final String FIELD_REGION_ID = "regionId";</v>
+      </c>
+      <c r="J7" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">   /** 地域ID */
    private Integer regionId;</v>
       </c>
-      <c r="G7" s="10" t="str">
-        <f t="shared" si="2"/>
+      <c r="K7" s="10" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve">   /**
     * 地域IDを取得します。
     * 
@@ -1766,8 +2139,8 @@
    }
 </v>
       </c>
-      <c r="H7" s="10" t="str">
-        <f t="shared" si="3"/>
+      <c r="L7" s="10" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">   /**
     * 地域IDを設定します。
     * 
@@ -1779,28 +2152,47 @@
 </v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="16"/>
+      <c r="B8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>FacilityGrpId</v>
+      </c>
+      <c r="E8" s="10" t="str">
+        <f>LOWER(LEFT($C8,1))&amp;RIGHT($D8,LEN($D8)-1)</f>
+        <v>facilityGrpId</v>
+      </c>
       <c r="F8" s="10" t="str">
-        <f t="shared" ref="F8:F9" si="4">"   /* "&amp;B8&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;D8&amp;" "&amp;C8&amp;";"</f>
-        <v xml:space="preserve">   /* 施設グループID */
+        <f t="shared" si="4"/>
+        <v>FACILITY_GRP_ID</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">   /** 施設グループIDのフィールド名 */
+   public static final String FIELD_FACILITY_GRP_ID = "facilityGrpId";</v>
+      </c>
+      <c r="J8" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">   /** 施設グループID */
    private Integer facilityGrpId;</v>
       </c>
-      <c r="G8" s="10" t="str">
-        <f t="shared" ref="G8:G9" si="5">"   /**"&amp;CHAR(10)&amp;"    * "&amp;B8&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;B8&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;D8&amp;" get"&amp;UPPER(LEFT(C8,1))&amp;RIGHT(C8,LEN(C8)-1)&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;C8&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+      <c r="K8" s="10" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve">   /**
     * 施設グループIDを取得します。
     * 
@@ -1811,8 +2203,8 @@
    }
 </v>
       </c>
-      <c r="H8" s="10" t="str">
-        <f t="shared" ref="H8:H9" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;B8&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;C8&amp;" "&amp;B8&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;UPPER(LEFT(C8,1))&amp;RIGHT(C8,LEN(C8)-1)&amp;"("&amp;D8&amp;" "&amp;C8&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;C8&amp;" = "&amp;C8&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+      <c r="L8" s="10" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">   /**
     * 施設グループIDを設定します。
     * 
@@ -1824,27 +2216,44 @@
 </v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="12"/>
+        <v>63</v>
+      </c>
+      <c r="D9" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>FacilityId</v>
+      </c>
+      <c r="E9" s="12" t="str">
+        <f t="shared" ref="E9" si="7">LOWER(LEFT($C9,1))&amp;RIGHT($D9,LEN($D9)-1)</f>
+        <v>facilityId</v>
+      </c>
       <c r="F9" s="12" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   /* 施設ID */
+        <v>FACILITY_ID</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">   /** 施設IDのフィールド名 */
+   public static final String FIELD_FACILITY_ID = "facilityId";</v>
+      </c>
+      <c r="J9" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">   /** 施設ID */
    private Integer facilityId;</v>
       </c>
-      <c r="G9" s="12" t="str">
+      <c r="K9" s="12" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">   /**
     * 施設IDを取得します。
@@ -1856,7 +2265,7 @@
    }
 </v>
       </c>
-      <c r="H9" s="12" t="str">
+      <c r="L9" s="12" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">   /**
     * 施設IDを設定します。

--- a/03_設計/06_データオブジェクト/データオブジェクト定義書.xlsx
+++ b/03_設計/06_データオブジェクト/データオブジェクト定義書.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project Files\01. MELIP\02_SVN (Document)\03_設計\06_データオブジェクト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n-suzuki\git\melip-doc\03_設計\06_データオブジェクト\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12195"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12195" tabRatio="806"/>
   </bookViews>
   <sheets>
     <sheet name="スクリーンDTO" sheetId="5" r:id="rId1"/>
     <sheet name="スクリーンオブジェクトDTO" sheetId="7" r:id="rId2"/>
     <sheet name="スクリーンオブジェクトグループDTO" sheetId="8" r:id="rId3"/>
     <sheet name="リクエストスクリーンDTO" sheetId="9" r:id="rId4"/>
+    <sheet name="属性DTO" sheetId="10" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="69">
   <si>
     <t>論理名</t>
     <rPh sb="0" eb="3">
@@ -67,16 +68,6 @@
   <si>
     <t>Integer</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ArrayList&lt;ScreenObjDto&gt;</t>
-  </si>
-  <si>
-    <t>ArrayList&lt;ScreenObjDto&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ArrayList&lt;ScreenObjGrpDto&gt;</t>
   </si>
   <si>
     <t>No.</t>
@@ -342,6 +333,44 @@
   </si>
   <si>
     <t>Facility Id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>属性DTO</t>
+    <rPh sb="0" eb="2">
+      <t>ゾクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>属性DTOリスト</t>
+    <rPh sb="0" eb="2">
+      <t>ゾクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AttDto</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Att Dto List</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>List&lt;AttDto&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>List&lt;ScreenObjDto&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>List&lt;ScreenObjGrpDto&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>List&lt;ScreenObjDto&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -840,10 +869,10 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="14"/>
@@ -851,15 +880,15 @@
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
       <c r="I1" s="15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="14"/>
@@ -869,7 +898,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>0</v>
@@ -878,22 +907,22 @@
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>5</v>
@@ -911,10 +940,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D5" s="8" t="str">
         <f>SUBSTITUTE($C5," ","")</f>
@@ -932,7 +961,7 @@
         <v>6</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I5" s="8" t="str">
         <f t="shared" ref="I5:I8" si="1">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
@@ -975,10 +1004,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D6" s="10" t="str">
         <f t="shared" ref="D6:D8" si="3">SUBSTITUTE($C6," ","")</f>
@@ -996,7 +1025,7 @@
         <v>6</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I6" s="10" t="str">
         <f t="shared" si="1"/>
@@ -1039,10 +1068,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D7" s="10" t="str">
         <f t="shared" si="3"/>
@@ -1057,7 +1086,7 @@
         <v>SCREEN_OBJ_DTO_LIST</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10" t="str">
@@ -1068,7 +1097,7 @@
       <c r="J7" s="10" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">   /** スクリーンオブジェクリスト */
-   private ArrayList&lt;ScreenObjDto&gt; screenObjDtoList;</v>
+   private List&lt;ScreenObjDto&gt; screenObjDtoList;</v>
       </c>
       <c r="K7" s="10" t="str">
         <f t="shared" si="5"/>
@@ -1077,7 +1106,7 @@
     * 
     * @return スクリーンオブジェクリスト
     */
-   public ArrayList&lt;ScreenObjDto&gt; getScreenObjDtoList(){
+   public List&lt;ScreenObjDto&gt; getScreenObjDtoList(){
       return screenObjDtoList;
    }
 </v>
@@ -1089,7 +1118,7 @@
     * 
     * @param screenObjDtoList スクリーンオブジェクリスト
     */
-   public void setScreenObjDtoList(ArrayList&lt;ScreenObjDto&gt; screenObjDtoList){
+   public void setScreenObjDtoList(List&lt;ScreenObjDto&gt; screenObjDtoList){
       this.screenObjDtoList = screenObjDtoList;
    }
 </v>
@@ -1101,10 +1130,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D8" s="12" t="str">
         <f t="shared" si="3"/>
@@ -1119,7 +1148,7 @@
         <v>SCREEN_OBJ_GRP_DTO_LIST</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12" t="str">
@@ -1130,7 +1159,7 @@
       <c r="J8" s="12" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">   /** スクリーンオブジェクトグループリスト */
-   private ArrayList&lt;ScreenObjGrpDto&gt; screenObjGrpDtoList;</v>
+   private List&lt;ScreenObjGrpDto&gt; screenObjGrpDtoList;</v>
       </c>
       <c r="K8" s="12" t="str">
         <f t="shared" si="5"/>
@@ -1139,7 +1168,7 @@
     * 
     * @return スクリーンオブジェクトグループリスト
     */
-   public ArrayList&lt;ScreenObjGrpDto&gt; getScreenObjGrpDtoList(){
+   public List&lt;ScreenObjGrpDto&gt; getScreenObjGrpDtoList(){
       return screenObjGrpDtoList;
    }
 </v>
@@ -1151,7 +1180,7 @@
     * 
     * @param screenObjGrpDtoList スクリーンオブジェクトグループリスト
     */
-   public void setScreenObjGrpDtoList(ArrayList&lt;ScreenObjGrpDto&gt; screenObjGrpDtoList){
+   public void setScreenObjGrpDtoList(List&lt;ScreenObjGrpDto&gt; screenObjGrpDtoList){
       this.screenObjGrpDtoList = screenObjGrpDtoList;
    }
 </v>
@@ -1169,7 +1198,7 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
@@ -1191,10 +1220,10 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="14"/>
@@ -1202,15 +1231,15 @@
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
       <c r="I1" s="15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="14"/>
@@ -1220,7 +1249,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>0</v>
@@ -1229,22 +1258,22 @@
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>5</v>
@@ -1258,14 +1287,14 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
-        <f t="shared" ref="A5:A11" si="0">ROW()-4</f>
+        <f t="shared" ref="A5:A7" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D5" s="8" t="str">
         <f>SUBSTITUTE($C5," ","")</f>
@@ -1283,15 +1312,15 @@
         <v>7</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I5" s="8" t="str">
-        <f t="shared" ref="I5:I11" si="1">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
+        <f t="shared" ref="I5:I7" si="1">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
         <v xml:space="preserve">   /** レイアウトオブジェクトIDのフィールド名 */
    public static final String FIELD_LAYOUT_OBJ_ID = "layoutObjId";</v>
       </c>
       <c r="J5" s="8" t="str">
-        <f t="shared" ref="J5:J11" si="2">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G5&amp;" "&amp;$E5&amp;";"</f>
+        <f t="shared" ref="J5:J7" si="2">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G5&amp;" "&amp;$E5&amp;";"</f>
         <v xml:space="preserve">   /** レイアウトオブジェクトID */
    private Integer layoutObjId;</v>
       </c>
@@ -1326,13 +1355,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D6" s="10" t="str">
-        <f t="shared" ref="D6:D11" si="3">SUBSTITUTE($C6," ","")</f>
+        <f t="shared" ref="D6:D7" si="3">SUBSTITUTE($C6," ","")</f>
         <v>ScreenObjId</v>
       </c>
       <c r="E6" s="10" t="str">
@@ -1340,14 +1369,14 @@
         <v>screenObjId</v>
       </c>
       <c r="F6" s="10" t="str">
-        <f t="shared" ref="F6:F11" si="4">UPPER(SUBSTITUTE($C6," ","_"))</f>
+        <f t="shared" ref="F6:F7" si="4">UPPER(SUBSTITUTE($C6," ","_"))</f>
         <v>SCREEN_OBJ_ID</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I6" s="10" t="str">
         <f t="shared" si="1"/>
@@ -1360,7 +1389,7 @@
    private Integer screenObjId;</v>
       </c>
       <c r="K6" s="10" t="str">
-        <f t="shared" ref="K6:K11" si="5">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G6&amp;" get"&amp;$D6&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <f t="shared" ref="K6:K7" si="5">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G6&amp;" get"&amp;$D6&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
     * スクリーンオブジェクトIDを取得します。
     * 
@@ -1372,7 +1401,7 @@
 </v>
       </c>
       <c r="L6" s="10" t="str">
-        <f t="shared" ref="L6:L11" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E6&amp;" "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D6&amp;"("&amp;$G6&amp;" "&amp;$E6&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E6&amp;" = "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <f t="shared" ref="L6:L7" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E6&amp;" "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D6&amp;"("&amp;$G6&amp;" "&amp;$E6&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E6&amp;" = "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
     * スクリーンオブジェクトIDを設定します。
     * 
@@ -1385,315 +1414,65 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="9">
+      <c r="A7" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="10" t="str">
+      <c r="B7" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>AttGrpId</v>
-      </c>
-      <c r="E7" s="10" t="str">
+        <v>AttDtoList</v>
+      </c>
+      <c r="E7" s="12" t="str">
         <f>LOWER(LEFT($C7,1))&amp;RIGHT($D7,LEN($D7)-1)</f>
-        <v>attGrpId</v>
-      </c>
-      <c r="F7" s="10" t="str">
+        <v>attDtoList</v>
+      </c>
+      <c r="F7" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>ATT_GRP_ID</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="10" t="str">
+        <v>ATT_DTO_LIST</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">   /** 属性グループIDのフィールド名 */
-   public static final String FIELD_ATT_GRP_ID = "attGrpId";</v>
-      </c>
-      <c r="J7" s="10" t="str">
+        <v xml:space="preserve">   /** 属性DTOリストのフィールド名 */
+   public static final String FIELD_ATT_DTO_LIST = "attDtoList";</v>
+      </c>
+      <c r="J7" s="12" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">   /** 属性グループID */
-   private Integer attGrpId;</v>
-      </c>
-      <c r="K7" s="10" t="str">
+        <v xml:space="preserve">   /** 属性DTOリスト */
+   private List&lt;AttDto&gt; attDtoList;</v>
+      </c>
+      <c r="K7" s="12" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">   /**
-    * 属性グループIDを取得します。
-    * 
-    * @return 属性グループID
-    */
-   public Integer getAttGrpId(){
-      return attGrpId;
-   }
-</v>
-      </c>
-      <c r="L7" s="10" t="str">
+    * 属性DTOリストを取得します。
+    * 
+    * @return 属性DTOリスト
+    */
+   public List&lt;AttDto&gt; getAttDtoList(){
+      return attDtoList;
+   }
+</v>
+      </c>
+      <c r="L7" s="12" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">   /**
-    * 属性グループIDを設定します。
-    * 
-    * @param attGrpId 属性グループID
-    */
-   public void setAttGrpId(Integer attGrpId){
-      this.attGrpId = attGrpId;
-   }
-</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="9">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>AttGrpType</v>
-      </c>
-      <c r="E8" s="10" t="str">
-        <f>LOWER(LEFT($C8,1))&amp;RIGHT($D8,LEN($D8)-1)</f>
-        <v>attGrpType</v>
-      </c>
-      <c r="F8" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>ATT_GRP_TYPE</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   /** 属性グループ種別のフィールド名 */
-   public static final String FIELD_ATT_GRP_TYPE = "attGrpType";</v>
-      </c>
-      <c r="J8" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">   /** 属性グループ種別 */
-   private String attGrpType;</v>
-      </c>
-      <c r="K8" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">   /**
-    * 属性グループ種別を取得します。
-    * 
-    * @return 属性グループ種別
-    */
-   public String getAttGrpType(){
-      return attGrpType;
-   }
-</v>
-      </c>
-      <c r="L8" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">   /**
-    * 属性グループ種別を設定します。
-    * 
-    * @param attGrpType 属性グループ種別
-    */
-   public void setAttGrpType(String attGrpType){
-      this.attGrpType = attGrpType;
-   }
-</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="9">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>AttGrpNm</v>
-      </c>
-      <c r="E9" s="10" t="str">
-        <f t="shared" ref="E9:E11" si="7">LOWER(LEFT($C9,1))&amp;RIGHT($D9,LEN($D9)-1)</f>
-        <v>attGrpNm</v>
-      </c>
-      <c r="F9" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>ATT_GRP_NM</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   /** 属性グループ名称のフィールド名 */
-   public static final String FIELD_ATT_GRP_NM = "attGrpNm";</v>
-      </c>
-      <c r="J9" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">   /** 属性グループ名称 */
-   private String attGrpNm;</v>
-      </c>
-      <c r="K9" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">   /**
-    * 属性グループ名称を取得します。
-    * 
-    * @return 属性グループ名称
-    */
-   public String getAttGrpNm(){
-      return attGrpNm;
-   }
-</v>
-      </c>
-      <c r="L9" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">   /**
-    * 属性グループ名称を設定します。
-    * 
-    * @param attGrpNm 属性グループ名称
-    */
-   public void setAttGrpNm(String attGrpNm){
-      this.attGrpNm = attGrpNm;
-   }
-</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="9">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>AttVal</v>
-      </c>
-      <c r="E10" s="10" t="str">
-        <f t="shared" si="7"/>
-        <v>attVal</v>
-      </c>
-      <c r="F10" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>ATT_VAL</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   /** 属性値のフィールド名 */
-   public static final String FIELD_ATT_VAL = "attVal";</v>
-      </c>
-      <c r="J10" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">   /** 属性値 */
-   private String attVal;</v>
-      </c>
-      <c r="K10" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">   /**
-    * 属性値を取得します。
-    * 
-    * @return 属性値
-    */
-   public String getAttVal(){
-      return attVal;
-   }
-</v>
-      </c>
-      <c r="L10" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">   /**
-    * 属性値を設定します。
-    * 
-    * @param attVal 属性値
-    */
-   public void setAttVal(String attVal){
-      this.attVal = attVal;
-   }
-</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="11">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>AttCdVal</v>
-      </c>
-      <c r="E11" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>attCdVal</v>
-      </c>
-      <c r="F11" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>ATT_CD_VAL</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   /** 属性コード値のフィールド名 */
-   public static final String FIELD_ATT_CD_VAL = "attCdVal";</v>
-      </c>
-      <c r="J11" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">   /** 属性コード値 */
-   private String attCdVal;</v>
-      </c>
-      <c r="K11" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">   /**
-    * 属性コード値を取得します。
-    * 
-    * @return 属性コード値
-    */
-   public String getAttCdVal(){
-      return attCdVal;
-   }
-</v>
-      </c>
-      <c r="L11" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">   /**
-    * 属性コード値を設定します。
-    * 
-    * @param attCdVal 属性コード値
-    */
-   public void setAttCdVal(String attCdVal){
-      this.attCdVal = attCdVal;
+    * 属性DTOリストを設定します。
+    * 
+    * @param attDtoList 属性DTOリスト
+    */
+   public void setAttDtoList(List&lt;AttDto&gt; attDtoList){
+      this.attDtoList = attDtoList;
    }
 </v>
       </c>
@@ -1732,10 +1511,10 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="14"/>
@@ -1743,15 +1522,15 @@
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
       <c r="I1" s="15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="14"/>
@@ -1761,7 +1540,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>0</v>
@@ -1770,22 +1549,22 @@
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>5</v>
@@ -1803,10 +1582,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D5" s="6" t="str">
         <f>SUBSTITUTE($C5," ","")</f>
@@ -1821,10 +1600,10 @@
         <v>SCREEN_OBJ_DTO_LIST</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I5" s="6" t="str">
         <f>"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
@@ -1834,7 +1613,7 @@
       <c r="J5" s="6" t="str">
         <f>"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G5&amp;" "&amp;$E5&amp;";"</f>
         <v xml:space="preserve">   /** スクリーンオブジェクトDTOリスト */
-   private ArrayList&lt;ScreenObjDto&gt; screenObjDtoList;</v>
+   private List&lt;ScreenObjDto&gt; screenObjDtoList;</v>
       </c>
       <c r="K5" s="6" t="str">
         <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G5&amp;" get"&amp;$D5&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
@@ -1843,7 +1622,7 @@
     * 
     * @return スクリーンオブジェクトDTOリスト
     */
-   public ArrayList&lt;ScreenObjDto&gt; getScreenObjDtoList(){
+   public List&lt;ScreenObjDto&gt; getScreenObjDtoList(){
       return screenObjDtoList;
    }
 </v>
@@ -1855,7 +1634,7 @@
     * 
     * @param screenObjDtoList スクリーンオブジェクトDTOリスト
     */
-   public void setScreenObjDtoList(ArrayList&lt;ScreenObjDto&gt; screenObjDtoList){
+   public void setScreenObjDtoList(List&lt;ScreenObjDto&gt; screenObjDtoList){
       this.screenObjDtoList = screenObjDtoList;
    }
 </v>
@@ -1895,10 +1674,10 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="14"/>
@@ -1906,15 +1685,15 @@
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
       <c r="I1" s="15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="14"/>
@@ -1924,7 +1703,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>0</v>
@@ -1933,22 +1712,22 @@
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>5</v>
@@ -1966,10 +1745,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D5" s="8" t="str">
         <f>SUBSTITUTE($C5," ","")</f>
@@ -1984,10 +1763,10 @@
         <v>LANG_DIV</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I5" s="8" t="str">
         <f t="shared" ref="I5:I9" si="1">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
@@ -2030,10 +1809,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D6" s="10" t="str">
         <f t="shared" ref="D6:D9" si="3">SUBSTITUTE($C6," ","")</f>
@@ -2051,7 +1830,7 @@
         <v>6</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I6" s="10" t="str">
         <f t="shared" si="1"/>
@@ -2094,10 +1873,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D7" s="10" t="str">
         <f t="shared" si="3"/>
@@ -2115,7 +1894,7 @@
         <v>6</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I7" s="10" t="str">
         <f t="shared" si="1"/>
@@ -2158,10 +1937,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D8" s="10" t="str">
         <f t="shared" si="3"/>
@@ -2179,7 +1958,7 @@
         <v>6</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I8" s="10" t="str">
         <f t="shared" si="1"/>
@@ -2222,10 +2001,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D9" s="12" t="str">
         <f t="shared" si="3"/>
@@ -2274,6 +2053,419 @@
     */
    public void setFacilityId(Integer facilityId){
       this.facilityId = facilityId;
+   }
+</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:L9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="43.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.75" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="6" width="6.25" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="43.75" style="1" customWidth="1"/>
+    <col min="8" max="12" width="5" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="I1" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="9">
+        <f t="shared" ref="A5:A9" si="0">ROW()-4</f>
+        <v>1</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="10" t="str">
+        <f t="shared" ref="D5:D9" si="1">SUBSTITUTE($C5," ","")</f>
+        <v>AttGrpId</v>
+      </c>
+      <c r="E5" s="10" t="str">
+        <f>LOWER(LEFT($C5,1))&amp;RIGHT($D5,LEN($D5)-1)</f>
+        <v>attGrpId</v>
+      </c>
+      <c r="F5" s="10" t="str">
+        <f t="shared" ref="F5:F9" si="2">UPPER(SUBSTITUTE($C5," ","_"))</f>
+        <v>ATT_GRP_ID</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="10" t="str">
+        <f t="shared" ref="I5:I9" si="3">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
+        <v xml:space="preserve">   /** 属性グループIDのフィールド名 */
+   public static final String FIELD_ATT_GRP_ID = "attGrpId";</v>
+      </c>
+      <c r="J5" s="10" t="str">
+        <f t="shared" ref="J5:J9" si="4">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G5&amp;" "&amp;$E5&amp;";"</f>
+        <v xml:space="preserve">   /** 属性グループID */
+   private Integer attGrpId;</v>
+      </c>
+      <c r="K5" s="10" t="str">
+        <f t="shared" ref="K5:K9" si="5">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G5&amp;" get"&amp;$D5&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 属性グループIDを取得します。
+    * 
+    * @return 属性グループID
+    */
+   public Integer getAttGrpId(){
+      return attGrpId;
+   }
+</v>
+      </c>
+      <c r="L5" s="10" t="str">
+        <f t="shared" ref="L5:L9" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E5&amp;" "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D5&amp;"("&amp;$G5&amp;" "&amp;$E5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E5&amp;" = "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 属性グループIDを設定します。
+    * 
+    * @param attGrpId 属性グループID
+    */
+   public void setAttGrpId(Integer attGrpId){
+      this.attGrpId = attGrpId;
+   }
+</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>AttGrpType</v>
+      </c>
+      <c r="E6" s="10" t="str">
+        <f>LOWER(LEFT($C6,1))&amp;RIGHT($D6,LEN($D6)-1)</f>
+        <v>attGrpType</v>
+      </c>
+      <c r="F6" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>ATT_GRP_TYPE</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">   /** 属性グループ種別のフィールド名 */
+   public static final String FIELD_ATT_GRP_TYPE = "attGrpType";</v>
+      </c>
+      <c r="J6" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">   /** 属性グループ種別 */
+   private String attGrpType;</v>
+      </c>
+      <c r="K6" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">   /**
+    * 属性グループ種別を取得します。
+    * 
+    * @return 属性グループ種別
+    */
+   public String getAttGrpType(){
+      return attGrpType;
+   }
+</v>
+      </c>
+      <c r="L6" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   /**
+    * 属性グループ種別を設定します。
+    * 
+    * @param attGrpType 属性グループ種別
+    */
+   public void setAttGrpType(String attGrpType){
+      this.attGrpType = attGrpType;
+   }
+</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>AttGrpNm</v>
+      </c>
+      <c r="E7" s="10" t="str">
+        <f t="shared" ref="E7:E9" si="7">LOWER(LEFT($C7,1))&amp;RIGHT($D7,LEN($D7)-1)</f>
+        <v>attGrpNm</v>
+      </c>
+      <c r="F7" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>ATT_GRP_NM</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">   /** 属性グループ名称のフィールド名 */
+   public static final String FIELD_ATT_GRP_NM = "attGrpNm";</v>
+      </c>
+      <c r="J7" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">   /** 属性グループ名称 */
+   private String attGrpNm;</v>
+      </c>
+      <c r="K7" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">   /**
+    * 属性グループ名称を取得します。
+    * 
+    * @return 属性グループ名称
+    */
+   public String getAttGrpNm(){
+      return attGrpNm;
+   }
+</v>
+      </c>
+      <c r="L7" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   /**
+    * 属性グループ名称を設定します。
+    * 
+    * @param attGrpNm 属性グループ名称
+    */
+   public void setAttGrpNm(String attGrpNm){
+      this.attGrpNm = attGrpNm;
+   }
+</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>AttVal</v>
+      </c>
+      <c r="E8" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>attVal</v>
+      </c>
+      <c r="F8" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>ATT_VAL</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">   /** 属性値のフィールド名 */
+   public static final String FIELD_ATT_VAL = "attVal";</v>
+      </c>
+      <c r="J8" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">   /** 属性値 */
+   private String attVal;</v>
+      </c>
+      <c r="K8" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">   /**
+    * 属性値を取得します。
+    * 
+    * @return 属性値
+    */
+   public String getAttVal(){
+      return attVal;
+   }
+</v>
+      </c>
+      <c r="L8" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   /**
+    * 属性値を設定します。
+    * 
+    * @param attVal 属性値
+    */
+   public void setAttVal(String attVal){
+      this.attVal = attVal;
+   }
+</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>AttCdVal</v>
+      </c>
+      <c r="E9" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>attCdVal</v>
+      </c>
+      <c r="F9" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>ATT_CD_VAL</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">   /** 属性コード値のフィールド名 */
+   public static final String FIELD_ATT_CD_VAL = "attCdVal";</v>
+      </c>
+      <c r="J9" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">   /** 属性コード値 */
+   private String attCdVal;</v>
+      </c>
+      <c r="K9" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">   /**
+    * 属性コード値を取得します。
+    * 
+    * @return 属性コード値
+    */
+   public String getAttCdVal(){
+      return attCdVal;
+   }
+</v>
+      </c>
+      <c r="L9" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   /**
+    * 属性コード値を設定します。
+    * 
+    * @param attCdVal 属性コード値
+    */
+   public void setAttCdVal(String attCdVal){
+      this.attCdVal = attCdVal;
    }
 </v>
       </c>

--- a/03_設計/06_データオブジェクト/データオブジェクト定義書.xlsx
+++ b/03_設計/06_データオブジェクト/データオブジェクト定義書.xlsx
@@ -17,6 +17,7 @@
     <sheet name="スクリーンオブジェクトグループDTO" sheetId="8" r:id="rId3"/>
     <sheet name="リクエストスクリーンDTO" sheetId="9" r:id="rId4"/>
     <sheet name="属性DTO" sheetId="10" r:id="rId5"/>
+    <sheet name="施設DTO" sheetId="11" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="74">
   <si>
     <t>論理名</t>
     <rPh sb="0" eb="3">
@@ -108,10 +109,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※「field」「getter」「setter」はテキストエディタに貼付け後、"と\rを駆除してください。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>○</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -371,6 +368,60 @@
   </si>
   <si>
     <t>List&lt;ScreenObjDto&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FacilityDto</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>施設DTO</t>
+    <rPh sb="0" eb="2">
+      <t>シセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Facility Id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「name」「field」「getter/setter」の順にコピーしてサクラエディタに貼り付け後、</t>
+    <rPh sb="29" eb="30">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同フォルダ内の「データオブジェクト用クラス作成マクロ.mac」を実行してください。</t>
+    <rPh sb="0" eb="1">
+      <t>ドウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジッコウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -507,7 +558,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -558,6 +609,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -879,8 +936,11 @@
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
+      <c r="H1" s="18" t="s">
+        <v>72</v>
+      </c>
       <c r="I1" s="15" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -888,13 +948,16 @@
         <v>12</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
+      <c r="I2" s="17" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
@@ -907,13 +970,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>2</v>
@@ -922,7 +985,7 @@
         <v>9</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>5</v>
@@ -940,10 +1003,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="8" t="str">
         <f>SUBSTITUTE($C5," ","")</f>
@@ -961,7 +1024,7 @@
         <v>6</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I5" s="8" t="str">
         <f t="shared" ref="I5:I8" si="1">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
@@ -1004,10 +1067,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="10" t="str">
         <f t="shared" ref="D6:D8" si="3">SUBSTITUTE($C6," ","")</f>
@@ -1025,7 +1088,7 @@
         <v>6</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I6" s="10" t="str">
         <f t="shared" si="1"/>
@@ -1068,10 +1131,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="10" t="str">
         <f t="shared" si="3"/>
@@ -1086,7 +1149,7 @@
         <v>SCREEN_OBJ_DTO_LIST</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10" t="str">
@@ -1130,10 +1193,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="12" t="str">
         <f t="shared" si="3"/>
@@ -1148,7 +1211,7 @@
         <v>SCREEN_OBJ_GRP_DTO_LIST</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12" t="str">
@@ -1230,8 +1293,11 @@
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
+      <c r="H1" s="18" t="s">
+        <v>72</v>
+      </c>
       <c r="I1" s="15" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -1239,13 +1305,16 @@
         <v>12</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
+      <c r="I2" s="17" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
@@ -1258,13 +1327,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>2</v>
@@ -1273,7 +1342,7 @@
         <v>9</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>5</v>
@@ -1291,10 +1360,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="8" t="str">
         <f>SUBSTITUTE($C5," ","")</f>
@@ -1312,7 +1381,7 @@
         <v>7</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I5" s="8" t="str">
         <f t="shared" ref="I5:I7" si="1">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
@@ -1355,10 +1424,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" s="10" t="str">
         <f t="shared" ref="D6:D7" si="3">SUBSTITUTE($C6," ","")</f>
@@ -1376,7 +1445,7 @@
         <v>7</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I6" s="10" t="str">
         <f t="shared" si="1"/>
@@ -1419,10 +1488,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" s="12" t="str">
         <f t="shared" si="3"/>
@@ -1437,10 +1506,10 @@
         <v>ATT_DTO_LIST</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I7" s="12" t="str">
         <f t="shared" si="1"/>
@@ -1521,8 +1590,11 @@
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
+      <c r="H1" s="18" t="s">
+        <v>72</v>
+      </c>
       <c r="I1" s="15" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -1530,13 +1602,16 @@
         <v>12</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
+      <c r="I2" s="17" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
@@ -1549,13 +1624,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>2</v>
@@ -1564,7 +1639,7 @@
         <v>9</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>5</v>
@@ -1582,10 +1657,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" s="6" t="str">
         <f>SUBSTITUTE($C5," ","")</f>
@@ -1600,10 +1675,10 @@
         <v>SCREEN_OBJ_DTO_LIST</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I5" s="6" t="str">
         <f>"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
@@ -1677,15 +1752,18 @@
         <v>11</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
+      <c r="H1" s="18" t="s">
+        <v>72</v>
+      </c>
       <c r="I1" s="15" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -1693,13 +1771,16 @@
         <v>12</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
+      <c r="I2" s="17" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
@@ -1712,13 +1793,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>2</v>
@@ -1727,7 +1808,7 @@
         <v>9</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>5</v>
@@ -1745,10 +1826,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" s="8" t="str">
         <f>SUBSTITUTE($C5," ","")</f>
@@ -1763,10 +1844,10 @@
         <v>LANG_DIV</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I5" s="8" t="str">
         <f t="shared" ref="I5:I9" si="1">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
@@ -1809,10 +1890,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" s="10" t="str">
         <f t="shared" ref="D6:D9" si="3">SUBSTITUTE($C6," ","")</f>
@@ -1830,7 +1911,7 @@
         <v>6</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I6" s="10" t="str">
         <f t="shared" si="1"/>
@@ -1873,10 +1954,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D7" s="10" t="str">
         <f t="shared" si="3"/>
@@ -1894,7 +1975,7 @@
         <v>6</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I7" s="10" t="str">
         <f t="shared" si="1"/>
@@ -1937,10 +2018,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" s="10" t="str">
         <f t="shared" si="3"/>
@@ -1958,7 +2039,7 @@
         <v>6</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I8" s="10" t="str">
         <f t="shared" si="1"/>
@@ -2001,10 +2082,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="12" t="str">
         <f t="shared" si="3"/>
@@ -2094,15 +2175,18 @@
         <v>11</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
+      <c r="H1" s="18" t="s">
+        <v>72</v>
+      </c>
       <c r="I1" s="15" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -2110,13 +2194,16 @@
         <v>12</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
+      <c r="I2" s="17" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
@@ -2129,10 +2216,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>5</v>
@@ -2144,7 +2231,7 @@
         <v>9</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>5</v>
@@ -2162,10 +2249,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D9" si="1">SUBSTITUTE($C5," ","")</f>
@@ -2183,7 +2270,7 @@
         <v>7</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I5" s="10" t="str">
         <f t="shared" ref="I5:I9" si="3">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
@@ -2226,10 +2313,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="10" t="str">
         <f t="shared" si="1"/>
@@ -2247,7 +2334,7 @@
         <v>10</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I6" s="10" t="str">
         <f t="shared" si="3"/>
@@ -2290,10 +2377,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="10" t="str">
         <f t="shared" si="1"/>
@@ -2352,10 +2439,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="10" t="str">
         <f t="shared" si="1"/>
@@ -2414,10 +2501,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" s="12" t="str">
         <f t="shared" si="1"/>
@@ -2466,6 +2553,239 @@
     */
    public void setAttCdVal(String attCdVal){
       this.attCdVal = attCdVal;
+   }
+</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="43.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.75" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="6" width="6.25" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="43.75" style="1" customWidth="1"/>
+    <col min="8" max="12" width="5" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="I2" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="7">
+        <f t="shared" ref="A5:A6" si="0">ROW()-4</f>
+        <v>1</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="8" t="str">
+        <f>SUBSTITUTE($C5," ","")</f>
+        <v>FacilityId</v>
+      </c>
+      <c r="E5" s="8" t="str">
+        <f>LOWER(LEFT($C5,1))&amp;RIGHT($D5,LEN($D5)-1)</f>
+        <v>facilityId</v>
+      </c>
+      <c r="F5" s="8" t="str">
+        <f>UPPER(SUBSTITUTE($C5," ","_"))</f>
+        <v>FACILITY_ID</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="8" t="str">
+        <f t="shared" ref="I5:I6" si="1">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
+        <v xml:space="preserve">   /** 施設IDのフィールド名 */
+   public static final String FIELD_FACILITY_ID = "facilityId";</v>
+      </c>
+      <c r="J5" s="8" t="str">
+        <f t="shared" ref="J5:J6" si="2">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G5&amp;" "&amp;$E5&amp;";"</f>
+        <v xml:space="preserve">   /** 施設ID */
+   private Integer facilityId;</v>
+      </c>
+      <c r="K5" s="8" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G5&amp;" get"&amp;$D5&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 施設IDを取得します。
+    * 
+    * @return 施設ID
+    */
+   public Integer getFacilityId(){
+      return facilityId;
+   }
+</v>
+      </c>
+      <c r="L5" s="8" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E5&amp;" "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D5&amp;"("&amp;$G5&amp;" "&amp;$E5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E5&amp;" = "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 施設IDを設定します。
+    * 
+    * @param facilityId 施設ID
+    */
+   public void setFacilityId(Integer facilityId){
+      this.facilityId = facilityId;
+   }
+</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="12" t="str">
+        <f t="shared" ref="D6" si="3">SUBSTITUTE($C6," ","")</f>
+        <v>AttDtoList</v>
+      </c>
+      <c r="E6" s="12" t="str">
+        <f>LOWER(LEFT($C6,1))&amp;RIGHT($D6,LEN($D6)-1)</f>
+        <v>attDtoList</v>
+      </c>
+      <c r="F6" s="12" t="str">
+        <f t="shared" ref="F6" si="4">UPPER(SUBSTITUTE($C6," ","_"))</f>
+        <v>ATT_DTO_LIST</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">   /** 属性DTOリストのフィールド名 */
+   public static final String FIELD_ATT_DTO_LIST = "attDtoList";</v>
+      </c>
+      <c r="J6" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">   /** 属性DTOリスト */
+   private List&lt;AttDto&gt; attDtoList;</v>
+      </c>
+      <c r="K6" s="12" t="str">
+        <f t="shared" ref="K6" si="5">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G6&amp;" get"&amp;$D6&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 属性DTOリストを取得します。
+    * 
+    * @return 属性DTOリスト
+    */
+   public List&lt;AttDto&gt; getAttDtoList(){
+      return attDtoList;
+   }
+</v>
+      </c>
+      <c r="L6" s="12" t="str">
+        <f t="shared" ref="L6" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E6&amp;" "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D6&amp;"("&amp;$G6&amp;" "&amp;$E6&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E6&amp;" = "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 属性DTOリストを設定します。
+    * 
+    * @param attDtoList 属性DTOリスト
+    */
+   public void setAttDtoList(List&lt;AttDto&gt; attDtoList){
+      this.attDtoList = attDtoList;
    }
 </v>
       </c>

--- a/03_設計/06_データオブジェクト/データオブジェクト定義書.xlsx
+++ b/03_設計/06_データオブジェクト/データオブジェクト定義書.xlsx
@@ -13,11 +13,12 @@
   </bookViews>
   <sheets>
     <sheet name="スクリーンDTO" sheetId="5" r:id="rId1"/>
-    <sheet name="スクリーンオブジェクトDTO" sheetId="7" r:id="rId2"/>
-    <sheet name="スクリーンオブジェクトグループDTO" sheetId="8" r:id="rId3"/>
+    <sheet name="スクリーンオブジェクトグループDTO" sheetId="8" r:id="rId2"/>
+    <sheet name="スクリーンオブジェクトDTO" sheetId="7" r:id="rId3"/>
     <sheet name="リクエストスクリーンDTO" sheetId="9" r:id="rId4"/>
     <sheet name="属性DTO" sheetId="10" r:id="rId5"/>
-    <sheet name="施設DTO" sheetId="11" r:id="rId6"/>
+    <sheet name="地域DTO" sheetId="12" r:id="rId6"/>
+    <sheet name="施設DTO" sheetId="11" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="79">
   <si>
     <t>論理名</t>
     <rPh sb="0" eb="3">
@@ -172,10 +173,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Screen Obj Dto List</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Screen Obj Grp Dto List</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -309,10 +306,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スクリーンオブジェクリスト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スクリーンオブジェクトグループリスト</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -359,10 +352,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>List&lt;ScreenObjDto&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>List&lt;ScreenObjGrpDto&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -422,6 +411,44 @@
     <rPh sb="32" eb="34">
       <t>ジッコウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RegionDto</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地域DTO</t>
+    <rPh sb="0" eb="2">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Region Id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイアウトオブジェクトグループID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Layout Obj Grp Id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>多重度</t>
+    <rPh sb="0" eb="3">
+      <t>タジュウド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>multiplicity</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -904,7 +931,7 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
@@ -937,10 +964,10 @@
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
       <c r="H1" s="18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -948,7 +975,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="14"/>
@@ -956,7 +983,7 @@
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
       <c r="I2" s="17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
@@ -970,13 +997,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>2</v>
@@ -999,11 +1026,11 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
-        <f t="shared" ref="A5:A8" si="0">ROW()-4</f>
+        <f t="shared" ref="A5:A7" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>26</v>
@@ -1027,12 +1054,12 @@
         <v>16</v>
       </c>
       <c r="I5" s="8" t="str">
-        <f t="shared" ref="I5:I8" si="1">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
+        <f t="shared" ref="I5:I7" si="1">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
         <v xml:space="preserve">   /** 遷移先レイアウトIDのフィールド名 */
    public static final String FIELD_TARGET_LAYOUT_ID = "targetLayoutId";</v>
       </c>
       <c r="J5" s="8" t="str">
-        <f t="shared" ref="J5:J8" si="2">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G5&amp;" "&amp;$E5&amp;";"</f>
+        <f t="shared" ref="J5:J7" si="2">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G5&amp;" "&amp;$E5&amp;";"</f>
         <v xml:space="preserve">   /** 遷移先レイアウトID */
    private Integer targetLayoutId;</v>
       </c>
@@ -1067,13 +1094,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="10" t="str">
-        <f t="shared" ref="D6:D8" si="3">SUBSTITUTE($C6," ","")</f>
+        <f t="shared" ref="D6:D7" si="3">SUBSTITUTE($C6," ","")</f>
         <v>TargetScreenId</v>
       </c>
       <c r="E6" s="10" t="str">
@@ -1081,7 +1108,7 @@
         <v>targetScreenId</v>
       </c>
       <c r="F6" s="10" t="str">
-        <f t="shared" ref="F6:F8" si="4">UPPER(SUBSTITUTE($C6," ","_"))</f>
+        <f t="shared" ref="F6:F7" si="4">UPPER(SUBSTITUTE($C6," ","_"))</f>
         <v>TARGET_SCREEN_ID</v>
       </c>
       <c r="G6" s="10" t="s">
@@ -1101,7 +1128,7 @@
    private Integer targetScreenId;</v>
       </c>
       <c r="K6" s="10" t="str">
-        <f t="shared" ref="K6:K8" si="5">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G6&amp;" get"&amp;$D6&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <f t="shared" ref="K6:K7" si="5">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G6&amp;" get"&amp;$D6&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
     * 遷移先スクリーンIDを取得します。
     * 
@@ -1113,7 +1140,7 @@
 </v>
       </c>
       <c r="L6" s="10" t="str">
-        <f t="shared" ref="L6:L8" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E6&amp;" "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D6&amp;"("&amp;$G6&amp;" "&amp;$E6&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E6&amp;" = "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <f t="shared" ref="L6:L7" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E6&amp;" "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D6&amp;"("&amp;$G6&amp;" "&amp;$E6&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E6&amp;" = "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
     * 遷移先スクリーンIDを設定します。
     * 
@@ -1126,105 +1153,45 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="9">
+      <c r="A7" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="10" t="s">
+      <c r="B7" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>ScreenObjDtoList</v>
-      </c>
-      <c r="E7" s="10" t="str">
-        <f>LOWER(LEFT($C7,1))&amp;RIGHT($D7,LEN($D7)-1)</f>
-        <v>screenObjDtoList</v>
-      </c>
-      <c r="F7" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>SCREEN_OBJ_DTO_LIST</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   /** スクリーンオブジェクリストのフィールド名 */
-   public static final String FIELD_SCREEN_OBJ_DTO_LIST = "screenObjDtoList";</v>
-      </c>
-      <c r="J7" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">   /** スクリーンオブジェクリスト */
-   private List&lt;ScreenObjDto&gt; screenObjDtoList;</v>
-      </c>
-      <c r="K7" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">   /**
-    * スクリーンオブジェクリストを取得します。
-    * 
-    * @return スクリーンオブジェクリスト
-    */
-   public List&lt;ScreenObjDto&gt; getScreenObjDtoList(){
-      return screenObjDtoList;
-   }
-</v>
-      </c>
-      <c r="L7" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">   /**
-    * スクリーンオブジェクリストを設定します。
-    * 
-    * @param screenObjDtoList スクリーンオブジェクリスト
-    */
-   public void setScreenObjDtoList(List&lt;ScreenObjDto&gt; screenObjDtoList){
-      this.screenObjDtoList = screenObjDtoList;
-   }
-</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="11">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="12" t="str">
+      <c r="D7" s="12" t="str">
         <f t="shared" si="3"/>
         <v>ScreenObjGrpDtoList</v>
       </c>
-      <c r="E8" s="12" t="str">
-        <f>LOWER(LEFT($C8,1))&amp;RIGHT($D8,LEN($D8)-1)</f>
+      <c r="E7" s="12" t="str">
+        <f>LOWER(LEFT($C7,1))&amp;RIGHT($D7,LEN($D7)-1)</f>
         <v>screenObjGrpDtoList</v>
       </c>
-      <c r="F8" s="12" t="str">
+      <c r="F7" s="12" t="str">
         <f t="shared" si="4"/>
         <v>SCREEN_OBJ_GRP_DTO_LIST</v>
       </c>
-      <c r="G8" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12" t="str">
+      <c r="G7" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="12" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">   /** スクリーンオブジェクトグループリストのフィールド名 */
    public static final String FIELD_SCREEN_OBJ_GRP_DTO_LIST = "screenObjGrpDtoList";</v>
       </c>
-      <c r="J8" s="12" t="str">
+      <c r="J7" s="12" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">   /** スクリーンオブジェクトグループリスト */
    private List&lt;ScreenObjGrpDto&gt; screenObjGrpDtoList;</v>
       </c>
-      <c r="K8" s="12" t="str">
+      <c r="K7" s="12" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">   /**
     * スクリーンオブジェクトグループリストを取得します。
@@ -1236,7 +1203,7 @@
    }
 </v>
       </c>
-      <c r="L8" s="12" t="str">
+      <c r="L7" s="12" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">   /**
     * スクリーンオブジェクトグループリストを設定します。
@@ -1286,7 +1253,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="14"/>
@@ -1294,10 +1261,10 @@
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
       <c r="H1" s="18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -1313,7 +1280,7 @@
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
       <c r="I2" s="17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
@@ -1327,13 +1294,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>2</v>
@@ -1355,193 +1322,193 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="7">
-        <f t="shared" ref="A5:A7" si="0">ROW()-4</f>
+      <c r="A5" s="5">
+        <f t="shared" ref="A5:A6" si="0">ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="8" t="str">
-        <f>SUBSTITUTE($C5," ","")</f>
-        <v>LayoutObjId</v>
-      </c>
-      <c r="E5" s="8" t="str">
-        <f>LOWER(LEFT($C5,1))&amp;RIGHT($D5,LEN($D5)-1)</f>
-        <v>layoutObjId</v>
-      </c>
-      <c r="F5" s="8" t="str">
-        <f>UPPER(SUBSTITUTE($C5," ","_"))</f>
-        <v>LAYOUT_OBJ_ID</v>
-      </c>
-      <c r="G5" s="8" t="s">
+      <c r="B5" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="6" t="str">
+        <f t="shared" ref="D5:D6" si="1">SUBSTITUTE($C5," ","")</f>
+        <v>LayoutObjGrpId</v>
+      </c>
+      <c r="E5" s="6" t="str">
+        <f t="shared" ref="E5:E6" si="2">LOWER(LEFT($C5,1))&amp;RIGHT($D5,LEN($D5)-1)</f>
+        <v>layoutObjGrpId</v>
+      </c>
+      <c r="F5" s="6" t="str">
+        <f t="shared" ref="F5:F6" si="3">UPPER(SUBSTITUTE($C5," ","_"))</f>
+        <v>LAYOUT_OBJ_GRP_ID</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="8" t="str">
-        <f t="shared" ref="I5:I7" si="1">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
-        <v xml:space="preserve">   /** レイアウトオブジェクトIDのフィールド名 */
-   public static final String FIELD_LAYOUT_OBJ_ID = "layoutObjId";</v>
-      </c>
-      <c r="J5" s="8" t="str">
-        <f t="shared" ref="J5:J7" si="2">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G5&amp;" "&amp;$E5&amp;";"</f>
-        <v xml:space="preserve">   /** レイアウトオブジェクトID */
-   private Integer layoutObjId;</v>
-      </c>
-      <c r="K5" s="8" t="str">
-        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G5&amp;" get"&amp;$D5&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
-        <v xml:space="preserve">   /**
-    * レイアウトオブジェクトIDを取得します。
-    * 
-    * @return レイアウトオブジェクトID
-    */
-   public Integer getLayoutObjId(){
-      return layoutObjId;
-   }
-</v>
-      </c>
-      <c r="L5" s="8" t="str">
-        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E5&amp;" "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D5&amp;"("&amp;$G5&amp;" "&amp;$E5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E5&amp;" = "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
-        <v xml:space="preserve">   /**
-    * レイアウトオブジェクトIDを設定します。
-    * 
-    * @param layoutObjId レイアウトオブジェクトID
-    */
-   public void setLayoutObjId(Integer layoutObjId){
-      this.layoutObjId = layoutObjId;
+      <c r="I5" s="6" t="str">
+        <f t="shared" ref="I5:I6" si="4">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
+        <v xml:space="preserve">   /** レイアウトオブジェクトグループIDのフィールド名 */
+   public static final String FIELD_LAYOUT_OBJ_GRP_ID = "layoutObjGrpId";</v>
+      </c>
+      <c r="J5" s="6" t="str">
+        <f t="shared" ref="J5:J6" si="5">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G5&amp;" "&amp;$E5&amp;";"</f>
+        <v xml:space="preserve">   /** レイアウトオブジェクトグループID */
+   private Integer layoutObjGrpId;</v>
+      </c>
+      <c r="K5" s="6" t="str">
+        <f t="shared" ref="K5:K6" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G5&amp;" get"&amp;$D5&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * レイアウトオブジェクトグループIDを取得します。
+    * 
+    * @return レイアウトオブジェクトグループID
+    */
+   public Integer getLayoutObjGrpId(){
+      return layoutObjGrpId;
+   }
+</v>
+      </c>
+      <c r="L5" s="6" t="str">
+        <f t="shared" ref="L5:L6" si="7">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E5&amp;" "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D5&amp;"("&amp;$G5&amp;" "&amp;$E5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E5&amp;" = "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * レイアウトオブジェクトグループIDを設定します。
+    * 
+    * @param layoutObjGrpId レイアウトオブジェクトグループID
+    */
+   public void setLayoutObjGrpId(Integer layoutObjGrpId){
+      this.layoutObjGrpId = layoutObjGrpId;
    }
 </v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="9">
+      <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="10" t="str">
-        <f t="shared" ref="D6:D7" si="3">SUBSTITUTE($C6," ","")</f>
-        <v>ScreenObjId</v>
-      </c>
-      <c r="E6" s="10" t="str">
-        <f>LOWER(LEFT($C6,1))&amp;RIGHT($D6,LEN($D6)-1)</f>
-        <v>screenObjId</v>
-      </c>
-      <c r="F6" s="10" t="str">
-        <f t="shared" ref="F6:F7" si="4">UPPER(SUBSTITUTE($C6," ","_"))</f>
-        <v>SCREEN_OBJ_ID</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="10" t="s">
+      <c r="B6" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>multiplicity</v>
+      </c>
+      <c r="E6" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>multiplicity</v>
+      </c>
+      <c r="F6" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>MULTIPLICITY</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   /** スクリーンオブジェクトIDのフィールド名 */
-   public static final String FIELD_SCREEN_OBJ_ID = "screenObjId";</v>
-      </c>
-      <c r="J6" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">   /** スクリーンオブジェクトID */
-   private Integer screenObjId;</v>
-      </c>
-      <c r="K6" s="10" t="str">
-        <f t="shared" ref="K6:K7" si="5">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G6&amp;" get"&amp;$D6&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
-        <v xml:space="preserve">   /**
-    * スクリーンオブジェクトIDを取得します。
-    * 
-    * @return スクリーンオブジェクトID
-    */
-   public Integer getScreenObjId(){
-      return screenObjId;
-   }
-</v>
-      </c>
-      <c r="L6" s="10" t="str">
-        <f t="shared" ref="L6:L7" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E6&amp;" "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D6&amp;"("&amp;$G6&amp;" "&amp;$E6&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E6&amp;" = "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
-        <v xml:space="preserve">   /**
-    * スクリーンオブジェクトIDを設定します。
-    * 
-    * @param screenObjId スクリーンオブジェクトID
-    */
-   public void setScreenObjId(Integer screenObjId){
-      this.screenObjId = screenObjId;
+      <c r="I6" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">   /** 多重度のフィールド名 */
+   public static final String FIELD_MULTIPLICITY = "multiplicity";</v>
+      </c>
+      <c r="J6" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">   /** 多重度 */
+   private String multiplicity;</v>
+      </c>
+      <c r="K6" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   /**
+    * 多重度を取得します。
+    * 
+    * @return 多重度
+    */
+   public String getmultiplicity(){
+      return multiplicity;
+   }
+</v>
+      </c>
+      <c r="L6" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">   /**
+    * 多重度を設定します。
+    * 
+    * @param multiplicity 多重度
+    */
+   public void setmultiplicity(String multiplicity){
+      this.multiplicity = multiplicity;
    }
 </v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="11">
-        <f t="shared" si="0"/>
+      <c r="A7" s="5">
+        <f t="shared" ref="A7" si="8">ROW()-4</f>
         <v>3</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>AttDtoList</v>
-      </c>
-      <c r="E7" s="12" t="str">
+      <c r="B7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="6" t="str">
+        <f>SUBSTITUTE($C7," ","")</f>
+        <v>ScreenObjDtoList</v>
+      </c>
+      <c r="E7" s="6" t="str">
         <f>LOWER(LEFT($C7,1))&amp;RIGHT($D7,LEN($D7)-1)</f>
-        <v>attDtoList</v>
-      </c>
-      <c r="F7" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>ATT_DTO_LIST</v>
-      </c>
-      <c r="G7" s="12" t="s">
+        <v>screenObjDtoList</v>
+      </c>
+      <c r="F7" s="6" t="str">
+        <f>UPPER(SUBSTITUTE($C7," ","_"))</f>
+        <v>SCREEN_OBJ_DTO_LIST</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   /** 属性DTOリストのフィールド名 */
-   public static final String FIELD_ATT_DTO_LIST = "attDtoList";</v>
-      </c>
-      <c r="J7" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">   /** 属性DTOリスト */
-   private List&lt;AttDto&gt; attDtoList;</v>
-      </c>
-      <c r="K7" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">   /**
-    * 属性DTOリストを取得します。
-    * 
-    * @return 属性DTOリスト
-    */
-   public List&lt;AttDto&gt; getAttDtoList(){
-      return attDtoList;
-   }
-</v>
-      </c>
-      <c r="L7" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">   /**
-    * 属性DTOリストを設定します。
-    * 
-    * @param attDtoList 属性DTOリスト
-    */
-   public void setAttDtoList(List&lt;AttDto&gt; attDtoList){
-      this.attDtoList = attDtoList;
+      <c r="I7" s="6" t="str">
+        <f>"   /** "&amp;$B7&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F7&amp;" = """&amp;$E7&amp;""";"</f>
+        <v xml:space="preserve">   /** スクリーンオブジェクトDTOリストのフィールド名 */
+   public static final String FIELD_SCREEN_OBJ_DTO_LIST = "screenObjDtoList";</v>
+      </c>
+      <c r="J7" s="6" t="str">
+        <f>"   /** "&amp;$B7&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G7&amp;" "&amp;$E7&amp;";"</f>
+        <v xml:space="preserve">   /** スクリーンオブジェクトDTOリスト */
+   private List&lt;ScreenObjDto&gt; screenObjDtoList;</v>
+      </c>
+      <c r="K7" s="6" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B7&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B7&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G7&amp;" get"&amp;$D7&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E7&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * スクリーンオブジェクトDTOリストを取得します。
+    * 
+    * @return スクリーンオブジェクトDTOリスト
+    */
+   public List&lt;ScreenObjDto&gt; getScreenObjDtoList(){
+      return screenObjDtoList;
+   }
+</v>
+      </c>
+      <c r="L7" s="6" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B7&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E7&amp;" "&amp;$B7&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D7&amp;"("&amp;$G7&amp;" "&amp;$E7&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E7&amp;" = "&amp;$E7&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * スクリーンオブジェクトDTOリストを設定します。
+    * 
+    * @param screenObjDtoList スクリーンオブジェクトDTOリスト
+    */
+   public void setScreenObjDtoList(List&lt;ScreenObjDto&gt; screenObjDtoList){
+      this.screenObjDtoList = screenObjDtoList;
    }
 </v>
       </c>
@@ -1558,7 +1525,7 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
@@ -1583,7 +1550,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="14"/>
@@ -1591,10 +1558,10 @@
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
       <c r="H1" s="18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -1602,7 +1569,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="14"/>
@@ -1610,7 +1577,7 @@
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
       <c r="I2" s="17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
@@ -1624,13 +1591,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>2</v>
@@ -1652,65 +1619,193 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="5">
-        <f t="shared" ref="A5" si="0">ROW()-4</f>
+      <c r="A5" s="7">
+        <f t="shared" ref="A5:A7" si="0">ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="6" t="str">
+      <c r="C5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="8" t="str">
         <f>SUBSTITUTE($C5," ","")</f>
-        <v>ScreenObjDtoList</v>
-      </c>
-      <c r="E5" s="6" t="str">
+        <v>LayoutObjId</v>
+      </c>
+      <c r="E5" s="8" t="str">
         <f>LOWER(LEFT($C5,1))&amp;RIGHT($D5,LEN($D5)-1)</f>
-        <v>screenObjDtoList</v>
-      </c>
-      <c r="F5" s="6" t="str">
+        <v>layoutObjId</v>
+      </c>
+      <c r="F5" s="8" t="str">
         <f>UPPER(SUBSTITUTE($C5," ","_"))</f>
-        <v>SCREEN_OBJ_DTO_LIST</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" s="6" t="s">
+        <v>LAYOUT_OBJ_ID</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="6" t="str">
-        <f>"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
-        <v xml:space="preserve">   /** スクリーンオブジェクトDTOリストのフィールド名 */
-   public static final String FIELD_SCREEN_OBJ_DTO_LIST = "screenObjDtoList";</v>
-      </c>
-      <c r="J5" s="6" t="str">
-        <f>"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G5&amp;" "&amp;$E5&amp;";"</f>
-        <v xml:space="preserve">   /** スクリーンオブジェクトDTOリスト */
-   private List&lt;ScreenObjDto&gt; screenObjDtoList;</v>
-      </c>
-      <c r="K5" s="6" t="str">
+      <c r="I5" s="8" t="str">
+        <f t="shared" ref="I5:I7" si="1">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
+        <v xml:space="preserve">   /** レイアウトオブジェクトIDのフィールド名 */
+   public static final String FIELD_LAYOUT_OBJ_ID = "layoutObjId";</v>
+      </c>
+      <c r="J5" s="8" t="str">
+        <f t="shared" ref="J5:J7" si="2">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G5&amp;" "&amp;$E5&amp;";"</f>
+        <v xml:space="preserve">   /** レイアウトオブジェクトID */
+   private Integer layoutObjId;</v>
+      </c>
+      <c r="K5" s="8" t="str">
         <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G5&amp;" get"&amp;$D5&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
-    * スクリーンオブジェクトDTOリストを取得します。
-    * 
-    * @return スクリーンオブジェクトDTOリスト
-    */
-   public List&lt;ScreenObjDto&gt; getScreenObjDtoList(){
-      return screenObjDtoList;
-   }
-</v>
-      </c>
-      <c r="L5" s="6" t="str">
+    * レイアウトオブジェクトIDを取得します。
+    * 
+    * @return レイアウトオブジェクトID
+    */
+   public Integer getLayoutObjId(){
+      return layoutObjId;
+   }
+</v>
+      </c>
+      <c r="L5" s="8" t="str">
         <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E5&amp;" "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D5&amp;"("&amp;$G5&amp;" "&amp;$E5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E5&amp;" = "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
-    * スクリーンオブジェクトDTOリストを設定します。
-    * 
-    * @param screenObjDtoList スクリーンオブジェクトDTOリスト
-    */
-   public void setScreenObjDtoList(List&lt;ScreenObjDto&gt; screenObjDtoList){
-      this.screenObjDtoList = screenObjDtoList;
+    * レイアウトオブジェクトIDを設定します。
+    * 
+    * @param layoutObjId レイアウトオブジェクトID
+    */
+   public void setLayoutObjId(Integer layoutObjId){
+      this.layoutObjId = layoutObjId;
+   }
+</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="10" t="str">
+        <f t="shared" ref="D6:D7" si="3">SUBSTITUTE($C6," ","")</f>
+        <v>ScreenObjId</v>
+      </c>
+      <c r="E6" s="10" t="str">
+        <f>LOWER(LEFT($C6,1))&amp;RIGHT($D6,LEN($D6)-1)</f>
+        <v>screenObjId</v>
+      </c>
+      <c r="F6" s="10" t="str">
+        <f t="shared" ref="F6:F7" si="4">UPPER(SUBSTITUTE($C6," ","_"))</f>
+        <v>SCREEN_OBJ_ID</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">   /** スクリーンオブジェクトIDのフィールド名 */
+   public static final String FIELD_SCREEN_OBJ_ID = "screenObjId";</v>
+      </c>
+      <c r="J6" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">   /** スクリーンオブジェクトID */
+   private Integer screenObjId;</v>
+      </c>
+      <c r="K6" s="10" t="str">
+        <f t="shared" ref="K6:K7" si="5">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G6&amp;" get"&amp;$D6&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * スクリーンオブジェクトIDを取得します。
+    * 
+    * @return スクリーンオブジェクトID
+    */
+   public Integer getScreenObjId(){
+      return screenObjId;
+   }
+</v>
+      </c>
+      <c r="L6" s="10" t="str">
+        <f t="shared" ref="L6:L7" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E6&amp;" "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D6&amp;"("&amp;$G6&amp;" "&amp;$E6&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E6&amp;" = "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * スクリーンオブジェクトIDを設定します。
+    * 
+    * @param screenObjId スクリーンオブジェクトID
+    */
+   public void setScreenObjId(Integer screenObjId){
+      this.screenObjId = screenObjId;
+   }
+</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>AttDtoList</v>
+      </c>
+      <c r="E7" s="12" t="str">
+        <f>LOWER(LEFT($C7,1))&amp;RIGHT($D7,LEN($D7)-1)</f>
+        <v>attDtoList</v>
+      </c>
+      <c r="F7" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>ATT_DTO_LIST</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">   /** 属性DTOリストのフィールド名 */
+   public static final String FIELD_ATT_DTO_LIST = "attDtoList";</v>
+      </c>
+      <c r="J7" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">   /** 属性DTOリスト */
+   private List&lt;AttDto&gt; attDtoList;</v>
+      </c>
+      <c r="K7" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">   /**
+    * 属性DTOリストを取得します。
+    * 
+    * @return 属性DTOリスト
+    */
+   public List&lt;AttDto&gt; getAttDtoList(){
+      return attDtoList;
+   }
+</v>
+      </c>
+      <c r="L7" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   /**
+    * 属性DTOリストを設定します。
+    * 
+    * @param attDtoList 属性DTOリスト
+    */
+   public void setAttDtoList(List&lt;AttDto&gt; attDtoList){
+      this.attDtoList = attDtoList;
    }
 </v>
       </c>
@@ -1760,10 +1855,10 @@
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
       <c r="H1" s="18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -1779,7 +1874,7 @@
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
       <c r="I2" s="17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
@@ -1793,13 +1888,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>2</v>
@@ -1829,7 +1924,7 @@
         <v>18</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D5" s="8" t="str">
         <f>SUBSTITUTE($C5," ","")</f>
@@ -1893,7 +1988,7 @@
         <v>23</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="10" t="str">
         <f t="shared" ref="D6:D9" si="3">SUBSTITUTE($C6," ","")</f>
@@ -1957,7 +2052,7 @@
         <v>20</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D7" s="10" t="str">
         <f t="shared" si="3"/>
@@ -2021,7 +2116,7 @@
         <v>21</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D8" s="10" t="str">
         <f t="shared" si="3"/>
@@ -2085,7 +2180,7 @@
         <v>22</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D9" s="12" t="str">
         <f t="shared" si="3"/>
@@ -2175,7 +2270,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="14"/>
@@ -2183,10 +2278,10 @@
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
       <c r="H1" s="18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -2194,7 +2289,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="14"/>
@@ -2202,7 +2297,7 @@
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
       <c r="I2" s="17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
@@ -2216,10 +2311,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>5</v>
@@ -2249,10 +2344,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D9" si="1">SUBSTITUTE($C5," ","")</f>
@@ -2313,10 +2408,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="10" t="str">
         <f t="shared" si="1"/>
@@ -2377,10 +2472,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="10" t="str">
         <f t="shared" si="1"/>
@@ -2439,10 +2534,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="10" t="str">
         <f t="shared" si="1"/>
@@ -2501,10 +2596,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="12" t="str">
         <f t="shared" si="1"/>
@@ -2594,7 +2689,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="14"/>
@@ -2602,10 +2697,10 @@
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
       <c r="H1" s="18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -2613,7 +2708,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="14"/>
@@ -2621,7 +2716,7 @@
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
       <c r="I2" s="17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
@@ -2635,10 +2730,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>5</v>
@@ -2668,10 +2763,243 @@
         <v>1</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="8" t="str">
+        <f>SUBSTITUTE($C5," ","")</f>
+        <v>RegionId</v>
+      </c>
+      <c r="E5" s="8" t="str">
+        <f>LOWER(LEFT($C5,1))&amp;RIGHT($D5,LEN($D5)-1)</f>
+        <v>regionId</v>
+      </c>
+      <c r="F5" s="8" t="str">
+        <f>UPPER(SUBSTITUTE($C5," ","_"))</f>
+        <v>REGION_ID</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="8" t="str">
+        <f t="shared" ref="I5:I6" si="1">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
+        <v xml:space="preserve">   /** 地域IDのフィールド名 */
+   public static final String FIELD_REGION_ID = "regionId";</v>
+      </c>
+      <c r="J5" s="8" t="str">
+        <f t="shared" ref="J5:J6" si="2">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G5&amp;" "&amp;$E5&amp;";"</f>
+        <v xml:space="preserve">   /** 地域ID */
+   private Integer regionId;</v>
+      </c>
+      <c r="K5" s="8" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G5&amp;" get"&amp;$D5&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 地域IDを取得します。
+    * 
+    * @return 地域ID
+    */
+   public Integer getRegionId(){
+      return regionId;
+   }
+</v>
+      </c>
+      <c r="L5" s="8" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E5&amp;" "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D5&amp;"("&amp;$G5&amp;" "&amp;$E5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E5&amp;" = "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 地域IDを設定します。
+    * 
+    * @param regionId 地域ID
+    */
+   public void setRegionId(Integer regionId){
+      this.regionId = regionId;
+   }
+</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="12" t="str">
+        <f t="shared" ref="D6" si="3">SUBSTITUTE($C6," ","")</f>
+        <v>AttDtoList</v>
+      </c>
+      <c r="E6" s="12" t="str">
+        <f>LOWER(LEFT($C6,1))&amp;RIGHT($D6,LEN($D6)-1)</f>
+        <v>attDtoList</v>
+      </c>
+      <c r="F6" s="12" t="str">
+        <f t="shared" ref="F6" si="4">UPPER(SUBSTITUTE($C6," ","_"))</f>
+        <v>ATT_DTO_LIST</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">   /** 属性DTOリストのフィールド名 */
+   public static final String FIELD_ATT_DTO_LIST = "attDtoList";</v>
+      </c>
+      <c r="J6" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">   /** 属性DTOリスト */
+   private List&lt;AttDto&gt; attDtoList;</v>
+      </c>
+      <c r="K6" s="12" t="str">
+        <f t="shared" ref="K6" si="5">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G6&amp;" get"&amp;$D6&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 属性DTOリストを取得します。
+    * 
+    * @return 属性DTOリスト
+    */
+   public List&lt;AttDto&gt; getAttDtoList(){
+      return attDtoList;
+   }
+</v>
+      </c>
+      <c r="L6" s="12" t="str">
+        <f t="shared" ref="L6" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E6&amp;" "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D6&amp;"("&amp;$G6&amp;" "&amp;$E6&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E6&amp;" = "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 属性DTOリストを設定します。
+    * 
+    * @param attDtoList 属性DTOリスト
+    */
+   public void setAttDtoList(List&lt;AttDto&gt; attDtoList){
+      this.attDtoList = attDtoList;
+   }
+</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="43.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.75" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="6" width="6.25" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="43.75" style="1" customWidth="1"/>
+    <col min="8" max="12" width="5" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="I2" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="7">
+        <f t="shared" ref="A5:A6" si="0">ROW()-4</f>
+        <v>1</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D5" s="8" t="str">
         <f>SUBSTITUTE($C5," ","")</f>
@@ -2732,10 +3060,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>61</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>63</v>
       </c>
       <c r="D6" s="12" t="str">
         <f t="shared" ref="D6" si="3">SUBSTITUTE($C6," ","")</f>
@@ -2750,7 +3078,7 @@
         <v>ATT_DTO_LIST</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>16</v>

--- a/03_設計/06_データオブジェクト/データオブジェクト定義書.xlsx
+++ b/03_設計/06_データオブジェクト/データオブジェクト定義書.xlsx
@@ -165,14 +165,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Target Layout Id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Target Screen Id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Screen Obj Grp Dto List</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -292,20 +284,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>遷移先レイアウトID</t>
-    <rPh sb="0" eb="3">
-      <t>センイサキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>遷移先スクリーンID</t>
-    <rPh sb="0" eb="3">
-      <t>センイサキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スクリーンオブジェクトグループリスト</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -449,6 +427,22 @@
   </si>
   <si>
     <t>multiplicity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイアウトID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクリーンID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Layout Id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Screen Id</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -964,10 +958,10 @@
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
       <c r="H1" s="18" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -975,7 +969,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="14"/>
@@ -983,7 +977,7 @@
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
       <c r="I2" s="17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
@@ -997,13 +991,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>2</v>
@@ -1030,22 +1024,22 @@
         <v>1</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="D5" s="8" t="str">
         <f>SUBSTITUTE($C5," ","")</f>
-        <v>TargetLayoutId</v>
+        <v>LayoutId</v>
       </c>
       <c r="E5" s="8" t="str">
         <f>LOWER(LEFT($C5,1))&amp;RIGHT($D5,LEN($D5)-1)</f>
-        <v>targetLayoutId</v>
+        <v>layoutId</v>
       </c>
       <c r="F5" s="8" t="str">
         <f>UPPER(SUBSTITUTE($C5," ","_"))</f>
-        <v>TARGET_LAYOUT_ID</v>
+        <v>LAYOUT_ID</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>6</v>
@@ -1055,35 +1049,35 @@
       </c>
       <c r="I5" s="8" t="str">
         <f t="shared" ref="I5:I7" si="1">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
-        <v xml:space="preserve">   /** 遷移先レイアウトIDのフィールド名 */
-   public static final String FIELD_TARGET_LAYOUT_ID = "targetLayoutId";</v>
+        <v xml:space="preserve">   /** レイアウトIDのフィールド名 */
+   public static final String FIELD_LAYOUT_ID = "layoutId";</v>
       </c>
       <c r="J5" s="8" t="str">
         <f t="shared" ref="J5:J7" si="2">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G5&amp;" "&amp;$E5&amp;";"</f>
-        <v xml:space="preserve">   /** 遷移先レイアウトID */
-   private Integer targetLayoutId;</v>
+        <v xml:space="preserve">   /** レイアウトID */
+   private Integer layoutId;</v>
       </c>
       <c r="K5" s="8" t="str">
         <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G5&amp;" get"&amp;$D5&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
-    * 遷移先レイアウトIDを取得します。
-    * 
-    * @return 遷移先レイアウトID
-    */
-   public Integer getTargetLayoutId(){
-      return targetLayoutId;
+    * レイアウトIDを取得します。
+    * 
+    * @return レイアウトID
+    */
+   public Integer getLayoutId(){
+      return layoutId;
    }
 </v>
       </c>
       <c r="L5" s="8" t="str">
         <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E5&amp;" "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D5&amp;"("&amp;$G5&amp;" "&amp;$E5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E5&amp;" = "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
-    * 遷移先レイアウトIDを設定します。
-    * 
-    * @param targetLayoutId 遷移先レイアウトID
-    */
-   public void setTargetLayoutId(Integer targetLayoutId){
-      this.targetLayoutId = targetLayoutId;
+    * レイアウトIDを設定します。
+    * 
+    * @param layoutId レイアウトID
+    */
+   public void setLayoutId(Integer layoutId){
+      this.layoutId = layoutId;
    }
 </v>
       </c>
@@ -1094,22 +1088,22 @@
         <v>2</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="D6" s="10" t="str">
         <f t="shared" ref="D6:D7" si="3">SUBSTITUTE($C6," ","")</f>
-        <v>TargetScreenId</v>
+        <v>ScreenId</v>
       </c>
       <c r="E6" s="10" t="str">
         <f>LOWER(LEFT($C6,1))&amp;RIGHT($D6,LEN($D6)-1)</f>
-        <v>targetScreenId</v>
+        <v>screenId</v>
       </c>
       <c r="F6" s="10" t="str">
         <f t="shared" ref="F6:F7" si="4">UPPER(SUBSTITUTE($C6," ","_"))</f>
-        <v>TARGET_SCREEN_ID</v>
+        <v>SCREEN_ID</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>6</v>
@@ -1119,35 +1113,35 @@
       </c>
       <c r="I6" s="10" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">   /** 遷移先スクリーンIDのフィールド名 */
-   public static final String FIELD_TARGET_SCREEN_ID = "targetScreenId";</v>
+        <v xml:space="preserve">   /** スクリーンIDのフィールド名 */
+   public static final String FIELD_SCREEN_ID = "screenId";</v>
       </c>
       <c r="J6" s="10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">   /** 遷移先スクリーンID */
-   private Integer targetScreenId;</v>
+        <v xml:space="preserve">   /** スクリーンID */
+   private Integer screenId;</v>
       </c>
       <c r="K6" s="10" t="str">
         <f t="shared" ref="K6:K7" si="5">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G6&amp;" get"&amp;$D6&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
-    * 遷移先スクリーンIDを取得します。
-    * 
-    * @return 遷移先スクリーンID
-    */
-   public Integer getTargetScreenId(){
-      return targetScreenId;
+    * スクリーンIDを取得します。
+    * 
+    * @return スクリーンID
+    */
+   public Integer getScreenId(){
+      return screenId;
    }
 </v>
       </c>
       <c r="L6" s="10" t="str">
         <f t="shared" ref="L6:L7" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E6&amp;" "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D6&amp;"("&amp;$G6&amp;" "&amp;$E6&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E6&amp;" = "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
-    * 遷移先スクリーンIDを設定します。
-    * 
-    * @param targetScreenId 遷移先スクリーンID
-    */
-   public void setTargetScreenId(Integer targetScreenId){
-      this.targetScreenId = targetScreenId;
+    * スクリーンIDを設定します。
+    * 
+    * @param screenId スクリーンID
+    */
+   public void setScreenId(Integer screenId){
+      this.screenId = screenId;
    }
 </v>
       </c>
@@ -1158,10 +1152,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D7" s="12" t="str">
         <f t="shared" si="3"/>
@@ -1176,10 +1170,10 @@
         <v>SCREEN_OBJ_GRP_DTO_LIST</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I7" s="12" t="str">
         <f t="shared" si="1"/>
@@ -1261,10 +1255,10 @@
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
       <c r="H1" s="18" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -1272,7 +1266,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="14"/>
@@ -1280,7 +1274,7 @@
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
       <c r="I2" s="17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
@@ -1294,13 +1288,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>2</v>
@@ -1327,10 +1321,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D5" s="6" t="str">
         <f t="shared" ref="D5:D6" si="1">SUBSTITUTE($C5," ","")</f>
@@ -1391,10 +1385,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D6" s="6" t="str">
         <f t="shared" si="1"/>
@@ -1455,10 +1449,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D7" s="6" t="str">
         <f>SUBSTITUTE($C7," ","")</f>
@@ -1473,7 +1467,7 @@
         <v>SCREEN_OBJ_DTO_LIST</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>16</v>
@@ -1558,10 +1552,10 @@
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
       <c r="H1" s="18" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -1569,7 +1563,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="14"/>
@@ -1577,7 +1571,7 @@
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
       <c r="I2" s="17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
@@ -1591,13 +1585,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>2</v>
@@ -1624,10 +1618,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D5" s="8" t="str">
         <f>SUBSTITUTE($C5," ","")</f>
@@ -1688,10 +1682,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D6" s="10" t="str">
         <f t="shared" ref="D6:D7" si="3">SUBSTITUTE($C6," ","")</f>
@@ -1752,10 +1746,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D7" s="12" t="str">
         <f t="shared" si="3"/>
@@ -1770,7 +1764,7 @@
         <v>ATT_DTO_LIST</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>16</v>
@@ -1855,10 +1849,10 @@
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
       <c r="H1" s="18" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -1874,7 +1868,7 @@
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
       <c r="I2" s="17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
@@ -1888,13 +1882,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>2</v>
@@ -1924,7 +1918,7 @@
         <v>18</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D5" s="8" t="str">
         <f>SUBSTITUTE($C5," ","")</f>
@@ -1988,7 +1982,7 @@
         <v>23</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D6" s="10" t="str">
         <f t="shared" ref="D6:D9" si="3">SUBSTITUTE($C6," ","")</f>
@@ -2052,7 +2046,7 @@
         <v>20</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D7" s="10" t="str">
         <f t="shared" si="3"/>
@@ -2116,7 +2110,7 @@
         <v>21</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D8" s="10" t="str">
         <f t="shared" si="3"/>
@@ -2180,7 +2174,7 @@
         <v>22</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D9" s="12" t="str">
         <f t="shared" si="3"/>
@@ -2270,7 +2264,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="14"/>
@@ -2278,10 +2272,10 @@
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
       <c r="H1" s="18" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -2289,7 +2283,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="14"/>
@@ -2297,7 +2291,7 @@
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
       <c r="I2" s="17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
@@ -2311,10 +2305,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>5</v>
@@ -2344,10 +2338,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D9" si="1">SUBSTITUTE($C5," ","")</f>
@@ -2408,10 +2402,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D6" s="10" t="str">
         <f t="shared" si="1"/>
@@ -2472,10 +2466,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D7" s="10" t="str">
         <f t="shared" si="1"/>
@@ -2534,10 +2528,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D8" s="10" t="str">
         <f t="shared" si="1"/>
@@ -2596,10 +2590,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D9" s="12" t="str">
         <f t="shared" si="1"/>
@@ -2689,7 +2683,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="14"/>
@@ -2697,10 +2691,10 @@
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
       <c r="H1" s="18" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -2708,7 +2702,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="14"/>
@@ -2716,7 +2710,7 @@
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
       <c r="I2" s="17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
@@ -2730,10 +2724,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>5</v>
@@ -2766,7 +2760,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D5" s="8" t="str">
         <f>SUBSTITUTE($C5," ","")</f>
@@ -2827,10 +2821,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D6" s="12" t="str">
         <f t="shared" ref="D6" si="3">SUBSTITUTE($C6," ","")</f>
@@ -2845,7 +2839,7 @@
         <v>ATT_DTO_LIST</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>16</v>
@@ -2922,7 +2916,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="14"/>
@@ -2930,10 +2924,10 @@
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
       <c r="H1" s="18" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -2941,7 +2935,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="14"/>
@@ -2949,7 +2943,7 @@
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
       <c r="I2" s="17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
@@ -2963,10 +2957,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>5</v>
@@ -2999,7 +2993,7 @@
         <v>22</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D5" s="8" t="str">
         <f>SUBSTITUTE($C5," ","")</f>
@@ -3060,10 +3054,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D6" s="12" t="str">
         <f t="shared" ref="D6" si="3">SUBSTITUTE($C6," ","")</f>
@@ -3078,7 +3072,7 @@
         <v>ATT_DTO_LIST</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>16</v>

--- a/03_設計/06_データオブジェクト/データオブジェクト定義書.xlsx
+++ b/03_設計/06_データオブジェクト/データオブジェクト定義書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12195" tabRatio="806"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12195" tabRatio="955"/>
   </bookViews>
   <sheets>
     <sheet name="スクリーンDTO" sheetId="5" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="属性DTO" sheetId="10" r:id="rId5"/>
     <sheet name="地域DTO" sheetId="12" r:id="rId6"/>
     <sheet name="施設DTO" sheetId="11" r:id="rId7"/>
+    <sheet name="レイアウト・スクリーンDTO" sheetId="13" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="94">
   <si>
     <t>論理名</t>
     <rPh sb="0" eb="3">
@@ -189,26 +190,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Att Grp Id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Att Grp Type</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Att Grp Nm</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Att Val</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Att Cd Val</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スクリーンDTO</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -315,18 +296,6 @@
     <rPh sb="0" eb="2">
       <t>ゾクセイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AttDto</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Att Dto List</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>List&lt;AttDto&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -444,6 +413,93 @@
   <si>
     <t>Screen Id</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LayoutScreenDto</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイアウト・スクリーンDTO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイアウト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイアウトオブジェクトグループ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクリーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクリーンオブジェクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Layout</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Screen</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイアウトオブジェクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Screen Obj</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Layout Obj Grp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Layout Obj</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LayoutObjGrp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LayoutObj</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ScreenObj</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Attr Dto List</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>List&lt;AttrDto&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AttrDto</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Attr Grp Id</t>
+  </si>
+  <si>
+    <t>Attr Grp Type</t>
+  </si>
+  <si>
+    <t>Attr Grp Nm</t>
+  </si>
+  <si>
+    <t>Attr Val</t>
+  </si>
+  <si>
+    <t>Attr Cd Val</t>
   </si>
 </sst>
 </file>
@@ -958,10 +1014,10 @@
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
       <c r="H1" s="18" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -969,7 +1025,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="14"/>
@@ -977,7 +1033,7 @@
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
       <c r="I2" s="17" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
@@ -1024,10 +1080,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D5" s="8" t="str">
         <f>SUBSTITUTE($C5," ","")</f>
@@ -1088,10 +1144,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D6" s="10" t="str">
         <f t="shared" ref="D6:D7" si="3">SUBSTITUTE($C6," ","")</f>
@@ -1152,7 +1208,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>26</v>
@@ -1170,10 +1226,10 @@
         <v>SCREEN_OBJ_GRP_DTO_LIST</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="I7" s="12" t="str">
         <f t="shared" si="1"/>
@@ -1255,10 +1311,10 @@
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
       <c r="H1" s="18" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -1266,7 +1322,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="14"/>
@@ -1274,7 +1330,7 @@
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
       <c r="I2" s="17" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
@@ -1321,10 +1377,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D5" s="6" t="str">
         <f t="shared" ref="D5:D6" si="1">SUBSTITUTE($C5," ","")</f>
@@ -1385,10 +1441,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D6" s="6" t="str">
         <f t="shared" si="1"/>
@@ -1449,10 +1505,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D7" s="6" t="str">
         <f>SUBSTITUTE($C7," ","")</f>
@@ -1467,7 +1523,7 @@
         <v>SCREEN_OBJ_DTO_LIST</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>16</v>
@@ -1552,10 +1608,10 @@
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
       <c r="H1" s="18" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -1563,7 +1619,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="14"/>
@@ -1571,7 +1627,7 @@
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
       <c r="I2" s="17" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
@@ -1618,7 +1674,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>30</v>
@@ -1682,7 +1738,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>31</v>
@@ -1746,25 +1802,25 @@
         <v>3</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="D7" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>AttDtoList</v>
+        <v>AttrDtoList</v>
       </c>
       <c r="E7" s="12" t="str">
         <f>LOWER(LEFT($C7,1))&amp;RIGHT($D7,LEN($D7)-1)</f>
-        <v>attDtoList</v>
+        <v>attrDtoList</v>
       </c>
       <c r="F7" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>ATT_DTO_LIST</v>
+        <v>ATTR_DTO_LIST</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>16</v>
@@ -1772,12 +1828,12 @@
       <c r="I7" s="12" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">   /** 属性DTOリストのフィールド名 */
-   public static final String FIELD_ATT_DTO_LIST = "attDtoList";</v>
+   public static final String FIELD_ATTR_DTO_LIST = "attrDtoList";</v>
       </c>
       <c r="J7" s="12" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">   /** 属性DTOリスト */
-   private List&lt;AttDto&gt; attDtoList;</v>
+   private List&lt;AttrDto&gt; attrDtoList;</v>
       </c>
       <c r="K7" s="12" t="str">
         <f t="shared" si="5"/>
@@ -1786,8 +1842,8 @@
     * 
     * @return 属性DTOリスト
     */
-   public List&lt;AttDto&gt; getAttDtoList(){
-      return attDtoList;
+   public List&lt;AttrDto&gt; getAttrDtoList(){
+      return attrDtoList;
    }
 </v>
       </c>
@@ -1796,10 +1852,10 @@
         <v xml:space="preserve">   /**
     * 属性DTOリストを設定します。
     * 
-    * @param attDtoList 属性DTOリスト
-    */
-   public void setAttDtoList(List&lt;AttDto&gt; attDtoList){
-      this.attDtoList = attDtoList;
+    * @param attrDtoList 属性DTOリスト
+    */
+   public void setAttrDtoList(List&lt;AttrDto&gt; attrDtoList){
+      this.attrDtoList = attrDtoList;
    }
 </v>
       </c>
@@ -1849,10 +1905,10 @@
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
       <c r="H1" s="18" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -1868,7 +1924,7 @@
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
       <c r="I2" s="17" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
@@ -1918,7 +1974,7 @@
         <v>18</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D5" s="8" t="str">
         <f>SUBSTITUTE($C5," ","")</f>
@@ -2046,7 +2102,7 @@
         <v>20</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D7" s="10" t="str">
         <f t="shared" si="3"/>
@@ -2110,7 +2166,7 @@
         <v>21</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D8" s="10" t="str">
         <f t="shared" si="3"/>
@@ -2174,7 +2230,7 @@
         <v>22</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D9" s="12" t="str">
         <f t="shared" si="3"/>
@@ -2264,7 +2320,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="14"/>
@@ -2272,10 +2328,10 @@
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
       <c r="H1" s="18" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -2283,7 +2339,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="14"/>
@@ -2291,7 +2347,7 @@
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
       <c r="I2" s="17" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
@@ -2338,22 +2394,22 @@
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D9" si="1">SUBSTITUTE($C5," ","")</f>
-        <v>AttGrpId</v>
+        <v>AttrGrpId</v>
       </c>
       <c r="E5" s="10" t="str">
         <f>LOWER(LEFT($C5,1))&amp;RIGHT($D5,LEN($D5)-1)</f>
-        <v>attGrpId</v>
+        <v>attrGrpId</v>
       </c>
       <c r="F5" s="10" t="str">
         <f t="shared" ref="F5:F9" si="2">UPPER(SUBSTITUTE($C5," ","_"))</f>
-        <v>ATT_GRP_ID</v>
+        <v>ATTR_GRP_ID</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>7</v>
@@ -2364,12 +2420,12 @@
       <c r="I5" s="10" t="str">
         <f t="shared" ref="I5:I9" si="3">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
         <v xml:space="preserve">   /** 属性グループIDのフィールド名 */
-   public static final String FIELD_ATT_GRP_ID = "attGrpId";</v>
+   public static final String FIELD_ATTR_GRP_ID = "attrGrpId";</v>
       </c>
       <c r="J5" s="10" t="str">
         <f t="shared" ref="J5:J9" si="4">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G5&amp;" "&amp;$E5&amp;";"</f>
         <v xml:space="preserve">   /** 属性グループID */
-   private Integer attGrpId;</v>
+   private Integer attrGrpId;</v>
       </c>
       <c r="K5" s="10" t="str">
         <f t="shared" ref="K5:K9" si="5">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G5&amp;" get"&amp;$D5&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
@@ -2378,8 +2434,8 @@
     * 
     * @return 属性グループID
     */
-   public Integer getAttGrpId(){
-      return attGrpId;
+   public Integer getAttrGrpId(){
+      return attrGrpId;
    }
 </v>
       </c>
@@ -2388,10 +2444,10 @@
         <v xml:space="preserve">   /**
     * 属性グループIDを設定します。
     * 
-    * @param attGrpId 属性グループID
-    */
-   public void setAttGrpId(Integer attGrpId){
-      this.attGrpId = attGrpId;
+    * @param attrGrpId 属性グループID
+    */
+   public void setAttrGrpId(Integer attrGrpId){
+      this.attrGrpId = attrGrpId;
    }
 </v>
       </c>
@@ -2402,22 +2458,22 @@
         <v>2</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="D6" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>AttGrpType</v>
+        <v>AttrGrpType</v>
       </c>
       <c r="E6" s="10" t="str">
         <f>LOWER(LEFT($C6,1))&amp;RIGHT($D6,LEN($D6)-1)</f>
-        <v>attGrpType</v>
+        <v>attrGrpType</v>
       </c>
       <c r="F6" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>ATT_GRP_TYPE</v>
+        <v>ATTR_GRP_TYPE</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>10</v>
@@ -2428,12 +2484,12 @@
       <c r="I6" s="10" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">   /** 属性グループ種別のフィールド名 */
-   public static final String FIELD_ATT_GRP_TYPE = "attGrpType";</v>
+   public static final String FIELD_ATTR_GRP_TYPE = "attrGrpType";</v>
       </c>
       <c r="J6" s="10" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">   /** 属性グループ種別 */
-   private String attGrpType;</v>
+   private String attrGrpType;</v>
       </c>
       <c r="K6" s="10" t="str">
         <f t="shared" si="5"/>
@@ -2442,8 +2498,8 @@
     * 
     * @return 属性グループ種別
     */
-   public String getAttGrpType(){
-      return attGrpType;
+   public String getAttrGrpType(){
+      return attrGrpType;
    }
 </v>
       </c>
@@ -2452,10 +2508,10 @@
         <v xml:space="preserve">   /**
     * 属性グループ種別を設定します。
     * 
-    * @param attGrpType 属性グループ種別
-    */
-   public void setAttGrpType(String attGrpType){
-      this.attGrpType = attGrpType;
+    * @param attrGrpType 属性グループ種別
+    */
+   public void setAttrGrpType(String attrGrpType){
+      this.attrGrpType = attrGrpType;
    }
 </v>
       </c>
@@ -2466,22 +2522,22 @@
         <v>3</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="D7" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>AttGrpNm</v>
+        <v>AttrGrpNm</v>
       </c>
       <c r="E7" s="10" t="str">
         <f t="shared" ref="E7:E9" si="7">LOWER(LEFT($C7,1))&amp;RIGHT($D7,LEN($D7)-1)</f>
-        <v>attGrpNm</v>
+        <v>attrGrpNm</v>
       </c>
       <c r="F7" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>ATT_GRP_NM</v>
+        <v>ATTR_GRP_NM</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>10</v>
@@ -2490,12 +2546,12 @@
       <c r="I7" s="10" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">   /** 属性グループ名称のフィールド名 */
-   public static final String FIELD_ATT_GRP_NM = "attGrpNm";</v>
+   public static final String FIELD_ATTR_GRP_NM = "attrGrpNm";</v>
       </c>
       <c r="J7" s="10" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">   /** 属性グループ名称 */
-   private String attGrpNm;</v>
+   private String attrGrpNm;</v>
       </c>
       <c r="K7" s="10" t="str">
         <f t="shared" si="5"/>
@@ -2504,8 +2560,8 @@
     * 
     * @return 属性グループ名称
     */
-   public String getAttGrpNm(){
-      return attGrpNm;
+   public String getAttrGrpNm(){
+      return attrGrpNm;
    }
 </v>
       </c>
@@ -2514,10 +2570,10 @@
         <v xml:space="preserve">   /**
     * 属性グループ名称を設定します。
     * 
-    * @param attGrpNm 属性グループ名称
-    */
-   public void setAttGrpNm(String attGrpNm){
-      this.attGrpNm = attGrpNm;
+    * @param attrGrpNm 属性グループ名称
+    */
+   public void setAttrGrpNm(String attrGrpNm){
+      this.attrGrpNm = attrGrpNm;
    }
 </v>
       </c>
@@ -2528,22 +2584,22 @@
         <v>4</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="D8" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>AttVal</v>
+        <v>AttrVal</v>
       </c>
       <c r="E8" s="10" t="str">
         <f t="shared" si="7"/>
-        <v>attVal</v>
+        <v>attrVal</v>
       </c>
       <c r="F8" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>ATT_VAL</v>
+        <v>ATTR_VAL</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>10</v>
@@ -2552,12 +2608,12 @@
       <c r="I8" s="10" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">   /** 属性値のフィールド名 */
-   public static final String FIELD_ATT_VAL = "attVal";</v>
+   public static final String FIELD_ATTR_VAL = "attrVal";</v>
       </c>
       <c r="J8" s="10" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">   /** 属性値 */
-   private String attVal;</v>
+   private String attrVal;</v>
       </c>
       <c r="K8" s="10" t="str">
         <f t="shared" si="5"/>
@@ -2566,8 +2622,8 @@
     * 
     * @return 属性値
     */
-   public String getAttVal(){
-      return attVal;
+   public String getAttrVal(){
+      return attrVal;
    }
 </v>
       </c>
@@ -2576,10 +2632,10 @@
         <v xml:space="preserve">   /**
     * 属性値を設定します。
     * 
-    * @param attVal 属性値
-    */
-   public void setAttVal(String attVal){
-      this.attVal = attVal;
+    * @param attrVal 属性値
+    */
+   public void setAttrVal(String attrVal){
+      this.attrVal = attrVal;
    }
 </v>
       </c>
@@ -2590,22 +2646,22 @@
         <v>5</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="D9" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>AttCdVal</v>
+        <v>AttrCdVal</v>
       </c>
       <c r="E9" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>attCdVal</v>
+        <v>attrCdVal</v>
       </c>
       <c r="F9" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>ATT_CD_VAL</v>
+        <v>ATTR_CD_VAL</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>10</v>
@@ -2614,12 +2670,12 @@
       <c r="I9" s="12" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">   /** 属性コード値のフィールド名 */
-   public static final String FIELD_ATT_CD_VAL = "attCdVal";</v>
+   public static final String FIELD_ATTR_CD_VAL = "attrCdVal";</v>
       </c>
       <c r="J9" s="12" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">   /** 属性コード値 */
-   private String attCdVal;</v>
+   private String attrCdVal;</v>
       </c>
       <c r="K9" s="12" t="str">
         <f t="shared" si="5"/>
@@ -2628,8 +2684,8 @@
     * 
     * @return 属性コード値
     */
-   public String getAttCdVal(){
-      return attCdVal;
+   public String getAttrCdVal(){
+      return attrCdVal;
    }
 </v>
       </c>
@@ -2638,10 +2694,10 @@
         <v xml:space="preserve">   /**
     * 属性コード値を設定します。
     * 
-    * @param attCdVal 属性コード値
-    */
-   public void setAttCdVal(String attCdVal){
-      this.attCdVal = attCdVal;
+    * @param attrCdVal 属性コード値
+    */
+   public void setAttrCdVal(String attrCdVal){
+      this.attrCdVal = attrCdVal;
    }
 </v>
       </c>
@@ -2683,7 +2739,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="14"/>
@@ -2691,10 +2747,10 @@
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
       <c r="H1" s="18" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -2702,7 +2758,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="14"/>
@@ -2710,7 +2766,7 @@
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
       <c r="I2" s="17" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
@@ -2760,7 +2816,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D5" s="8" t="str">
         <f>SUBSTITUTE($C5," ","")</f>
@@ -2821,25 +2877,25 @@
         <v>2</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="D6" s="12" t="str">
         <f t="shared" ref="D6" si="3">SUBSTITUTE($C6," ","")</f>
-        <v>AttDtoList</v>
+        <v>AttrDtoList</v>
       </c>
       <c r="E6" s="12" t="str">
         <f>LOWER(LEFT($C6,1))&amp;RIGHT($D6,LEN($D6)-1)</f>
-        <v>attDtoList</v>
+        <v>attrDtoList</v>
       </c>
       <c r="F6" s="12" t="str">
         <f t="shared" ref="F6" si="4">UPPER(SUBSTITUTE($C6," ","_"))</f>
-        <v>ATT_DTO_LIST</v>
+        <v>ATTR_DTO_LIST</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>16</v>
@@ -2847,12 +2903,12 @@
       <c r="I6" s="12" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">   /** 属性DTOリストのフィールド名 */
-   public static final String FIELD_ATT_DTO_LIST = "attDtoList";</v>
+   public static final String FIELD_ATTR_DTO_LIST = "attrDtoList";</v>
       </c>
       <c r="J6" s="12" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">   /** 属性DTOリスト */
-   private List&lt;AttDto&gt; attDtoList;</v>
+   private List&lt;AttrDto&gt; attrDtoList;</v>
       </c>
       <c r="K6" s="12" t="str">
         <f t="shared" ref="K6" si="5">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G6&amp;" get"&amp;$D6&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
@@ -2861,8 +2917,8 @@
     * 
     * @return 属性DTOリスト
     */
-   public List&lt;AttDto&gt; getAttDtoList(){
-      return attDtoList;
+   public List&lt;AttrDto&gt; getAttrDtoList(){
+      return attrDtoList;
    }
 </v>
       </c>
@@ -2871,10 +2927,10 @@
         <v xml:space="preserve">   /**
     * 属性DTOリストを設定します。
     * 
-    * @param attDtoList 属性DTOリスト
-    */
-   public void setAttDtoList(List&lt;AttDto&gt; attDtoList){
-      this.attDtoList = attDtoList;
+    * @param attrDtoList 属性DTOリスト
+    */
+   public void setAttrDtoList(List&lt;AttrDto&gt; attrDtoList){
+      this.attrDtoList = attrDtoList;
    }
 </v>
       </c>
@@ -2916,7 +2972,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="14"/>
@@ -2924,10 +2980,10 @@
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
       <c r="H1" s="18" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -2935,7 +2991,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="14"/>
@@ -2943,7 +2999,7 @@
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
       <c r="I2" s="17" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
@@ -2993,7 +3049,7 @@
         <v>22</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D5" s="8" t="str">
         <f>SUBSTITUTE($C5," ","")</f>
@@ -3054,25 +3110,25 @@
         <v>2</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="D6" s="12" t="str">
         <f t="shared" ref="D6" si="3">SUBSTITUTE($C6," ","")</f>
-        <v>AttDtoList</v>
+        <v>AttrDtoList</v>
       </c>
       <c r="E6" s="12" t="str">
         <f>LOWER(LEFT($C6,1))&amp;RIGHT($D6,LEN($D6)-1)</f>
-        <v>attDtoList</v>
+        <v>attrDtoList</v>
       </c>
       <c r="F6" s="12" t="str">
         <f t="shared" ref="F6" si="4">UPPER(SUBSTITUTE($C6," ","_"))</f>
-        <v>ATT_DTO_LIST</v>
+        <v>ATTR_DTO_LIST</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>16</v>
@@ -3080,12 +3136,12 @@
       <c r="I6" s="12" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">   /** 属性DTOリストのフィールド名 */
-   public static final String FIELD_ATT_DTO_LIST = "attDtoList";</v>
+   public static final String FIELD_ATTR_DTO_LIST = "attrDtoList";</v>
       </c>
       <c r="J6" s="12" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">   /** 属性DTOリスト */
-   private List&lt;AttDto&gt; attDtoList;</v>
+   private List&lt;AttrDto&gt; attrDtoList;</v>
       </c>
       <c r="K6" s="12" t="str">
         <f t="shared" ref="K6" si="5">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G6&amp;" get"&amp;$D6&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
@@ -3094,8 +3150,8 @@
     * 
     * @return 属性DTOリスト
     */
-   public List&lt;AttDto&gt; getAttDtoList(){
-      return attDtoList;
+   public List&lt;AttrDto&gt; getAttrDtoList(){
+      return attrDtoList;
    }
 </v>
       </c>
@@ -3104,10 +3160,435 @@
         <v xml:space="preserve">   /**
     * 属性DTOリストを設定します。
     * 
-    * @param attDtoList 属性DTOリスト
-    */
-   public void setAttDtoList(List&lt;AttDto&gt; attDtoList){
-      this.attDtoList = attDtoList;
+    * @param attrDtoList 属性DTOリスト
+    */
+   public void setAttrDtoList(List&lt;AttrDto&gt; attrDtoList){
+      this.attrDtoList = attrDtoList;
+   }
+</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:L9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="43.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.75" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="6" width="6.25" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="43.75" style="1" customWidth="1"/>
+    <col min="8" max="12" width="5" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="I2" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="7">
+        <f t="shared" ref="A5:A9" si="0">ROW()-4</f>
+        <v>1</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="8" t="str">
+        <f>SUBSTITUTE($C5," ","")</f>
+        <v>Layout</v>
+      </c>
+      <c r="E5" s="8" t="str">
+        <f>LOWER(LEFT($C5,1))&amp;RIGHT($D5,LEN($D5)-1)</f>
+        <v>layout</v>
+      </c>
+      <c r="F5" s="8" t="str">
+        <f>UPPER(SUBSTITUTE($C5," ","_"))</f>
+        <v>LAYOUT</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="8" t="str">
+        <f t="shared" ref="I5:I9" si="1">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
+        <v xml:space="preserve">   /** レイアウトのフィールド名 */
+   public static final String FIELD_LAYOUT = "layout";</v>
+      </c>
+      <c r="J5" s="8" t="str">
+        <f t="shared" ref="J5:J9" si="2">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G5&amp;" "&amp;$E5&amp;";"</f>
+        <v xml:space="preserve">   /** レイアウト */
+   private Layout layout;</v>
+      </c>
+      <c r="K5" s="8" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G5&amp;" get"&amp;$D5&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * レイアウトを取得します。
+    * 
+    * @return レイアウト
+    */
+   public Layout getLayout(){
+      return layout;
+   }
+</v>
+      </c>
+      <c r="L5" s="8" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E5&amp;" "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D5&amp;"("&amp;$G5&amp;" "&amp;$E5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E5&amp;" = "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * レイアウトを設定します。
+    * 
+    * @param layout レイアウト
+    */
+   public void setLayout(Layout layout){
+      this.layout = layout;
+   }
+</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="10" t="str">
+        <f t="shared" ref="D6:D9" si="3">SUBSTITUTE($C6," ","")</f>
+        <v>LayoutObjGrp</v>
+      </c>
+      <c r="E6" s="10" t="str">
+        <f>LOWER(LEFT($C6,1))&amp;RIGHT($D6,LEN($D6)-1)</f>
+        <v>layoutObjGrp</v>
+      </c>
+      <c r="F6" s="10" t="str">
+        <f t="shared" ref="F6:F9" si="4">UPPER(SUBSTITUTE($C6," ","_"))</f>
+        <v>LAYOUT_OBJ_GRP</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">   /** レイアウトオブジェクトグループのフィールド名 */
+   public static final String FIELD_LAYOUT_OBJ_GRP = "layoutObjGrp";</v>
+      </c>
+      <c r="J6" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">   /** レイアウトオブジェクトグループ */
+   private LayoutObjGrp layoutObjGrp;</v>
+      </c>
+      <c r="K6" s="10" t="str">
+        <f t="shared" ref="K6:K9" si="5">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G6&amp;" get"&amp;$D6&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * レイアウトオブジェクトグループを取得します。
+    * 
+    * @return レイアウトオブジェクトグループ
+    */
+   public LayoutObjGrp getLayoutObjGrp(){
+      return layoutObjGrp;
+   }
+</v>
+      </c>
+      <c r="L6" s="10" t="str">
+        <f t="shared" ref="L6:L9" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E6&amp;" "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D6&amp;"("&amp;$G6&amp;" "&amp;$E6&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E6&amp;" = "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * レイアウトオブジェクトグループを設定します。
+    * 
+    * @param layoutObjGrp レイアウトオブジェクトグループ
+    */
+   public void setLayoutObjGrp(LayoutObjGrp layoutObjGrp){
+      this.layoutObjGrp = layoutObjGrp;
+   }
+</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>LayoutObj</v>
+      </c>
+      <c r="E7" s="10" t="str">
+        <f t="shared" ref="E7:E9" si="7">LOWER(LEFT($C7,1))&amp;RIGHT($D7,LEN($D7)-1)</f>
+        <v>layoutObj</v>
+      </c>
+      <c r="F7" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>LAYOUT_OBJ</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">   /** レイアウトオブジェクトのフィールド名 */
+   public static final String FIELD_LAYOUT_OBJ = "layoutObj";</v>
+      </c>
+      <c r="J7" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">   /** レイアウトオブジェクト */
+   private LayoutObj layoutObj;</v>
+      </c>
+      <c r="K7" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">   /**
+    * レイアウトオブジェクトを取得します。
+    * 
+    * @return レイアウトオブジェクト
+    */
+   public LayoutObj getLayoutObj(){
+      return layoutObj;
+   }
+</v>
+      </c>
+      <c r="L7" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   /**
+    * レイアウトオブジェクトを設定します。
+    * 
+    * @param layoutObj レイアウトオブジェクト
+    */
+   public void setLayoutObj(LayoutObj layoutObj){
+      this.layoutObj = layoutObj;
+   }
+</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>Screen</v>
+      </c>
+      <c r="E8" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>screen</v>
+      </c>
+      <c r="F8" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>SCREEN</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">   /** スクリーンのフィールド名 */
+   public static final String FIELD_SCREEN = "screen";</v>
+      </c>
+      <c r="J8" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">   /** スクリーン */
+   private Screen screen;</v>
+      </c>
+      <c r="K8" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">   /**
+    * スクリーンを取得します。
+    * 
+    * @return スクリーン
+    */
+   public Screen getScreen(){
+      return screen;
+   }
+</v>
+      </c>
+      <c r="L8" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   /**
+    * スクリーンを設定します。
+    * 
+    * @param screen スクリーン
+    */
+   public void setScreen(Screen screen){
+      this.screen = screen;
+   }
+</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>ScreenObj</v>
+      </c>
+      <c r="E9" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>screenObj</v>
+      </c>
+      <c r="F9" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>SCREEN_OBJ</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">   /** スクリーンオブジェクトのフィールド名 */
+   public static final String FIELD_SCREEN_OBJ = "screenObj";</v>
+      </c>
+      <c r="J9" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">   /** スクリーンオブジェクト */
+   private ScreenObj screenObj;</v>
+      </c>
+      <c r="K9" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">   /**
+    * スクリーンオブジェクトを取得します。
+    * 
+    * @return スクリーンオブジェクト
+    */
+   public ScreenObj getScreenObj(){
+      return screenObj;
+   }
+</v>
+      </c>
+      <c r="L9" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   /**
+    * スクリーンオブジェクトを設定します。
+    * 
+    * @param screenObj スクリーンオブジェクト
+    */
+   public void setScreenObj(ScreenObj screenObj){
+      this.screenObj = screenObj;
    }
 </v>
       </c>

--- a/03_設計/06_データオブジェクト/データオブジェクト定義書.xlsx
+++ b/03_設計/06_データオブジェクト/データオブジェクト定義書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n-suzuki\git\melip-doc\03_設計\06_データオブジェクト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project Files\01. MELIP\02_SVN (Document)\03_設計\06_データオブジェクト\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="102">
   <si>
     <t>論理名</t>
     <rPh sb="0" eb="3">
@@ -395,10 +395,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>multiplicity</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>レイアウトID</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -500,6 +496,42 @@
   </si>
   <si>
     <t>Attr Cd Val</t>
+  </si>
+  <si>
+    <t>レイアウトエイリアス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Layout Alias</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイアウトオブジェクトグループエイリアス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Layout Obj Grp Alias</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Multiplicity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイアウトオブジェクトエイリアス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Layout Obj Alias</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -981,7 +1013,7 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
@@ -1076,14 +1108,14 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
-        <f t="shared" ref="A5:A7" si="0">ROW()-4</f>
+        <f t="shared" ref="A5:A8" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D5" s="8" t="str">
         <f>SUBSTITUTE($C5," ","")</f>
@@ -1104,12 +1136,12 @@
         <v>16</v>
       </c>
       <c r="I5" s="8" t="str">
-        <f t="shared" ref="I5:I7" si="1">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
+        <f t="shared" ref="I5:I8" si="1">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
         <v xml:space="preserve">   /** レイアウトIDのフィールド名 */
    public static final String FIELD_LAYOUT_ID = "layoutId";</v>
       </c>
       <c r="J5" s="8" t="str">
-        <f t="shared" ref="J5:J7" si="2">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G5&amp;" "&amp;$E5&amp;";"</f>
+        <f t="shared" ref="J5:J8" si="2">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G5&amp;" "&amp;$E5&amp;";"</f>
         <v xml:space="preserve">   /** レイアウトID */
    private Integer layoutId;</v>
       </c>
@@ -1144,41 +1176,105 @@
         <v>2</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="D6" s="10" t="str">
-        <f t="shared" ref="D6:D7" si="3">SUBSTITUTE($C6," ","")</f>
-        <v>ScreenId</v>
+        <f t="shared" ref="D6:D8" si="3">SUBSTITUTE($C6," ","")</f>
+        <v>LayoutAlias</v>
       </c>
       <c r="E6" s="10" t="str">
         <f>LOWER(LEFT($C6,1))&amp;RIGHT($D6,LEN($D6)-1)</f>
-        <v>screenId</v>
+        <v>layoutAlias</v>
       </c>
       <c r="F6" s="10" t="str">
-        <f t="shared" ref="F6:F7" si="4">UPPER(SUBSTITUTE($C6," ","_"))</f>
-        <v>SCREEN_ID</v>
+        <f t="shared" ref="F6:F8" si="4">UPPER(SUBSTITUTE($C6," ","_"))</f>
+        <v>LAYOUT_ALIAS</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>16</v>
       </c>
       <c r="I6" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">   /** レイアウトエイリアスのフィールド名 */
+   public static final String FIELD_LAYOUT_ALIAS = "layoutAlias";</v>
+      </c>
+      <c r="J6" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">   /** レイアウトエイリアス */
+   private String layoutAlias;</v>
+      </c>
+      <c r="K6" s="10" t="str">
+        <f t="shared" ref="K6:K8" si="5">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G6&amp;" get"&amp;$D6&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * レイアウトエイリアスを取得します。
+    * 
+    * @return レイアウトエイリアス
+    */
+   public String getLayoutAlias(){
+      return layoutAlias;
+   }
+</v>
+      </c>
+      <c r="L6" s="10" t="str">
+        <f t="shared" ref="L6:L8" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E6&amp;" "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D6&amp;"("&amp;$G6&amp;" "&amp;$E6&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E6&amp;" = "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * レイアウトエイリアスを設定します。
+    * 
+    * @param layoutAlias レイアウトエイリアス
+    */
+   public void setLayoutAlias(String layoutAlias){
+      this.layoutAlias = layoutAlias;
+   }
+</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>ScreenId</v>
+      </c>
+      <c r="E7" s="10" t="str">
+        <f>LOWER(LEFT($C7,1))&amp;RIGHT($D7,LEN($D7)-1)</f>
+        <v>screenId</v>
+      </c>
+      <c r="F7" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>SCREEN_ID</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="10" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">   /** スクリーンIDのフィールド名 */
    public static final String FIELD_SCREEN_ID = "screenId";</v>
       </c>
-      <c r="J6" s="10" t="str">
+      <c r="J7" s="10" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">   /** スクリーンID */
    private Integer screenId;</v>
       </c>
-      <c r="K6" s="10" t="str">
-        <f t="shared" ref="K6:K7" si="5">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G6&amp;" get"&amp;$D6&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+      <c r="K7" s="10" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve">   /**
     * スクリーンIDを取得します。
     * 
@@ -1189,8 +1285,8 @@
    }
 </v>
       </c>
-      <c r="L6" s="10" t="str">
-        <f t="shared" ref="L6:L7" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E6&amp;" "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D6&amp;"("&amp;$G6&amp;" "&amp;$E6&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E6&amp;" = "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+      <c r="L7" s="10" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">   /**
     * スクリーンIDを設定します。
     * 
@@ -1202,46 +1298,46 @@
 </v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="11">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="12" t="str">
+      <c r="D8" s="12" t="str">
         <f t="shared" si="3"/>
         <v>ScreenObjGrpDtoList</v>
       </c>
-      <c r="E7" s="12" t="str">
-        <f>LOWER(LEFT($C7,1))&amp;RIGHT($D7,LEN($D7)-1)</f>
+      <c r="E8" s="12" t="str">
+        <f>LOWER(LEFT($C8,1))&amp;RIGHT($D8,LEN($D8)-1)</f>
         <v>screenObjGrpDtoList</v>
       </c>
-      <c r="F7" s="12" t="str">
+      <c r="F8" s="12" t="str">
         <f t="shared" si="4"/>
         <v>SCREEN_OBJ_GRP_DTO_LIST</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G8" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H8" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="12" t="str">
+      <c r="I8" s="12" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">   /** スクリーンオブジェクトグループリストのフィールド名 */
    public static final String FIELD_SCREEN_OBJ_GRP_DTO_LIST = "screenObjGrpDtoList";</v>
       </c>
-      <c r="J7" s="12" t="str">
+      <c r="J8" s="12" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">   /** スクリーンオブジェクトグループリスト */
    private List&lt;ScreenObjGrpDto&gt; screenObjGrpDtoList;</v>
       </c>
-      <c r="K7" s="12" t="str">
+      <c r="K8" s="12" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">   /**
     * スクリーンオブジェクトグループリストを取得します。
@@ -1253,7 +1349,7 @@
    }
 </v>
       </c>
-      <c r="L7" s="12" t="str">
+      <c r="L8" s="12" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">   /**
     * スクリーンオブジェクトグループリストを設定します。
@@ -1278,7 +1374,7 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
@@ -1373,7 +1469,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
-        <f t="shared" ref="A5:A6" si="0">ROW()-4</f>
+        <f t="shared" ref="A5:A7" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -1383,15 +1479,15 @@
         <v>64</v>
       </c>
       <c r="D5" s="6" t="str">
-        <f t="shared" ref="D5:D6" si="1">SUBSTITUTE($C5," ","")</f>
+        <f t="shared" ref="D5:D7" si="1">SUBSTITUTE($C5," ","")</f>
         <v>LayoutObjGrpId</v>
       </c>
       <c r="E5" s="6" t="str">
-        <f t="shared" ref="E5:E6" si="2">LOWER(LEFT($C5,1))&amp;RIGHT($D5,LEN($D5)-1)</f>
+        <f t="shared" ref="E5:E7" si="2">LOWER(LEFT($C5,1))&amp;RIGHT($D5,LEN($D5)-1)</f>
         <v>layoutObjGrpId</v>
       </c>
       <c r="F5" s="6" t="str">
-        <f t="shared" ref="F5:F6" si="3">UPPER(SUBSTITUTE($C5," ","_"))</f>
+        <f t="shared" ref="F5:F7" si="3">UPPER(SUBSTITUTE($C5," ","_"))</f>
         <v>LAYOUT_OBJ_GRP_ID</v>
       </c>
       <c r="G5" s="6" t="s">
@@ -1401,17 +1497,17 @@
         <v>16</v>
       </c>
       <c r="I5" s="6" t="str">
-        <f t="shared" ref="I5:I6" si="4">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
+        <f t="shared" ref="I5:I7" si="4">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
         <v xml:space="preserve">   /** レイアウトオブジェクトグループIDのフィールド名 */
    public static final String FIELD_LAYOUT_OBJ_GRP_ID = "layoutObjGrpId";</v>
       </c>
       <c r="J5" s="6" t="str">
-        <f t="shared" ref="J5:J6" si="5">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G5&amp;" "&amp;$E5&amp;";"</f>
+        <f t="shared" ref="J5:J7" si="5">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G5&amp;" "&amp;$E5&amp;";"</f>
         <v xml:space="preserve">   /** レイアウトオブジェクトグループID */
    private Integer layoutObjGrpId;</v>
       </c>
       <c r="K5" s="6" t="str">
-        <f t="shared" ref="K5:K6" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G5&amp;" get"&amp;$D5&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <f t="shared" ref="K5:K7" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G5&amp;" get"&amp;$D5&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
     * レイアウトオブジェクトグループIDを取得します。
     * 
@@ -1423,7 +1519,7 @@
 </v>
       </c>
       <c r="L5" s="6" t="str">
-        <f t="shared" ref="L5:L6" si="7">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E5&amp;" "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D5&amp;"("&amp;$G5&amp;" "&amp;$E5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E5&amp;" = "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <f t="shared" ref="L5:L7" si="7">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E5&amp;" "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D5&amp;"("&amp;$G5&amp;" "&amp;$E5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E5&amp;" = "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
     * レイアウトオブジェクトグループIDを設定します。
     * 
@@ -1441,22 +1537,22 @@
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="D6" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>multiplicity</v>
+        <v>LayoutObjGrpAlias</v>
       </c>
       <c r="E6" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>multiplicity</v>
+        <v>layoutObjGrpAlias</v>
       </c>
       <c r="F6" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>MULTIPLICITY</v>
+        <v>LAYOUT_OBJ_GRP_ALIAS</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>10</v>
@@ -1465,81 +1561,145 @@
         <v>16</v>
       </c>
       <c r="I6" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">   /** レイアウトオブジェクトグループエイリアスのフィールド名 */
+   public static final String FIELD_LAYOUT_OBJ_GRP_ALIAS = "layoutObjGrpAlias";</v>
+      </c>
+      <c r="J6" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">   /** レイアウトオブジェクトグループエイリアス */
+   private String layoutObjGrpAlias;</v>
+      </c>
+      <c r="K6" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   /**
+    * レイアウトオブジェクトグループエイリアスを取得します。
+    * 
+    * @return レイアウトオブジェクトグループエイリアス
+    */
+   public String getLayoutObjGrpAlias(){
+      return layoutObjGrpAlias;
+   }
+</v>
+      </c>
+      <c r="L6" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">   /**
+    * レイアウトオブジェクトグループエイリアスを設定します。
+    * 
+    * @param layoutObjGrpAlias レイアウトオブジェクトグループエイリアス
+    */
+   public void setLayoutObjGrpAlias(String layoutObjGrpAlias){
+      this.layoutObjGrpAlias = layoutObjGrpAlias;
+   }
+</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Multiplicity</v>
+      </c>
+      <c r="E7" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>multiplicity</v>
+      </c>
+      <c r="F7" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>MULTIPLICITY</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="6" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">   /** 多重度のフィールド名 */
    public static final String FIELD_MULTIPLICITY = "multiplicity";</v>
       </c>
-      <c r="J6" s="6" t="str">
+      <c r="J7" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">   /** 多重度 */
    private String multiplicity;</v>
       </c>
-      <c r="K6" s="6" t="str">
+      <c r="K7" s="6" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">   /**
     * 多重度を取得します。
     * 
     * @return 多重度
     */
-   public String getmultiplicity(){
+   public String getMultiplicity(){
       return multiplicity;
    }
 </v>
       </c>
-      <c r="L6" s="6" t="str">
+      <c r="L7" s="6" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">   /**
     * 多重度を設定します。
     * 
     * @param multiplicity 多重度
     */
-   public void setmultiplicity(String multiplicity){
+   public void setMultiplicity(String multiplicity){
       this.multiplicity = multiplicity;
    }
 </v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="5">
-        <f t="shared" ref="A7" si="8">ROW()-4</f>
-        <v>3</v>
-      </c>
-      <c r="B7" s="6" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="5">
+        <f t="shared" ref="A8" si="8">ROW()-4</f>
+        <v>4</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="6" t="str">
-        <f>SUBSTITUTE($C7," ","")</f>
+      <c r="D8" s="6" t="str">
+        <f>SUBSTITUTE($C8," ","")</f>
         <v>ScreenObjDtoList</v>
       </c>
-      <c r="E7" s="6" t="str">
-        <f>LOWER(LEFT($C7,1))&amp;RIGHT($D7,LEN($D7)-1)</f>
+      <c r="E8" s="6" t="str">
+        <f>LOWER(LEFT($C8,1))&amp;RIGHT($D8,LEN($D8)-1)</f>
         <v>screenObjDtoList</v>
       </c>
-      <c r="F7" s="6" t="str">
-        <f>UPPER(SUBSTITUTE($C7," ","_"))</f>
+      <c r="F8" s="6" t="str">
+        <f>UPPER(SUBSTITUTE($C8," ","_"))</f>
         <v>SCREEN_OBJ_DTO_LIST</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G8" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="6" t="str">
-        <f>"   /** "&amp;$B7&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F7&amp;" = """&amp;$E7&amp;""";"</f>
+      <c r="I8" s="6" t="str">
+        <f>"   /** "&amp;$B8&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F8&amp;" = """&amp;$E8&amp;""";"</f>
         <v xml:space="preserve">   /** スクリーンオブジェクトDTOリストのフィールド名 */
    public static final String FIELD_SCREEN_OBJ_DTO_LIST = "screenObjDtoList";</v>
       </c>
-      <c r="J7" s="6" t="str">
-        <f>"   /** "&amp;$B7&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G7&amp;" "&amp;$E7&amp;";"</f>
+      <c r="J8" s="6" t="str">
+        <f>"   /** "&amp;$B8&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G8&amp;" "&amp;$E8&amp;";"</f>
         <v xml:space="preserve">   /** スクリーンオブジェクトDTOリスト */
    private List&lt;ScreenObjDto&gt; screenObjDtoList;</v>
       </c>
-      <c r="K7" s="6" t="str">
-        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B7&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B7&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G7&amp;" get"&amp;$D7&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E7&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+      <c r="K8" s="6" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B8&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B8&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G8&amp;" get"&amp;$D8&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E8&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
     * スクリーンオブジェクトDTOリストを取得します。
     * 
@@ -1550,8 +1710,8 @@
    }
 </v>
       </c>
-      <c r="L7" s="6" t="str">
-        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B7&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E7&amp;" "&amp;$B7&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D7&amp;"("&amp;$G7&amp;" "&amp;$E7&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E7&amp;" = "&amp;$E7&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+      <c r="L8" s="6" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B8&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E8&amp;" "&amp;$B8&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D8&amp;"("&amp;$G8&amp;" "&amp;$E8&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E8&amp;" = "&amp;$E8&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
     * スクリーンオブジェクトDTOリストを設定します。
     * 
@@ -1575,7 +1735,7 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
@@ -1670,7 +1830,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
-        <f t="shared" ref="A5:A7" si="0">ROW()-4</f>
+        <f t="shared" ref="A5:A8" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -1698,12 +1858,12 @@
         <v>16</v>
       </c>
       <c r="I5" s="8" t="str">
-        <f t="shared" ref="I5:I7" si="1">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
+        <f t="shared" ref="I5:I8" si="1">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
         <v xml:space="preserve">   /** レイアウトオブジェクトIDのフィールド名 */
    public static final String FIELD_LAYOUT_OBJ_ID = "layoutObjId";</v>
       </c>
       <c r="J5" s="8" t="str">
-        <f t="shared" ref="J5:J7" si="2">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G5&amp;" "&amp;$E5&amp;";"</f>
+        <f t="shared" ref="J5:J8" si="2">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G5&amp;" "&amp;$E5&amp;";"</f>
         <v xml:space="preserve">   /** レイアウトオブジェクトID */
    private Integer layoutObjId;</v>
       </c>
@@ -1738,41 +1898,105 @@
         <v>2</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="D6" s="10" t="str">
-        <f t="shared" ref="D6:D7" si="3">SUBSTITUTE($C6," ","")</f>
-        <v>ScreenObjId</v>
+        <f t="shared" ref="D6:D8" si="3">SUBSTITUTE($C6," ","")</f>
+        <v>LayoutObjAlias</v>
       </c>
       <c r="E6" s="10" t="str">
         <f>LOWER(LEFT($C6,1))&amp;RIGHT($D6,LEN($D6)-1)</f>
-        <v>screenObjId</v>
+        <v>layoutObjAlias</v>
       </c>
       <c r="F6" s="10" t="str">
-        <f t="shared" ref="F6:F7" si="4">UPPER(SUBSTITUTE($C6," ","_"))</f>
-        <v>SCREEN_OBJ_ID</v>
+        <f t="shared" ref="F6:F8" si="4">UPPER(SUBSTITUTE($C6," ","_"))</f>
+        <v>LAYOUT_OBJ_ALIAS</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>16</v>
       </c>
       <c r="I6" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">   /** レイアウトオブジェクトエイリアスのフィールド名 */
+   public static final String FIELD_LAYOUT_OBJ_ALIAS = "layoutObjAlias";</v>
+      </c>
+      <c r="J6" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">   /** レイアウトオブジェクトエイリアス */
+   private String layoutObjAlias;</v>
+      </c>
+      <c r="K6" s="10" t="str">
+        <f t="shared" ref="K6:K8" si="5">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G6&amp;" get"&amp;$D6&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * レイアウトオブジェクトエイリアスを取得します。
+    * 
+    * @return レイアウトオブジェクトエイリアス
+    */
+   public String getLayoutObjAlias(){
+      return layoutObjAlias;
+   }
+</v>
+      </c>
+      <c r="L6" s="10" t="str">
+        <f t="shared" ref="L6:L8" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E6&amp;" "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D6&amp;"("&amp;$G6&amp;" "&amp;$E6&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E6&amp;" = "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * レイアウトオブジェクトエイリアスを設定します。
+    * 
+    * @param layoutObjAlias レイアウトオブジェクトエイリアス
+    */
+   public void setLayoutObjAlias(String layoutObjAlias){
+      this.layoutObjAlias = layoutObjAlias;
+   }
+</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>ScreenObjId</v>
+      </c>
+      <c r="E7" s="10" t="str">
+        <f>LOWER(LEFT($C7,1))&amp;RIGHT($D7,LEN($D7)-1)</f>
+        <v>screenObjId</v>
+      </c>
+      <c r="F7" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>SCREEN_OBJ_ID</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="10" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">   /** スクリーンオブジェクトIDのフィールド名 */
    public static final String FIELD_SCREEN_OBJ_ID = "screenObjId";</v>
       </c>
-      <c r="J6" s="10" t="str">
+      <c r="J7" s="10" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">   /** スクリーンオブジェクトID */
    private Integer screenObjId;</v>
       </c>
-      <c r="K6" s="10" t="str">
-        <f t="shared" ref="K6:K7" si="5">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G6&amp;" get"&amp;$D6&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+      <c r="K7" s="10" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve">   /**
     * スクリーンオブジェクトIDを取得します。
     * 
@@ -1783,8 +2007,8 @@
    }
 </v>
       </c>
-      <c r="L6" s="10" t="str">
-        <f t="shared" ref="L6:L7" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E6&amp;" "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D6&amp;"("&amp;$G6&amp;" "&amp;$E6&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E6&amp;" = "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+      <c r="L7" s="10" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">   /**
     * スクリーンオブジェクトIDを設定します。
     * 
@@ -1796,46 +2020,46 @@
 </v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="11">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" s="12" t="str">
+      <c r="C8" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="12" t="str">
         <f t="shared" si="3"/>
         <v>AttrDtoList</v>
       </c>
-      <c r="E7" s="12" t="str">
-        <f>LOWER(LEFT($C7,1))&amp;RIGHT($D7,LEN($D7)-1)</f>
+      <c r="E8" s="12" t="str">
+        <f>LOWER(LEFT($C8,1))&amp;RIGHT($D8,LEN($D8)-1)</f>
         <v>attrDtoList</v>
       </c>
-      <c r="F7" s="12" t="str">
+      <c r="F8" s="12" t="str">
         <f t="shared" si="4"/>
         <v>ATTR_DTO_LIST</v>
       </c>
-      <c r="G7" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="H7" s="12" t="s">
+      <c r="G8" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="12" t="str">
+      <c r="I8" s="12" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">   /** 属性DTOリストのフィールド名 */
    public static final String FIELD_ATTR_DTO_LIST = "attrDtoList";</v>
       </c>
-      <c r="J7" s="12" t="str">
+      <c r="J8" s="12" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">   /** 属性DTOリスト */
    private List&lt;AttrDto&gt; attrDtoList;</v>
       </c>
-      <c r="K7" s="12" t="str">
+      <c r="K8" s="12" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">   /**
     * 属性DTOリストを取得します。
@@ -1847,7 +2071,7 @@
    }
 </v>
       </c>
-      <c r="L7" s="12" t="str">
+      <c r="L8" s="12" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">   /**
     * 属性DTOリストを設定します。
@@ -2320,7 +2544,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="14"/>
@@ -2397,7 +2621,7 @@
         <v>39</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D9" si="1">SUBSTITUTE($C5," ","")</f>
@@ -2461,7 +2685,7 @@
         <v>40</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6" s="10" t="str">
         <f t="shared" si="1"/>
@@ -2525,7 +2749,7 @@
         <v>41</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D7" s="10" t="str">
         <f t="shared" si="1"/>
@@ -2587,7 +2811,7 @@
         <v>42</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" s="10" t="str">
         <f t="shared" si="1"/>
@@ -2649,7 +2873,7 @@
         <v>43</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D9" s="12" t="str">
         <f t="shared" si="1"/>
@@ -2880,7 +3104,7 @@
         <v>50</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" s="12" t="str">
         <f t="shared" ref="D6" si="3">SUBSTITUTE($C6," ","")</f>
@@ -2895,7 +3119,7 @@
         <v>ATTR_DTO_LIST</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>16</v>
@@ -3113,7 +3337,7 @@
         <v>50</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" s="12" t="str">
         <f t="shared" ref="D6" si="3">SUBSTITUTE($C6," ","")</f>
@@ -3128,7 +3352,7 @@
         <v>ATTR_DTO_LIST</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>16</v>
@@ -3205,7 +3429,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="14"/>
@@ -3224,7 +3448,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="14"/>
@@ -3279,10 +3503,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D5" s="8" t="str">
         <f>SUBSTITUTE($C5," ","")</f>
@@ -3297,7 +3521,7 @@
         <v>LAYOUT</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>16</v>
@@ -3343,10 +3567,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D6" s="10" t="str">
         <f t="shared" ref="D6:D9" si="3">SUBSTITUTE($C6," ","")</f>
@@ -3361,7 +3585,7 @@
         <v>LAYOUT_OBJ_GRP</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>16</v>
@@ -3407,10 +3631,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D7" s="10" t="str">
         <f t="shared" si="3"/>
@@ -3425,7 +3649,7 @@
         <v>LAYOUT_OBJ</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>62</v>
@@ -3471,10 +3695,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D8" s="10" t="str">
         <f t="shared" si="3"/>
@@ -3489,7 +3713,7 @@
         <v>SCREEN</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>62</v>
@@ -3535,10 +3759,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D9" s="12" t="str">
         <f t="shared" si="3"/>
@@ -3553,7 +3777,7 @@
         <v>SCREEN_OBJ</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>62</v>

--- a/03_設計/06_データオブジェクト/データオブジェクト定義書.xlsx
+++ b/03_設計/06_データオブジェクト/データオブジェクト定義書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project Files\01. MELIP\02_SVN (Document)\03_設計\06_データオブジェクト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n-suzuki\git\melip-doc\03_設計\06_データオブジェクト\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,13 @@
   <sheets>
     <sheet name="スクリーンDTO" sheetId="5" r:id="rId1"/>
     <sheet name="スクリーンオブジェクトグループDTO" sheetId="8" r:id="rId2"/>
-    <sheet name="スクリーンオブジェクトDTO" sheetId="7" r:id="rId3"/>
-    <sheet name="リクエストスクリーンDTO" sheetId="9" r:id="rId4"/>
-    <sheet name="属性DTO" sheetId="10" r:id="rId5"/>
-    <sheet name="地域DTO" sheetId="12" r:id="rId6"/>
-    <sheet name="施設DTO" sheetId="11" r:id="rId7"/>
-    <sheet name="レイアウト・スクリーンDTO" sheetId="13" r:id="rId8"/>
+    <sheet name="スクリーンオブジェクトDTOリスト（仮）" sheetId="14" r:id="rId3"/>
+    <sheet name="スクリーンオブジェクトDTO" sheetId="7" r:id="rId4"/>
+    <sheet name="リクエストスクリーンDTO" sheetId="9" r:id="rId5"/>
+    <sheet name="属性DTO" sheetId="10" r:id="rId6"/>
+    <sheet name="地域DTO" sheetId="12" r:id="rId7"/>
+    <sheet name="施設DTO" sheetId="11" r:id="rId8"/>
+    <sheet name="レイアウト・スクリーンDTO" sheetId="13" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="111">
   <si>
     <t>論理名</t>
     <rPh sb="0" eb="3">
@@ -531,6 +532,48 @@
   </si>
   <si>
     <t>String</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ScreenObjDtoList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクリーンオブジェクトDTOリストリスト（仮）</t>
+    <rPh sb="21" eb="22">
+      <t>カリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Screen Obj Dto List List</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>List&lt;ScreenObjDtoList&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクリーンオブジェクトDTOリスト（仮）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示順</t>
+    <rPh sb="0" eb="3">
+      <t>ヒョウジジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Display Num</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Integer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Display Num</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -667,7 +710,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -682,9 +725,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1034,37 +1074,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="18" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="I2" s="17" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="I2" s="16" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1107,45 +1147,45 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <f t="shared" ref="A5:A8" si="0">ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="8" t="str">
+      <c r="D5" s="7" t="str">
         <f>SUBSTITUTE($C5," ","")</f>
         <v>LayoutId</v>
       </c>
-      <c r="E5" s="8" t="str">
+      <c r="E5" s="7" t="str">
         <f>LOWER(LEFT($C5,1))&amp;RIGHT($D5,LEN($D5)-1)</f>
         <v>layoutId</v>
       </c>
-      <c r="F5" s="8" t="str">
+      <c r="F5" s="7" t="str">
         <f>UPPER(SUBSTITUTE($C5," ","_"))</f>
         <v>LAYOUT_ID</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="8" t="str">
+      <c r="I5" s="7" t="str">
         <f t="shared" ref="I5:I8" si="1">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
         <v xml:space="preserve">   /** レイアウトIDのフィールド名 */
    public static final String FIELD_LAYOUT_ID = "layoutId";</v>
       </c>
-      <c r="J5" s="8" t="str">
+      <c r="J5" s="7" t="str">
         <f t="shared" ref="J5:J8" si="2">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G5&amp;" "&amp;$E5&amp;";"</f>
         <v xml:space="preserve">   /** レイアウトID */
    private Integer layoutId;</v>
       </c>
-      <c r="K5" s="8" t="str">
+      <c r="K5" s="7" t="str">
         <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G5&amp;" get"&amp;$D5&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
     * レイアウトIDを取得します。
@@ -1157,7 +1197,7 @@
    }
 </v>
       </c>
-      <c r="L5" s="8" t="str">
+      <c r="L5" s="7" t="str">
         <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E5&amp;" "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D5&amp;"("&amp;$G5&amp;" "&amp;$E5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E5&amp;" = "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
     * レイアウトIDを設定します。
@@ -1171,45 +1211,45 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="10" t="str">
+      <c r="D6" s="9" t="str">
         <f t="shared" ref="D6:D8" si="3">SUBSTITUTE($C6," ","")</f>
         <v>LayoutAlias</v>
       </c>
-      <c r="E6" s="10" t="str">
+      <c r="E6" s="9" t="str">
         <f>LOWER(LEFT($C6,1))&amp;RIGHT($D6,LEN($D6)-1)</f>
         <v>layoutAlias</v>
       </c>
-      <c r="F6" s="10" t="str">
+      <c r="F6" s="9" t="str">
         <f t="shared" ref="F6:F8" si="4">UPPER(SUBSTITUTE($C6," ","_"))</f>
         <v>LAYOUT_ALIAS</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="10" t="str">
+      <c r="I6" s="9" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">   /** レイアウトエイリアスのフィールド名 */
    public static final String FIELD_LAYOUT_ALIAS = "layoutAlias";</v>
       </c>
-      <c r="J6" s="10" t="str">
+      <c r="J6" s="9" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">   /** レイアウトエイリアス */
    private String layoutAlias;</v>
       </c>
-      <c r="K6" s="10" t="str">
+      <c r="K6" s="9" t="str">
         <f t="shared" ref="K6:K8" si="5">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G6&amp;" get"&amp;$D6&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
     * レイアウトエイリアスを取得します。
@@ -1221,7 +1261,7 @@
    }
 </v>
       </c>
-      <c r="L6" s="10" t="str">
+      <c r="L6" s="9" t="str">
         <f t="shared" ref="L6:L8" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E6&amp;" "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D6&amp;"("&amp;$G6&amp;" "&amp;$E6&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E6&amp;" = "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
     * レイアウトエイリアスを設定します。
@@ -1235,45 +1275,45 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="10" t="str">
+      <c r="D7" s="9" t="str">
         <f t="shared" si="3"/>
         <v>ScreenId</v>
       </c>
-      <c r="E7" s="10" t="str">
+      <c r="E7" s="9" t="str">
         <f>LOWER(LEFT($C7,1))&amp;RIGHT($D7,LEN($D7)-1)</f>
         <v>screenId</v>
       </c>
-      <c r="F7" s="10" t="str">
+      <c r="F7" s="9" t="str">
         <f t="shared" si="4"/>
         <v>SCREEN_ID</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="10" t="str">
+      <c r="I7" s="9" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">   /** スクリーンIDのフィールド名 */
    public static final String FIELD_SCREEN_ID = "screenId";</v>
       </c>
-      <c r="J7" s="10" t="str">
+      <c r="J7" s="9" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">   /** スクリーンID */
    private Integer screenId;</v>
       </c>
-      <c r="K7" s="10" t="str">
+      <c r="K7" s="9" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">   /**
     * スクリーンIDを取得します。
@@ -1285,7 +1325,7 @@
    }
 </v>
       </c>
-      <c r="L7" s="10" t="str">
+      <c r="L7" s="9" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">   /**
     * スクリーンIDを設定します。
@@ -1299,45 +1339,45 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="11">
+      <c r="A8" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="12" t="str">
+      <c r="D8" s="11" t="str">
         <f t="shared" si="3"/>
         <v>ScreenObjGrpDtoList</v>
       </c>
-      <c r="E8" s="12" t="str">
+      <c r="E8" s="11" t="str">
         <f>LOWER(LEFT($C8,1))&amp;RIGHT($D8,LEN($D8)-1)</f>
         <v>screenObjGrpDtoList</v>
       </c>
-      <c r="F8" s="12" t="str">
+      <c r="F8" s="11" t="str">
         <f t="shared" si="4"/>
         <v>SCREEN_OBJ_GRP_DTO_LIST</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="12" t="str">
+      <c r="I8" s="11" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">   /** スクリーンオブジェクトグループリストのフィールド名 */
    public static final String FIELD_SCREEN_OBJ_GRP_DTO_LIST = "screenObjGrpDtoList";</v>
       </c>
-      <c r="J8" s="12" t="str">
+      <c r="J8" s="11" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">   /** スクリーンオブジェクトグループリスト */
    private List&lt;ScreenObjGrpDto&gt; screenObjGrpDtoList;</v>
       </c>
-      <c r="K8" s="12" t="str">
+      <c r="K8" s="11" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">   /**
     * スクリーンオブジェクトグループリストを取得します。
@@ -1349,7 +1389,7 @@
    }
 </v>
       </c>
-      <c r="L8" s="12" t="str">
+      <c r="L8" s="11" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">   /**
     * スクリーンオブジェクトグループリストを設定します。
@@ -1395,37 +1435,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="18" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="I2" s="17" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="I2" s="16" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1468,45 +1508,45 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="5">
+      <c r="A5" s="6">
         <f t="shared" ref="A5:A7" si="0">ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="6" t="str">
+      <c r="D5" s="7" t="str">
         <f t="shared" ref="D5:D7" si="1">SUBSTITUTE($C5," ","")</f>
         <v>LayoutObjGrpId</v>
       </c>
-      <c r="E5" s="6" t="str">
+      <c r="E5" s="7" t="str">
         <f t="shared" ref="E5:E7" si="2">LOWER(LEFT($C5,1))&amp;RIGHT($D5,LEN($D5)-1)</f>
         <v>layoutObjGrpId</v>
       </c>
-      <c r="F5" s="6" t="str">
+      <c r="F5" s="7" t="str">
         <f t="shared" ref="F5:F7" si="3">UPPER(SUBSTITUTE($C5," ","_"))</f>
         <v>LAYOUT_OBJ_GRP_ID</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="6" t="str">
+      <c r="I5" s="7" t="str">
         <f t="shared" ref="I5:I7" si="4">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
         <v xml:space="preserve">   /** レイアウトオブジェクトグループIDのフィールド名 */
    public static final String FIELD_LAYOUT_OBJ_GRP_ID = "layoutObjGrpId";</v>
       </c>
-      <c r="J5" s="6" t="str">
+      <c r="J5" s="7" t="str">
         <f t="shared" ref="J5:J7" si="5">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G5&amp;" "&amp;$E5&amp;";"</f>
         <v xml:space="preserve">   /** レイアウトオブジェクトグループID */
    private Integer layoutObjGrpId;</v>
       </c>
-      <c r="K5" s="6" t="str">
+      <c r="K5" s="7" t="str">
         <f t="shared" ref="K5:K7" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G5&amp;" get"&amp;$D5&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
     * レイアウトオブジェクトグループIDを取得します。
@@ -1518,7 +1558,7 @@
    }
 </v>
       </c>
-      <c r="L5" s="6" t="str">
+      <c r="L5" s="7" t="str">
         <f t="shared" ref="L5:L7" si="7">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E5&amp;" "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D5&amp;"("&amp;$G5&amp;" "&amp;$E5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E5&amp;" = "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
     * レイアウトオブジェクトグループIDを設定します。
@@ -1532,45 +1572,45 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="5">
+      <c r="A6" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="6" t="str">
+      <c r="D6" s="9" t="str">
         <f t="shared" si="1"/>
         <v>LayoutObjGrpAlias</v>
       </c>
-      <c r="E6" s="6" t="str">
+      <c r="E6" s="9" t="str">
         <f t="shared" si="2"/>
         <v>layoutObjGrpAlias</v>
       </c>
-      <c r="F6" s="6" t="str">
+      <c r="F6" s="9" t="str">
         <f t="shared" si="3"/>
         <v>LAYOUT_OBJ_GRP_ALIAS</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="6" t="str">
+      <c r="I6" s="9" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">   /** レイアウトオブジェクトグループエイリアスのフィールド名 */
    public static final String FIELD_LAYOUT_OBJ_GRP_ALIAS = "layoutObjGrpAlias";</v>
       </c>
-      <c r="J6" s="6" t="str">
+      <c r="J6" s="9" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">   /** レイアウトオブジェクトグループエイリアス */
    private String layoutObjGrpAlias;</v>
       </c>
-      <c r="K6" s="6" t="str">
+      <c r="K6" s="9" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">   /**
     * レイアウトオブジェクトグループエイリアスを取得します。
@@ -1582,7 +1622,7 @@
    }
 </v>
       </c>
-      <c r="L6" s="6" t="str">
+      <c r="L6" s="9" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">   /**
     * レイアウトオブジェクトグループエイリアスを設定します。
@@ -1596,45 +1636,45 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="5">
+      <c r="A7" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="6" t="str">
+      <c r="D7" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Multiplicity</v>
       </c>
-      <c r="E7" s="6" t="str">
+      <c r="E7" s="9" t="str">
         <f t="shared" si="2"/>
         <v>multiplicity</v>
       </c>
-      <c r="F7" s="6" t="str">
+      <c r="F7" s="9" t="str">
         <f t="shared" si="3"/>
         <v>MULTIPLICITY</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="6" t="str">
+      <c r="I7" s="9" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">   /** 多重度のフィールド名 */
    public static final String FIELD_MULTIPLICITY = "multiplicity";</v>
       </c>
-      <c r="J7" s="6" t="str">
+      <c r="J7" s="9" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">   /** 多重度 */
    private String multiplicity;</v>
       </c>
-      <c r="K7" s="6" t="str">
+      <c r="K7" s="9" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">   /**
     * 多重度を取得します。
@@ -1646,7 +1686,7 @@
    }
 </v>
       </c>
-      <c r="L7" s="6" t="str">
+      <c r="L7" s="9" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">   /**
     * 多重度を設定します。
@@ -1660,65 +1700,65 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="5">
+      <c r="A8" s="10">
         <f t="shared" ref="A8" si="8">ROW()-4</f>
         <v>4</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="6" t="str">
+      <c r="B8" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="11" t="str">
         <f>SUBSTITUTE($C8," ","")</f>
-        <v>ScreenObjDtoList</v>
-      </c>
-      <c r="E8" s="6" t="str">
+        <v>ScreenObjDtoListList</v>
+      </c>
+      <c r="E8" s="11" t="str">
         <f>LOWER(LEFT($C8,1))&amp;RIGHT($D8,LEN($D8)-1)</f>
-        <v>screenObjDtoList</v>
-      </c>
-      <c r="F8" s="6" t="str">
+        <v>screenObjDtoListList</v>
+      </c>
+      <c r="F8" s="11" t="str">
         <f>UPPER(SUBSTITUTE($C8," ","_"))</f>
-        <v>SCREEN_OBJ_DTO_LIST</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" s="6" t="s">
+        <v>SCREEN_OBJ_DTO_LIST_LIST</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="6" t="str">
+      <c r="I8" s="11" t="str">
         <f>"   /** "&amp;$B8&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F8&amp;" = """&amp;$E8&amp;""";"</f>
-        <v xml:space="preserve">   /** スクリーンオブジェクトDTOリストのフィールド名 */
-   public static final String FIELD_SCREEN_OBJ_DTO_LIST = "screenObjDtoList";</v>
-      </c>
-      <c r="J8" s="6" t="str">
+        <v xml:space="preserve">   /** スクリーンオブジェクトDTOリストリスト（仮）のフィールド名 */
+   public static final String FIELD_SCREEN_OBJ_DTO_LIST_LIST = "screenObjDtoListList";</v>
+      </c>
+      <c r="J8" s="11" t="str">
         <f>"   /** "&amp;$B8&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G8&amp;" "&amp;$E8&amp;";"</f>
-        <v xml:space="preserve">   /** スクリーンオブジェクトDTOリスト */
-   private List&lt;ScreenObjDto&gt; screenObjDtoList;</v>
-      </c>
-      <c r="K8" s="6" t="str">
+        <v xml:space="preserve">   /** スクリーンオブジェクトDTOリストリスト（仮） */
+   private List&lt;ScreenObjDtoList&gt; screenObjDtoListList;</v>
+      </c>
+      <c r="K8" s="11" t="str">
         <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B8&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B8&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G8&amp;" get"&amp;$D8&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E8&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
-    * スクリーンオブジェクトDTOリストを取得します。
-    * 
-    * @return スクリーンオブジェクトDTOリスト
-    */
-   public List&lt;ScreenObjDto&gt; getScreenObjDtoList(){
-      return screenObjDtoList;
-   }
-</v>
-      </c>
-      <c r="L8" s="6" t="str">
+    * スクリーンオブジェクトDTOリストリスト（仮）を取得します。
+    * 
+    * @return スクリーンオブジェクトDTOリストリスト（仮）
+    */
+   public List&lt;ScreenObjDtoList&gt; getScreenObjDtoListList(){
+      return screenObjDtoListList;
+   }
+</v>
+      </c>
+      <c r="L8" s="11" t="str">
         <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B8&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E8&amp;" "&amp;$B8&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D8&amp;"("&amp;$G8&amp;" "&amp;$E8&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E8&amp;" = "&amp;$E8&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
-    * スクリーンオブジェクトDTOリストを設定します。
-    * 
-    * @param screenObjDtoList スクリーンオブジェクトDTOリスト
-    */
-   public void setScreenObjDtoList(List&lt;ScreenObjDto&gt; screenObjDtoList){
-      this.screenObjDtoList = screenObjDtoList;
+    * スクリーンオブジェクトDTOリストリスト（仮）を設定します。
+    * 
+    * @param screenObjDtoListList スクリーンオブジェクトDTOリストリスト（仮）
+    */
+   public void setScreenObjDtoListList(List&lt;ScreenObjDtoList&gt; screenObjDtoListList){
+      this.screenObjDtoListList = screenObjDtoListList;
    }
 </v>
       </c>
@@ -1731,6 +1771,239 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="43.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.75" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="6" width="6.25" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="43.75" style="1" customWidth="1"/>
+    <col min="8" max="12" width="5" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="I2" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="6">
+        <f t="shared" ref="A5:A6" si="0">ROW()-4</f>
+        <v>1</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="7" t="str">
+        <f>SUBSTITUTE($C5," ","")</f>
+        <v>ScreenObjDtoList</v>
+      </c>
+      <c r="E5" s="7" t="str">
+        <f>LOWER(LEFT($C5,1))&amp;RIGHT($D5,LEN($D5)-1)</f>
+        <v>screenObjDtoList</v>
+      </c>
+      <c r="F5" s="7" t="str">
+        <f>UPPER(SUBSTITUTE($C5," ","_"))</f>
+        <v>SCREEN_OBJ_DTO_LIST</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="7" t="str">
+        <f t="shared" ref="I5:I6" si="1">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
+        <v xml:space="preserve">   /** スクリーンオブジェクトDTOリストのフィールド名 */
+   public static final String FIELD_SCREEN_OBJ_DTO_LIST = "screenObjDtoList";</v>
+      </c>
+      <c r="J5" s="7" t="str">
+        <f t="shared" ref="J5:J6" si="2">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G5&amp;" "&amp;$E5&amp;";"</f>
+        <v xml:space="preserve">   /** スクリーンオブジェクトDTOリスト */
+   private List&lt;ScreenObjDto&gt; screenObjDtoList;</v>
+      </c>
+      <c r="K5" s="7" t="str">
+        <f t="shared" ref="K5:K6" si="3">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G5&amp;" get"&amp;$D5&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * スクリーンオブジェクトDTOリストを取得します。
+    * 
+    * @return スクリーンオブジェクトDTOリスト
+    */
+   public List&lt;ScreenObjDto&gt; getScreenObjDtoList(){
+      return screenObjDtoList;
+   }
+</v>
+      </c>
+      <c r="L5" s="7" t="str">
+        <f t="shared" ref="L5:L6" si="4">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E5&amp;" "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D5&amp;"("&amp;$G5&amp;" "&amp;$E5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E5&amp;" = "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * スクリーンオブジェクトDTOリストを設定します。
+    * 
+    * @param screenObjDtoList スクリーンオブジェクトDTOリスト
+    */
+   public void setScreenObjDtoList(List&lt;ScreenObjDto&gt; screenObjDtoList){
+      this.screenObjDtoList = screenObjDtoList;
+   }
+</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="11" t="str">
+        <f t="shared" ref="D6" si="5">SUBSTITUTE($C6," ","")</f>
+        <v>DisplayNum</v>
+      </c>
+      <c r="E6" s="11" t="str">
+        <f t="shared" ref="E6" si="6">LOWER(LEFT($C6,1))&amp;RIGHT($D6,LEN($D6)-1)</f>
+        <v>displayNum</v>
+      </c>
+      <c r="F6" s="11" t="str">
+        <f t="shared" ref="F6" si="7">UPPER(SUBSTITUTE($C6," ","_"))</f>
+        <v>DISPLAY_NUM</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">   /** 表示順のフィールド名 */
+   public static final String FIELD_DISPLAY_NUM = "displayNum";</v>
+      </c>
+      <c r="J6" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">   /** 表示順 */
+   private Integer displayNum;</v>
+      </c>
+      <c r="K6" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">   /**
+    * 表示順を取得します。
+    * 
+    * @return 表示順
+    */
+   public Integer getDisplayNum(){
+      return displayNum;
+   }
+</v>
+      </c>
+      <c r="L6" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">   /**
+    * 表示順を設定します。
+    * 
+    * @param displayNum 表示順
+    */
+   public void setDisplayNum(Integer displayNum){
+      this.displayNum = displayNum;
+   }
+</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryRight="0"/>
@@ -1756,37 +2029,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="18" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="I2" s="17" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="I2" s="16" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1829,45 +2102,45 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <f t="shared" ref="A5:A8" si="0">ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="8" t="str">
+      <c r="D5" s="7" t="str">
         <f>SUBSTITUTE($C5," ","")</f>
         <v>LayoutObjId</v>
       </c>
-      <c r="E5" s="8" t="str">
+      <c r="E5" s="7" t="str">
         <f>LOWER(LEFT($C5,1))&amp;RIGHT($D5,LEN($D5)-1)</f>
         <v>layoutObjId</v>
       </c>
-      <c r="F5" s="8" t="str">
+      <c r="F5" s="7" t="str">
         <f>UPPER(SUBSTITUTE($C5," ","_"))</f>
         <v>LAYOUT_OBJ_ID</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="8" t="str">
+      <c r="I5" s="7" t="str">
         <f t="shared" ref="I5:I8" si="1">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
         <v xml:space="preserve">   /** レイアウトオブジェクトIDのフィールド名 */
    public static final String FIELD_LAYOUT_OBJ_ID = "layoutObjId";</v>
       </c>
-      <c r="J5" s="8" t="str">
+      <c r="J5" s="7" t="str">
         <f t="shared" ref="J5:J8" si="2">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G5&amp;" "&amp;$E5&amp;";"</f>
         <v xml:space="preserve">   /** レイアウトオブジェクトID */
    private Integer layoutObjId;</v>
       </c>
-      <c r="K5" s="8" t="str">
+      <c r="K5" s="7" t="str">
         <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G5&amp;" get"&amp;$D5&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
     * レイアウトオブジェクトIDを取得します。
@@ -1879,7 +2152,7 @@
    }
 </v>
       </c>
-      <c r="L5" s="8" t="str">
+      <c r="L5" s="7" t="str">
         <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E5&amp;" "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D5&amp;"("&amp;$G5&amp;" "&amp;$E5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E5&amp;" = "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
     * レイアウトオブジェクトIDを設定します。
@@ -1893,45 +2166,45 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D6" s="10" t="str">
+      <c r="D6" s="9" t="str">
         <f t="shared" ref="D6:D8" si="3">SUBSTITUTE($C6," ","")</f>
         <v>LayoutObjAlias</v>
       </c>
-      <c r="E6" s="10" t="str">
+      <c r="E6" s="9" t="str">
         <f>LOWER(LEFT($C6,1))&amp;RIGHT($D6,LEN($D6)-1)</f>
         <v>layoutObjAlias</v>
       </c>
-      <c r="F6" s="10" t="str">
+      <c r="F6" s="9" t="str">
         <f t="shared" ref="F6:F8" si="4">UPPER(SUBSTITUTE($C6," ","_"))</f>
         <v>LAYOUT_OBJ_ALIAS</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="10" t="str">
+      <c r="I6" s="9" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">   /** レイアウトオブジェクトエイリアスのフィールド名 */
    public static final String FIELD_LAYOUT_OBJ_ALIAS = "layoutObjAlias";</v>
       </c>
-      <c r="J6" s="10" t="str">
+      <c r="J6" s="9" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">   /** レイアウトオブジェクトエイリアス */
    private String layoutObjAlias;</v>
       </c>
-      <c r="K6" s="10" t="str">
+      <c r="K6" s="9" t="str">
         <f t="shared" ref="K6:K8" si="5">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G6&amp;" get"&amp;$D6&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
     * レイアウトオブジェクトエイリアスを取得します。
@@ -1943,7 +2216,7 @@
    }
 </v>
       </c>
-      <c r="L6" s="10" t="str">
+      <c r="L6" s="9" t="str">
         <f t="shared" ref="L6:L8" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E6&amp;" "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D6&amp;"("&amp;$G6&amp;" "&amp;$E6&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E6&amp;" = "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
     * レイアウトオブジェクトエイリアスを設定します。
@@ -1957,45 +2230,45 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="10" t="str">
+      <c r="D7" s="9" t="str">
         <f t="shared" si="3"/>
         <v>ScreenObjId</v>
       </c>
-      <c r="E7" s="10" t="str">
+      <c r="E7" s="9" t="str">
         <f>LOWER(LEFT($C7,1))&amp;RIGHT($D7,LEN($D7)-1)</f>
         <v>screenObjId</v>
       </c>
-      <c r="F7" s="10" t="str">
+      <c r="F7" s="9" t="str">
         <f t="shared" si="4"/>
         <v>SCREEN_OBJ_ID</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="10" t="str">
+      <c r="I7" s="9" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">   /** スクリーンオブジェクトIDのフィールド名 */
    public static final String FIELD_SCREEN_OBJ_ID = "screenObjId";</v>
       </c>
-      <c r="J7" s="10" t="str">
+      <c r="J7" s="9" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">   /** スクリーンオブジェクトID */
    private Integer screenObjId;</v>
       </c>
-      <c r="K7" s="10" t="str">
+      <c r="K7" s="9" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">   /**
     * スクリーンオブジェクトIDを取得します。
@@ -2007,7 +2280,7 @@
    }
 </v>
       </c>
-      <c r="L7" s="10" t="str">
+      <c r="L7" s="9" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">   /**
     * スクリーンオブジェクトIDを設定します。
@@ -2021,45 +2294,45 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="11">
+      <c r="A8" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="12" t="str">
+      <c r="D8" s="11" t="str">
         <f t="shared" si="3"/>
         <v>AttrDtoList</v>
       </c>
-      <c r="E8" s="12" t="str">
+      <c r="E8" s="11" t="str">
         <f>LOWER(LEFT($C8,1))&amp;RIGHT($D8,LEN($D8)-1)</f>
         <v>attrDtoList</v>
       </c>
-      <c r="F8" s="12" t="str">
+      <c r="F8" s="11" t="str">
         <f t="shared" si="4"/>
         <v>ATTR_DTO_LIST</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="12" t="str">
+      <c r="I8" s="11" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">   /** 属性DTOリストのフィールド名 */
    public static final String FIELD_ATTR_DTO_LIST = "attrDtoList";</v>
       </c>
-      <c r="J8" s="12" t="str">
+      <c r="J8" s="11" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">   /** 属性DTOリスト */
    private List&lt;AttrDto&gt; attrDtoList;</v>
       </c>
-      <c r="K8" s="12" t="str">
+      <c r="K8" s="11" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">   /**
     * 属性DTOリストを取得します。
@@ -2071,7 +2344,7 @@
    }
 </v>
       </c>
-      <c r="L8" s="12" t="str">
+      <c r="L8" s="11" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">   /**
     * 属性DTOリストを設定します。
@@ -2080,429 +2353,6 @@
     */
    public void setAttrDtoList(List&lt;AttrDto&gt; attrDtoList){
       this.attrDtoList = attrDtoList;
-   }
-</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:L9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="4.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="43.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.75" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="6" width="6.25" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="43.75" style="1" customWidth="1"/>
-    <col min="8" max="12" width="5" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="I2" s="17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="7">
-        <f t="shared" ref="A5:A9" si="0">ROW()-4</f>
-        <v>1</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="8" t="str">
-        <f>SUBSTITUTE($C5," ","")</f>
-        <v>LangDiv</v>
-      </c>
-      <c r="E5" s="8" t="str">
-        <f>LOWER(LEFT($C5,1))&amp;RIGHT($D5,LEN($D5)-1)</f>
-        <v>langDiv</v>
-      </c>
-      <c r="F5" s="8" t="str">
-        <f>UPPER(SUBSTITUTE($C5," ","_"))</f>
-        <v>LANG_DIV</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="8" t="str">
-        <f t="shared" ref="I5:I9" si="1">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
-        <v xml:space="preserve">   /** 言語区分のフィールド名 */
-   public static final String FIELD_LANG_DIV = "langDiv";</v>
-      </c>
-      <c r="J5" s="8" t="str">
-        <f t="shared" ref="J5:J9" si="2">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G5&amp;" "&amp;$E5&amp;";"</f>
-        <v xml:space="preserve">   /** 言語区分 */
-   private String langDiv;</v>
-      </c>
-      <c r="K5" s="8" t="str">
-        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G5&amp;" get"&amp;$D5&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
-        <v xml:space="preserve">   /**
-    * 言語区分を取得します。
-    * 
-    * @return 言語区分
-    */
-   public String getLangDiv(){
-      return langDiv;
-   }
-</v>
-      </c>
-      <c r="L5" s="8" t="str">
-        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E5&amp;" "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D5&amp;"("&amp;$G5&amp;" "&amp;$E5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E5&amp;" = "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
-        <v xml:space="preserve">   /**
-    * 言語区分を設定します。
-    * 
-    * @param langDiv 言語区分
-    */
-   public void setLangDiv(String langDiv){
-      this.langDiv = langDiv;
-   }
-</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="9">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="10" t="str">
-        <f t="shared" ref="D6:D9" si="3">SUBSTITUTE($C6," ","")</f>
-        <v>ScreenObjId</v>
-      </c>
-      <c r="E6" s="10" t="str">
-        <f>LOWER(LEFT($C6,1))&amp;RIGHT($D6,LEN($D6)-1)</f>
-        <v>screenObjId</v>
-      </c>
-      <c r="F6" s="10" t="str">
-        <f t="shared" ref="F6:F9" si="4">UPPER(SUBSTITUTE($C6," ","_"))</f>
-        <v>SCREEN_OBJ_ID</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   /** スクリーンオブジェクトIDのフィールド名 */
-   public static final String FIELD_SCREEN_OBJ_ID = "screenObjId";</v>
-      </c>
-      <c r="J6" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">   /** スクリーンオブジェクトID */
-   private Integer screenObjId;</v>
-      </c>
-      <c r="K6" s="10" t="str">
-        <f t="shared" ref="K6:K9" si="5">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G6&amp;" get"&amp;$D6&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
-        <v xml:space="preserve">   /**
-    * スクリーンオブジェクトIDを取得します。
-    * 
-    * @return スクリーンオブジェクトID
-    */
-   public Integer getScreenObjId(){
-      return screenObjId;
-   }
-</v>
-      </c>
-      <c r="L6" s="10" t="str">
-        <f t="shared" ref="L6:L9" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E6&amp;" "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D6&amp;"("&amp;$G6&amp;" "&amp;$E6&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E6&amp;" = "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
-        <v xml:space="preserve">   /**
-    * スクリーンオブジェクトIDを設定します。
-    * 
-    * @param screenObjId スクリーンオブジェクトID
-    */
-   public void setScreenObjId(Integer screenObjId){
-      this.screenObjId = screenObjId;
-   }
-</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="9">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>RegionId</v>
-      </c>
-      <c r="E7" s="10" t="str">
-        <f>LOWER(LEFT($C7,1))&amp;RIGHT($D7,LEN($D7)-1)</f>
-        <v>regionId</v>
-      </c>
-      <c r="F7" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>REGION_ID</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   /** 地域IDのフィールド名 */
-   public static final String FIELD_REGION_ID = "regionId";</v>
-      </c>
-      <c r="J7" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">   /** 地域ID */
-   private Integer regionId;</v>
-      </c>
-      <c r="K7" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">   /**
-    * 地域IDを取得します。
-    * 
-    * @return 地域ID
-    */
-   public Integer getRegionId(){
-      return regionId;
-   }
-</v>
-      </c>
-      <c r="L7" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">   /**
-    * 地域IDを設定します。
-    * 
-    * @param regionId 地域ID
-    */
-   public void setRegionId(Integer regionId){
-      this.regionId = regionId;
-   }
-</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="9">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>FacilityGrpId</v>
-      </c>
-      <c r="E8" s="10" t="str">
-        <f>LOWER(LEFT($C8,1))&amp;RIGHT($D8,LEN($D8)-1)</f>
-        <v>facilityGrpId</v>
-      </c>
-      <c r="F8" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>FACILITY_GRP_ID</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   /** 施設グループIDのフィールド名 */
-   public static final String FIELD_FACILITY_GRP_ID = "facilityGrpId";</v>
-      </c>
-      <c r="J8" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">   /** 施設グループID */
-   private Integer facilityGrpId;</v>
-      </c>
-      <c r="K8" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">   /**
-    * 施設グループIDを取得します。
-    * 
-    * @return 施設グループID
-    */
-   public Integer getFacilityGrpId(){
-      return facilityGrpId;
-   }
-</v>
-      </c>
-      <c r="L8" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">   /**
-    * 施設グループIDを設定します。
-    * 
-    * @param facilityGrpId 施設グループID
-    */
-   public void setFacilityGrpId(Integer facilityGrpId){
-      this.facilityGrpId = facilityGrpId;
-   }
-</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="11">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>FacilityId</v>
-      </c>
-      <c r="E9" s="12" t="str">
-        <f t="shared" ref="E9" si="7">LOWER(LEFT($C9,1))&amp;RIGHT($D9,LEN($D9)-1)</f>
-        <v>facilityId</v>
-      </c>
-      <c r="F9" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>FACILITY_ID</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   /** 施設IDのフィールド名 */
-   public static final String FIELD_FACILITY_ID = "facilityId";</v>
-      </c>
-      <c r="J9" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">   /** 施設ID */
-   private Integer facilityId;</v>
-      </c>
-      <c r="K9" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">   /**
-    * 施設IDを取得します。
-    * 
-    * @return 施設ID
-    */
-   public Integer getFacilityId(){
-      return facilityId;
-   }
-</v>
-      </c>
-      <c r="L9" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">   /**
-    * 施設IDを設定します。
-    * 
-    * @param facilityId 施設ID
-    */
-   public void setFacilityId(Integer facilityId){
-      this.facilityId = facilityId;
    }
 </v>
       </c>
@@ -2540,37 +2390,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="18" t="s">
+      <c r="B1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="I2" s="17" t="s">
+      <c r="B2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="I2" s="16" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2591,7 +2441,7 @@
         <v>28</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>2</v>
@@ -2613,315 +2463,319 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="9">
+      <c r="A5" s="6">
         <f t="shared" ref="A5:A9" si="0">ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" s="10" t="str">
-        <f t="shared" ref="D5:D9" si="1">SUBSTITUTE($C5," ","")</f>
-        <v>AttrGrpId</v>
-      </c>
-      <c r="E5" s="10" t="str">
+      <c r="B5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="7" t="str">
+        <f>SUBSTITUTE($C5," ","")</f>
+        <v>LangDiv</v>
+      </c>
+      <c r="E5" s="7" t="str">
         <f>LOWER(LEFT($C5,1))&amp;RIGHT($D5,LEN($D5)-1)</f>
-        <v>attrGrpId</v>
-      </c>
-      <c r="F5" s="10" t="str">
-        <f t="shared" ref="F5:F9" si="2">UPPER(SUBSTITUTE($C5," ","_"))</f>
-        <v>ATTR_GRP_ID</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="10" t="s">
+        <v>langDiv</v>
+      </c>
+      <c r="F5" s="7" t="str">
+        <f>UPPER(SUBSTITUTE($C5," ","_"))</f>
+        <v>LANG_DIV</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="10" t="str">
-        <f t="shared" ref="I5:I9" si="3">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
-        <v xml:space="preserve">   /** 属性グループIDのフィールド名 */
-   public static final String FIELD_ATTR_GRP_ID = "attrGrpId";</v>
-      </c>
-      <c r="J5" s="10" t="str">
-        <f t="shared" ref="J5:J9" si="4">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G5&amp;" "&amp;$E5&amp;";"</f>
-        <v xml:space="preserve">   /** 属性グループID */
-   private Integer attrGrpId;</v>
-      </c>
-      <c r="K5" s="10" t="str">
-        <f t="shared" ref="K5:K9" si="5">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G5&amp;" get"&amp;$D5&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
-        <v xml:space="preserve">   /**
-    * 属性グループIDを取得します。
-    * 
-    * @return 属性グループID
-    */
-   public Integer getAttrGrpId(){
-      return attrGrpId;
-   }
-</v>
-      </c>
-      <c r="L5" s="10" t="str">
-        <f t="shared" ref="L5:L9" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E5&amp;" "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D5&amp;"("&amp;$G5&amp;" "&amp;$E5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E5&amp;" = "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
-        <v xml:space="preserve">   /**
-    * 属性グループIDを設定します。
-    * 
-    * @param attrGrpId 属性グループID
-    */
-   public void setAttrGrpId(Integer attrGrpId){
-      this.attrGrpId = attrGrpId;
+      <c r="I5" s="7" t="str">
+        <f t="shared" ref="I5:I9" si="1">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
+        <v xml:space="preserve">   /** 言語区分のフィールド名 */
+   public static final String FIELD_LANG_DIV = "langDiv";</v>
+      </c>
+      <c r="J5" s="7" t="str">
+        <f t="shared" ref="J5:J9" si="2">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G5&amp;" "&amp;$E5&amp;";"</f>
+        <v xml:space="preserve">   /** 言語区分 */
+   private String langDiv;</v>
+      </c>
+      <c r="K5" s="7" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G5&amp;" get"&amp;$D5&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 言語区分を取得します。
+    * 
+    * @return 言語区分
+    */
+   public String getLangDiv(){
+      return langDiv;
+   }
+</v>
+      </c>
+      <c r="L5" s="7" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E5&amp;" "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D5&amp;"("&amp;$G5&amp;" "&amp;$E5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E5&amp;" = "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 言語区分を設定します。
+    * 
+    * @param langDiv 言語区分
+    */
+   public void setLangDiv(String langDiv){
+      this.langDiv = langDiv;
    }
 </v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="10" t="str">
+      <c r="B6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="9" t="str">
+        <f t="shared" ref="D6:D9" si="3">SUBSTITUTE($C6," ","")</f>
+        <v>ScreenObjId</v>
+      </c>
+      <c r="E6" s="9" t="str">
+        <f>LOWER(LEFT($C6,1))&amp;RIGHT($D6,LEN($D6)-1)</f>
+        <v>screenObjId</v>
+      </c>
+      <c r="F6" s="9" t="str">
+        <f t="shared" ref="F6:F9" si="4">UPPER(SUBSTITUTE($C6," ","_"))</f>
+        <v>SCREEN_OBJ_ID</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>AttrGrpType</v>
-      </c>
-      <c r="E6" s="10" t="str">
-        <f>LOWER(LEFT($C6,1))&amp;RIGHT($D6,LEN($D6)-1)</f>
-        <v>attrGrpType</v>
-      </c>
-      <c r="F6" s="10" t="str">
+        <v xml:space="preserve">   /** スクリーンオブジェクトIDのフィールド名 */
+   public static final String FIELD_SCREEN_OBJ_ID = "screenObjId";</v>
+      </c>
+      <c r="J6" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>ATTR_GRP_TYPE</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">   /** 属性グループ種別のフィールド名 */
-   public static final String FIELD_ATTR_GRP_TYPE = "attrGrpType";</v>
-      </c>
-      <c r="J6" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">   /** 属性グループ種別 */
-   private String attrGrpType;</v>
-      </c>
-      <c r="K6" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">   /**
-    * 属性グループ種別を取得します。
-    * 
-    * @return 属性グループ種別
-    */
-   public String getAttrGrpType(){
-      return attrGrpType;
-   }
-</v>
-      </c>
-      <c r="L6" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">   /**
-    * 属性グループ種別を設定します。
-    * 
-    * @param attrGrpType 属性グループ種別
-    */
-   public void setAttrGrpType(String attrGrpType){
-      this.attrGrpType = attrGrpType;
+        <v xml:space="preserve">   /** スクリーンオブジェクトID */
+   private Integer screenObjId;</v>
+      </c>
+      <c r="K6" s="9" t="str">
+        <f t="shared" ref="K6:K9" si="5">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G6&amp;" get"&amp;$D6&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * スクリーンオブジェクトIDを取得します。
+    * 
+    * @return スクリーンオブジェクトID
+    */
+   public Integer getScreenObjId(){
+      return screenObjId;
+   }
+</v>
+      </c>
+      <c r="L6" s="9" t="str">
+        <f t="shared" ref="L6:L9" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E6&amp;" "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D6&amp;"("&amp;$G6&amp;" "&amp;$E6&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E6&amp;" = "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * スクリーンオブジェクトIDを設定します。
+    * 
+    * @param screenObjId スクリーンオブジェクトID
+    */
+   public void setScreenObjId(Integer screenObjId){
+      this.screenObjId = screenObjId;
    }
 </v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="10" t="str">
+      <c r="B7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>RegionId</v>
+      </c>
+      <c r="E7" s="9" t="str">
+        <f>LOWER(LEFT($C7,1))&amp;RIGHT($D7,LEN($D7)-1)</f>
+        <v>regionId</v>
+      </c>
+      <c r="F7" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>REGION_ID</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>AttrGrpNm</v>
-      </c>
-      <c r="E7" s="10" t="str">
-        <f t="shared" ref="E7:E9" si="7">LOWER(LEFT($C7,1))&amp;RIGHT($D7,LEN($D7)-1)</f>
-        <v>attrGrpNm</v>
-      </c>
-      <c r="F7" s="10" t="str">
+        <v xml:space="preserve">   /** 地域IDのフィールド名 */
+   public static final String FIELD_REGION_ID = "regionId";</v>
+      </c>
+      <c r="J7" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>ATTR_GRP_NM</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">   /** 属性グループ名称のフィールド名 */
-   public static final String FIELD_ATTR_GRP_NM = "attrGrpNm";</v>
-      </c>
-      <c r="J7" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">   /** 属性グループ名称 */
-   private String attrGrpNm;</v>
-      </c>
-      <c r="K7" s="10" t="str">
+        <v xml:space="preserve">   /** 地域ID */
+   private Integer regionId;</v>
+      </c>
+      <c r="K7" s="9" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">   /**
-    * 属性グループ名称を取得します。
-    * 
-    * @return 属性グループ名称
-    */
-   public String getAttrGrpNm(){
-      return attrGrpNm;
-   }
-</v>
-      </c>
-      <c r="L7" s="10" t="str">
+    * 地域IDを取得します。
+    * 
+    * @return 地域ID
+    */
+   public Integer getRegionId(){
+      return regionId;
+   }
+</v>
+      </c>
+      <c r="L7" s="9" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">   /**
-    * 属性グループ名称を設定します。
-    * 
-    * @param attrGrpNm 属性グループ名称
-    */
-   public void setAttrGrpNm(String attrGrpNm){
-      this.attrGrpNm = attrGrpNm;
+    * 地域IDを設定します。
+    * 
+    * @param regionId 地域ID
+    */
+   public void setRegionId(Integer regionId){
+      this.regionId = regionId;
    }
 </v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="10" t="str">
+      <c r="B8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>FacilityGrpId</v>
+      </c>
+      <c r="E8" s="9" t="str">
+        <f>LOWER(LEFT($C8,1))&amp;RIGHT($D8,LEN($D8)-1)</f>
+        <v>facilityGrpId</v>
+      </c>
+      <c r="F8" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>FACILITY_GRP_ID</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>AttrVal</v>
-      </c>
-      <c r="E8" s="10" t="str">
-        <f t="shared" si="7"/>
-        <v>attrVal</v>
-      </c>
-      <c r="F8" s="10" t="str">
+        <v xml:space="preserve">   /** 施設グループIDのフィールド名 */
+   public static final String FIELD_FACILITY_GRP_ID = "facilityGrpId";</v>
+      </c>
+      <c r="J8" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>ATTR_VAL</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">   /** 属性値のフィールド名 */
-   public static final String FIELD_ATTR_VAL = "attrVal";</v>
-      </c>
-      <c r="J8" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">   /** 属性値 */
-   private String attrVal;</v>
-      </c>
-      <c r="K8" s="10" t="str">
+        <v xml:space="preserve">   /** 施設グループID */
+   private Integer facilityGrpId;</v>
+      </c>
+      <c r="K8" s="9" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">   /**
-    * 属性値を取得します。
-    * 
-    * @return 属性値
-    */
-   public String getAttrVal(){
-      return attrVal;
-   }
-</v>
-      </c>
-      <c r="L8" s="10" t="str">
+    * 施設グループIDを取得します。
+    * 
+    * @return 施設グループID
+    */
+   public Integer getFacilityGrpId(){
+      return facilityGrpId;
+   }
+</v>
+      </c>
+      <c r="L8" s="9" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">   /**
-    * 属性値を設定します。
-    * 
-    * @param attrVal 属性値
-    */
-   public void setAttrVal(String attrVal){
-      this.attrVal = attrVal;
+    * 施設グループIDを設定します。
+    * 
+    * @param facilityGrpId 施設グループID
+    */
+   public void setFacilityGrpId(Integer facilityGrpId){
+      this.facilityGrpId = facilityGrpId;
    }
 </v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="11">
+      <c r="A9" s="10">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" s="12" t="str">
+      <c r="B9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>FacilityId</v>
+      </c>
+      <c r="E9" s="11" t="str">
+        <f t="shared" ref="E9" si="7">LOWER(LEFT($C9,1))&amp;RIGHT($D9,LEN($D9)-1)</f>
+        <v>facilityId</v>
+      </c>
+      <c r="F9" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>FACILITY_ID</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>AttrCdVal</v>
-      </c>
-      <c r="E9" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>attrCdVal</v>
-      </c>
-      <c r="F9" s="12" t="str">
+        <v xml:space="preserve">   /** 施設IDのフィールド名 */
+   public static final String FIELD_FACILITY_ID = "facilityId";</v>
+      </c>
+      <c r="J9" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>ATTR_CD_VAL</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">   /** 属性コード値のフィールド名 */
-   public static final String FIELD_ATTR_CD_VAL = "attrCdVal";</v>
-      </c>
-      <c r="J9" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">   /** 属性コード値 */
-   private String attrCdVal;</v>
-      </c>
-      <c r="K9" s="12" t="str">
+        <v xml:space="preserve">   /** 施設ID */
+   private Integer facilityId;</v>
+      </c>
+      <c r="K9" s="11" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">   /**
-    * 属性コード値を取得します。
-    * 
-    * @return 属性コード値
-    */
-   public String getAttrCdVal(){
-      return attrCdVal;
-   }
-</v>
-      </c>
-      <c r="L9" s="12" t="str">
+    * 施設IDを取得します。
+    * 
+    * @return 施設ID
+    */
+   public Integer getFacilityId(){
+      return facilityId;
+   }
+</v>
+      </c>
+      <c r="L9" s="11" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">   /**
-    * 属性コード値を設定します。
-    * 
-    * @param attrCdVal 属性コード値
-    */
-   public void setAttrCdVal(String attrCdVal){
-      this.attrCdVal = attrCdVal;
+    * 施設IDを設定します。
+    * 
+    * @param facilityId 施設ID
+    */
+   public void setFacilityId(Integer facilityId){
+      this.facilityId = facilityId;
    }
 </v>
       </c>
@@ -2938,7 +2792,7 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
@@ -2959,37 +2813,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="18" t="s">
+      <c r="B1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="I2" s="17" t="s">
+      <c r="B2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="I2" s="16" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3032,129 +2886,377 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="7">
-        <f t="shared" ref="A5:A6" si="0">ROW()-4</f>
+      <c r="A5" s="6">
+        <f t="shared" ref="A5:A10" si="0">ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="8" t="str">
-        <f>SUBSTITUTE($C5," ","")</f>
-        <v>RegionId</v>
-      </c>
-      <c r="E5" s="8" t="str">
+      <c r="B5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="7" t="str">
+        <f t="shared" ref="D5:D10" si="1">SUBSTITUTE($C5," ","")</f>
+        <v>AttrGrpId</v>
+      </c>
+      <c r="E5" s="7" t="str">
         <f>LOWER(LEFT($C5,1))&amp;RIGHT($D5,LEN($D5)-1)</f>
-        <v>regionId</v>
-      </c>
-      <c r="F5" s="8" t="str">
-        <f>UPPER(SUBSTITUTE($C5," ","_"))</f>
-        <v>REGION_ID</v>
-      </c>
-      <c r="G5" s="8" t="s">
+        <v>attrGrpId</v>
+      </c>
+      <c r="F5" s="7" t="str">
+        <f t="shared" ref="F5:F10" si="2">UPPER(SUBSTITUTE($C5," ","_"))</f>
+        <v>ATTR_GRP_ID</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="8" t="str">
-        <f t="shared" ref="I5:I6" si="1">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
-        <v xml:space="preserve">   /** 地域IDのフィールド名 */
-   public static final String FIELD_REGION_ID = "regionId";</v>
-      </c>
-      <c r="J5" s="8" t="str">
-        <f t="shared" ref="J5:J6" si="2">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G5&amp;" "&amp;$E5&amp;";"</f>
-        <v xml:space="preserve">   /** 地域ID */
-   private Integer regionId;</v>
-      </c>
-      <c r="K5" s="8" t="str">
-        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G5&amp;" get"&amp;$D5&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
-        <v xml:space="preserve">   /**
-    * 地域IDを取得します。
-    * 
-    * @return 地域ID
-    */
-   public Integer getRegionId(){
-      return regionId;
-   }
-</v>
-      </c>
-      <c r="L5" s="8" t="str">
-        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E5&amp;" "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D5&amp;"("&amp;$G5&amp;" "&amp;$E5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E5&amp;" = "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
-        <v xml:space="preserve">   /**
-    * 地域IDを設定します。
-    * 
-    * @param regionId 地域ID
-    */
-   public void setRegionId(Integer regionId){
-      this.regionId = regionId;
+      <c r="I5" s="7" t="str">
+        <f t="shared" ref="I5:I10" si="3">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
+        <v xml:space="preserve">   /** 属性グループIDのフィールド名 */
+   public static final String FIELD_ATTR_GRP_ID = "attrGrpId";</v>
+      </c>
+      <c r="J5" s="7" t="str">
+        <f t="shared" ref="J5:J10" si="4">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G5&amp;" "&amp;$E5&amp;";"</f>
+        <v xml:space="preserve">   /** 属性グループID */
+   private Integer attrGrpId;</v>
+      </c>
+      <c r="K5" s="7" t="str">
+        <f t="shared" ref="K5:K10" si="5">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G5&amp;" get"&amp;$D5&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 属性グループIDを取得します。
+    * 
+    * @return 属性グループID
+    */
+   public Integer getAttrGrpId(){
+      return attrGrpId;
+   }
+</v>
+      </c>
+      <c r="L5" s="7" t="str">
+        <f t="shared" ref="L5:L10" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E5&amp;" "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D5&amp;"("&amp;$G5&amp;" "&amp;$E5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E5&amp;" = "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 属性グループIDを設定します。
+    * 
+    * @param attrGrpId 属性グループID
+    */
+   public void setAttrGrpId(Integer attrGrpId){
+      this.attrGrpId = attrGrpId;
    }
 </v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="11">
+      <c r="A6" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="12" t="str">
-        <f t="shared" ref="D6" si="3">SUBSTITUTE($C6," ","")</f>
-        <v>AttrDtoList</v>
-      </c>
-      <c r="E6" s="12" t="str">
+      <c r="B6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>AttrGrpType</v>
+      </c>
+      <c r="E6" s="9" t="str">
         <f>LOWER(LEFT($C6,1))&amp;RIGHT($D6,LEN($D6)-1)</f>
-        <v>attrDtoList</v>
-      </c>
-      <c r="F6" s="12" t="str">
-        <f t="shared" ref="F6" si="4">UPPER(SUBSTITUTE($C6," ","_"))</f>
-        <v>ATTR_DTO_LIST</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="H6" s="12" t="s">
+        <v>attrGrpType</v>
+      </c>
+      <c r="F6" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>ATTR_GRP_TYPE</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="12" t="str">
+      <c r="I6" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">   /** 属性グループ種別のフィールド名 */
+   public static final String FIELD_ATTR_GRP_TYPE = "attrGrpType";</v>
+      </c>
+      <c r="J6" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">   /** 属性グループ種別 */
+   private String attrGrpType;</v>
+      </c>
+      <c r="K6" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">   /**
+    * 属性グループ種別を取得します。
+    * 
+    * @return 属性グループ種別
+    */
+   public String getAttrGrpType(){
+      return attrGrpType;
+   }
+</v>
+      </c>
+      <c r="L6" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   /**
+    * 属性グループ種別を設定します。
+    * 
+    * @param attrGrpType 属性グループ種別
+    */
+   public void setAttrGrpType(String attrGrpType){
+      this.attrGrpType = attrGrpType;
+   }
+</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="9" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">   /** 属性DTOリストのフィールド名 */
-   public static final String FIELD_ATTR_DTO_LIST = "attrDtoList";</v>
-      </c>
-      <c r="J6" s="12" t="str">
+        <v>AttrGrpNm</v>
+      </c>
+      <c r="E7" s="9" t="str">
+        <f t="shared" ref="E7:E10" si="7">LOWER(LEFT($C7,1))&amp;RIGHT($D7,LEN($D7)-1)</f>
+        <v>attrGrpNm</v>
+      </c>
+      <c r="F7" s="9" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">   /** 属性DTOリスト */
-   private List&lt;AttrDto&gt; attrDtoList;</v>
-      </c>
-      <c r="K6" s="12" t="str">
-        <f t="shared" ref="K6" si="5">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G6&amp;" get"&amp;$D6&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
-        <v xml:space="preserve">   /**
-    * 属性DTOリストを取得します。
-    * 
-    * @return 属性DTOリスト
-    */
-   public List&lt;AttrDto&gt; getAttrDtoList(){
-      return attrDtoList;
-   }
-</v>
-      </c>
-      <c r="L6" s="12" t="str">
-        <f t="shared" ref="L6" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E6&amp;" "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D6&amp;"("&amp;$G6&amp;" "&amp;$E6&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E6&amp;" = "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
-        <v xml:space="preserve">   /**
-    * 属性DTOリストを設定します。
-    * 
-    * @param attrDtoList 属性DTOリスト
-    */
-   public void setAttrDtoList(List&lt;AttrDto&gt; attrDtoList){
-      this.attrDtoList = attrDtoList;
+        <v>ATTR_GRP_NM</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">   /** 属性グループ名称のフィールド名 */
+   public static final String FIELD_ATTR_GRP_NM = "attrGrpNm";</v>
+      </c>
+      <c r="J7" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">   /** 属性グループ名称 */
+   private String attrGrpNm;</v>
+      </c>
+      <c r="K7" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">   /**
+    * 属性グループ名称を取得します。
+    * 
+    * @return 属性グループ名称
+    */
+   public String getAttrGrpNm(){
+      return attrGrpNm;
+   }
+</v>
+      </c>
+      <c r="L7" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   /**
+    * 属性グループ名称を設定します。
+    * 
+    * @param attrGrpNm 属性グループ名称
+    */
+   public void setAttrGrpNm(String attrGrpNm){
+      this.attrGrpNm = attrGrpNm;
+   }
+</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>AttrVal</v>
+      </c>
+      <c r="E8" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>attrVal</v>
+      </c>
+      <c r="F8" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>ATTR_VAL</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">   /** 属性値のフィールド名 */
+   public static final String FIELD_ATTR_VAL = "attrVal";</v>
+      </c>
+      <c r="J8" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">   /** 属性値 */
+   private String attrVal;</v>
+      </c>
+      <c r="K8" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">   /**
+    * 属性値を取得します。
+    * 
+    * @return 属性値
+    */
+   public String getAttrVal(){
+      return attrVal;
+   }
+</v>
+      </c>
+      <c r="L8" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   /**
+    * 属性値を設定します。
+    * 
+    * @param attrVal 属性値
+    */
+   public void setAttrVal(String attrVal){
+      this.attrVal = attrVal;
+   }
+</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>AttrCdVal</v>
+      </c>
+      <c r="E9" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>attrCdVal</v>
+      </c>
+      <c r="F9" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>ATTR_CD_VAL</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">   /** 属性コード値のフィールド名 */
+   public static final String FIELD_ATTR_CD_VAL = "attrCdVal";</v>
+      </c>
+      <c r="J9" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">   /** 属性コード値 */
+   private String attrCdVal;</v>
+      </c>
+      <c r="K9" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">   /**
+    * 属性コード値を取得します。
+    * 
+    * @return 属性コード値
+    */
+   public String getAttrCdVal(){
+      return attrCdVal;
+   }
+</v>
+      </c>
+      <c r="L9" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   /**
+    * 属性コード値を設定します。
+    * 
+    * @param attrCdVal 属性コード値
+    */
+   public void setAttrCdVal(String attrCdVal){
+      this.attrCdVal = attrCdVal;
+   }
+</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>DisplayNum</v>
+      </c>
+      <c r="E10" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>displayNum</v>
+      </c>
+      <c r="F10" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>DISPLAY_NUM</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">   /** 表示順のフィールド名 */
+   public static final String FIELD_DISPLAY_NUM = "displayNum";</v>
+      </c>
+      <c r="J10" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">   /** 表示順 */
+   private Integer displayNum;</v>
+      </c>
+      <c r="K10" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">   /**
+    * 表示順を取得します。
+    * 
+    * @return 表示順
+    */
+   public Integer getDisplayNum(){
+      return displayNum;
+   }
+</v>
+      </c>
+      <c r="L10" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   /**
+    * 表示順を設定します。
+    * 
+    * @param displayNum 表示順
+    */
+   public void setDisplayNum(Integer displayNum){
+      this.displayNum = displayNum;
    }
 </v>
       </c>
@@ -3192,37 +3294,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="18" t="s">
+      <c r="B1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="I2" s="17" t="s">
+      <c r="B2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="I2" s="16" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3265,109 +3367,109 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <f t="shared" ref="A5:A6" si="0">ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="8" t="str">
+      <c r="B5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="7" t="str">
         <f>SUBSTITUTE($C5," ","")</f>
-        <v>FacilityId</v>
-      </c>
-      <c r="E5" s="8" t="str">
+        <v>RegionId</v>
+      </c>
+      <c r="E5" s="7" t="str">
         <f>LOWER(LEFT($C5,1))&amp;RIGHT($D5,LEN($D5)-1)</f>
-        <v>facilityId</v>
-      </c>
-      <c r="F5" s="8" t="str">
+        <v>regionId</v>
+      </c>
+      <c r="F5" s="7" t="str">
         <f>UPPER(SUBSTITUTE($C5," ","_"))</f>
-        <v>FACILITY_ID</v>
-      </c>
-      <c r="G5" s="8" t="s">
+        <v>REGION_ID</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="8" t="str">
+      <c r="I5" s="7" t="str">
         <f t="shared" ref="I5:I6" si="1">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
-        <v xml:space="preserve">   /** 施設IDのフィールド名 */
-   public static final String FIELD_FACILITY_ID = "facilityId";</v>
-      </c>
-      <c r="J5" s="8" t="str">
+        <v xml:space="preserve">   /** 地域IDのフィールド名 */
+   public static final String FIELD_REGION_ID = "regionId";</v>
+      </c>
+      <c r="J5" s="7" t="str">
         <f t="shared" ref="J5:J6" si="2">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G5&amp;" "&amp;$E5&amp;";"</f>
-        <v xml:space="preserve">   /** 施設ID */
-   private Integer facilityId;</v>
-      </c>
-      <c r="K5" s="8" t="str">
+        <v xml:space="preserve">   /** 地域ID */
+   private Integer regionId;</v>
+      </c>
+      <c r="K5" s="7" t="str">
         <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G5&amp;" get"&amp;$D5&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
-    * 施設IDを取得します。
-    * 
-    * @return 施設ID
-    */
-   public Integer getFacilityId(){
-      return facilityId;
-   }
-</v>
-      </c>
-      <c r="L5" s="8" t="str">
+    * 地域IDを取得します。
+    * 
+    * @return 地域ID
+    */
+   public Integer getRegionId(){
+      return regionId;
+   }
+</v>
+      </c>
+      <c r="L5" s="7" t="str">
         <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E5&amp;" "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D5&amp;"("&amp;$G5&amp;" "&amp;$E5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E5&amp;" = "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
-    * 施設IDを設定します。
-    * 
-    * @param facilityId 施設ID
-    */
-   public void setFacilityId(Integer facilityId){
-      this.facilityId = facilityId;
+    * 地域IDを設定します。
+    * 
+    * @param regionId 地域ID
+    */
+   public void setRegionId(Integer regionId){
+      this.regionId = regionId;
    }
 </v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="11">
+      <c r="A6" s="10">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="12" t="str">
+      <c r="D6" s="11" t="str">
         <f t="shared" ref="D6" si="3">SUBSTITUTE($C6," ","")</f>
         <v>AttrDtoList</v>
       </c>
-      <c r="E6" s="12" t="str">
+      <c r="E6" s="11" t="str">
         <f>LOWER(LEFT($C6,1))&amp;RIGHT($D6,LEN($D6)-1)</f>
         <v>attrDtoList</v>
       </c>
-      <c r="F6" s="12" t="str">
+      <c r="F6" s="11" t="str">
         <f t="shared" ref="F6" si="4">UPPER(SUBSTITUTE($C6," ","_"))</f>
         <v>ATTR_DTO_LIST</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="12" t="str">
+      <c r="I6" s="11" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">   /** 属性DTOリストのフィールド名 */
    public static final String FIELD_ATTR_DTO_LIST = "attrDtoList";</v>
       </c>
-      <c r="J6" s="12" t="str">
+      <c r="J6" s="11" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">   /** 属性DTOリスト */
    private List&lt;AttrDto&gt; attrDtoList;</v>
       </c>
-      <c r="K6" s="12" t="str">
+      <c r="K6" s="11" t="str">
         <f t="shared" ref="K6" si="5">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G6&amp;" get"&amp;$D6&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
     * 属性DTOリストを取得します。
@@ -3379,7 +3481,7 @@
    }
 </v>
       </c>
-      <c r="L6" s="12" t="str">
+      <c r="L6" s="11" t="str">
         <f t="shared" ref="L6" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E6&amp;" "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D6&amp;"("&amp;$G6&amp;" "&amp;$E6&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E6&amp;" = "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
     * 属性DTOリストを設定します。
@@ -3400,6 +3502,239 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="43.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.75" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="6" width="6.25" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="43.75" style="1" customWidth="1"/>
+    <col min="8" max="12" width="5" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="I2" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="6">
+        <f t="shared" ref="A5:A6" si="0">ROW()-4</f>
+        <v>1</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="7" t="str">
+        <f>SUBSTITUTE($C5," ","")</f>
+        <v>FacilityId</v>
+      </c>
+      <c r="E5" s="7" t="str">
+        <f>LOWER(LEFT($C5,1))&amp;RIGHT($D5,LEN($D5)-1)</f>
+        <v>facilityId</v>
+      </c>
+      <c r="F5" s="7" t="str">
+        <f>UPPER(SUBSTITUTE($C5," ","_"))</f>
+        <v>FACILITY_ID</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="7" t="str">
+        <f t="shared" ref="I5:I6" si="1">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
+        <v xml:space="preserve">   /** 施設IDのフィールド名 */
+   public static final String FIELD_FACILITY_ID = "facilityId";</v>
+      </c>
+      <c r="J5" s="7" t="str">
+        <f t="shared" ref="J5:J6" si="2">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G5&amp;" "&amp;$E5&amp;";"</f>
+        <v xml:space="preserve">   /** 施設ID */
+   private Integer facilityId;</v>
+      </c>
+      <c r="K5" s="7" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G5&amp;" get"&amp;$D5&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 施設IDを取得します。
+    * 
+    * @return 施設ID
+    */
+   public Integer getFacilityId(){
+      return facilityId;
+   }
+</v>
+      </c>
+      <c r="L5" s="7" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E5&amp;" "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D5&amp;"("&amp;$G5&amp;" "&amp;$E5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E5&amp;" = "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 施設IDを設定します。
+    * 
+    * @param facilityId 施設ID
+    */
+   public void setFacilityId(Integer facilityId){
+      this.facilityId = facilityId;
+   }
+</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="11" t="str">
+        <f t="shared" ref="D6" si="3">SUBSTITUTE($C6," ","")</f>
+        <v>AttrDtoList</v>
+      </c>
+      <c r="E6" s="11" t="str">
+        <f>LOWER(LEFT($C6,1))&amp;RIGHT($D6,LEN($D6)-1)</f>
+        <v>attrDtoList</v>
+      </c>
+      <c r="F6" s="11" t="str">
+        <f t="shared" ref="F6" si="4">UPPER(SUBSTITUTE($C6," ","_"))</f>
+        <v>ATTR_DTO_LIST</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">   /** 属性DTOリストのフィールド名 */
+   public static final String FIELD_ATTR_DTO_LIST = "attrDtoList";</v>
+      </c>
+      <c r="J6" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">   /** 属性DTOリスト */
+   private List&lt;AttrDto&gt; attrDtoList;</v>
+      </c>
+      <c r="K6" s="11" t="str">
+        <f t="shared" ref="K6" si="5">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G6&amp;" get"&amp;$D6&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 属性DTOリストを取得します。
+    * 
+    * @return 属性DTOリスト
+    */
+   public List&lt;AttrDto&gt; getAttrDtoList(){
+      return attrDtoList;
+   }
+</v>
+      </c>
+      <c r="L6" s="11" t="str">
+        <f t="shared" ref="L6" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E6&amp;" "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D6&amp;"("&amp;$G6&amp;" "&amp;$E6&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E6&amp;" = "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 属性DTOリストを設定します。
+    * 
+    * @param attrDtoList 属性DTOリスト
+    */
+   public void setAttrDtoList(List&lt;AttrDto&gt; attrDtoList){
+      this.attrDtoList = attrDtoList;
+   }
+</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryRight="0"/>
@@ -3425,37 +3760,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="18" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="I2" s="17" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="I2" s="16" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3498,45 +3833,45 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <f t="shared" ref="A5:A9" si="0">ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="8" t="str">
+      <c r="D5" s="7" t="str">
         <f>SUBSTITUTE($C5," ","")</f>
         <v>Layout</v>
       </c>
-      <c r="E5" s="8" t="str">
+      <c r="E5" s="7" t="str">
         <f>LOWER(LEFT($C5,1))&amp;RIGHT($D5,LEN($D5)-1)</f>
         <v>layout</v>
       </c>
-      <c r="F5" s="8" t="str">
+      <c r="F5" s="7" t="str">
         <f>UPPER(SUBSTITUTE($C5," ","_"))</f>
         <v>LAYOUT</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="8" t="str">
+      <c r="I5" s="7" t="str">
         <f t="shared" ref="I5:I9" si="1">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
         <v xml:space="preserve">   /** レイアウトのフィールド名 */
    public static final String FIELD_LAYOUT = "layout";</v>
       </c>
-      <c r="J5" s="8" t="str">
+      <c r="J5" s="7" t="str">
         <f t="shared" ref="J5:J9" si="2">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G5&amp;" "&amp;$E5&amp;";"</f>
         <v xml:space="preserve">   /** レイアウト */
    private Layout layout;</v>
       </c>
-      <c r="K5" s="8" t="str">
+      <c r="K5" s="7" t="str">
         <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G5&amp;" get"&amp;$D5&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
     * レイアウトを取得します。
@@ -3548,7 +3883,7 @@
    }
 </v>
       </c>
-      <c r="L5" s="8" t="str">
+      <c r="L5" s="7" t="str">
         <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E5&amp;" "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D5&amp;"("&amp;$G5&amp;" "&amp;$E5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E5&amp;" = "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
     * レイアウトを設定します。
@@ -3562,45 +3897,45 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="10" t="str">
+      <c r="D6" s="9" t="str">
         <f t="shared" ref="D6:D9" si="3">SUBSTITUTE($C6," ","")</f>
         <v>LayoutObjGrp</v>
       </c>
-      <c r="E6" s="10" t="str">
+      <c r="E6" s="9" t="str">
         <f>LOWER(LEFT($C6,1))&amp;RIGHT($D6,LEN($D6)-1)</f>
         <v>layoutObjGrp</v>
       </c>
-      <c r="F6" s="10" t="str">
+      <c r="F6" s="9" t="str">
         <f t="shared" ref="F6:F9" si="4">UPPER(SUBSTITUTE($C6," ","_"))</f>
         <v>LAYOUT_OBJ_GRP</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="10" t="str">
+      <c r="I6" s="9" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">   /** レイアウトオブジェクトグループのフィールド名 */
    public static final String FIELD_LAYOUT_OBJ_GRP = "layoutObjGrp";</v>
       </c>
-      <c r="J6" s="10" t="str">
+      <c r="J6" s="9" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">   /** レイアウトオブジェクトグループ */
    private LayoutObjGrp layoutObjGrp;</v>
       </c>
-      <c r="K6" s="10" t="str">
+      <c r="K6" s="9" t="str">
         <f t="shared" ref="K6:K9" si="5">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G6&amp;" get"&amp;$D6&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
     * レイアウトオブジェクトグループを取得します。
@@ -3612,7 +3947,7 @@
    }
 </v>
       </c>
-      <c r="L6" s="10" t="str">
+      <c r="L6" s="9" t="str">
         <f t="shared" ref="L6:L9" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E6&amp;" "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D6&amp;"("&amp;$G6&amp;" "&amp;$E6&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E6&amp;" = "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
     * レイアウトオブジェクトグループを設定します。
@@ -3626,45 +3961,45 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="10" t="str">
+      <c r="D7" s="9" t="str">
         <f t="shared" si="3"/>
         <v>LayoutObj</v>
       </c>
-      <c r="E7" s="10" t="str">
+      <c r="E7" s="9" t="str">
         <f t="shared" ref="E7:E9" si="7">LOWER(LEFT($C7,1))&amp;RIGHT($D7,LEN($D7)-1)</f>
         <v>layoutObj</v>
       </c>
-      <c r="F7" s="10" t="str">
+      <c r="F7" s="9" t="str">
         <f t="shared" si="4"/>
         <v>LAYOUT_OBJ</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="10" t="str">
+      <c r="I7" s="9" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">   /** レイアウトオブジェクトのフィールド名 */
    public static final String FIELD_LAYOUT_OBJ = "layoutObj";</v>
       </c>
-      <c r="J7" s="10" t="str">
+      <c r="J7" s="9" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">   /** レイアウトオブジェクト */
    private LayoutObj layoutObj;</v>
       </c>
-      <c r="K7" s="10" t="str">
+      <c r="K7" s="9" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">   /**
     * レイアウトオブジェクトを取得します。
@@ -3676,7 +4011,7 @@
    }
 </v>
       </c>
-      <c r="L7" s="10" t="str">
+      <c r="L7" s="9" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">   /**
     * レイアウトオブジェクトを設定します。
@@ -3690,45 +4025,45 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="10" t="str">
+      <c r="D8" s="9" t="str">
         <f t="shared" si="3"/>
         <v>Screen</v>
       </c>
-      <c r="E8" s="10" t="str">
+      <c r="E8" s="9" t="str">
         <f t="shared" si="7"/>
         <v>screen</v>
       </c>
-      <c r="F8" s="10" t="str">
+      <c r="F8" s="9" t="str">
         <f t="shared" si="4"/>
         <v>SCREEN</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="10" t="str">
+      <c r="I8" s="9" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">   /** スクリーンのフィールド名 */
    public static final String FIELD_SCREEN = "screen";</v>
       </c>
-      <c r="J8" s="10" t="str">
+      <c r="J8" s="9" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">   /** スクリーン */
    private Screen screen;</v>
       </c>
-      <c r="K8" s="10" t="str">
+      <c r="K8" s="9" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">   /**
     * スクリーンを取得します。
@@ -3740,7 +4075,7 @@
    }
 </v>
       </c>
-      <c r="L8" s="10" t="str">
+      <c r="L8" s="9" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">   /**
     * スクリーンを設定します。
@@ -3754,45 +4089,45 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="11">
+      <c r="A9" s="10">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="12" t="str">
+      <c r="D9" s="11" t="str">
         <f t="shared" si="3"/>
         <v>ScreenObj</v>
       </c>
-      <c r="E9" s="12" t="str">
+      <c r="E9" s="11" t="str">
         <f t="shared" si="7"/>
         <v>screenObj</v>
       </c>
-      <c r="F9" s="12" t="str">
+      <c r="F9" s="11" t="str">
         <f t="shared" si="4"/>
         <v>SCREEN_OBJ</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="I9" s="12" t="str">
+      <c r="I9" s="11" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">   /** スクリーンオブジェクトのフィールド名 */
    public static final String FIELD_SCREEN_OBJ = "screenObj";</v>
       </c>
-      <c r="J9" s="12" t="str">
+      <c r="J9" s="11" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">   /** スクリーンオブジェクト */
    private ScreenObj screenObj;</v>
       </c>
-      <c r="K9" s="12" t="str">
+      <c r="K9" s="11" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">   /**
     * スクリーンオブジェクトを取得します。
@@ -3804,7 +4139,7 @@
    }
 </v>
       </c>
-      <c r="L9" s="12" t="str">
+      <c r="L9" s="11" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">   /**
     * スクリーンオブジェクトを設定します。

--- a/03_設計/06_データオブジェクト/データオブジェクト定義書.xlsx
+++ b/03_設計/06_データオブジェクト/データオブジェクト定義書.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="114">
   <si>
     <t>論理名</t>
     <rPh sb="0" eb="3">
@@ -574,6 +574,18 @@
   </si>
   <si>
     <t>Display Num</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイアウト・スクリーンID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Layout Screen Id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Integer</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -636,7 +648,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -704,13 +716,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -764,6 +798,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3739,7 +3782,7 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
@@ -3832,47 +3875,111 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
-        <f t="shared" ref="A5:A9" si="0">ROW()-4</f>
+        <f t="shared" ref="A5:A10" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="D5" s="7" t="str">
         <f>SUBSTITUTE($C5," ","")</f>
-        <v>Layout</v>
+        <v>LayoutScreenId</v>
       </c>
       <c r="E5" s="7" t="str">
         <f>LOWER(LEFT($C5,1))&amp;RIGHT($D5,LEN($D5)-1)</f>
-        <v>layout</v>
+        <v>layoutScreenId</v>
       </c>
       <c r="F5" s="7" t="str">
         <f>UPPER(SUBSTITUTE($C5," ","_"))</f>
-        <v>LAYOUT</v>
+        <v>LAYOUT_SCREEN_ID</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="7" t="str">
-        <f t="shared" ref="I5:I9" si="1">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
+        <f t="shared" ref="I5:I10" si="1">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
+        <v xml:space="preserve">   /** レイアウト・スクリーンIDのフィールド名 */
+   public static final String FIELD_LAYOUT_SCREEN_ID = "layoutScreenId";</v>
+      </c>
+      <c r="J5" s="7" t="str">
+        <f t="shared" ref="J5:J10" si="2">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G5&amp;" "&amp;$E5&amp;";"</f>
+        <v xml:space="preserve">   /** レイアウト・スクリーンID */
+   private Integer layoutScreenId;</v>
+      </c>
+      <c r="K5" s="7" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G5&amp;" get"&amp;$D5&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * レイアウト・スクリーンIDを取得します。
+    * 
+    * @return レイアウト・スクリーンID
+    */
+   public Integer getLayoutScreenId(){
+      return layoutScreenId;
+   }
+</v>
+      </c>
+      <c r="L5" s="7" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E5&amp;" "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D5&amp;"("&amp;$G5&amp;" "&amp;$E5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E5&amp;" = "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * レイアウト・スクリーンIDを設定します。
+    * 
+    * @param layoutScreenId レイアウト・スクリーンID
+    */
+   public void setLayoutScreenId(Integer layoutScreenId){
+      this.layoutScreenId = layoutScreenId;
+   }
+</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="19" t="str">
+        <f>SUBSTITUTE($C6," ","")</f>
+        <v>Layout</v>
+      </c>
+      <c r="E6" s="19" t="str">
+        <f>LOWER(LEFT($C6,1))&amp;RIGHT($D6,LEN($D6)-1)</f>
+        <v>layout</v>
+      </c>
+      <c r="F6" s="19" t="str">
+        <f>UPPER(SUBSTITUTE($C6," ","_"))</f>
+        <v>LAYOUT</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="19" t="str">
+        <f t="shared" si="1"/>
         <v xml:space="preserve">   /** レイアウトのフィールド名 */
    public static final String FIELD_LAYOUT = "layout";</v>
       </c>
-      <c r="J5" s="7" t="str">
-        <f t="shared" ref="J5:J9" si="2">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G5&amp;" "&amp;$E5&amp;";"</f>
+      <c r="J6" s="19" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">   /** レイアウト */
    private Layout layout;</v>
       </c>
-      <c r="K5" s="7" t="str">
-        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G5&amp;" get"&amp;$D5&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+      <c r="K6" s="19" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G6&amp;" get"&amp;$D6&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
     * レイアウトを取得します。
     * 
@@ -3883,8 +3990,8 @@
    }
 </v>
       </c>
-      <c r="L5" s="7" t="str">
-        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E5&amp;" "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D5&amp;"("&amp;$G5&amp;" "&amp;$E5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E5&amp;" = "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+      <c r="L6" s="19" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E6&amp;" "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D6&amp;"("&amp;$G6&amp;" "&amp;$E6&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E6&amp;" = "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
     * レイアウトを設定します。
     * 
@@ -3892,70 +3999,6 @@
     */
    public void setLayout(Layout layout){
       this.layout = layout;
-   }
-</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="9" t="str">
-        <f t="shared" ref="D6:D9" si="3">SUBSTITUTE($C6," ","")</f>
-        <v>LayoutObjGrp</v>
-      </c>
-      <c r="E6" s="9" t="str">
-        <f>LOWER(LEFT($C6,1))&amp;RIGHT($D6,LEN($D6)-1)</f>
-        <v>layoutObjGrp</v>
-      </c>
-      <c r="F6" s="9" t="str">
-        <f t="shared" ref="F6:F9" si="4">UPPER(SUBSTITUTE($C6," ","_"))</f>
-        <v>LAYOUT_OBJ_GRP</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   /** レイアウトオブジェクトグループのフィールド名 */
-   public static final String FIELD_LAYOUT_OBJ_GRP = "layoutObjGrp";</v>
-      </c>
-      <c r="J6" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">   /** レイアウトオブジェクトグループ */
-   private LayoutObjGrp layoutObjGrp;</v>
-      </c>
-      <c r="K6" s="9" t="str">
-        <f t="shared" ref="K6:K9" si="5">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G6&amp;" get"&amp;$D6&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
-        <v xml:space="preserve">   /**
-    * レイアウトオブジェクトグループを取得します。
-    * 
-    * @return レイアウトオブジェクトグループ
-    */
-   public LayoutObjGrp getLayoutObjGrp(){
-      return layoutObjGrp;
-   }
-</v>
-      </c>
-      <c r="L6" s="9" t="str">
-        <f t="shared" ref="L6:L9" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E6&amp;" "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D6&amp;"("&amp;$G6&amp;" "&amp;$E6&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E6&amp;" = "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
-        <v xml:space="preserve">   /**
-    * レイアウトオブジェクトグループを設定します。
-    * 
-    * @param layoutObjGrp レイアウトオブジェクトグループ
-    */
-   public void setLayoutObjGrp(LayoutObjGrp layoutObjGrp){
-      this.layoutObjGrp = layoutObjGrp;
    }
 </v>
       </c>
@@ -3966,60 +4009,60 @@
         <v>3</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D7" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>LayoutObj</v>
+        <f t="shared" ref="D7:D10" si="3">SUBSTITUTE($C7," ","")</f>
+        <v>LayoutObjGrp</v>
       </c>
       <c r="E7" s="9" t="str">
-        <f t="shared" ref="E7:E9" si="7">LOWER(LEFT($C7,1))&amp;RIGHT($D7,LEN($D7)-1)</f>
-        <v>layoutObj</v>
+        <f>LOWER(LEFT($C7,1))&amp;RIGHT($D7,LEN($D7)-1)</f>
+        <v>layoutObjGrp</v>
       </c>
       <c r="F7" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>LAYOUT_OBJ</v>
+        <f t="shared" ref="F7:F10" si="4">UPPER(SUBSTITUTE($C7," ","_"))</f>
+        <v>LAYOUT_OBJ_GRP</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I7" s="9" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">   /** レイアウトオブジェクトのフィールド名 */
-   public static final String FIELD_LAYOUT_OBJ = "layoutObj";</v>
+        <v xml:space="preserve">   /** レイアウトオブジェクトグループのフィールド名 */
+   public static final String FIELD_LAYOUT_OBJ_GRP = "layoutObjGrp";</v>
       </c>
       <c r="J7" s="9" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">   /** レイアウトオブジェクト */
-   private LayoutObj layoutObj;</v>
+        <v xml:space="preserve">   /** レイアウトオブジェクトグループ */
+   private LayoutObjGrp layoutObjGrp;</v>
       </c>
       <c r="K7" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">   /**
-    * レイアウトオブジェクトを取得します。
-    * 
-    * @return レイアウトオブジェクト
-    */
-   public LayoutObj getLayoutObj(){
-      return layoutObj;
+        <f t="shared" ref="K7:K10" si="5">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B7&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B7&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G7&amp;" get"&amp;$D7&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E7&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * レイアウトオブジェクトグループを取得します。
+    * 
+    * @return レイアウトオブジェクトグループ
+    */
+   public LayoutObjGrp getLayoutObjGrp(){
+      return layoutObjGrp;
    }
 </v>
       </c>
       <c r="L7" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">   /**
-    * レイアウトオブジェクトを設定します。
-    * 
-    * @param layoutObj レイアウトオブジェクト
-    */
-   public void setLayoutObj(LayoutObj layoutObj){
-      this.layoutObj = layoutObj;
+        <f t="shared" ref="L7:L10" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B7&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E7&amp;" "&amp;$B7&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D7&amp;"("&amp;$G7&amp;" "&amp;$E7&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E7&amp;" = "&amp;$E7&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * レイアウトオブジェクトグループを設定します。
+    * 
+    * @param layoutObjGrp レイアウトオブジェクトグループ
+    */
+   public void setLayoutObjGrp(LayoutObjGrp layoutObjGrp){
+      this.layoutObjGrp = layoutObjGrp;
    }
 </v>
       </c>
@@ -4030,40 +4073,104 @@
         <v>4</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D8" s="9" t="str">
         <f t="shared" si="3"/>
+        <v>LayoutObj</v>
+      </c>
+      <c r="E8" s="9" t="str">
+        <f t="shared" ref="E8:E10" si="7">LOWER(LEFT($C8,1))&amp;RIGHT($D8,LEN($D8)-1)</f>
+        <v>layoutObj</v>
+      </c>
+      <c r="F8" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>LAYOUT_OBJ</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">   /** レイアウトオブジェクトのフィールド名 */
+   public static final String FIELD_LAYOUT_OBJ = "layoutObj";</v>
+      </c>
+      <c r="J8" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">   /** レイアウトオブジェクト */
+   private LayoutObj layoutObj;</v>
+      </c>
+      <c r="K8" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">   /**
+    * レイアウトオブジェクトを取得します。
+    * 
+    * @return レイアウトオブジェクト
+    */
+   public LayoutObj getLayoutObj(){
+      return layoutObj;
+   }
+</v>
+      </c>
+      <c r="L8" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   /**
+    * レイアウトオブジェクトを設定します。
+    * 
+    * @param layoutObj レイアウトオブジェクト
+    */
+   public void setLayoutObj(LayoutObj layoutObj){
+      this.layoutObj = layoutObj;
+   }
+</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="9" t="str">
+        <f t="shared" si="3"/>
         <v>Screen</v>
       </c>
-      <c r="E8" s="9" t="str">
+      <c r="E9" s="9" t="str">
         <f t="shared" si="7"/>
         <v>screen</v>
       </c>
-      <c r="F8" s="9" t="str">
+      <c r="F9" s="9" t="str">
         <f t="shared" si="4"/>
         <v>SCREEN</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G9" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H9" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="9" t="str">
+      <c r="I9" s="9" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">   /** スクリーンのフィールド名 */
    public static final String FIELD_SCREEN = "screen";</v>
       </c>
-      <c r="J8" s="9" t="str">
+      <c r="J9" s="9" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">   /** スクリーン */
    private Screen screen;</v>
       </c>
-      <c r="K8" s="9" t="str">
+      <c r="K9" s="9" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">   /**
     * スクリーンを取得します。
@@ -4075,7 +4182,7 @@
    }
 </v>
       </c>
-      <c r="L8" s="9" t="str">
+      <c r="L9" s="9" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">   /**
     * スクリーンを設定します。
@@ -4088,46 +4195,46 @@
 </v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="10">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="10">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C10" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="11" t="str">
+      <c r="D10" s="11" t="str">
         <f t="shared" si="3"/>
         <v>ScreenObj</v>
       </c>
-      <c r="E9" s="11" t="str">
+      <c r="E10" s="11" t="str">
         <f t="shared" si="7"/>
         <v>screenObj</v>
       </c>
-      <c r="F9" s="11" t="str">
+      <c r="F10" s="11" t="str">
         <f t="shared" si="4"/>
         <v>SCREEN_OBJ</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G10" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H10" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="I9" s="11" t="str">
+      <c r="I10" s="11" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">   /** スクリーンオブジェクトのフィールド名 */
    public static final String FIELD_SCREEN_OBJ = "screenObj";</v>
       </c>
-      <c r="J9" s="11" t="str">
+      <c r="J10" s="11" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">   /** スクリーンオブジェクト */
    private ScreenObj screenObj;</v>
       </c>
-      <c r="K9" s="11" t="str">
+      <c r="K10" s="11" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">   /**
     * スクリーンオブジェクトを取得します。
@@ -4139,7 +4246,7 @@
    }
 </v>
       </c>
-      <c r="L9" s="11" t="str">
+      <c r="L10" s="11" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">   /**
     * スクリーンオブジェクトを設定します。

--- a/03_設計/06_データオブジェクト/データオブジェクト定義書.xlsx
+++ b/03_設計/06_データオブジェクト/データオブジェクト定義書.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="スクリーンDTO" sheetId="5" r:id="rId1"/>
     <sheet name="スクリーンオブジェクトグループDTO" sheetId="8" r:id="rId2"/>
-    <sheet name="スクリーンオブジェクトDTOリスト（仮）" sheetId="14" r:id="rId3"/>
+    <sheet name="スクリーンオブジェクトバンチDTO" sheetId="14" r:id="rId3"/>
     <sheet name="スクリーンオブジェクトDTO" sheetId="7" r:id="rId4"/>
     <sheet name="リクエストスクリーンDTO" sheetId="9" r:id="rId5"/>
     <sheet name="属性DTO" sheetId="10" r:id="rId6"/>
@@ -535,29 +535,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ScreenObjDtoList</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スクリーンオブジェクトDTOリストリスト（仮）</t>
-    <rPh sb="21" eb="22">
-      <t>カリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Screen Obj Dto List List</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>List&lt;ScreenObjDtoList&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スクリーンオブジェクトDTOリスト（仮）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>表示順</t>
     <rPh sb="0" eb="3">
       <t>ヒョウジジュン</t>
@@ -586,6 +563,26 @@
   </si>
   <si>
     <t>Integer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ScreenObjBunchDto</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクリーンオブジェクトバンチDTO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクリーンオブジェクトバンチDTOリスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Screen Obj Bunch Dto List</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>List&lt;ScreenObjBunchDto&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1748,60 +1745,60 @@
         <v>4</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="D8" s="11" t="str">
         <f>SUBSTITUTE($C8," ","")</f>
-        <v>ScreenObjDtoListList</v>
+        <v>ScreenObjBunchDtoList</v>
       </c>
       <c r="E8" s="11" t="str">
         <f>LOWER(LEFT($C8,1))&amp;RIGHT($D8,LEN($D8)-1)</f>
-        <v>screenObjDtoListList</v>
+        <v>screenObjBunchDtoList</v>
       </c>
       <c r="F8" s="11" t="str">
         <f>UPPER(SUBSTITUTE($C8," ","_"))</f>
-        <v>SCREEN_OBJ_DTO_LIST_LIST</v>
+        <v>SCREEN_OBJ_BUNCH_DTO_LIST</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>16</v>
       </c>
       <c r="I8" s="11" t="str">
         <f>"   /** "&amp;$B8&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F8&amp;" = """&amp;$E8&amp;""";"</f>
-        <v xml:space="preserve">   /** スクリーンオブジェクトDTOリストリスト（仮）のフィールド名 */
-   public static final String FIELD_SCREEN_OBJ_DTO_LIST_LIST = "screenObjDtoListList";</v>
+        <v xml:space="preserve">   /** スクリーンオブジェクトバンチDTOリストのフィールド名 */
+   public static final String FIELD_SCREEN_OBJ_BUNCH_DTO_LIST = "screenObjBunchDtoList";</v>
       </c>
       <c r="J8" s="11" t="str">
         <f>"   /** "&amp;$B8&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G8&amp;" "&amp;$E8&amp;";"</f>
-        <v xml:space="preserve">   /** スクリーンオブジェクトDTOリストリスト（仮） */
-   private List&lt;ScreenObjDtoList&gt; screenObjDtoListList;</v>
+        <v xml:space="preserve">   /** スクリーンオブジェクトバンチDTOリスト */
+   private List&lt;ScreenObjBunchDto&gt; screenObjBunchDtoList;</v>
       </c>
       <c r="K8" s="11" t="str">
         <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B8&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B8&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G8&amp;" get"&amp;$D8&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E8&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
-    * スクリーンオブジェクトDTOリストリスト（仮）を取得します。
-    * 
-    * @return スクリーンオブジェクトDTOリストリスト（仮）
-    */
-   public List&lt;ScreenObjDtoList&gt; getScreenObjDtoListList(){
-      return screenObjDtoListList;
+    * スクリーンオブジェクトバンチDTOリストを取得します。
+    * 
+    * @return スクリーンオブジェクトバンチDTOリスト
+    */
+   public List&lt;ScreenObjBunchDto&gt; getScreenObjBunchDtoList(){
+      return screenObjBunchDtoList;
    }
 </v>
       </c>
       <c r="L8" s="11" t="str">
         <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B8&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E8&amp;" "&amp;$B8&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D8&amp;"("&amp;$G8&amp;" "&amp;$E8&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E8&amp;" = "&amp;$E8&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
-    * スクリーンオブジェクトDTOリストリスト（仮）を設定します。
-    * 
-    * @param screenObjDtoListList スクリーンオブジェクトDTOリストリスト（仮）
-    */
-   public void setScreenObjDtoListList(List&lt;ScreenObjDtoList&gt; screenObjDtoListList){
-      this.screenObjDtoListList = screenObjDtoListList;
+    * スクリーンオブジェクトバンチDTOリストを設定します。
+    * 
+    * @param screenObjBunchDtoList スクリーンオブジェクトバンチDTOリスト
+    */
+   public void setScreenObjBunchDtoList(List&lt;ScreenObjBunchDto&gt; screenObjBunchDtoList){
+      this.screenObjBunchDtoList = screenObjBunchDtoList;
    }
 </v>
       </c>
@@ -1843,7 +1840,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="13"/>
@@ -1862,7 +1859,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="13"/>
@@ -1917,60 +1914,60 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="D5" s="7" t="str">
         <f>SUBSTITUTE($C5," ","")</f>
-        <v>ScreenObjDtoList</v>
+        <v>DisplayNum</v>
       </c>
       <c r="E5" s="7" t="str">
         <f>LOWER(LEFT($C5,1))&amp;RIGHT($D5,LEN($D5)-1)</f>
-        <v>screenObjDtoList</v>
+        <v>displayNum</v>
       </c>
       <c r="F5" s="7" t="str">
         <f>UPPER(SUBSTITUTE($C5," ","_"))</f>
-        <v>SCREEN_OBJ_DTO_LIST</v>
+        <v>DISPLAY_NUM</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="7" t="str">
-        <f t="shared" ref="I5:I6" si="1">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
-        <v xml:space="preserve">   /** スクリーンオブジェクトDTOリストのフィールド名 */
-   public static final String FIELD_SCREEN_OBJ_DTO_LIST = "screenObjDtoList";</v>
+        <f>"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
+        <v xml:space="preserve">   /** 表示順のフィールド名 */
+   public static final String FIELD_DISPLAY_NUM = "displayNum";</v>
       </c>
       <c r="J5" s="7" t="str">
-        <f t="shared" ref="J5:J6" si="2">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G5&amp;" "&amp;$E5&amp;";"</f>
-        <v xml:space="preserve">   /** スクリーンオブジェクトDTOリスト */
-   private List&lt;ScreenObjDto&gt; screenObjDtoList;</v>
+        <f>"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G5&amp;" "&amp;$E5&amp;";"</f>
+        <v xml:space="preserve">   /** 表示順 */
+   private Integer displayNum;</v>
       </c>
       <c r="K5" s="7" t="str">
-        <f t="shared" ref="K5:K6" si="3">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G5&amp;" get"&amp;$D5&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
-        <v xml:space="preserve">   /**
-    * スクリーンオブジェクトDTOリストを取得します。
-    * 
-    * @return スクリーンオブジェクトDTOリスト
-    */
-   public List&lt;ScreenObjDto&gt; getScreenObjDtoList(){
-      return screenObjDtoList;
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G5&amp;" get"&amp;$D5&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 表示順を取得します。
+    * 
+    * @return 表示順
+    */
+   public Integer getDisplayNum(){
+      return displayNum;
    }
 </v>
       </c>
       <c r="L5" s="7" t="str">
-        <f t="shared" ref="L5:L6" si="4">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E5&amp;" "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D5&amp;"("&amp;$G5&amp;" "&amp;$E5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E5&amp;" = "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
-        <v xml:space="preserve">   /**
-    * スクリーンオブジェクトDTOリストを設定します。
-    * 
-    * @param screenObjDtoList スクリーンオブジェクトDTOリスト
-    */
-   public void setScreenObjDtoList(List&lt;ScreenObjDto&gt; screenObjDtoList){
-      this.screenObjDtoList = screenObjDtoList;
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E5&amp;" "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D5&amp;"("&amp;$G5&amp;" "&amp;$E5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E5&amp;" = "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 表示順を設定します。
+    * 
+    * @param displayNum 表示順
+    */
+   public void setDisplayNum(Integer displayNum){
+      this.displayNum = displayNum;
    }
 </v>
       </c>
@@ -1981,60 +1978,60 @@
         <v>2</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>107</v>
+        <v>36</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>108</v>
+        <v>33</v>
       </c>
       <c r="D6" s="11" t="str">
-        <f t="shared" ref="D6" si="5">SUBSTITUTE($C6," ","")</f>
-        <v>DisplayNum</v>
+        <f>SUBSTITUTE($C6," ","")</f>
+        <v>ScreenObjDtoList</v>
       </c>
       <c r="E6" s="11" t="str">
-        <f t="shared" ref="E6" si="6">LOWER(LEFT($C6,1))&amp;RIGHT($D6,LEN($D6)-1)</f>
-        <v>displayNum</v>
+        <f>LOWER(LEFT($C6,1))&amp;RIGHT($D6,LEN($D6)-1)</f>
+        <v>screenObjDtoList</v>
       </c>
       <c r="F6" s="11" t="str">
-        <f t="shared" ref="F6" si="7">UPPER(SUBSTITUTE($C6," ","_"))</f>
-        <v>DISPLAY_NUM</v>
+        <f>UPPER(SUBSTITUTE($C6," ","_"))</f>
+        <v>SCREEN_OBJ_DTO_LIST</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>16</v>
       </c>
       <c r="I6" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   /** 表示順のフィールド名 */
-   public static final String FIELD_DISPLAY_NUM = "displayNum";</v>
+        <f t="shared" ref="I6" si="1">"   /** "&amp;$B6&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F6&amp;" = """&amp;$E6&amp;""";"</f>
+        <v xml:space="preserve">   /** スクリーンオブジェクトDTOリストのフィールド名 */
+   public static final String FIELD_SCREEN_OBJ_DTO_LIST = "screenObjDtoList";</v>
       </c>
       <c r="J6" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">   /** 表示順 */
-   private Integer displayNum;</v>
+        <f t="shared" ref="J6" si="2">"   /** "&amp;$B6&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G6&amp;" "&amp;$E6&amp;";"</f>
+        <v xml:space="preserve">   /** スクリーンオブジェクトDTOリスト */
+   private List&lt;ScreenObjDto&gt; screenObjDtoList;</v>
       </c>
       <c r="K6" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">   /**
-    * 表示順を取得します。
-    * 
-    * @return 表示順
-    */
-   public Integer getDisplayNum(){
-      return displayNum;
+        <f t="shared" ref="K6" si="3">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G6&amp;" get"&amp;$D6&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * スクリーンオブジェクトDTOリストを取得します。
+    * 
+    * @return スクリーンオブジェクトDTOリスト
+    */
+   public List&lt;ScreenObjDto&gt; getScreenObjDtoList(){
+      return screenObjDtoList;
    }
 </v>
       </c>
       <c r="L6" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">   /**
-    * 表示順を設定します。
-    * 
-    * @param displayNum 表示順
-    */
-   public void setDisplayNum(Integer displayNum){
-      this.displayNum = displayNum;
+        <f t="shared" ref="L6" si="4">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E6&amp;" "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D6&amp;"("&amp;$G6&amp;" "&amp;$E6&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E6&amp;" = "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * スクリーンオブジェクトDTOリストを設定します。
+    * 
+    * @param screenObjDtoList スクリーンオブジェクトDTOリスト
+    */
+   public void setScreenObjDtoList(List&lt;ScreenObjDto&gt; screenObjDtoList){
+      this.screenObjDtoList = screenObjDtoList;
    }
 </v>
       </c>
@@ -3248,10 +3245,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D10" s="11" t="str">
         <f t="shared" si="1"/>
@@ -3266,7 +3263,7 @@
         <v>DISPLAY_NUM</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="11" t="str">
@@ -3881,10 +3878,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D5" s="7" t="str">
         <f>SUBSTITUTE($C5," ","")</f>
@@ -3899,7 +3896,7 @@
         <v>LAYOUT_SCREEN_ID</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>16</v>

--- a/03_設計/06_データオブジェクト/データオブジェクト定義書.xlsx
+++ b/03_設計/06_データオブジェクト/データオブジェクト定義書.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="116">
   <si>
     <t>論理名</t>
     <rPh sb="0" eb="3">
@@ -583,6 +583,14 @@
   </si>
   <si>
     <t>List&lt;ScreenObjBunchDto&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイアウトオブジェクトタイプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Layout Obj Type</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2048,7 +2056,7 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
@@ -2143,7 +2151,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
-        <f t="shared" ref="A5:A8" si="0">ROW()-4</f>
+        <f t="shared" ref="A5:A9" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -2171,12 +2179,12 @@
         <v>16</v>
       </c>
       <c r="I5" s="7" t="str">
-        <f t="shared" ref="I5:I8" si="1">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
+        <f t="shared" ref="I5:I9" si="1">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
         <v xml:space="preserve">   /** レイアウトオブジェクトIDのフィールド名 */
    public static final String FIELD_LAYOUT_OBJ_ID = "layoutObjId";</v>
       </c>
       <c r="J5" s="7" t="str">
-        <f t="shared" ref="J5:J8" si="2">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G5&amp;" "&amp;$E5&amp;";"</f>
+        <f t="shared" ref="J5:J9" si="2">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G5&amp;" "&amp;$E5&amp;";"</f>
         <v xml:space="preserve">   /** レイアウトオブジェクトID */
    private Integer layoutObjId;</v>
       </c>
@@ -2217,7 +2225,7 @@
         <v>100</v>
       </c>
       <c r="D6" s="9" t="str">
-        <f t="shared" ref="D6:D8" si="3">SUBSTITUTE($C6," ","")</f>
+        <f t="shared" ref="D6:D9" si="3">SUBSTITUTE($C6," ","")</f>
         <v>LayoutObjAlias</v>
       </c>
       <c r="E6" s="9" t="str">
@@ -2225,7 +2233,7 @@
         <v>layoutObjAlias</v>
       </c>
       <c r="F6" s="9" t="str">
-        <f t="shared" ref="F6:F8" si="4">UPPER(SUBSTITUTE($C6," ","_"))</f>
+        <f t="shared" ref="F6:F9" si="4">UPPER(SUBSTITUTE($C6," ","_"))</f>
         <v>LAYOUT_OBJ_ALIAS</v>
       </c>
       <c r="G6" s="9" t="s">
@@ -2245,7 +2253,7 @@
    private String layoutObjAlias;</v>
       </c>
       <c r="K6" s="9" t="str">
-        <f t="shared" ref="K6:K8" si="5">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G6&amp;" get"&amp;$D6&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <f t="shared" ref="K6:K9" si="5">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G6&amp;" get"&amp;$D6&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
     * レイアウトオブジェクトエイリアスを取得します。
     * 
@@ -2257,7 +2265,7 @@
 </v>
       </c>
       <c r="L6" s="9" t="str">
-        <f t="shared" ref="L6:L8" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E6&amp;" "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D6&amp;"("&amp;$G6&amp;" "&amp;$E6&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E6&amp;" = "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <f t="shared" ref="L6:L9" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E6&amp;" "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D6&amp;"("&amp;$G6&amp;" "&amp;$E6&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E6&amp;" = "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
     * レイアウトオブジェクトエイリアスを設定します。
     * 
@@ -2275,40 +2283,104 @@
         <v>3</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>31</v>
+        <v>115</v>
       </c>
       <c r="D7" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>ScreenObjId</v>
+        <v>LayoutObjType</v>
       </c>
       <c r="E7" s="9" t="str">
         <f>LOWER(LEFT($C7,1))&amp;RIGHT($D7,LEN($D7)-1)</f>
-        <v>screenObjId</v>
+        <v>layoutObjType</v>
       </c>
       <c r="F7" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>SCREEN_OBJ_ID</v>
+        <v>LAYOUT_OBJ_TYPE</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>16</v>
       </c>
       <c r="I7" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">   /** レイアウトオブジェクトタイプのフィールド名 */
+   public static final String FIELD_LAYOUT_OBJ_TYPE = "layoutObjType";</v>
+      </c>
+      <c r="J7" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">   /** レイアウトオブジェクトタイプ */
+   private String layoutObjType;</v>
+      </c>
+      <c r="K7" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">   /**
+    * レイアウトオブジェクトタイプを取得します。
+    * 
+    * @return レイアウトオブジェクトタイプ
+    */
+   public String getLayoutObjType(){
+      return layoutObjType;
+   }
+</v>
+      </c>
+      <c r="L7" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   /**
+    * レイアウトオブジェクトタイプを設定します。
+    * 
+    * @param layoutObjType レイアウトオブジェクトタイプ
+    */
+   public void setLayoutObjType(String layoutObjType){
+      this.layoutObjType = layoutObjType;
+   }
+</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>ScreenObjId</v>
+      </c>
+      <c r="E8" s="9" t="str">
+        <f>LOWER(LEFT($C8,1))&amp;RIGHT($D8,LEN($D8)-1)</f>
+        <v>screenObjId</v>
+      </c>
+      <c r="F8" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>SCREEN_OBJ_ID</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="9" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">   /** スクリーンオブジェクトIDのフィールド名 */
    public static final String FIELD_SCREEN_OBJ_ID = "screenObjId";</v>
       </c>
-      <c r="J7" s="9" t="str">
+      <c r="J8" s="9" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">   /** スクリーンオブジェクトID */
    private Integer screenObjId;</v>
       </c>
-      <c r="K7" s="9" t="str">
+      <c r="K8" s="9" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">   /**
     * スクリーンオブジェクトIDを取得します。
@@ -2320,7 +2392,7 @@
    }
 </v>
       </c>
-      <c r="L7" s="9" t="str">
+      <c r="L8" s="9" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">   /**
     * スクリーンオブジェクトIDを設定します。
@@ -2333,46 +2405,46 @@
 </v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="10">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="10">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C9" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="11" t="str">
+      <c r="D9" s="11" t="str">
         <f t="shared" si="3"/>
         <v>AttrDtoList</v>
       </c>
-      <c r="E8" s="11" t="str">
-        <f>LOWER(LEFT($C8,1))&amp;RIGHT($D8,LEN($D8)-1)</f>
+      <c r="E9" s="11" t="str">
+        <f>LOWER(LEFT($C9,1))&amp;RIGHT($D9,LEN($D9)-1)</f>
         <v>attrDtoList</v>
       </c>
-      <c r="F8" s="11" t="str">
+      <c r="F9" s="11" t="str">
         <f t="shared" si="4"/>
         <v>ATTR_DTO_LIST</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G9" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="11" t="str">
+      <c r="I9" s="11" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">   /** 属性DTOリストのフィールド名 */
    public static final String FIELD_ATTR_DTO_LIST = "attrDtoList";</v>
       </c>
-      <c r="J8" s="11" t="str">
+      <c r="J9" s="11" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">   /** 属性DTOリスト */
    private List&lt;AttrDto&gt; attrDtoList;</v>
       </c>
-      <c r="K8" s="11" t="str">
+      <c r="K9" s="11" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">   /**
     * 属性DTOリストを取得します。
@@ -2384,7 +2456,7 @@
    }
 </v>
       </c>
-      <c r="L8" s="11" t="str">
+      <c r="L9" s="11" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">   /**
     * 属性DTOリストを設定します。

--- a/03_設計/06_データオブジェクト/データオブジェクト定義書.xlsx
+++ b/03_設計/06_データオブジェクト/データオブジェクト定義書.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="119">
   <si>
     <t>論理名</t>
     <rPh sb="0" eb="3">
@@ -591,6 +591,18 @@
   </si>
   <si>
     <t>Layout Obj Type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクリーンオブジェクトグループID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Screen Obj Grp Id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Integer</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1462,7 +1474,7 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
@@ -1557,7 +1569,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
-        <f t="shared" ref="A5:A7" si="0">ROW()-4</f>
+        <f t="shared" ref="A5:A8" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -1567,15 +1579,15 @@
         <v>64</v>
       </c>
       <c r="D5" s="7" t="str">
-        <f t="shared" ref="D5:D7" si="1">SUBSTITUTE($C5," ","")</f>
+        <f t="shared" ref="D5:D8" si="1">SUBSTITUTE($C5," ","")</f>
         <v>LayoutObjGrpId</v>
       </c>
       <c r="E5" s="7" t="str">
-        <f t="shared" ref="E5:E7" si="2">LOWER(LEFT($C5,1))&amp;RIGHT($D5,LEN($D5)-1)</f>
+        <f t="shared" ref="E5:E8" si="2">LOWER(LEFT($C5,1))&amp;RIGHT($D5,LEN($D5)-1)</f>
         <v>layoutObjGrpId</v>
       </c>
       <c r="F5" s="7" t="str">
-        <f t="shared" ref="F5:F7" si="3">UPPER(SUBSTITUTE($C5," ","_"))</f>
+        <f t="shared" ref="F5:F8" si="3">UPPER(SUBSTITUTE($C5," ","_"))</f>
         <v>LAYOUT_OBJ_GRP_ID</v>
       </c>
       <c r="G5" s="7" t="s">
@@ -1585,17 +1597,17 @@
         <v>16</v>
       </c>
       <c r="I5" s="7" t="str">
-        <f t="shared" ref="I5:I7" si="4">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
+        <f t="shared" ref="I5:I8" si="4">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
         <v xml:space="preserve">   /** レイアウトオブジェクトグループIDのフィールド名 */
    public static final String FIELD_LAYOUT_OBJ_GRP_ID = "layoutObjGrpId";</v>
       </c>
       <c r="J5" s="7" t="str">
-        <f t="shared" ref="J5:J7" si="5">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G5&amp;" "&amp;$E5&amp;";"</f>
+        <f t="shared" ref="J5:J8" si="5">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G5&amp;" "&amp;$E5&amp;";"</f>
         <v xml:space="preserve">   /** レイアウトオブジェクトグループID */
    private Integer layoutObjGrpId;</v>
       </c>
       <c r="K5" s="7" t="str">
-        <f t="shared" ref="K5:K7" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G5&amp;" get"&amp;$D5&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <f t="shared" ref="K5:K8" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G5&amp;" get"&amp;$D5&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
     * レイアウトオブジェクトグループIDを取得します。
     * 
@@ -1607,7 +1619,7 @@
 </v>
       </c>
       <c r="L5" s="7" t="str">
-        <f t="shared" ref="L5:L7" si="7">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E5&amp;" "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D5&amp;"("&amp;$G5&amp;" "&amp;$E5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E5&amp;" = "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <f t="shared" ref="L5:L8" si="7">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E5&amp;" "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D5&amp;"("&amp;$G5&amp;" "&amp;$E5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E5&amp;" = "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
     * レイアウトオブジェクトグループIDを設定します。
     * 
@@ -1748,46 +1760,110 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="10">
-        <f t="shared" ref="A8" si="8">ROW()-4</f>
+      <c r="A8" s="8">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>ScreenObjGrpId</v>
+      </c>
+      <c r="E8" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>screenObjGrpId</v>
+      </c>
+      <c r="F8" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>SCREEN_OBJ_GRP_ID</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">   /** スクリーンオブジェクトグループIDのフィールド名 */
+   public static final String FIELD_SCREEN_OBJ_GRP_ID = "screenObjGrpId";</v>
+      </c>
+      <c r="J8" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">   /** スクリーンオブジェクトグループID */
+   private Integer screenObjGrpId;</v>
+      </c>
+      <c r="K8" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   /**
+    * スクリーンオブジェクトグループIDを取得します。
+    * 
+    * @return スクリーンオブジェクトグループID
+    */
+   public Integer getScreenObjGrpId(){
+      return screenObjGrpId;
+   }
+</v>
+      </c>
+      <c r="L8" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">   /**
+    * スクリーンオブジェクトグループIDを設定します。
+    * 
+    * @param screenObjGrpId スクリーンオブジェクトグループID
+    */
+   public void setScreenObjGrpId(Integer screenObjGrpId){
+      this.screenObjGrpId = screenObjGrpId;
+   }
+</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="10">
+        <f t="shared" ref="A9" si="8">ROW()-4</f>
+        <v>5</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C9" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="11" t="str">
-        <f>SUBSTITUTE($C8," ","")</f>
+      <c r="D9" s="11" t="str">
+        <f>SUBSTITUTE($C9," ","")</f>
         <v>ScreenObjBunchDtoList</v>
       </c>
-      <c r="E8" s="11" t="str">
-        <f>LOWER(LEFT($C8,1))&amp;RIGHT($D8,LEN($D8)-1)</f>
+      <c r="E9" s="11" t="str">
+        <f>LOWER(LEFT($C9,1))&amp;RIGHT($D9,LEN($D9)-1)</f>
         <v>screenObjBunchDtoList</v>
       </c>
-      <c r="F8" s="11" t="str">
-        <f>UPPER(SUBSTITUTE($C8," ","_"))</f>
+      <c r="F9" s="11" t="str">
+        <f>UPPER(SUBSTITUTE($C9," ","_"))</f>
         <v>SCREEN_OBJ_BUNCH_DTO_LIST</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G9" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="11" t="str">
-        <f>"   /** "&amp;$B8&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F8&amp;" = """&amp;$E8&amp;""";"</f>
+      <c r="I9" s="11" t="str">
+        <f>"   /** "&amp;$B9&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F9&amp;" = """&amp;$E9&amp;""";"</f>
         <v xml:space="preserve">   /** スクリーンオブジェクトバンチDTOリストのフィールド名 */
    public static final String FIELD_SCREEN_OBJ_BUNCH_DTO_LIST = "screenObjBunchDtoList";</v>
       </c>
-      <c r="J8" s="11" t="str">
-        <f>"   /** "&amp;$B8&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G8&amp;" "&amp;$E8&amp;";"</f>
+      <c r="J9" s="11" t="str">
+        <f>"   /** "&amp;$B9&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G9&amp;" "&amp;$E9&amp;";"</f>
         <v xml:space="preserve">   /** スクリーンオブジェクトバンチDTOリスト */
    private List&lt;ScreenObjBunchDto&gt; screenObjBunchDtoList;</v>
       </c>
-      <c r="K8" s="11" t="str">
-        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B8&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B8&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G8&amp;" get"&amp;$D8&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E8&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+      <c r="K9" s="11" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B9&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B9&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G9&amp;" get"&amp;$D9&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E9&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
     * スクリーンオブジェクトバンチDTOリストを取得します。
     * 
@@ -1798,8 +1874,8 @@
    }
 </v>
       </c>
-      <c r="L8" s="11" t="str">
-        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B8&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E8&amp;" "&amp;$B8&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D8&amp;"("&amp;$G8&amp;" "&amp;$E8&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E8&amp;" = "&amp;$E8&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+      <c r="L9" s="11" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B9&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E9&amp;" "&amp;$B9&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D9&amp;"("&amp;$G9&amp;" "&amp;$E9&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E9&amp;" = "&amp;$E9&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
     * スクリーンオブジェクトバンチDTOリストを設定します。
     * 

--- a/03_設計/06_データオブジェクト/データオブジェクト定義書.xlsx
+++ b/03_設計/06_データオブジェクト/データオブジェクト定義書.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="118">
   <si>
     <t>論理名</t>
     <rPh sb="0" eb="3">
@@ -535,14 +535,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>表示順</t>
-    <rPh sb="0" eb="3">
-      <t>ヒョウジジュン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Display Num</t>
+    <t>レイアウト・スクリーンID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Layout Screen Id</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -550,15 +547,39 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Display Num</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レイアウト・スクリーンID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Layout Screen Id</t>
+    <t>ScreenObjBunchDto</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクリーンオブジェクトバンチDTO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクリーンオブジェクトバンチDTOリスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Screen Obj Bunch Dto List</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>List&lt;ScreenObjBunchDto&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイアウトオブジェクトタイプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Layout Obj Type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクリーンオブジェクトグループID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Screen Obj Grp Id</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -566,43 +587,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ScreenObjBunchDto</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スクリーンオブジェクトバンチDTO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スクリーンオブジェクトバンチDTOリスト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Screen Obj Bunch Dto List</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>List&lt;ScreenObjBunchDto&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レイアウトオブジェクトタイプ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Layout Obj Type</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スクリーンオブジェクトグループID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Screen Obj Grp Id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Integer</t>
+    <t>スクリーンオブジェクトグループ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Screen Obj Grp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ScreenObjGrp</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1765,10 +1758,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D8" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1783,7 +1776,7 @@
         <v>SCREEN_OBJ_GRP_ID</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>16</v>
@@ -1829,10 +1822,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D9" s="11" t="str">
         <f>SUBSTITUTE($C9," ","")</f>
@@ -1847,7 +1840,7 @@
         <v>SCREEN_OBJ_BUNCH_DTO_LIST</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>16</v>
@@ -1899,7 +1892,7 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
@@ -1924,7 +1917,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="13"/>
@@ -1943,7 +1936,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="13"/>
@@ -1993,110 +1986,46 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="6">
-        <f t="shared" ref="A5:A6" si="0">ROW()-4</f>
+      <c r="A5" s="10">
+        <f t="shared" ref="A5" si="0">ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" s="7" t="str">
+      <c r="B5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="11" t="str">
         <f>SUBSTITUTE($C5," ","")</f>
-        <v>DisplayNum</v>
-      </c>
-      <c r="E5" s="7" t="str">
+        <v>ScreenObjDtoList</v>
+      </c>
+      <c r="E5" s="11" t="str">
         <f>LOWER(LEFT($C5,1))&amp;RIGHT($D5,LEN($D5)-1)</f>
-        <v>displayNum</v>
-      </c>
-      <c r="F5" s="7" t="str">
+        <v>screenObjDtoList</v>
+      </c>
+      <c r="F5" s="11" t="str">
         <f>UPPER(SUBSTITUTE($C5," ","_"))</f>
-        <v>DISPLAY_NUM</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="H5" s="7" t="s">
+        <v>SCREEN_OBJ_DTO_LIST</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="7" t="str">
-        <f>"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
-        <v xml:space="preserve">   /** 表示順のフィールド名 */
-   public static final String FIELD_DISPLAY_NUM = "displayNum";</v>
-      </c>
-      <c r="J5" s="7" t="str">
-        <f>"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G5&amp;" "&amp;$E5&amp;";"</f>
-        <v xml:space="preserve">   /** 表示順 */
-   private Integer displayNum;</v>
-      </c>
-      <c r="K5" s="7" t="str">
-        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G5&amp;" get"&amp;$D5&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
-        <v xml:space="preserve">   /**
-    * 表示順を取得します。
-    * 
-    * @return 表示順
-    */
-   public Integer getDisplayNum(){
-      return displayNum;
-   }
-</v>
-      </c>
-      <c r="L5" s="7" t="str">
-        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E5&amp;" "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D5&amp;"("&amp;$G5&amp;" "&amp;$E5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E5&amp;" = "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
-        <v xml:space="preserve">   /**
-    * 表示順を設定します。
-    * 
-    * @param displayNum 表示順
-    */
-   public void setDisplayNum(Integer displayNum){
-      this.displayNum = displayNum;
-   }
-</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="10">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="11" t="str">
-        <f>SUBSTITUTE($C6," ","")</f>
-        <v>ScreenObjDtoList</v>
-      </c>
-      <c r="E6" s="11" t="str">
-        <f>LOWER(LEFT($C6,1))&amp;RIGHT($D6,LEN($D6)-1)</f>
-        <v>screenObjDtoList</v>
-      </c>
-      <c r="F6" s="11" t="str">
-        <f>UPPER(SUBSTITUTE($C6," ","_"))</f>
-        <v>SCREEN_OBJ_DTO_LIST</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="11" t="str">
-        <f t="shared" ref="I6" si="1">"   /** "&amp;$B6&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F6&amp;" = """&amp;$E6&amp;""";"</f>
+      <c r="I5" s="11" t="str">
+        <f t="shared" ref="I5" si="1">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
         <v xml:space="preserve">   /** スクリーンオブジェクトDTOリストのフィールド名 */
    public static final String FIELD_SCREEN_OBJ_DTO_LIST = "screenObjDtoList";</v>
       </c>
-      <c r="J6" s="11" t="str">
-        <f t="shared" ref="J6" si="2">"   /** "&amp;$B6&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G6&amp;" "&amp;$E6&amp;";"</f>
+      <c r="J5" s="11" t="str">
+        <f t="shared" ref="J5" si="2">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G5&amp;" "&amp;$E5&amp;";"</f>
         <v xml:space="preserve">   /** スクリーンオブジェクトDTOリスト */
    private List&lt;ScreenObjDto&gt; screenObjDtoList;</v>
       </c>
-      <c r="K6" s="11" t="str">
-        <f t="shared" ref="K6" si="3">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G6&amp;" get"&amp;$D6&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+      <c r="K5" s="11" t="str">
+        <f t="shared" ref="K5" si="3">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G5&amp;" get"&amp;$D5&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
     * スクリーンオブジェクトDTOリストを取得します。
     * 
@@ -2107,8 +2036,8 @@
    }
 </v>
       </c>
-      <c r="L6" s="11" t="str">
-        <f t="shared" ref="L6" si="4">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E6&amp;" "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D6&amp;"("&amp;$G6&amp;" "&amp;$E6&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E6&amp;" = "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+      <c r="L5" s="11" t="str">
+        <f t="shared" ref="L5" si="4">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E5&amp;" "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D5&amp;"("&amp;$G5&amp;" "&amp;$E5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E5&amp;" = "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
     * スクリーンオブジェクトDTOリストを設定します。
     * 
@@ -2359,10 +2288,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D7" s="9" t="str">
         <f t="shared" si="3"/>
@@ -2980,7 +2909,7 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
@@ -3075,7 +3004,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
-        <f t="shared" ref="A5:A10" si="0">ROW()-4</f>
+        <f t="shared" ref="A5:A9" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -3085,7 +3014,7 @@
         <v>88</v>
       </c>
       <c r="D5" s="7" t="str">
-        <f t="shared" ref="D5:D10" si="1">SUBSTITUTE($C5," ","")</f>
+        <f t="shared" ref="D5:D9" si="1">SUBSTITUTE($C5," ","")</f>
         <v>AttrGrpId</v>
       </c>
       <c r="E5" s="7" t="str">
@@ -3093,7 +3022,7 @@
         <v>attrGrpId</v>
       </c>
       <c r="F5" s="7" t="str">
-        <f t="shared" ref="F5:F10" si="2">UPPER(SUBSTITUTE($C5," ","_"))</f>
+        <f t="shared" ref="F5:F9" si="2">UPPER(SUBSTITUTE($C5," ","_"))</f>
         <v>ATTR_GRP_ID</v>
       </c>
       <c r="G5" s="7" t="s">
@@ -3103,17 +3032,17 @@
         <v>16</v>
       </c>
       <c r="I5" s="7" t="str">
-        <f t="shared" ref="I5:I10" si="3">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
+        <f t="shared" ref="I5:I9" si="3">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
         <v xml:space="preserve">   /** 属性グループIDのフィールド名 */
    public static final String FIELD_ATTR_GRP_ID = "attrGrpId";</v>
       </c>
       <c r="J5" s="7" t="str">
-        <f t="shared" ref="J5:J10" si="4">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G5&amp;" "&amp;$E5&amp;";"</f>
+        <f t="shared" ref="J5:J9" si="4">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G5&amp;" "&amp;$E5&amp;";"</f>
         <v xml:space="preserve">   /** 属性グループID */
    private Integer attrGrpId;</v>
       </c>
       <c r="K5" s="7" t="str">
-        <f t="shared" ref="K5:K10" si="5">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G5&amp;" get"&amp;$D5&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <f t="shared" ref="K5:K9" si="5">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G5&amp;" get"&amp;$D5&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
     * 属性グループIDを取得します。
     * 
@@ -3125,7 +3054,7 @@
 </v>
       </c>
       <c r="L5" s="7" t="str">
-        <f t="shared" ref="L5:L10" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E5&amp;" "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D5&amp;"("&amp;$G5&amp;" "&amp;$E5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E5&amp;" = "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <f t="shared" ref="L5:L9" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E5&amp;" "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D5&amp;"("&amp;$G5&amp;" "&amp;$E5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E5&amp;" = "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
     * 属性グループIDを設定します。
     * 
@@ -3217,7 +3146,7 @@
         <v>AttrGrpNm</v>
       </c>
       <c r="E7" s="9" t="str">
-        <f t="shared" ref="E7:E10" si="7">LOWER(LEFT($C7,1))&amp;RIGHT($D7,LEN($D7)-1)</f>
+        <f t="shared" ref="E7:E9" si="7">LOWER(LEFT($C7,1))&amp;RIGHT($D7,LEN($D7)-1)</f>
         <v>attrGrpNm</v>
       </c>
       <c r="F7" s="9" t="str">
@@ -3326,43 +3255,43 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="8">
+      <c r="A9" s="10">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="9" t="str">
+      <c r="D9" s="11" t="str">
         <f t="shared" si="1"/>
         <v>AttrCdVal</v>
       </c>
-      <c r="E9" s="9" t="str">
+      <c r="E9" s="11" t="str">
         <f t="shared" si="7"/>
         <v>attrCdVal</v>
       </c>
-      <c r="F9" s="9" t="str">
+      <c r="F9" s="11" t="str">
         <f t="shared" si="2"/>
         <v>ATTR_CD_VAL</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9" t="str">
+      <c r="H9" s="11"/>
+      <c r="I9" s="11" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">   /** 属性コード値のフィールド名 */
    public static final String FIELD_ATTR_CD_VAL = "attrCdVal";</v>
       </c>
-      <c r="J9" s="9" t="str">
+      <c r="J9" s="11" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">   /** 属性コード値 */
    private String attrCdVal;</v>
       </c>
-      <c r="K9" s="9" t="str">
+      <c r="K9" s="11" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">   /**
     * 属性コード値を取得します。
@@ -3374,7 +3303,7 @@
    }
 </v>
       </c>
-      <c r="L9" s="9" t="str">
+      <c r="L9" s="11" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">   /**
     * 属性コード値を設定します。
@@ -3383,68 +3312,6 @@
     */
    public void setAttrCdVal(String attrCdVal){
       this.attrCdVal = attrCdVal;
-   }
-</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="10">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="D10" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>DisplayNum</v>
-      </c>
-      <c r="E10" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v>displayNum</v>
-      </c>
-      <c r="F10" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>DISPLAY_NUM</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">   /** 表示順のフィールド名 */
-   public static final String FIELD_DISPLAY_NUM = "displayNum";</v>
-      </c>
-      <c r="J10" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">   /** 表示順 */
-   private Integer displayNum;</v>
-      </c>
-      <c r="K10" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">   /**
-    * 表示順を取得します。
-    * 
-    * @return 表示順
-    */
-   public Integer getDisplayNum(){
-      return displayNum;
-   }
-</v>
-      </c>
-      <c r="L10" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">   /**
-    * 表示順を設定します。
-    * 
-    * @param displayNum 表示順
-    */
-   public void setDisplayNum(Integer displayNum){
-      this.displayNum = displayNum;
    }
 </v>
       </c>
@@ -3927,7 +3794,7 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
@@ -4022,14 +3889,14 @@
     </row>
     <row r="5" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
-        <f t="shared" ref="A5:A10" si="0">ROW()-4</f>
+        <f t="shared" ref="A5:A11" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D5" s="7" t="str">
         <f>SUBSTITUTE($C5," ","")</f>
@@ -4044,18 +3911,18 @@
         <v>LAYOUT_SCREEN_ID</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="7" t="str">
-        <f t="shared" ref="I5:I10" si="1">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
+        <f t="shared" ref="I5:I11" si="1">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
         <v xml:space="preserve">   /** レイアウト・スクリーンIDのフィールド名 */
    public static final String FIELD_LAYOUT_SCREEN_ID = "layoutScreenId";</v>
       </c>
       <c r="J5" s="7" t="str">
-        <f t="shared" ref="J5:J10" si="2">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G5&amp;" "&amp;$E5&amp;";"</f>
+        <f t="shared" ref="J5:J11" si="2">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G5&amp;" "&amp;$E5&amp;";"</f>
         <v xml:space="preserve">   /** レイアウト・スクリーンID */
    private Integer layoutScreenId;</v>
       </c>
@@ -4160,7 +4027,7 @@
         <v>80</v>
       </c>
       <c r="D7" s="9" t="str">
-        <f t="shared" ref="D7:D10" si="3">SUBSTITUTE($C7," ","")</f>
+        <f t="shared" ref="D7:D11" si="3">SUBSTITUTE($C7," ","")</f>
         <v>LayoutObjGrp</v>
       </c>
       <c r="E7" s="9" t="str">
@@ -4168,7 +4035,7 @@
         <v>layoutObjGrp</v>
       </c>
       <c r="F7" s="9" t="str">
-        <f t="shared" ref="F7:F10" si="4">UPPER(SUBSTITUTE($C7," ","_"))</f>
+        <f t="shared" ref="F7:F11" si="4">UPPER(SUBSTITUTE($C7," ","_"))</f>
         <v>LAYOUT_OBJ_GRP</v>
       </c>
       <c r="G7" s="9" t="s">
@@ -4188,7 +4055,7 @@
    private LayoutObjGrp layoutObjGrp;</v>
       </c>
       <c r="K7" s="9" t="str">
-        <f t="shared" ref="K7:K10" si="5">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B7&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B7&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G7&amp;" get"&amp;$D7&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E7&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <f t="shared" ref="K7:K11" si="5">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B7&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B7&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G7&amp;" get"&amp;$D7&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E7&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
     * レイアウトオブジェクトグループを取得します。
     * 
@@ -4200,7 +4067,7 @@
 </v>
       </c>
       <c r="L7" s="9" t="str">
-        <f t="shared" ref="L7:L10" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B7&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E7&amp;" "&amp;$B7&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D7&amp;"("&amp;$G7&amp;" "&amp;$E7&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E7&amp;" = "&amp;$E7&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <f t="shared" ref="L7:L11" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B7&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E7&amp;" "&amp;$B7&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D7&amp;"("&amp;$G7&amp;" "&amp;$E7&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E7&amp;" = "&amp;$E7&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
     * レイアウトオブジェクトグループを設定します。
     * 
@@ -4228,7 +4095,7 @@
         <v>LayoutObj</v>
       </c>
       <c r="E8" s="9" t="str">
-        <f t="shared" ref="E8:E10" si="7">LOWER(LEFT($C8,1))&amp;RIGHT($D8,LEN($D8)-1)</f>
+        <f t="shared" ref="E8:E11" si="7">LOWER(LEFT($C8,1))&amp;RIGHT($D8,LEN($D8)-1)</f>
         <v>layoutObj</v>
       </c>
       <c r="F8" s="9" t="str">
@@ -4303,7 +4170,7 @@
         <v>77</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9" t="str">
         <f t="shared" si="1"/>
@@ -4341,45 +4208,109 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="10">
+      <c r="A10" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>ScreenObjGrp</v>
+      </c>
+      <c r="E10" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>screenObjGrp</v>
+      </c>
+      <c r="F10" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>SCREEN_OBJ_GRP</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">   /** スクリーンオブジェクトグループのフィールド名 */
+   public static final String FIELD_SCREEN_OBJ_GRP = "screenObjGrp";</v>
+      </c>
+      <c r="J10" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">   /** スクリーンオブジェクトグループ */
+   private ScreenObjGrp screenObjGrp;</v>
+      </c>
+      <c r="K10" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">   /**
+    * スクリーンオブジェクトグループを取得します。
+    * 
+    * @return スクリーンオブジェクトグループ
+    */
+   public ScreenObjGrp getScreenObjGrp(){
+      return screenObjGrp;
+   }
+</v>
+      </c>
+      <c r="L10" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   /**
+    * スクリーンオブジェクトグループを設定します。
+    * 
+    * @param screenObjGrp スクリーンオブジェクトグループ
+    */
+   public void setScreenObjGrp(ScreenObjGrp screenObjGrp){
+      this.screenObjGrp = screenObjGrp;
+   }
+</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C11" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="11" t="str">
+      <c r="D11" s="11" t="str">
         <f t="shared" si="3"/>
         <v>ScreenObj</v>
       </c>
-      <c r="E10" s="11" t="str">
+      <c r="E11" s="11" t="str">
         <f t="shared" si="7"/>
         <v>screenObj</v>
       </c>
-      <c r="F10" s="11" t="str">
+      <c r="F11" s="11" t="str">
         <f t="shared" si="4"/>
         <v>SCREEN_OBJ</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G11" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H11" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="I10" s="11" t="str">
+      <c r="I11" s="11" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">   /** スクリーンオブジェクトのフィールド名 */
    public static final String FIELD_SCREEN_OBJ = "screenObj";</v>
       </c>
-      <c r="J10" s="11" t="str">
+      <c r="J11" s="11" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">   /** スクリーンオブジェクト */
    private ScreenObj screenObj;</v>
       </c>
-      <c r="K10" s="11" t="str">
+      <c r="K11" s="11" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">   /**
     * スクリーンオブジェクトを取得します。
@@ -4391,7 +4322,7 @@
    }
 </v>
       </c>
-      <c r="L10" s="11" t="str">
+      <c r="L11" s="11" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">   /**
     * スクリーンオブジェクトを設定します。

--- a/03_設計/06_データオブジェクト/データオブジェクト定義書.xlsx
+++ b/03_設計/06_データオブジェクト/データオブジェクト定義書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n-suzuki\git\melip-doc\03_設計\06_データオブジェクト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project Files\01. MELIP\02_SVN (Document)\03_設計\06_データオブジェクト\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="126">
   <si>
     <t>論理名</t>
     <rPh sb="0" eb="3">
@@ -575,11 +575,48 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>Screen Obj Grp Id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Integer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクリーンオブジェクトグループ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Screen Obj Grp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ScreenObjGrp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>スクリーンオブジェクトグループID</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Screen Obj Grp Id</t>
+    <t>Region Id</t>
+  </si>
+  <si>
+    <t>Region Id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Facility Grp Id</t>
+  </si>
+  <si>
+    <t>Facility Grp Id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Facility Id</t>
+  </si>
+  <si>
+    <t>Facility Id</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -587,15 +624,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スクリーンオブジェクトグループ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Screen Obj Grp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ScreenObjGrp</t>
+    <t>Integer</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1758,10 +1787,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>112</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>113</v>
       </c>
       <c r="D8" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1776,7 +1805,7 @@
         <v>SCREEN_OBJ_GRP_ID</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>16</v>
@@ -1892,7 +1921,7 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
@@ -1986,46 +2015,234 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="10">
-        <f t="shared" ref="A5" si="0">ROW()-4</f>
+      <c r="A5" s="6">
+        <f t="shared" ref="A5:A8" si="0">ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="7" t="str">
+        <f>SUBSTITUTE($C5," ","")</f>
+        <v>RegionId</v>
+      </c>
+      <c r="E5" s="7" t="str">
+        <f>LOWER(LEFT($C5,1))&amp;RIGHT($D5,LEN($D5)-1)</f>
+        <v>regionId</v>
+      </c>
+      <c r="F5" s="7" t="str">
+        <f>UPPER(SUBSTITUTE($C5," ","_"))</f>
+        <v>REGION_ID</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="7" t="str">
+        <f t="shared" ref="I5:I8" si="1">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
+        <v xml:space="preserve">   /** 地域IDのフィールド名 */
+   public static final String FIELD_REGION_ID = "regionId";</v>
+      </c>
+      <c r="J5" s="7" t="str">
+        <f t="shared" ref="J5:J8" si="2">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G5&amp;" "&amp;$E5&amp;";"</f>
+        <v xml:space="preserve">   /** 地域ID */
+   private Integer regionId;</v>
+      </c>
+      <c r="K5" s="7" t="str">
+        <f t="shared" ref="K5:K8" si="3">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G5&amp;" get"&amp;$D5&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 地域IDを取得します。
+    * 
+    * @return 地域ID
+    */
+   public Integer getRegionId(){
+      return regionId;
+   }
+</v>
+      </c>
+      <c r="L5" s="7" t="str">
+        <f t="shared" ref="L5:L8" si="4">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E5&amp;" "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D5&amp;"("&amp;$G5&amp;" "&amp;$E5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E5&amp;" = "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 地域IDを設定します。
+    * 
+    * @param regionId 地域ID
+    */
+   public void setRegionId(Integer regionId){
+      this.regionId = regionId;
+   }
+</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="9" t="str">
+        <f t="shared" ref="D6:D8" si="5">SUBSTITUTE($C6," ","")</f>
+        <v>FacilityGrpId</v>
+      </c>
+      <c r="E6" s="9" t="str">
+        <f t="shared" ref="E6:E8" si="6">LOWER(LEFT($C6,1))&amp;RIGHT($D6,LEN($D6)-1)</f>
+        <v>facilityGrpId</v>
+      </c>
+      <c r="F6" s="9" t="str">
+        <f t="shared" ref="F6:F8" si="7">UPPER(SUBSTITUTE($C6," ","_"))</f>
+        <v>FACILITY_GRP_ID</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">   /** 施設グループIDのフィールド名 */
+   public static final String FIELD_FACILITY_GRP_ID = "facilityGrpId";</v>
+      </c>
+      <c r="J6" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">   /** 施設グループID */
+   private Integer facilityGrpId;</v>
+      </c>
+      <c r="K6" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">   /**
+    * 施設グループIDを取得します。
+    * 
+    * @return 施設グループID
+    */
+   public Integer getFacilityGrpId(){
+      return facilityGrpId;
+   }
+</v>
+      </c>
+      <c r="L6" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">   /**
+    * 施設グループIDを設定します。
+    * 
+    * @param facilityGrpId 施設グループID
+    */
+   public void setFacilityGrpId(Integer facilityGrpId){
+      this.facilityGrpId = facilityGrpId;
+   }
+</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>FacilityId</v>
+      </c>
+      <c r="E7" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>facilityId</v>
+      </c>
+      <c r="F7" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>FACILITY_ID</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">   /** 施設IDのフィールド名 */
+   public static final String FIELD_FACILITY_ID = "facilityId";</v>
+      </c>
+      <c r="J7" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">   /** 施設ID */
+   private Integer facilityId;</v>
+      </c>
+      <c r="K7" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">   /**
+    * 施設IDを取得します。
+    * 
+    * @return 施設ID
+    */
+   public Integer getFacilityId(){
+      return facilityId;
+   }
+</v>
+      </c>
+      <c r="L7" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">   /**
+    * 施設IDを設定します。
+    * 
+    * @param facilityId 施設ID
+    */
+   public void setFacilityId(Integer facilityId){
+      this.facilityId = facilityId;
+   }
+</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C8" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="11" t="str">
-        <f>SUBSTITUTE($C5," ","")</f>
+      <c r="D8" s="11" t="str">
+        <f t="shared" si="5"/>
         <v>ScreenObjDtoList</v>
       </c>
-      <c r="E5" s="11" t="str">
-        <f>LOWER(LEFT($C5,1))&amp;RIGHT($D5,LEN($D5)-1)</f>
+      <c r="E8" s="11" t="str">
+        <f t="shared" si="6"/>
         <v>screenObjDtoList</v>
       </c>
-      <c r="F5" s="11" t="str">
-        <f>UPPER(SUBSTITUTE($C5," ","_"))</f>
+      <c r="F8" s="11" t="str">
+        <f t="shared" si="7"/>
         <v>SCREEN_OBJ_DTO_LIST</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G8" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="11" t="str">
-        <f t="shared" ref="I5" si="1">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
+      <c r="I8" s="11" t="str">
+        <f t="shared" si="1"/>
         <v xml:space="preserve">   /** スクリーンオブジェクトDTOリストのフィールド名 */
    public static final String FIELD_SCREEN_OBJ_DTO_LIST = "screenObjDtoList";</v>
       </c>
-      <c r="J5" s="11" t="str">
-        <f t="shared" ref="J5" si="2">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G5&amp;" "&amp;$E5&amp;";"</f>
+      <c r="J8" s="11" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">   /** スクリーンオブジェクトDTOリスト */
    private List&lt;ScreenObjDto&gt; screenObjDtoList;</v>
       </c>
-      <c r="K5" s="11" t="str">
-        <f t="shared" ref="K5" si="3">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G5&amp;" get"&amp;$D5&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+      <c r="K8" s="11" t="str">
+        <f t="shared" si="3"/>
         <v xml:space="preserve">   /**
     * スクリーンオブジェクトDTOリストを取得します。
     * 
@@ -2036,8 +2253,8 @@
    }
 </v>
       </c>
-      <c r="L5" s="11" t="str">
-        <f t="shared" ref="L5" si="4">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E5&amp;" "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D5&amp;"("&amp;$G5&amp;" "&amp;$E5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E5&amp;" = "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+      <c r="L8" s="11" t="str">
+        <f t="shared" si="4"/>
         <v xml:space="preserve">   /**
     * スクリーンオブジェクトDTOリストを設定します。
     * 
@@ -2909,7 +3126,7 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
@@ -3004,26 +3221,26 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
-        <f t="shared" ref="A5:A9" si="0">ROW()-4</f>
+        <f t="shared" ref="A5:A12" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="D5" s="7" t="str">
-        <f t="shared" ref="D5:D9" si="1">SUBSTITUTE($C5," ","")</f>
-        <v>AttrGrpId</v>
+        <f t="shared" ref="D5:D12" si="1">SUBSTITUTE($C5," ","")</f>
+        <v>RegionId</v>
       </c>
       <c r="E5" s="7" t="str">
         <f>LOWER(LEFT($C5,1))&amp;RIGHT($D5,LEN($D5)-1)</f>
-        <v>attrGrpId</v>
+        <v>regionId</v>
       </c>
       <c r="F5" s="7" t="str">
-        <f t="shared" ref="F5:F9" si="2">UPPER(SUBSTITUTE($C5," ","_"))</f>
-        <v>ATTR_GRP_ID</v>
+        <f t="shared" ref="F5:F12" si="2">UPPER(SUBSTITUTE($C5," ","_"))</f>
+        <v>REGION_ID</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>7</v>
@@ -3032,36 +3249,36 @@
         <v>16</v>
       </c>
       <c r="I5" s="7" t="str">
-        <f t="shared" ref="I5:I9" si="3">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
-        <v xml:space="preserve">   /** 属性グループIDのフィールド名 */
-   public static final String FIELD_ATTR_GRP_ID = "attrGrpId";</v>
+        <f t="shared" ref="I5:I12" si="3">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
+        <v xml:space="preserve">   /** 地域IDのフィールド名 */
+   public static final String FIELD_REGION_ID = "regionId";</v>
       </c>
       <c r="J5" s="7" t="str">
-        <f t="shared" ref="J5:J9" si="4">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G5&amp;" "&amp;$E5&amp;";"</f>
-        <v xml:space="preserve">   /** 属性グループID */
-   private Integer attrGrpId;</v>
+        <f t="shared" ref="J5:J12" si="4">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G5&amp;" "&amp;$E5&amp;";"</f>
+        <v xml:space="preserve">   /** 地域ID */
+   private Integer regionId;</v>
       </c>
       <c r="K5" s="7" t="str">
-        <f t="shared" ref="K5:K9" si="5">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G5&amp;" get"&amp;$D5&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
-        <v xml:space="preserve">   /**
-    * 属性グループIDを取得します。
-    * 
-    * @return 属性グループID
-    */
-   public Integer getAttrGrpId(){
-      return attrGrpId;
+        <f t="shared" ref="K5:K12" si="5">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G5&amp;" get"&amp;$D5&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 地域IDを取得します。
+    * 
+    * @return 地域ID
+    */
+   public Integer getRegionId(){
+      return regionId;
    }
 </v>
       </c>
       <c r="L5" s="7" t="str">
-        <f t="shared" ref="L5:L9" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E5&amp;" "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D5&amp;"("&amp;$G5&amp;" "&amp;$E5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E5&amp;" = "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
-        <v xml:space="preserve">   /**
-    * 属性グループIDを設定します。
-    * 
-    * @param attrGrpId 属性グループID
-    */
-   public void setAttrGrpId(Integer attrGrpId){
-      this.attrGrpId = attrGrpId;
+        <f t="shared" ref="L5:L12" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E5&amp;" "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D5&amp;"("&amp;$G5&amp;" "&amp;$E5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E5&amp;" = "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 地域IDを設定します。
+    * 
+    * @param regionId 地域ID
+    */
+   public void setRegionId(Integer regionId){
+      this.regionId = regionId;
    }
 </v>
       </c>
@@ -3072,60 +3289,58 @@
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="D6" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>AttrGrpType</v>
+        <v>FacilityGrpId</v>
       </c>
       <c r="E6" s="9" t="str">
-        <f>LOWER(LEFT($C6,1))&amp;RIGHT($D6,LEN($D6)-1)</f>
-        <v>attrGrpType</v>
+        <f t="shared" ref="E6:E8" si="7">LOWER(LEFT($C6,1))&amp;RIGHT($D6,LEN($D6)-1)</f>
+        <v>facilityGrpId</v>
       </c>
       <c r="F6" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>ATTR_GRP_TYPE</v>
+        <v>FACILITY_GRP_ID</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>16</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="H6" s="9"/>
       <c r="I6" s="9" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">   /** 属性グループ種別のフィールド名 */
-   public static final String FIELD_ATTR_GRP_TYPE = "attrGrpType";</v>
+        <v xml:space="preserve">   /** 施設グループIDのフィールド名 */
+   public static final String FIELD_FACILITY_GRP_ID = "facilityGrpId";</v>
       </c>
       <c r="J6" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   /** 属性グループ種別 */
-   private String attrGrpType;</v>
+        <v xml:space="preserve">   /** 施設グループID */
+   private Integer facilityGrpId;</v>
       </c>
       <c r="K6" s="9" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">   /**
-    * 属性グループ種別を取得します。
-    * 
-    * @return 属性グループ種別
-    */
-   public String getAttrGrpType(){
-      return attrGrpType;
+    * 施設グループIDを取得します。
+    * 
+    * @return 施設グループID
+    */
+   public Integer getFacilityGrpId(){
+      return facilityGrpId;
    }
 </v>
       </c>
       <c r="L6" s="9" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">   /**
-    * 属性グループ種別を設定します。
-    * 
-    * @param attrGrpType 属性グループ種別
-    */
-   public void setAttrGrpType(String attrGrpType){
-      this.attrGrpType = attrGrpType;
+    * 施設グループIDを設定します。
+    * 
+    * @param facilityGrpId 施設グループID
+    */
+   public void setFacilityGrpId(Integer facilityGrpId){
+      this.facilityGrpId = facilityGrpId;
    }
 </v>
       </c>
@@ -3136,58 +3351,58 @@
         <v>3</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D7" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>AttrGrpNm</v>
+        <v>FacilityId</v>
       </c>
       <c r="E7" s="9" t="str">
-        <f t="shared" ref="E7:E9" si="7">LOWER(LEFT($C7,1))&amp;RIGHT($D7,LEN($D7)-1)</f>
-        <v>attrGrpNm</v>
+        <f t="shared" si="7"/>
+        <v>facilityId</v>
       </c>
       <c r="F7" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>ATTR_GRP_NM</v>
+        <v>FACILITY_ID</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">   /** 属性グループ名称のフィールド名 */
-   public static final String FIELD_ATTR_GRP_NM = "attrGrpNm";</v>
+        <v xml:space="preserve">   /** 施設IDのフィールド名 */
+   public static final String FIELD_FACILITY_ID = "facilityId";</v>
       </c>
       <c r="J7" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   /** 属性グループ名称 */
-   private String attrGrpNm;</v>
+        <v xml:space="preserve">   /** 施設ID */
+   private Integer facilityId;</v>
       </c>
       <c r="K7" s="9" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">   /**
-    * 属性グループ名称を取得します。
-    * 
-    * @return 属性グループ名称
-    */
-   public String getAttrGrpNm(){
-      return attrGrpNm;
+    * 施設IDを取得します。
+    * 
+    * @return 施設ID
+    */
+   public Integer getFacilityId(){
+      return facilityId;
    }
 </v>
       </c>
       <c r="L7" s="9" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">   /**
-    * 属性グループ名称を設定します。
-    * 
-    * @param attrGrpNm 属性グループ名称
-    */
-   public void setAttrGrpNm(String attrGrpNm){
-      this.attrGrpNm = attrGrpNm;
+    * 施設IDを設定します。
+    * 
+    * @param facilityId 施設ID
+    */
+   public void setFacilityId(Integer facilityId){
+      this.facilityId = facilityId;
    }
 </v>
       </c>
@@ -3198,38 +3413,228 @@
         <v>4</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D8" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>AttrVal</v>
+        <v>AttrGrpId</v>
       </c>
       <c r="E8" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>attrVal</v>
+        <v>attrGrpId</v>
       </c>
       <c r="F8" s="9" t="str">
         <f t="shared" si="2"/>
+        <v>ATTR_GRP_ID</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">   /** 属性グループIDのフィールド名 */
+   public static final String FIELD_ATTR_GRP_ID = "attrGrpId";</v>
+      </c>
+      <c r="J8" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">   /** 属性グループID */
+   private Integer attrGrpId;</v>
+      </c>
+      <c r="K8" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">   /**
+    * 属性グループIDを取得します。
+    * 
+    * @return 属性グループID
+    */
+   public Integer getAttrGrpId(){
+      return attrGrpId;
+   }
+</v>
+      </c>
+      <c r="L8" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   /**
+    * 属性グループIDを設定します。
+    * 
+    * @param attrGrpId 属性グループID
+    */
+   public void setAttrGrpId(Integer attrGrpId){
+      this.attrGrpId = attrGrpId;
+   }
+</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>AttrGrpType</v>
+      </c>
+      <c r="E9" s="9" t="str">
+        <f>LOWER(LEFT($C9,1))&amp;RIGHT($D9,LEN($D9)-1)</f>
+        <v>attrGrpType</v>
+      </c>
+      <c r="F9" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>ATTR_GRP_TYPE</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">   /** 属性グループ種別のフィールド名 */
+   public static final String FIELD_ATTR_GRP_TYPE = "attrGrpType";</v>
+      </c>
+      <c r="J9" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">   /** 属性グループ種別 */
+   private String attrGrpType;</v>
+      </c>
+      <c r="K9" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">   /**
+    * 属性グループ種別を取得します。
+    * 
+    * @return 属性グループ種別
+    */
+   public String getAttrGrpType(){
+      return attrGrpType;
+   }
+</v>
+      </c>
+      <c r="L9" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   /**
+    * 属性グループ種別を設定します。
+    * 
+    * @param attrGrpType 属性グループ種別
+    */
+   public void setAttrGrpType(String attrGrpType){
+      this.attrGrpType = attrGrpType;
+   }
+</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>AttrGrpNm</v>
+      </c>
+      <c r="E10" s="9" t="str">
+        <f t="shared" ref="E10:E12" si="8">LOWER(LEFT($C10,1))&amp;RIGHT($D10,LEN($D10)-1)</f>
+        <v>attrGrpNm</v>
+      </c>
+      <c r="F10" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>ATTR_GRP_NM</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">   /** 属性グループ名称のフィールド名 */
+   public static final String FIELD_ATTR_GRP_NM = "attrGrpNm";</v>
+      </c>
+      <c r="J10" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">   /** 属性グループ名称 */
+   private String attrGrpNm;</v>
+      </c>
+      <c r="K10" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">   /**
+    * 属性グループ名称を取得します。
+    * 
+    * @return 属性グループ名称
+    */
+   public String getAttrGrpNm(){
+      return attrGrpNm;
+   }
+</v>
+      </c>
+      <c r="L10" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   /**
+    * 属性グループ名称を設定します。
+    * 
+    * @param attrGrpNm 属性グループ名称
+    */
+   public void setAttrGrpNm(String attrGrpNm){
+      this.attrGrpNm = attrGrpNm;
+   }
+</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>AttrVal</v>
+      </c>
+      <c r="E11" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>attrVal</v>
+      </c>
+      <c r="F11" s="9" t="str">
+        <f t="shared" si="2"/>
         <v>ATTR_VAL</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9" t="str">
+      <c r="H11" s="9"/>
+      <c r="I11" s="9" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">   /** 属性値のフィールド名 */
    public static final String FIELD_ATTR_VAL = "attrVal";</v>
       </c>
-      <c r="J8" s="9" t="str">
+      <c r="J11" s="9" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">   /** 属性値 */
    private String attrVal;</v>
       </c>
-      <c r="K8" s="9" t="str">
+      <c r="K11" s="9" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">   /**
     * 属性値を取得します。
@@ -3241,7 +3646,7 @@
    }
 </v>
       </c>
-      <c r="L8" s="9" t="str">
+      <c r="L11" s="9" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">   /**
     * 属性値を設定します。
@@ -3254,44 +3659,44 @@
 </v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="10">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="10">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C12" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="11" t="str">
+      <c r="D12" s="11" t="str">
         <f t="shared" si="1"/>
         <v>AttrCdVal</v>
       </c>
-      <c r="E9" s="11" t="str">
-        <f t="shared" si="7"/>
+      <c r="E12" s="11" t="str">
+        <f t="shared" si="8"/>
         <v>attrCdVal</v>
       </c>
-      <c r="F9" s="11" t="str">
+      <c r="F12" s="11" t="str">
         <f t="shared" si="2"/>
         <v>ATTR_CD_VAL</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11" t="str">
+      <c r="H12" s="11"/>
+      <c r="I12" s="11" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">   /** 属性コード値のフィールド名 */
    public static final String FIELD_ATTR_CD_VAL = "attrCdVal";</v>
       </c>
-      <c r="J9" s="11" t="str">
+      <c r="J12" s="11" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">   /** 属性コード値 */
    private String attrCdVal;</v>
       </c>
-      <c r="K9" s="11" t="str">
+      <c r="K12" s="11" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">   /**
     * 属性コード値を取得します。
@@ -3303,7 +3708,7 @@
    }
 </v>
       </c>
-      <c r="L9" s="11" t="str">
+      <c r="L12" s="11" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">   /**
     * 属性コード値を設定します。
@@ -4213,10 +4618,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>115</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>116</v>
       </c>
       <c r="D10" s="9" t="str">
         <f t="shared" si="3"/>
@@ -4231,7 +4636,7 @@
         <v>SCREEN_OBJ_GRP</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>62</v>

--- a/03_設計/06_データオブジェクト/データオブジェクト定義書.xlsx
+++ b/03_設計/06_データオブジェクト/データオブジェクト定義書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project Files\01. MELIP\02_SVN (Document)\03_設計\06_データオブジェクト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n-suzuki\git\melip-doc\03_設計\06_データオブジェクト\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,6 +21,9 @@
     <sheet name="地域DTO" sheetId="12" r:id="rId7"/>
     <sheet name="施設DTO" sheetId="11" r:id="rId8"/>
     <sheet name="レイアウト・スクリーンDTO" sheetId="13" r:id="rId9"/>
+    <sheet name="レイアウト・スクリーンオブジェクトグループDTO" sheetId="15" r:id="rId10"/>
+    <sheet name="レイアウト・スクリーンオブジェクトDTO" sheetId="16" r:id="rId11"/>
+    <sheet name="スクリーンオブジェクト属性DTO" sheetId="17" r:id="rId12"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="175">
   <si>
     <t>論理名</t>
     <rPh sb="0" eb="3">
@@ -420,58 +423,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>レイアウト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レイアウトオブジェクトグループ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スクリーン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スクリーンオブジェクト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Layout</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Screen</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レイアウトオブジェクト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Screen Obj</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Layout Obj Grp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Layout Obj</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LayoutObjGrp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LayoutObj</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ScreenObj</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Attr Dto List</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -535,11 +486,35 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>レイアウト・スクリーンID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Layout Screen Id</t>
+    <t>ScreenObjBunchDto</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクリーンオブジェクトバンチDTO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクリーンオブジェクトバンチDTOリスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Screen Obj Bunch Dto List</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>List&lt;ScreenObjBunchDto&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイアウトオブジェクトタイプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Layout Obj Type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Screen Obj Grp Id</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -547,27 +522,267 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ScreenObjBunchDto</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スクリーンオブジェクトバンチDTO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スクリーンオブジェクトバンチDTOリスト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Screen Obj Bunch Dto List</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>List&lt;ScreenObjBunchDto&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レイアウトオブジェクトタイプ</t>
+    <t>スクリーンオブジェクトグループID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Region Id</t>
+  </si>
+  <si>
+    <t>Region Id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Facility Grp Id</t>
+  </si>
+  <si>
+    <t>Facility Grp Id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Facility Id</t>
+  </si>
+  <si>
+    <t>Facility Id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Integer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Integer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイアウトID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Layout Id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Integer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイアウトエイリアス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Layout Alias</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイアウト名称</t>
+    <rPh sb="5" eb="7">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Layout Nm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイアウト種別</t>
+    <rPh sb="5" eb="7">
+      <t>シュベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Layout Type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクリーンID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Screen Id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地域ID</t>
+    <rPh sb="0" eb="2">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Region Id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクリーン名称</t>
+    <rPh sb="5" eb="7">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Screen Nm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LayoutScreenObjGrpDto</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイアウト・スクリーンオブジェクトグループDTO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイアウト・スクリーンオブジェクトグループDTOリスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Layout Screen Obj Grp Dto List</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>List&lt;LayoutScreenObjGrpDto&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイアウトオブジェクトグループID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Layout Obj Grp Id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Integer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクリーンエンティティ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Screen Entity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Multiplicity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクリーンオブジェクトグループID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Screen Obj Grp Id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクリーンオブジェクトグループエンティティ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Screen Obj Grp Entity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遷移先スクリーンID</t>
+  </si>
+  <si>
+    <t>遷移先スクリーンID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Target Screen Id</t>
+  </si>
+  <si>
+    <t>Target Screen Id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイアウト・スクリーンオブジェクトDTOリスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Layout Screen Obj Dto List</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>List&lt;LayoutScreenObjDto&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイアウト・スクリーンオブジェクトDTO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LayoutScreenObjDto</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイアウトオブジェクトID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイアウトオブジェクトエイリアス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイアウトオブジェクトグループエイリアス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Layout Obj Grp Alias</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイアウトオブジェクト名称</t>
+    <rPh sb="11" eb="13">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイアウトオブジェクト種別</t>
+    <rPh sb="11" eb="13">
+      <t>シュベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクリーンオブジェクトID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Layout Obj Id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Layout Obj Alias</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Layout Obj Nm</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -575,56 +790,64 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Screen Obj Grp Id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Integer</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スクリーンオブジェクトグループ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Screen Obj Grp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ScreenObjGrp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スクリーンオブジェクトグループID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Region Id</t>
-  </si>
-  <si>
-    <t>Region Id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Facility Grp Id</t>
-  </si>
-  <si>
-    <t>Facility Grp Id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Facility Id</t>
-  </si>
-  <si>
-    <t>Facility Id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Integer</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Integer</t>
+    <t>Screen Obj Id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクリーンオブジェクト属性DTOリスト</t>
+    <rPh sb="11" eb="13">
+      <t>ゾクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Screen Obj Attr Dto List</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>List&lt;ScreenObjAttrDto&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクリーンオブジェクト属性DTO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ScreenObjAttrDto</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクリーンオブジェクト属性ID</t>
+    <rPh sb="11" eb="13">
+      <t>ゾクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクリーンオブジェクト属性エンティティ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示順</t>
+    <rPh sb="0" eb="3">
+      <t>ヒョウジジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Screen Obj Attr Id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Screen Obj Attr Entity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Attr Grp Id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Display Num</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1298,10 +1521,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="D6" s="9" t="str">
         <f t="shared" ref="D6:D8" si="3">SUBSTITUTE($C6," ","")</f>
@@ -1316,7 +1539,7 @@
         <v>LAYOUT_ALIAS</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>16</v>
@@ -1491,7 +1714,1047 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="43.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.75" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="6" width="6.25" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="43.75" style="1" customWidth="1"/>
+    <col min="8" max="12" width="5" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="I2" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="6">
+        <f t="shared" ref="A5:A11" si="0">ROW()-4</f>
+        <v>1</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="7" t="str">
+        <f>SUBSTITUTE($C5," ","")</f>
+        <v>LayoutObjGrpId</v>
+      </c>
+      <c r="E5" s="7" t="str">
+        <f>LOWER(LEFT($C5,1))&amp;RIGHT($D5,LEN($D5)-1)</f>
+        <v>layoutObjGrpId</v>
+      </c>
+      <c r="F5" s="7" t="str">
+        <f>UPPER(SUBSTITUTE($C5," ","_"))</f>
+        <v>LAYOUT_OBJ_GRP_ID</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="I5" s="7" t="str">
+        <f t="shared" ref="I5:I11" si="1">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
+        <v xml:space="preserve">   /** レイアウトオブジェクトグループIDのフィールド名 */
+   public static final String FIELD_LAYOUT_OBJ_GRP_ID = "layoutObjGrpId";</v>
+      </c>
+      <c r="J5" s="7" t="str">
+        <f t="shared" ref="J5:J11" si="2">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G5&amp;" "&amp;$E5&amp;";"</f>
+        <v xml:space="preserve">   /** レイアウトオブジェクトグループID */
+   private Integer layoutObjGrpId;</v>
+      </c>
+      <c r="K5" s="7" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G5&amp;" get"&amp;$D5&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * レイアウトオブジェクトグループIDを取得します。
+    * 
+    * @return レイアウトオブジェクトグループID
+    */
+   public Integer getLayoutObjGrpId(){
+      return layoutObjGrpId;
+   }
+</v>
+      </c>
+      <c r="L5" s="7" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E5&amp;" "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D5&amp;"("&amp;$G5&amp;" "&amp;$E5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E5&amp;" = "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * レイアウトオブジェクトグループIDを設定します。
+    * 
+    * @param layoutObjGrpId レイアウトオブジェクトグループID
+    */
+   public void setLayoutObjGrpId(Integer layoutObjGrpId){
+      this.layoutObjGrpId = layoutObjGrpId;
+   }
+</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="19" t="str">
+        <f t="shared" ref="D6:D11" si="3">SUBSTITUTE($C6," ","")</f>
+        <v>LayoutObjGrpAlias</v>
+      </c>
+      <c r="E6" s="19" t="str">
+        <f t="shared" ref="E6:E11" si="4">LOWER(LEFT($C6,1))&amp;RIGHT($D6,LEN($D6)-1)</f>
+        <v>layoutObjGrpAlias</v>
+      </c>
+      <c r="F6" s="19" t="str">
+        <f t="shared" ref="F6:F11" si="5">UPPER(SUBSTITUTE($C6," ","_"))</f>
+        <v>LAYOUT_OBJ_GRP_ALIAS</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="I6" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">   /** レイアウトオブジェクトグループエイリアスのフィールド名 */
+   public static final String FIELD_LAYOUT_OBJ_GRP_ALIAS = "layoutObjGrpAlias";</v>
+      </c>
+      <c r="J6" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">   /** レイアウトオブジェクトグループエイリアス */
+   private String layoutObjGrpAlias;</v>
+      </c>
+      <c r="K6" s="19" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G6&amp;" get"&amp;$D6&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * レイアウトオブジェクトグループエイリアスを取得します。
+    * 
+    * @return レイアウトオブジェクトグループエイリアス
+    */
+   public String getLayoutObjGrpAlias(){
+      return layoutObjGrpAlias;
+   }
+</v>
+      </c>
+      <c r="L6" s="19" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E6&amp;" "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D6&amp;"("&amp;$G6&amp;" "&amp;$E6&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E6&amp;" = "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * レイアウトオブジェクトグループエイリアスを設定します。
+    * 
+    * @param layoutObjGrpAlias レイアウトオブジェクトグループエイリアス
+    */
+   public void setLayoutObjGrpAlias(String layoutObjGrpAlias){
+      this.layoutObjGrpAlias = layoutObjGrpAlias;
+   }
+</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Multiplicity</v>
+      </c>
+      <c r="E7" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>multiplicity</v>
+      </c>
+      <c r="F7" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>MULTIPLICITY</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="I7" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">   /** 多重度のフィールド名 */
+   public static final String FIELD_MULTIPLICITY = "multiplicity";</v>
+      </c>
+      <c r="J7" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">   /** 多重度 */
+   private String multiplicity;</v>
+      </c>
+      <c r="K7" s="9" t="str">
+        <f t="shared" ref="K7:K11" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B7&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B7&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G7&amp;" get"&amp;$D7&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E7&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 多重度を取得します。
+    * 
+    * @return 多重度
+    */
+   public String getMultiplicity(){
+      return multiplicity;
+   }
+</v>
+      </c>
+      <c r="L7" s="9" t="str">
+        <f t="shared" ref="L7:L11" si="7">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B7&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E7&amp;" "&amp;$B7&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D7&amp;"("&amp;$G7&amp;" "&amp;$E7&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E7&amp;" = "&amp;$E7&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 多重度を設定します。
+    * 
+    * @param multiplicity 多重度
+    */
+   public void setMultiplicity(String multiplicity){
+      this.multiplicity = multiplicity;
+   }
+</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>ScreenObjGrpId</v>
+      </c>
+      <c r="E8" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>screenObjGrpId</v>
+      </c>
+      <c r="F8" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>SCREEN_OBJ_GRP_ID</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="I8" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">   /** スクリーンオブジェクトグループIDのフィールド名 */
+   public static final String FIELD_SCREEN_OBJ_GRP_ID = "screenObjGrpId";</v>
+      </c>
+      <c r="J8" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">   /** スクリーンオブジェクトグループID */
+   private Integer screenObjGrpId;</v>
+      </c>
+      <c r="K8" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   /**
+    * スクリーンオブジェクトグループIDを取得します。
+    * 
+    * @return スクリーンオブジェクトグループID
+    */
+   public Integer getScreenObjGrpId(){
+      return screenObjGrpId;
+   }
+</v>
+      </c>
+      <c r="L8" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">   /**
+    * スクリーンオブジェクトグループIDを設定します。
+    * 
+    * @param screenObjGrpId スクリーンオブジェクトグループID
+    */
+   public void setScreenObjGrpId(Integer screenObjGrpId){
+      this.screenObjGrpId = screenObjGrpId;
+   }
+</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>ScreenObjGrpEntity</v>
+      </c>
+      <c r="E9" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>screenObjGrpEntity</v>
+      </c>
+      <c r="F9" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>SCREEN_OBJ_GRP_ENTITY</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="I9" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">   /** スクリーンオブジェクトグループエンティティのフィールド名 */
+   public static final String FIELD_SCREEN_OBJ_GRP_ENTITY = "screenObjGrpEntity";</v>
+      </c>
+      <c r="J9" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">   /** スクリーンオブジェクトグループエンティティ */
+   private String screenObjGrpEntity;</v>
+      </c>
+      <c r="K9" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   /**
+    * スクリーンオブジェクトグループエンティティを取得します。
+    * 
+    * @return スクリーンオブジェクトグループエンティティ
+    */
+   public String getScreenObjGrpEntity(){
+      return screenObjGrpEntity;
+   }
+</v>
+      </c>
+      <c r="L9" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">   /**
+    * スクリーンオブジェクトグループエンティティを設定します。
+    * 
+    * @param screenObjGrpEntity スクリーンオブジェクトグループエンティティ
+    */
+   public void setScreenObjGrpEntity(String screenObjGrpEntity){
+      this.screenObjGrpEntity = screenObjGrpEntity;
+   }
+</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>TargetScreenId</v>
+      </c>
+      <c r="E10" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>targetScreenId</v>
+      </c>
+      <c r="F10" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>TARGET_SCREEN_ID</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">   /** 遷移先スクリーンIDのフィールド名 */
+   public static final String FIELD_TARGET_SCREEN_ID = "targetScreenId";</v>
+      </c>
+      <c r="J10" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">   /** 遷移先スクリーンID */
+   private Integer targetScreenId;</v>
+      </c>
+      <c r="K10" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   /**
+    * 遷移先スクリーンIDを取得します。
+    * 
+    * @return 遷移先スクリーンID
+    */
+   public Integer getTargetScreenId(){
+      return targetScreenId;
+   }
+</v>
+      </c>
+      <c r="L10" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">   /**
+    * 遷移先スクリーンIDを設定します。
+    * 
+    * @param targetScreenId 遷移先スクリーンID
+    */
+   public void setTargetScreenId(Integer targetScreenId){
+      this.targetScreenId = targetScreenId;
+   }
+</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>LayoutScreenObjDtoList</v>
+      </c>
+      <c r="E11" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>layoutScreenObjDtoList</v>
+      </c>
+      <c r="F11" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>LAYOUT_SCREEN_OBJ_DTO_LIST</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="I11" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">   /** レイアウト・スクリーンオブジェクトDTOリストのフィールド名 */
+   public static final String FIELD_LAYOUT_SCREEN_OBJ_DTO_LIST = "layoutScreenObjDtoList";</v>
+      </c>
+      <c r="J11" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">   /** レイアウト・スクリーンオブジェクトDTOリスト */
+   private List&lt;LayoutScreenObjDto&gt; layoutScreenObjDtoList;</v>
+      </c>
+      <c r="K11" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   /**
+    * レイアウト・スクリーンオブジェクトDTOリストを取得します。
+    * 
+    * @return レイアウト・スクリーンオブジェクトDTOリスト
+    */
+   public List&lt;LayoutScreenObjDto&gt; getLayoutScreenObjDtoList(){
+      return layoutScreenObjDtoList;
+   }
+</v>
+      </c>
+      <c r="L11" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">   /**
+    * レイアウト・スクリーンオブジェクトDTOリストを設定します。
+    * 
+    * @param layoutScreenObjDtoList レイアウト・スクリーンオブジェクトDTOリスト
+    */
+   public void setLayoutScreenObjDtoList(List&lt;LayoutScreenObjDto&gt; layoutScreenObjDtoList){
+      this.layoutScreenObjDtoList = layoutScreenObjDtoList;
+   }
+</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:L10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="43.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.75" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="6" width="6.25" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="43.75" style="1" customWidth="1"/>
+    <col min="8" max="12" width="5" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="I2" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="6">
+        <f t="shared" ref="A5:A10" si="0">ROW()-4</f>
+        <v>1</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5" s="7" t="str">
+        <f>SUBSTITUTE($C5," ","")</f>
+        <v>LayoutObjId</v>
+      </c>
+      <c r="E5" s="7" t="str">
+        <f>LOWER(LEFT($C5,1))&amp;RIGHT($D5,LEN($D5)-1)</f>
+        <v>layoutObjId</v>
+      </c>
+      <c r="F5" s="7" t="str">
+        <f>UPPER(SUBSTITUTE($C5," ","_"))</f>
+        <v>LAYOUT_OBJ_ID</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="I5" s="7" t="str">
+        <f t="shared" ref="I5:I10" si="1">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
+        <v xml:space="preserve">   /** レイアウトオブジェクトIDのフィールド名 */
+   public static final String FIELD_LAYOUT_OBJ_ID = "layoutObjId";</v>
+      </c>
+      <c r="J5" s="7" t="str">
+        <f t="shared" ref="J5:J10" si="2">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G5&amp;" "&amp;$E5&amp;";"</f>
+        <v xml:space="preserve">   /** レイアウトオブジェクトID */
+   private Integer layoutObjId;</v>
+      </c>
+      <c r="K5" s="7" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G5&amp;" get"&amp;$D5&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * レイアウトオブジェクトIDを取得します。
+    * 
+    * @return レイアウトオブジェクトID
+    */
+   public Integer getLayoutObjId(){
+      return layoutObjId;
+   }
+</v>
+      </c>
+      <c r="L5" s="7" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E5&amp;" "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D5&amp;"("&amp;$G5&amp;" "&amp;$E5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E5&amp;" = "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * レイアウトオブジェクトIDを設定します。
+    * 
+    * @param layoutObjId レイアウトオブジェクトID
+    */
+   public void setLayoutObjId(Integer layoutObjId){
+      this.layoutObjId = layoutObjId;
+   }
+</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" s="19" t="str">
+        <f t="shared" ref="D6:D10" si="3">SUBSTITUTE($C6," ","")</f>
+        <v>LayoutObjAlias</v>
+      </c>
+      <c r="E6" s="19" t="str">
+        <f t="shared" ref="E6:E10" si="4">LOWER(LEFT($C6,1))&amp;RIGHT($D6,LEN($D6)-1)</f>
+        <v>layoutObjAlias</v>
+      </c>
+      <c r="F6" s="19" t="str">
+        <f t="shared" ref="F6:F10" si="5">UPPER(SUBSTITUTE($C6," ","_"))</f>
+        <v>LAYOUT_OBJ_ALIAS</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="I6" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">   /** レイアウトオブジェクトエイリアスのフィールド名 */
+   public static final String FIELD_LAYOUT_OBJ_ALIAS = "layoutObjAlias";</v>
+      </c>
+      <c r="J6" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">   /** レイアウトオブジェクトエイリアス */
+   private String layoutObjAlias;</v>
+      </c>
+      <c r="K6" s="19" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G6&amp;" get"&amp;$D6&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * レイアウトオブジェクトエイリアスを取得します。
+    * 
+    * @return レイアウトオブジェクトエイリアス
+    */
+   public String getLayoutObjAlias(){
+      return layoutObjAlias;
+   }
+</v>
+      </c>
+      <c r="L6" s="19" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E6&amp;" "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D6&amp;"("&amp;$G6&amp;" "&amp;$E6&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E6&amp;" = "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * レイアウトオブジェクトエイリアスを設定します。
+    * 
+    * @param layoutObjAlias レイアウトオブジェクトエイリアス
+    */
+   public void setLayoutObjAlias(String layoutObjAlias){
+      this.layoutObjAlias = layoutObjAlias;
+   }
+</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D7" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>LayoutObjNm</v>
+      </c>
+      <c r="E7" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>layoutObjNm</v>
+      </c>
+      <c r="F7" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>LAYOUT_OBJ_NM</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="I7" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">   /** レイアウトオブジェクト名称のフィールド名 */
+   public static final String FIELD_LAYOUT_OBJ_NM = "layoutObjNm";</v>
+      </c>
+      <c r="J7" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">   /** レイアウトオブジェクト名称 */
+   private String layoutObjNm;</v>
+      </c>
+      <c r="K7" s="9" t="str">
+        <f t="shared" ref="K7:K10" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B7&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B7&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G7&amp;" get"&amp;$D7&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E7&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * レイアウトオブジェクト名称を取得します。
+    * 
+    * @return レイアウトオブジェクト名称
+    */
+   public String getLayoutObjNm(){
+      return layoutObjNm;
+   }
+</v>
+      </c>
+      <c r="L7" s="9" t="str">
+        <f t="shared" ref="L7:L10" si="7">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B7&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E7&amp;" "&amp;$B7&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D7&amp;"("&amp;$G7&amp;" "&amp;$E7&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E7&amp;" = "&amp;$E7&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * レイアウトオブジェクト名称を設定します。
+    * 
+    * @param layoutObjNm レイアウトオブジェクト名称
+    */
+   public void setLayoutObjNm(String layoutObjNm){
+      this.layoutObjNm = layoutObjNm;
+   }
+</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>LayoutObjType</v>
+      </c>
+      <c r="E8" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>layoutObjType</v>
+      </c>
+      <c r="F8" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>LAYOUT_OBJ_TYPE</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="I8" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">   /** レイアウトオブジェクト種別のフィールド名 */
+   public static final String FIELD_LAYOUT_OBJ_TYPE = "layoutObjType";</v>
+      </c>
+      <c r="J8" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">   /** レイアウトオブジェクト種別 */
+   private String layoutObjType;</v>
+      </c>
+      <c r="K8" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   /**
+    * レイアウトオブジェクト種別を取得します。
+    * 
+    * @return レイアウトオブジェクト種別
+    */
+   public String getLayoutObjType(){
+      return layoutObjType;
+   }
+</v>
+      </c>
+      <c r="L8" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">   /**
+    * レイアウトオブジェクト種別を設定します。
+    * 
+    * @param layoutObjType レイアウトオブジェクト種別
+    */
+   public void setLayoutObjType(String layoutObjType){
+      this.layoutObjType = layoutObjType;
+   }
+</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>ScreenObjId</v>
+      </c>
+      <c r="E9" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>screenObjId</v>
+      </c>
+      <c r="F9" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>SCREEN_OBJ_ID</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="I9" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">   /** スクリーンオブジェクトIDのフィールド名 */
+   public static final String FIELD_SCREEN_OBJ_ID = "screenObjId";</v>
+      </c>
+      <c r="J9" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">   /** スクリーンオブジェクトID */
+   private Integer screenObjId;</v>
+      </c>
+      <c r="K9" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   /**
+    * スクリーンオブジェクトIDを取得します。
+    * 
+    * @return スクリーンオブジェクトID
+    */
+   public Integer getScreenObjId(){
+      return screenObjId;
+   }
+</v>
+      </c>
+      <c r="L9" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">   /**
+    * スクリーンオブジェクトIDを設定します。
+    * 
+    * @param screenObjId スクリーンオブジェクトID
+    */
+   public void setScreenObjId(Integer screenObjId){
+      this.screenObjId = screenObjId;
+   }
+</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D10" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>ScreenObjAttrDtoList</v>
+      </c>
+      <c r="E10" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>screenObjAttrDtoList</v>
+      </c>
+      <c r="F10" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>SCREEN_OBJ_ATTR_DTO_LIST</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="I10" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">   /** スクリーンオブジェクト属性DTOリストのフィールド名 */
+   public static final String FIELD_SCREEN_OBJ_ATTR_DTO_LIST = "screenObjAttrDtoList";</v>
+      </c>
+      <c r="J10" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">   /** スクリーンオブジェクト属性DTOリスト */
+   private List&lt;ScreenObjAttrDto&gt; screenObjAttrDtoList;</v>
+      </c>
+      <c r="K10" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   /**
+    * スクリーンオブジェクト属性DTOリストを取得します。
+    * 
+    * @return スクリーンオブジェクト属性DTOリスト
+    */
+   public List&lt;ScreenObjAttrDto&gt; getScreenObjAttrDtoList(){
+      return screenObjAttrDtoList;
+   }
+</v>
+      </c>
+      <c r="L10" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">   /**
+    * スクリーンオブジェクト属性DTOリストを設定します。
+    * 
+    * @param screenObjAttrDtoList スクリーンオブジェクト属性DTOリスト
+    */
+   public void setScreenObjAttrDtoList(List&lt;ScreenObjAttrDto&gt; screenObjAttrDtoList){
+      this.screenObjAttrDtoList = screenObjAttrDtoList;
+   }
+</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryRight="0"/>
@@ -1521,7 +2784,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="13"/>
@@ -1540,7 +2803,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>35</v>
+        <v>166</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="13"/>
@@ -1568,6 +2831,427 @@
         <v>28</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="6">
+        <f t="shared" ref="A5:A9" si="0">ROW()-4</f>
+        <v>1</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" s="7" t="str">
+        <f>SUBSTITUTE($C5," ","")</f>
+        <v>ScreenObjAttrId</v>
+      </c>
+      <c r="E5" s="7" t="str">
+        <f>LOWER(LEFT($C5,1))&amp;RIGHT($D5,LEN($D5)-1)</f>
+        <v>screenObjAttrId</v>
+      </c>
+      <c r="F5" s="7" t="str">
+        <f>UPPER(SUBSTITUTE($C5," ","_"))</f>
+        <v>SCREEN_OBJ_ATTR_ID</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="I5" s="7" t="str">
+        <f t="shared" ref="I5:I9" si="1">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
+        <v xml:space="preserve">   /** スクリーンオブジェクト属性IDのフィールド名 */
+   public static final String FIELD_SCREEN_OBJ_ATTR_ID = "screenObjAttrId";</v>
+      </c>
+      <c r="J5" s="7" t="str">
+        <f t="shared" ref="J5:J9" si="2">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G5&amp;" "&amp;$E5&amp;";"</f>
+        <v xml:space="preserve">   /** スクリーンオブジェクト属性ID */
+   private Integer screenObjAttrId;</v>
+      </c>
+      <c r="K5" s="7" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G5&amp;" get"&amp;$D5&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * スクリーンオブジェクト属性IDを取得します。
+    * 
+    * @return スクリーンオブジェクト属性ID
+    */
+   public Integer getScreenObjAttrId(){
+      return screenObjAttrId;
+   }
+</v>
+      </c>
+      <c r="L5" s="7" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E5&amp;" "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D5&amp;"("&amp;$G5&amp;" "&amp;$E5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E5&amp;" = "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * スクリーンオブジェクト属性IDを設定します。
+    * 
+    * @param screenObjAttrId スクリーンオブジェクト属性ID
+    */
+   public void setScreenObjAttrId(Integer screenObjAttrId){
+      this.screenObjAttrId = screenObjAttrId;
+   }
+</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" s="19" t="str">
+        <f t="shared" ref="D6:D9" si="3">SUBSTITUTE($C6," ","")</f>
+        <v>ScreenObjAttrEntity</v>
+      </c>
+      <c r="E6" s="19" t="str">
+        <f t="shared" ref="E6:E9" si="4">LOWER(LEFT($C6,1))&amp;RIGHT($D6,LEN($D6)-1)</f>
+        <v>screenObjAttrEntity</v>
+      </c>
+      <c r="F6" s="19" t="str">
+        <f t="shared" ref="F6:F9" si="5">UPPER(SUBSTITUTE($C6," ","_"))</f>
+        <v>SCREEN_OBJ_ATTR_ENTITY</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="I6" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">   /** スクリーンオブジェクト属性エンティティのフィールド名 */
+   public static final String FIELD_SCREEN_OBJ_ATTR_ENTITY = "screenObjAttrEntity";</v>
+      </c>
+      <c r="J6" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">   /** スクリーンオブジェクト属性エンティティ */
+   private String screenObjAttrEntity;</v>
+      </c>
+      <c r="K6" s="19" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G6&amp;" get"&amp;$D6&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * スクリーンオブジェクト属性エンティティを取得します。
+    * 
+    * @return スクリーンオブジェクト属性エンティティ
+    */
+   public String getScreenObjAttrEntity(){
+      return screenObjAttrEntity;
+   }
+</v>
+      </c>
+      <c r="L6" s="19" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E6&amp;" "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D6&amp;"("&amp;$G6&amp;" "&amp;$E6&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E6&amp;" = "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * スクリーンオブジェクト属性エンティティを設定します。
+    * 
+    * @param screenObjAttrEntity スクリーンオブジェクト属性エンティティ
+    */
+   public void setScreenObjAttrEntity(String screenObjAttrEntity){
+      this.screenObjAttrEntity = screenObjAttrEntity;
+   }
+</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>AttrGrpId</v>
+      </c>
+      <c r="E7" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>attrGrpId</v>
+      </c>
+      <c r="F7" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>ATTR_GRP_ID</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="I7" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">   /** 属性グループIDのフィールド名 */
+   public static final String FIELD_ATTR_GRP_ID = "attrGrpId";</v>
+      </c>
+      <c r="J7" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">   /** 属性グループID */
+   private Integer attrGrpId;</v>
+      </c>
+      <c r="K7" s="9" t="str">
+        <f t="shared" ref="K7:K9" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B7&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B7&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G7&amp;" get"&amp;$D7&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E7&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 属性グループIDを取得します。
+    * 
+    * @return 属性グループID
+    */
+   public Integer getAttrGrpId(){
+      return attrGrpId;
+   }
+</v>
+      </c>
+      <c r="L7" s="9" t="str">
+        <f t="shared" ref="L7:L9" si="7">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B7&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E7&amp;" "&amp;$B7&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D7&amp;"("&amp;$G7&amp;" "&amp;$E7&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E7&amp;" = "&amp;$E7&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 属性グループIDを設定します。
+    * 
+    * @param attrGrpId 属性グループID
+    */
+   public void setAttrGrpId(Integer attrGrpId){
+      this.attrGrpId = attrGrpId;
+   }
+</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>DisplayNum</v>
+      </c>
+      <c r="E8" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>displayNum</v>
+      </c>
+      <c r="F8" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>DISPLAY_NUM</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">   /** 表示順のフィールド名 */
+   public static final String FIELD_DISPLAY_NUM = "displayNum";</v>
+      </c>
+      <c r="J8" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">   /** 表示順 */
+   private Integer displayNum;</v>
+      </c>
+      <c r="K8" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   /**
+    * 表示順を取得します。
+    * 
+    * @return 表示順
+    */
+   public Integer getDisplayNum(){
+      return displayNum;
+   }
+</v>
+      </c>
+      <c r="L8" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">   /**
+    * 表示順を設定します。
+    * 
+    * @param displayNum 表示順
+    */
+   public void setDisplayNum(Integer displayNum){
+      this.displayNum = displayNum;
+   }
+</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>TargetScreenId</v>
+      </c>
+      <c r="E9" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>targetScreenId</v>
+      </c>
+      <c r="F9" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>TARGET_SCREEN_ID</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">   /** 遷移先スクリーンIDのフィールド名 */
+   public static final String FIELD_TARGET_SCREEN_ID = "targetScreenId";</v>
+      </c>
+      <c r="J9" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">   /** 遷移先スクリーンID */
+   private Integer targetScreenId;</v>
+      </c>
+      <c r="K9" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   /**
+    * 遷移先スクリーンIDを取得します。
+    * 
+    * @return 遷移先スクリーンID
+    */
+   public Integer getTargetScreenId(){
+      return targetScreenId;
+   }
+</v>
+      </c>
+      <c r="L9" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">   /**
+    * 遷移先スクリーンIDを設定します。
+    * 
+    * @param targetScreenId 遷移先スクリーンID
+    */
+   public void setTargetScreenId(Integer targetScreenId){
+      this.targetScreenId = targetScreenId;
+   }
+</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:L10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="43.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.75" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="6" width="6.25" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="43.75" style="1" customWidth="1"/>
+    <col min="8" max="12" width="5" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="I2" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -1659,10 +3343,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D6" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1726,7 +3410,7 @@
         <v>65</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="D7" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1787,10 +3471,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D8" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1805,7 +3489,7 @@
         <v>SCREEN_OBJ_GRP_ID</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>16</v>
@@ -1846,45 +3530,45 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="10">
-        <f t="shared" ref="A9" si="8">ROW()-4</f>
+      <c r="A9" s="8">
+        <f t="shared" ref="A9:A10" si="8">ROW()-4</f>
         <v>5</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="D9" s="11" t="str">
+      <c r="B9" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="9" t="str">
         <f>SUBSTITUTE($C9," ","")</f>
         <v>ScreenObjBunchDtoList</v>
       </c>
-      <c r="E9" s="11" t="str">
+      <c r="E9" s="9" t="str">
         <f>LOWER(LEFT($C9,1))&amp;RIGHT($D9,LEN($D9)-1)</f>
         <v>screenObjBunchDtoList</v>
       </c>
-      <c r="F9" s="11" t="str">
+      <c r="F9" s="9" t="str">
         <f>UPPER(SUBSTITUTE($C9," ","_"))</f>
         <v>SCREEN_OBJ_BUNCH_DTO_LIST</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="H9" s="11" t="s">
+      <c r="G9" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="11" t="str">
+      <c r="I9" s="9" t="str">
         <f>"   /** "&amp;$B9&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F9&amp;" = """&amp;$E9&amp;""";"</f>
         <v xml:space="preserve">   /** スクリーンオブジェクトバンチDTOリストのフィールド名 */
    public static final String FIELD_SCREEN_OBJ_BUNCH_DTO_LIST = "screenObjBunchDtoList";</v>
       </c>
-      <c r="J9" s="11" t="str">
+      <c r="J9" s="9" t="str">
         <f>"   /** "&amp;$B9&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G9&amp;" "&amp;$E9&amp;";"</f>
         <v xml:space="preserve">   /** スクリーンオブジェクトバンチDTOリスト */
    private List&lt;ScreenObjBunchDto&gt; screenObjBunchDtoList;</v>
       </c>
-      <c r="K9" s="11" t="str">
+      <c r="K9" s="9" t="str">
         <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B9&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B9&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G9&amp;" get"&amp;$D9&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E9&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
     * スクリーンオブジェクトバンチDTOリストを取得します。
@@ -1896,7 +3580,7 @@
    }
 </v>
       </c>
-      <c r="L9" s="11" t="str">
+      <c r="L9" s="9" t="str">
         <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B9&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E9&amp;" "&amp;$B9&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D9&amp;"("&amp;$G9&amp;" "&amp;$E9&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E9&amp;" = "&amp;$E9&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
     * スクリーンオブジェクトバンチDTOリストを設定します。
@@ -1905,6 +3589,68 @@
     */
    public void setScreenObjBunchDtoList(List&lt;ScreenObjBunchDto&gt; screenObjBunchDtoList){
       this.screenObjBunchDtoList = screenObjBunchDtoList;
+   }
+</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="10">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" s="11" t="str">
+        <f>SUBSTITUTE($C10," ","")</f>
+        <v>TargetScreenId</v>
+      </c>
+      <c r="E10" s="11" t="str">
+        <f>LOWER(LEFT($C10,1))&amp;RIGHT($D10,LEN($D10)-1)</f>
+        <v>targetScreenId</v>
+      </c>
+      <c r="F10" s="11" t="str">
+        <f>UPPER(SUBSTITUTE($C10," ","_"))</f>
+        <v>TARGET_SCREEN_ID</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11" t="str">
+        <f>"   /** "&amp;$B10&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F10&amp;" = """&amp;$E10&amp;""";"</f>
+        <v xml:space="preserve">   /** 遷移先スクリーンIDのフィールド名 */
+   public static final String FIELD_TARGET_SCREEN_ID = "targetScreenId";</v>
+      </c>
+      <c r="J10" s="11" t="str">
+        <f>"   /** "&amp;$B10&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G10&amp;" "&amp;$E10&amp;";"</f>
+        <v xml:space="preserve">   /** 遷移先スクリーンID */
+   private Integer targetScreenId;</v>
+      </c>
+      <c r="K10" s="11" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B10&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B10&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G10&amp;" get"&amp;$D10&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E10&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 遷移先スクリーンIDを取得します。
+    * 
+    * @return 遷移先スクリーンID
+    */
+   public Integer getTargetScreenId(){
+      return targetScreenId;
+   }
+</v>
+      </c>
+      <c r="L10" s="11" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B10&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E10&amp;" "&amp;$B10&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D10&amp;"("&amp;$G10&amp;" "&amp;$E10&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E10&amp;" = "&amp;$E10&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 遷移先スクリーンIDを設定します。
+    * 
+    * @param targetScreenId 遷移先スクリーンID
+    */
+   public void setTargetScreenId(Integer targetScreenId){
+      this.targetScreenId = targetScreenId;
    }
 </v>
       </c>
@@ -1946,7 +3692,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="13"/>
@@ -1965,7 +3711,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="13"/>
@@ -2023,7 +3769,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="D5" s="7" t="str">
         <f>SUBSTITUTE($C5," ","")</f>
@@ -2038,7 +3784,7 @@
         <v>REGION_ID</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>16</v>
@@ -2087,7 +3833,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="D6" s="9" t="str">
         <f t="shared" ref="D6:D8" si="5">SUBSTITUTE($C6," ","")</f>
@@ -2102,7 +3848,7 @@
         <v>FACILITY_GRP_ID</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="str">
@@ -2149,7 +3895,7 @@
         <v>22</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="D7" s="9" t="str">
         <f t="shared" si="5"/>
@@ -2164,7 +3910,7 @@
         <v>FACILITY_ID</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="str">
@@ -2441,10 +4187,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="D6" s="9" t="str">
         <f t="shared" ref="D6:D9" si="3">SUBSTITUTE($C6," ","")</f>
@@ -2459,7 +4205,7 @@
         <v>LAYOUT_OBJ_ALIAS</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>16</v>
@@ -2505,10 +4251,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="D7" s="9" t="str">
         <f t="shared" si="3"/>
@@ -2523,7 +4269,7 @@
         <v>LAYOUT_OBJ_TYPE</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>16</v>
@@ -2636,7 +4382,7 @@
         <v>50</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D9" s="11" t="str">
         <f t="shared" si="3"/>
@@ -2651,7 +4397,7 @@
         <v>ATTR_DTO_LIST</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>16</v>
@@ -3126,7 +4872,7 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
@@ -3151,7 +4897,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="13"/>
@@ -3221,17 +4967,17 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
-        <f t="shared" ref="A5:A12" si="0">ROW()-4</f>
+        <f t="shared" ref="A5:A13" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="D5" s="7" t="str">
-        <f t="shared" ref="D5:D12" si="1">SUBSTITUTE($C5," ","")</f>
+        <f t="shared" ref="D5:D13" si="1">SUBSTITUTE($C5," ","")</f>
         <v>RegionId</v>
       </c>
       <c r="E5" s="7" t="str">
@@ -3239,7 +4985,7 @@
         <v>regionId</v>
       </c>
       <c r="F5" s="7" t="str">
-        <f t="shared" ref="F5:F12" si="2">UPPER(SUBSTITUTE($C5," ","_"))</f>
+        <f t="shared" ref="F5:F13" si="2">UPPER(SUBSTITUTE($C5," ","_"))</f>
         <v>REGION_ID</v>
       </c>
       <c r="G5" s="7" t="s">
@@ -3249,17 +4995,17 @@
         <v>16</v>
       </c>
       <c r="I5" s="7" t="str">
-        <f t="shared" ref="I5:I12" si="3">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
+        <f t="shared" ref="I5:I13" si="3">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
         <v xml:space="preserve">   /** 地域IDのフィールド名 */
    public static final String FIELD_REGION_ID = "regionId";</v>
       </c>
       <c r="J5" s="7" t="str">
-        <f t="shared" ref="J5:J12" si="4">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G5&amp;" "&amp;$E5&amp;";"</f>
+        <f t="shared" ref="J5:J13" si="4">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G5&amp;" "&amp;$E5&amp;";"</f>
         <v xml:space="preserve">   /** 地域ID */
    private Integer regionId;</v>
       </c>
       <c r="K5" s="7" t="str">
-        <f t="shared" ref="K5:K12" si="5">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G5&amp;" get"&amp;$D5&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <f t="shared" ref="K5:K13" si="5">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G5&amp;" get"&amp;$D5&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
     * 地域IDを取得します。
     * 
@@ -3271,7 +5017,7 @@
 </v>
       </c>
       <c r="L5" s="7" t="str">
-        <f t="shared" ref="L5:L12" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E5&amp;" "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D5&amp;"("&amp;$G5&amp;" "&amp;$E5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E5&amp;" = "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <f t="shared" ref="L5:L13" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E5&amp;" "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D5&amp;"("&amp;$G5&amp;" "&amp;$E5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E5&amp;" = "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
     * 地域IDを設定します。
     * 
@@ -3292,7 +5038,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="D6" s="9" t="str">
         <f t="shared" si="1"/>
@@ -3307,7 +5053,7 @@
         <v>FACILITY_GRP_ID</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="str">
@@ -3354,7 +5100,7 @@
         <v>22</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="D7" s="9" t="str">
         <f t="shared" si="1"/>
@@ -3369,7 +5115,7 @@
         <v>FACILITY_ID</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="str">
@@ -3416,7 +5162,7 @@
         <v>39</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D8" s="9" t="str">
         <f t="shared" si="1"/>
@@ -3431,7 +5177,7 @@
         <v>ATTR_GRP_ID</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>16</v>
@@ -3480,7 +5226,7 @@
         <v>40</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="D9" s="9" t="str">
         <f t="shared" si="1"/>
@@ -3544,14 +5290,14 @@
         <v>41</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D10" s="9" t="str">
         <f t="shared" si="1"/>
         <v>AttrGrpNm</v>
       </c>
       <c r="E10" s="9" t="str">
-        <f t="shared" ref="E10:E12" si="8">LOWER(LEFT($C10,1))&amp;RIGHT($D10,LEN($D10)-1)</f>
+        <f t="shared" ref="E10:E13" si="8">LOWER(LEFT($C10,1))&amp;RIGHT($D10,LEN($D10)-1)</f>
         <v>attrGrpNm</v>
       </c>
       <c r="F10" s="9" t="str">
@@ -3606,7 +5352,7 @@
         <v>42</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D11" s="9" t="str">
         <f t="shared" si="1"/>
@@ -3660,43 +5406,43 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="10">
+      <c r="A12" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12" s="11" t="str">
+      <c r="C12" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="9" t="str">
         <f t="shared" si="1"/>
         <v>AttrCdVal</v>
       </c>
-      <c r="E12" s="11" t="str">
+      <c r="E12" s="9" t="str">
         <f t="shared" si="8"/>
         <v>attrCdVal</v>
       </c>
-      <c r="F12" s="11" t="str">
+      <c r="F12" s="9" t="str">
         <f t="shared" si="2"/>
         <v>ATTR_CD_VAL</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11" t="str">
+      <c r="H12" s="9"/>
+      <c r="I12" s="9" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">   /** 属性コード値のフィールド名 */
    public static final String FIELD_ATTR_CD_VAL = "attrCdVal";</v>
       </c>
-      <c r="J12" s="11" t="str">
+      <c r="J12" s="9" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">   /** 属性コード値 */
    private String attrCdVal;</v>
       </c>
-      <c r="K12" s="11" t="str">
+      <c r="K12" s="9" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">   /**
     * 属性コード値を取得します。
@@ -3708,7 +5454,7 @@
    }
 </v>
       </c>
-      <c r="L12" s="11" t="str">
+      <c r="L12" s="9" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">   /**
     * 属性コード値を設定します。
@@ -3717,6 +5463,68 @@
     */
    public void setAttrCdVal(String attrCdVal){
       this.attrCdVal = attrCdVal;
+   }
+</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>TargetScreenId</v>
+      </c>
+      <c r="E13" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>targetScreenId</v>
+      </c>
+      <c r="F13" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>TARGET_SCREEN_ID</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">   /** 遷移先スクリーンIDのフィールド名 */
+   public static final String FIELD_TARGET_SCREEN_ID = "targetScreenId";</v>
+      </c>
+      <c r="J13" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">   /** 遷移先スクリーンID */
+   private Integer targetScreenId;</v>
+      </c>
+      <c r="K13" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">   /**
+    * 遷移先スクリーンIDを取得します。
+    * 
+    * @return 遷移先スクリーンID
+    */
+   public Integer getTargetScreenId(){
+      return targetScreenId;
+   }
+</v>
+      </c>
+      <c r="L13" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   /**
+    * 遷移先スクリーンIDを設定します。
+    * 
+    * @param targetScreenId 遷移先スクリーンID
+    */
+   public void setTargetScreenId(Integer targetScreenId){
+      this.targetScreenId = targetScreenId;
    }
 </v>
       </c>
@@ -3899,7 +5707,7 @@
         <v>50</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D6" s="11" t="str">
         <f t="shared" ref="D6" si="3">SUBSTITUTE($C6," ","")</f>
@@ -3914,7 +5722,7 @@
         <v>ATTR_DTO_LIST</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>16</v>
@@ -3978,9 +5786,8 @@
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="43.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.75" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="6" width="6.25" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="3" width="43.75" style="1" customWidth="1"/>
+    <col min="4" max="6" width="6.25" style="1" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="43.75" style="1" customWidth="1"/>
     <col min="8" max="12" width="5" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
@@ -4132,7 +5939,7 @@
         <v>50</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D6" s="11" t="str">
         <f t="shared" ref="D6" si="3">SUBSTITUTE($C6," ","")</f>
@@ -4147,7 +5954,7 @@
         <v>ATTR_DTO_LIST</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>16</v>
@@ -4199,7 +6006,7 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
@@ -4294,64 +6101,64 @@
     </row>
     <row r="5" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
-        <f t="shared" ref="A5:A11" si="0">ROW()-4</f>
+        <f t="shared" ref="A5:A13" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D5" s="7" t="str">
         <f>SUBSTITUTE($C5," ","")</f>
-        <v>LayoutScreenId</v>
+        <v>LayoutId</v>
       </c>
       <c r="E5" s="7" t="str">
         <f>LOWER(LEFT($C5,1))&amp;RIGHT($D5,LEN($D5)-1)</f>
-        <v>layoutScreenId</v>
+        <v>layoutId</v>
       </c>
       <c r="F5" s="7" t="str">
         <f>UPPER(SUBSTITUTE($C5," ","_"))</f>
-        <v>LAYOUT_SCREEN_ID</v>
+        <v>LAYOUT_ID</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="I5" s="7" t="str">
-        <f t="shared" ref="I5:I11" si="1">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
-        <v xml:space="preserve">   /** レイアウト・スクリーンIDのフィールド名 */
-   public static final String FIELD_LAYOUT_SCREEN_ID = "layoutScreenId";</v>
+        <f t="shared" ref="I5:I13" si="1">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
+        <v xml:space="preserve">   /** レイアウトIDのフィールド名 */
+   public static final String FIELD_LAYOUT_ID = "layoutId";</v>
       </c>
       <c r="J5" s="7" t="str">
-        <f t="shared" ref="J5:J11" si="2">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G5&amp;" "&amp;$E5&amp;";"</f>
-        <v xml:space="preserve">   /** レイアウト・スクリーンID */
-   private Integer layoutScreenId;</v>
+        <f t="shared" ref="J5:J13" si="2">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G5&amp;" "&amp;$E5&amp;";"</f>
+        <v xml:space="preserve">   /** レイアウトID */
+   private Integer layoutId;</v>
       </c>
       <c r="K5" s="7" t="str">
         <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G5&amp;" get"&amp;$D5&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
-    * レイアウト・スクリーンIDを取得します。
-    * 
-    * @return レイアウト・スクリーンID
-    */
-   public Integer getLayoutScreenId(){
-      return layoutScreenId;
+    * レイアウトIDを取得します。
+    * 
+    * @return レイアウトID
+    */
+   public Integer getLayoutId(){
+      return layoutId;
    }
 </v>
       </c>
       <c r="L5" s="7" t="str">
         <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E5&amp;" "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D5&amp;"("&amp;$G5&amp;" "&amp;$E5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E5&amp;" = "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
-    * レイアウト・スクリーンIDを設定します。
-    * 
-    * @param layoutScreenId レイアウト・スクリーンID
-    */
-   public void setLayoutScreenId(Integer layoutScreenId){
-      this.layoutScreenId = layoutScreenId;
+    * レイアウトIDを設定します。
+    * 
+    * @param layoutId レイアウトID
+    */
+   public void setLayoutId(Integer layoutId){
+      this.layoutId = layoutId;
    }
 </v>
       </c>
@@ -4362,60 +6169,60 @@
         <v>2</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="D6" s="19" t="str">
-        <f>SUBSTITUTE($C6," ","")</f>
-        <v>Layout</v>
+        <f t="shared" ref="D6:D13" si="3">SUBSTITUTE($C6," ","")</f>
+        <v>LayoutAlias</v>
       </c>
       <c r="E6" s="19" t="str">
-        <f>LOWER(LEFT($C6,1))&amp;RIGHT($D6,LEN($D6)-1)</f>
-        <v>layout</v>
+        <f t="shared" ref="E6:E13" si="4">LOWER(LEFT($C6,1))&amp;RIGHT($D6,LEN($D6)-1)</f>
+        <v>layoutAlias</v>
       </c>
       <c r="F6" s="19" t="str">
-        <f>UPPER(SUBSTITUTE($C6," ","_"))</f>
-        <v>LAYOUT</v>
+        <f t="shared" ref="F6:F13" si="5">UPPER(SUBSTITUTE($C6," ","_"))</f>
+        <v>LAYOUT_ALIAS</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="I6" s="19" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">   /** レイアウトのフィールド名 */
-   public static final String FIELD_LAYOUT = "layout";</v>
+        <v xml:space="preserve">   /** レイアウトエイリアスのフィールド名 */
+   public static final String FIELD_LAYOUT_ALIAS = "layoutAlias";</v>
       </c>
       <c r="J6" s="19" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">   /** レイアウト */
-   private Layout layout;</v>
+        <v xml:space="preserve">   /** レイアウトエイリアス */
+   private String layoutAlias;</v>
       </c>
       <c r="K6" s="19" t="str">
         <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G6&amp;" get"&amp;$D6&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
-    * レイアウトを取得します。
-    * 
-    * @return レイアウト
-    */
-   public Layout getLayout(){
-      return layout;
+    * レイアウトエイリアスを取得します。
+    * 
+    * @return レイアウトエイリアス
+    */
+   public String getLayoutAlias(){
+      return layoutAlias;
    }
 </v>
       </c>
       <c r="L6" s="19" t="str">
         <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E6&amp;" "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D6&amp;"("&amp;$G6&amp;" "&amp;$E6&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E6&amp;" = "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
-    * レイアウトを設定します。
-    * 
-    * @param layout レイアウト
-    */
-   public void setLayout(Layout layout){
-      this.layout = layout;
+    * レイアウトエイリアスを設定します。
+    * 
+    * @param layoutAlias レイアウトエイリアス
+    */
+   public void setLayoutAlias(String layoutAlias){
+      this.layoutAlias = layoutAlias;
    }
 </v>
       </c>
@@ -4426,60 +6233,60 @@
         <v>3</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="D7" s="9" t="str">
-        <f t="shared" ref="D7:D11" si="3">SUBSTITUTE($C7," ","")</f>
-        <v>LayoutObjGrp</v>
+        <f t="shared" si="3"/>
+        <v>LayoutNm</v>
       </c>
       <c r="E7" s="9" t="str">
-        <f>LOWER(LEFT($C7,1))&amp;RIGHT($D7,LEN($D7)-1)</f>
-        <v>layoutObjGrp</v>
+        <f t="shared" si="4"/>
+        <v>layoutNm</v>
       </c>
       <c r="F7" s="9" t="str">
-        <f t="shared" ref="F7:F11" si="4">UPPER(SUBSTITUTE($C7," ","_"))</f>
-        <v>LAYOUT_OBJ_GRP</v>
+        <f t="shared" si="5"/>
+        <v>LAYOUT_NM</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="I7" s="9" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">   /** レイアウトオブジェクトグループのフィールド名 */
-   public static final String FIELD_LAYOUT_OBJ_GRP = "layoutObjGrp";</v>
+        <v xml:space="preserve">   /** レイアウト名称のフィールド名 */
+   public static final String FIELD_LAYOUT_NM = "layoutNm";</v>
       </c>
       <c r="J7" s="9" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">   /** レイアウトオブジェクトグループ */
-   private LayoutObjGrp layoutObjGrp;</v>
+        <v xml:space="preserve">   /** レイアウト名称 */
+   private String layoutNm;</v>
       </c>
       <c r="K7" s="9" t="str">
-        <f t="shared" ref="K7:K11" si="5">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B7&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B7&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G7&amp;" get"&amp;$D7&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E7&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
-        <v xml:space="preserve">   /**
-    * レイアウトオブジェクトグループを取得します。
-    * 
-    * @return レイアウトオブジェクトグループ
-    */
-   public LayoutObjGrp getLayoutObjGrp(){
-      return layoutObjGrp;
+        <f t="shared" ref="K7:K13" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B7&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B7&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G7&amp;" get"&amp;$D7&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E7&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * レイアウト名称を取得します。
+    * 
+    * @return レイアウト名称
+    */
+   public String getLayoutNm(){
+      return layoutNm;
    }
 </v>
       </c>
       <c r="L7" s="9" t="str">
-        <f t="shared" ref="L7:L11" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B7&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E7&amp;" "&amp;$B7&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D7&amp;"("&amp;$G7&amp;" "&amp;$E7&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E7&amp;" = "&amp;$E7&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
-        <v xml:space="preserve">   /**
-    * レイアウトオブジェクトグループを設定します。
-    * 
-    * @param layoutObjGrp レイアウトオブジェクトグループ
-    */
-   public void setLayoutObjGrp(LayoutObjGrp layoutObjGrp){
-      this.layoutObjGrp = layoutObjGrp;
+        <f t="shared" ref="L7:L13" si="7">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B7&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E7&amp;" "&amp;$B7&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D7&amp;"("&amp;$G7&amp;" "&amp;$E7&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E7&amp;" = "&amp;$E7&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * レイアウト名称を設定します。
+    * 
+    * @param layoutNm レイアウト名称
+    */
+   public void setLayoutNm(String layoutNm){
+      this.layoutNm = layoutNm;
    }
 </v>
       </c>
@@ -4490,60 +6297,60 @@
         <v>4</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="D8" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>LayoutObj</v>
+        <v>LayoutType</v>
       </c>
       <c r="E8" s="9" t="str">
-        <f t="shared" ref="E8:E11" si="7">LOWER(LEFT($C8,1))&amp;RIGHT($D8,LEN($D8)-1)</f>
-        <v>layoutObj</v>
+        <f t="shared" si="4"/>
+        <v>layoutType</v>
       </c>
       <c r="F8" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>LAYOUT_OBJ</v>
+        <f t="shared" si="5"/>
+        <v>LAYOUT_TYPE</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="I8" s="9" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">   /** レイアウトオブジェクトのフィールド名 */
-   public static final String FIELD_LAYOUT_OBJ = "layoutObj";</v>
+        <v xml:space="preserve">   /** レイアウト種別のフィールド名 */
+   public static final String FIELD_LAYOUT_TYPE = "layoutType";</v>
       </c>
       <c r="J8" s="9" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">   /** レイアウトオブジェクト */
-   private LayoutObj layoutObj;</v>
+        <v xml:space="preserve">   /** レイアウト種別 */
+   private String layoutType;</v>
       </c>
       <c r="K8" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">   /**
-    * レイアウトオブジェクトを取得します。
-    * 
-    * @return レイアウトオブジェクト
-    */
-   public LayoutObj getLayoutObj(){
-      return layoutObj;
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   /**
+    * レイアウト種別を取得します。
+    * 
+    * @return レイアウト種別
+    */
+   public String getLayoutType(){
+      return layoutType;
    }
 </v>
       </c>
       <c r="L8" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">   /**
-    * レイアウトオブジェクトを設定します。
-    * 
-    * @param layoutObj レイアウトオブジェクト
-    */
-   public void setLayoutObj(LayoutObj layoutObj){
-      this.layoutObj = layoutObj;
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">   /**
+    * レイアウト種別を設定します。
+    * 
+    * @param layoutType レイアウト種別
+    */
+   public void setLayoutType(String layoutType){
+      this.layoutType = layoutType;
    }
 </v>
       </c>
@@ -4554,60 +6361,60 @@
         <v>5</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="D9" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>Screen</v>
+        <v>ScreenId</v>
       </c>
       <c r="E9" s="9" t="str">
-        <f t="shared" si="7"/>
-        <v>screen</v>
+        <f t="shared" si="4"/>
+        <v>screenId</v>
       </c>
       <c r="F9" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>SCREEN</v>
+        <f t="shared" si="5"/>
+        <v>SCREEN_ID</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="I9" s="9" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">   /** スクリーンのフィールド名 */
-   public static final String FIELD_SCREEN = "screen";</v>
+        <v xml:space="preserve">   /** スクリーンIDのフィールド名 */
+   public static final String FIELD_SCREEN_ID = "screenId";</v>
       </c>
       <c r="J9" s="9" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">   /** スクリーン */
-   private Screen screen;</v>
+        <v xml:space="preserve">   /** スクリーンID */
+   private Integer screenId;</v>
       </c>
       <c r="K9" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">   /**
-    * スクリーンを取得します。
-    * 
-    * @return スクリーン
-    */
-   public Screen getScreen(){
-      return screen;
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   /**
+    * スクリーンIDを取得します。
+    * 
+    * @return スクリーンID
+    */
+   public Integer getScreenId(){
+      return screenId;
    }
 </v>
       </c>
       <c r="L9" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">   /**
-    * スクリーンを設定します。
-    * 
-    * @param screen スクリーン
-    */
-   public void setScreen(Screen screen){
-      this.screen = screen;
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">   /**
+    * スクリーンIDを設定します。
+    * 
+    * @param screenId スクリーンID
+    */
+   public void setScreenId(Integer screenId){
+      this.screenId = screenId;
    }
 </v>
       </c>
@@ -4618,124 +6425,252 @@
         <v>6</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="D10" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>ScreenObjGrp</v>
+        <v>RegionId</v>
       </c>
       <c r="E10" s="9" t="str">
-        <f t="shared" si="7"/>
-        <v>screenObjGrp</v>
+        <f t="shared" si="4"/>
+        <v>regionId</v>
       </c>
       <c r="F10" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>SCREEN_OBJ_GRP</v>
+        <f t="shared" si="5"/>
+        <v>REGION_ID</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="I10" s="9" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">   /** スクリーンオブジェクトグループのフィールド名 */
-   public static final String FIELD_SCREEN_OBJ_GRP = "screenObjGrp";</v>
+        <v xml:space="preserve">   /** 地域IDのフィールド名 */
+   public static final String FIELD_REGION_ID = "regionId";</v>
       </c>
       <c r="J10" s="9" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">   /** スクリーンオブジェクトグループ */
-   private ScreenObjGrp screenObjGrp;</v>
+        <v xml:space="preserve">   /** 地域ID */
+   private Integer regionId;</v>
       </c>
       <c r="K10" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">   /**
-    * スクリーンオブジェクトグループを取得します。
-    * 
-    * @return スクリーンオブジェクトグループ
-    */
-   public ScreenObjGrp getScreenObjGrp(){
-      return screenObjGrp;
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   /**
+    * 地域IDを取得します。
+    * 
+    * @return 地域ID
+    */
+   public Integer getRegionId(){
+      return regionId;
    }
 </v>
       </c>
       <c r="L10" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">   /**
-    * スクリーンオブジェクトグループを設定します。
-    * 
-    * @param screenObjGrp スクリーンオブジェクトグループ
-    */
-   public void setScreenObjGrp(ScreenObjGrp screenObjGrp){
-      this.screenObjGrp = screenObjGrp;
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">   /**
+    * 地域IDを設定します。
+    * 
+    * @param regionId 地域ID
+    */
+   public void setRegionId(Integer regionId){
+      this.regionId = regionId;
    }
 </v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="10">
+      <c r="A11" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" s="11" t="str">
+      <c r="B11" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>ScreenObj</v>
-      </c>
-      <c r="E11" s="11" t="str">
+        <v>ScreenEntity</v>
+      </c>
+      <c r="E11" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>screenEntity</v>
+      </c>
+      <c r="F11" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>SCREEN_ENTITY</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="I11" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">   /** スクリーンエンティティのフィールド名 */
+   public static final String FIELD_SCREEN_ENTITY = "screenEntity";</v>
+      </c>
+      <c r="J11" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">   /** スクリーンエンティティ */
+   private String screenEntity;</v>
+      </c>
+      <c r="K11" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   /**
+    * スクリーンエンティティを取得します。
+    * 
+    * @return スクリーンエンティティ
+    */
+   public String getScreenEntity(){
+      return screenEntity;
+   }
+</v>
+      </c>
+      <c r="L11" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>screenObj</v>
-      </c>
-      <c r="F11" s="11" t="str">
+        <v xml:space="preserve">   /**
+    * スクリーンエンティティを設定します。
+    * 
+    * @param screenEntity スクリーンエンティティ
+    */
+   public void setScreenEntity(String screenEntity){
+      this.screenEntity = screenEntity;
+   }
+</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>ScreenNm</v>
+      </c>
+      <c r="E12" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>SCREEN_OBJ</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="I11" s="11" t="str">
+        <v>screenNm</v>
+      </c>
+      <c r="F12" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>SCREEN_NM</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="I12" s="9" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">   /** スクリーンオブジェクトのフィールド名 */
-   public static final String FIELD_SCREEN_OBJ = "screenObj";</v>
-      </c>
-      <c r="J11" s="11" t="str">
+        <v xml:space="preserve">   /** スクリーン名称のフィールド名 */
+   public static final String FIELD_SCREEN_NM = "screenNm";</v>
+      </c>
+      <c r="J12" s="9" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">   /** スクリーンオブジェクト */
-   private ScreenObj screenObj;</v>
-      </c>
-      <c r="K11" s="11" t="str">
+        <v xml:space="preserve">   /** スクリーン名称 */
+   private String screenNm;</v>
+      </c>
+      <c r="K12" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   /**
+    * スクリーン名称を取得します。
+    * 
+    * @return スクリーン名称
+    */
+   public String getScreenNm(){
+      return screenNm;
+   }
+</v>
+      </c>
+      <c r="L12" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">   /**
+    * スクリーン名称を設定します。
+    * 
+    * @param screenNm スクリーン名称
+    */
+   public void setScreenNm(String screenNm){
+      this.screenNm = screenNm;
+   }
+</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>LayoutScreenObjGrpDtoList</v>
+      </c>
+      <c r="E13" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>layoutScreenObjGrpDtoList</v>
+      </c>
+      <c r="F13" s="11" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">   /**
-    * スクリーンオブジェクトを取得します。
-    * 
-    * @return スクリーンオブジェクト
-    */
-   public ScreenObj getScreenObj(){
-      return screenObj;
-   }
-</v>
-      </c>
-      <c r="L11" s="11" t="str">
+        <v>LAYOUT_SCREEN_OBJ_GRP_DTO_LIST</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="I13" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">   /** レイアウト・スクリーンオブジェクトグループDTOリストのフィールド名 */
+   public static final String FIELD_LAYOUT_SCREEN_OBJ_GRP_DTO_LIST = "layoutScreenObjGrpDtoList";</v>
+      </c>
+      <c r="J13" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">   /** レイアウト・スクリーンオブジェクトグループDTOリスト */
+   private List&lt;LayoutScreenObjGrpDto&gt; layoutScreenObjGrpDtoList;</v>
+      </c>
+      <c r="K13" s="11" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">   /**
-    * スクリーンオブジェクトを設定します。
-    * 
-    * @param screenObj スクリーンオブジェクト
-    */
-   public void setScreenObj(ScreenObj screenObj){
-      this.screenObj = screenObj;
+    * レイアウト・スクリーンオブジェクトグループDTOリストを取得します。
+    * 
+    * @return レイアウト・スクリーンオブジェクトグループDTOリスト
+    */
+   public List&lt;LayoutScreenObjGrpDto&gt; getLayoutScreenObjGrpDtoList(){
+      return layoutScreenObjGrpDtoList;
+   }
+</v>
+      </c>
+      <c r="L13" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">   /**
+    * レイアウト・スクリーンオブジェクトグループDTOリストを設定します。
+    * 
+    * @param layoutScreenObjGrpDtoList レイアウト・スクリーンオブジェクトグループDTOリスト
+    */
+   public void setLayoutScreenObjGrpDtoList(List&lt;LayoutScreenObjGrpDto&gt; layoutScreenObjGrpDtoList){
+      this.layoutScreenObjGrpDtoList = layoutScreenObjGrpDtoList;
    }
 </v>
       </c>

--- a/03_設計/06_データオブジェクト/データオブジェクト定義書.xlsx
+++ b/03_設計/06_データオブジェクト/データオブジェクト定義書.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="177">
   <si>
     <t>論理名</t>
     <rPh sb="0" eb="3">
@@ -848,6 +848,17 @@
   </si>
   <si>
     <t>Display Num</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイアウト種別コードエイリアス</t>
+    <rPh sb="5" eb="7">
+      <t>シュベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Layout Type Cd Alias</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1358,7 +1369,7 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
@@ -1453,7 +1464,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
-        <f t="shared" ref="A5:A8" si="0">ROW()-4</f>
+        <f t="shared" ref="A5:A9" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -1481,12 +1492,12 @@
         <v>16</v>
       </c>
       <c r="I5" s="7" t="str">
-        <f t="shared" ref="I5:I8" si="1">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
+        <f t="shared" ref="I5:I9" si="1">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
         <v xml:space="preserve">   /** レイアウトIDのフィールド名 */
    public static final String FIELD_LAYOUT_ID = "layoutId";</v>
       </c>
       <c r="J5" s="7" t="str">
-        <f t="shared" ref="J5:J8" si="2">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G5&amp;" "&amp;$E5&amp;";"</f>
+        <f t="shared" ref="J5:J9" si="2">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G5&amp;" "&amp;$E5&amp;";"</f>
         <v xml:space="preserve">   /** レイアウトID */
    private Integer layoutId;</v>
       </c>
@@ -1527,7 +1538,7 @@
         <v>81</v>
       </c>
       <c r="D6" s="9" t="str">
-        <f t="shared" ref="D6:D8" si="3">SUBSTITUTE($C6," ","")</f>
+        <f t="shared" ref="D6:D9" si="3">SUBSTITUTE($C6," ","")</f>
         <v>LayoutAlias</v>
       </c>
       <c r="E6" s="9" t="str">
@@ -1535,7 +1546,7 @@
         <v>layoutAlias</v>
       </c>
       <c r="F6" s="9" t="str">
-        <f t="shared" ref="F6:F8" si="4">UPPER(SUBSTITUTE($C6," ","_"))</f>
+        <f t="shared" ref="F6:F9" si="4">UPPER(SUBSTITUTE($C6," ","_"))</f>
         <v>LAYOUT_ALIAS</v>
       </c>
       <c r="G6" s="9" t="s">
@@ -1555,7 +1566,7 @@
    private String layoutAlias;</v>
       </c>
       <c r="K6" s="9" t="str">
-        <f t="shared" ref="K6:K8" si="5">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G6&amp;" get"&amp;$D6&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <f t="shared" ref="K6:K9" si="5">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G6&amp;" get"&amp;$D6&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
     * レイアウトエイリアスを取得します。
     * 
@@ -1567,7 +1578,7 @@
 </v>
       </c>
       <c r="L6" s="9" t="str">
-        <f t="shared" ref="L6:L8" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E6&amp;" "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D6&amp;"("&amp;$G6&amp;" "&amp;$E6&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E6&amp;" = "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <f t="shared" ref="L6:L9" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E6&amp;" "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D6&amp;"("&amp;$G6&amp;" "&amp;$E6&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E6&amp;" = "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
     * レイアウトエイリアスを設定します。
     * 
@@ -1585,40 +1596,104 @@
         <v>3</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>67</v>
+        <v>175</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>69</v>
+        <v>176</v>
       </c>
       <c r="D7" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>ScreenId</v>
+        <v>LayoutTypeCdAlias</v>
       </c>
       <c r="E7" s="9" t="str">
         <f>LOWER(LEFT($C7,1))&amp;RIGHT($D7,LEN($D7)-1)</f>
-        <v>screenId</v>
+        <v>layoutTypeCdAlias</v>
       </c>
       <c r="F7" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>SCREEN_ID</v>
+        <v>LAYOUT_TYPE_CD_ALIAS</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>16</v>
       </c>
       <c r="I7" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">   /** レイアウト種別コードエイリアスのフィールド名 */
+   public static final String FIELD_LAYOUT_TYPE_CD_ALIAS = "layoutTypeCdAlias";</v>
+      </c>
+      <c r="J7" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">   /** レイアウト種別コードエイリアス */
+   private String layoutTypeCdAlias;</v>
+      </c>
+      <c r="K7" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">   /**
+    * レイアウト種別コードエイリアスを取得します。
+    * 
+    * @return レイアウト種別コードエイリアス
+    */
+   public String getLayoutTypeCdAlias(){
+      return layoutTypeCdAlias;
+   }
+</v>
+      </c>
+      <c r="L7" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   /**
+    * レイアウト種別コードエイリアスを設定します。
+    * 
+    * @param layoutTypeCdAlias レイアウト種別コードエイリアス
+    */
+   public void setLayoutTypeCdAlias(String layoutTypeCdAlias){
+      this.layoutTypeCdAlias = layoutTypeCdAlias;
+   }
+</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>ScreenId</v>
+      </c>
+      <c r="E8" s="9" t="str">
+        <f>LOWER(LEFT($C8,1))&amp;RIGHT($D8,LEN($D8)-1)</f>
+        <v>screenId</v>
+      </c>
+      <c r="F8" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>SCREEN_ID</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="9" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">   /** スクリーンIDのフィールド名 */
    public static final String FIELD_SCREEN_ID = "screenId";</v>
       </c>
-      <c r="J7" s="9" t="str">
+      <c r="J8" s="9" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">   /** スクリーンID */
    private Integer screenId;</v>
       </c>
-      <c r="K7" s="9" t="str">
+      <c r="K8" s="9" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">   /**
     * スクリーンIDを取得します。
@@ -1630,7 +1705,7 @@
    }
 </v>
       </c>
-      <c r="L7" s="9" t="str">
+      <c r="L8" s="9" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">   /**
     * スクリーンIDを設定します。
@@ -1643,46 +1718,46 @@
 </v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="10">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="10">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="11" t="str">
+      <c r="D9" s="11" t="str">
         <f t="shared" si="3"/>
         <v>ScreenObjGrpDtoList</v>
       </c>
-      <c r="E8" s="11" t="str">
-        <f>LOWER(LEFT($C8,1))&amp;RIGHT($D8,LEN($D8)-1)</f>
+      <c r="E9" s="11" t="str">
+        <f>LOWER(LEFT($C9,1))&amp;RIGHT($D9,LEN($D9)-1)</f>
         <v>screenObjGrpDtoList</v>
       </c>
-      <c r="F8" s="11" t="str">
+      <c r="F9" s="11" t="str">
         <f t="shared" si="4"/>
         <v>SCREEN_OBJ_GRP_DTO_LIST</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G9" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H9" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="11" t="str">
+      <c r="I9" s="11" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">   /** スクリーンオブジェクトグループリストのフィールド名 */
    public static final String FIELD_SCREEN_OBJ_GRP_DTO_LIST = "screenObjGrpDtoList";</v>
       </c>
-      <c r="J8" s="11" t="str">
+      <c r="J9" s="11" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">   /** スクリーンオブジェクトグループリスト */
    private List&lt;ScreenObjGrpDto&gt; screenObjGrpDtoList;</v>
       </c>
-      <c r="K8" s="11" t="str">
+      <c r="K9" s="11" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">   /**
     * スクリーンオブジェクトグループリストを取得します。
@@ -1694,7 +1769,7 @@
    }
 </v>
       </c>
-      <c r="L8" s="11" t="str">
+      <c r="L9" s="11" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">   /**
     * スクリーンオブジェクトグループリストを設定します。

--- a/03_設計/06_データオブジェクト/データオブジェクト定義書.xlsx
+++ b/03_設計/06_データオブジェクト/データオブジェクト定義書.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="178">
   <si>
     <t>論理名</t>
     <rPh sb="0" eb="3">
@@ -855,6 +855,10 @@
     <rPh sb="5" eb="7">
       <t>シュベツ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Layout Type Cd Alias</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -6081,7 +6085,7 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
@@ -6176,7 +6180,7 @@
     </row>
     <row r="5" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
-        <f t="shared" ref="A5:A13" si="0">ROW()-4</f>
+        <f t="shared" ref="A5:A14" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -6204,12 +6208,12 @@
         <v>121</v>
       </c>
       <c r="I5" s="7" t="str">
-        <f t="shared" ref="I5:I13" si="1">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
+        <f t="shared" ref="I5:I14" si="1">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
         <v xml:space="preserve">   /** レイアウトIDのフィールド名 */
    public static final String FIELD_LAYOUT_ID = "layoutId";</v>
       </c>
       <c r="J5" s="7" t="str">
-        <f t="shared" ref="J5:J13" si="2">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G5&amp;" "&amp;$E5&amp;";"</f>
+        <f t="shared" ref="J5:J14" si="2">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G5&amp;" "&amp;$E5&amp;";"</f>
         <v xml:space="preserve">   /** レイアウトID */
    private Integer layoutId;</v>
       </c>
@@ -6250,15 +6254,15 @@
         <v>111</v>
       </c>
       <c r="D6" s="19" t="str">
-        <f t="shared" ref="D6:D13" si="3">SUBSTITUTE($C6," ","")</f>
+        <f t="shared" ref="D6:D14" si="3">SUBSTITUTE($C6," ","")</f>
         <v>LayoutAlias</v>
       </c>
       <c r="E6" s="19" t="str">
-        <f t="shared" ref="E6:E13" si="4">LOWER(LEFT($C6,1))&amp;RIGHT($D6,LEN($D6)-1)</f>
+        <f t="shared" ref="E6:E14" si="4">LOWER(LEFT($C6,1))&amp;RIGHT($D6,LEN($D6)-1)</f>
         <v>layoutAlias</v>
       </c>
       <c r="F6" s="19" t="str">
-        <f t="shared" ref="F6:F13" si="5">UPPER(SUBSTITUTE($C6," ","_"))</f>
+        <f t="shared" ref="F6:F14" si="5">UPPER(SUBSTITUTE($C6," ","_"))</f>
         <v>LAYOUT_ALIAS</v>
       </c>
       <c r="G6" s="19" t="s">
@@ -6342,7 +6346,7 @@
    private String layoutNm;</v>
       </c>
       <c r="K7" s="9" t="str">
-        <f t="shared" ref="K7:K13" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B7&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B7&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G7&amp;" get"&amp;$D7&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E7&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <f t="shared" ref="K7:K14" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B7&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B7&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G7&amp;" get"&amp;$D7&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E7&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
     * レイアウト名称を取得します。
     * 
@@ -6354,7 +6358,7 @@
 </v>
       </c>
       <c r="L7" s="9" t="str">
-        <f t="shared" ref="L7:L13" si="7">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B7&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E7&amp;" "&amp;$B7&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D7&amp;"("&amp;$G7&amp;" "&amp;$E7&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E7&amp;" = "&amp;$E7&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <f t="shared" ref="L7:L14" si="7">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B7&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E7&amp;" "&amp;$B7&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D7&amp;"("&amp;$G7&amp;" "&amp;$E7&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E7&amp;" = "&amp;$E7&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
     * レイアウト名称を設定します。
     * 
@@ -6436,60 +6440,60 @@
         <v>5</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>118</v>
+        <v>175</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>119</v>
+        <v>177</v>
       </c>
       <c r="D9" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>ScreenId</v>
+        <v>LayoutTypeCdAlias</v>
       </c>
       <c r="E9" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>screenId</v>
+        <v>layoutTypeCdAlias</v>
       </c>
       <c r="F9" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>SCREEN_ID</v>
+        <v>LAYOUT_TYPE_CD_ALIAS</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>120</v>
       </c>
       <c r="I9" s="9" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">   /** スクリーンIDのフィールド名 */
-   public static final String FIELD_SCREEN_ID = "screenId";</v>
+        <v xml:space="preserve">   /** レイアウト種別コードエイリアスのフィールド名 */
+   public static final String FIELD_LAYOUT_TYPE_CD_ALIAS = "layoutTypeCdAlias";</v>
       </c>
       <c r="J9" s="9" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">   /** スクリーンID */
-   private Integer screenId;</v>
+        <v xml:space="preserve">   /** レイアウト種別コードエイリアス */
+   private String layoutTypeCdAlias;</v>
       </c>
       <c r="K9" s="9" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">   /**
-    * スクリーンIDを取得します。
-    * 
-    * @return スクリーンID
-    */
-   public Integer getScreenId(){
-      return screenId;
+    * レイアウト種別コードエイリアスを取得します。
+    * 
+    * @return レイアウト種別コードエイリアス
+    */
+   public String getLayoutTypeCdAlias(){
+      return layoutTypeCdAlias;
    }
 </v>
       </c>
       <c r="L9" s="9" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">   /**
-    * スクリーンIDを設定します。
-    * 
-    * @param screenId スクリーンID
-    */
-   public void setScreenId(Integer screenId){
-      this.screenId = screenId;
+    * レイアウト種別コードエイリアスを設定します。
+    * 
+    * @param layoutTypeCdAlias レイアウト種別コードエイリアス
+    */
+   public void setLayoutTypeCdAlias(String layoutTypeCdAlias){
+      this.layoutTypeCdAlias = layoutTypeCdAlias;
    }
 </v>
       </c>
@@ -6500,22 +6504,22 @@
         <v>6</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D10" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>RegionId</v>
+        <v>ScreenId</v>
       </c>
       <c r="E10" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>regionId</v>
+        <v>screenId</v>
       </c>
       <c r="F10" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>REGION_ID</v>
+        <v>SCREEN_ID</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>109</v>
@@ -6525,35 +6529,35 @@
       </c>
       <c r="I10" s="9" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">   /** 地域IDのフィールド名 */
-   public static final String FIELD_REGION_ID = "regionId";</v>
+        <v xml:space="preserve">   /** スクリーンIDのフィールド名 */
+   public static final String FIELD_SCREEN_ID = "screenId";</v>
       </c>
       <c r="J10" s="9" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">   /** 地域ID */
-   private Integer regionId;</v>
+        <v xml:space="preserve">   /** スクリーンID */
+   private Integer screenId;</v>
       </c>
       <c r="K10" s="9" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">   /**
-    * 地域IDを取得します。
-    * 
-    * @return 地域ID
-    */
-   public Integer getRegionId(){
-      return regionId;
+    * スクリーンIDを取得します。
+    * 
+    * @return スクリーンID
+    */
+   public Integer getScreenId(){
+      return screenId;
    }
 </v>
       </c>
       <c r="L10" s="9" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">   /**
-    * 地域IDを設定します。
-    * 
-    * @param regionId 地域ID
-    */
-   public void setRegionId(Integer regionId){
-      this.regionId = regionId;
+    * スクリーンIDを設定します。
+    * 
+    * @param screenId スクリーンID
+    */
+   public void setScreenId(Integer screenId){
+      this.screenId = screenId;
    }
 </v>
       </c>
@@ -6564,60 +6568,60 @@
         <v>7</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="D11" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>ScreenEntity</v>
+        <v>RegionId</v>
       </c>
       <c r="E11" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>screenEntity</v>
+        <v>regionId</v>
       </c>
       <c r="F11" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>SCREEN_ENTITY</v>
+        <v>REGION_ID</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>120</v>
       </c>
       <c r="I11" s="9" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">   /** スクリーンエンティティのフィールド名 */
-   public static final String FIELD_SCREEN_ENTITY = "screenEntity";</v>
+        <v xml:space="preserve">   /** 地域IDのフィールド名 */
+   public static final String FIELD_REGION_ID = "regionId";</v>
       </c>
       <c r="J11" s="9" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">   /** スクリーンエンティティ */
-   private String screenEntity;</v>
+        <v xml:space="preserve">   /** 地域ID */
+   private Integer regionId;</v>
       </c>
       <c r="K11" s="9" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">   /**
-    * スクリーンエンティティを取得します。
-    * 
-    * @return スクリーンエンティティ
-    */
-   public String getScreenEntity(){
-      return screenEntity;
+    * 地域IDを取得します。
+    * 
+    * @return 地域ID
+    */
+   public Integer getRegionId(){
+      return regionId;
    }
 </v>
       </c>
       <c r="L11" s="9" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">   /**
-    * スクリーンエンティティを設定します。
-    * 
-    * @param screenEntity スクリーンエンティティ
-    */
-   public void setScreenEntity(String screenEntity){
-      this.screenEntity = screenEntity;
+    * 地域IDを設定します。
+    * 
+    * @param regionId 地域ID
+    */
+   public void setRegionId(Integer regionId){
+      this.regionId = regionId;
    }
 </v>
       </c>
@@ -6628,22 +6632,22 @@
         <v>8</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="D12" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>ScreenNm</v>
+        <v>ScreenEntity</v>
       </c>
       <c r="E12" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>screenNm</v>
+        <v>screenEntity</v>
       </c>
       <c r="F12" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>SCREEN_NM</v>
+        <v>SCREEN_ENTITY</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>115</v>
@@ -6652,16 +6656,80 @@
         <v>120</v>
       </c>
       <c r="I12" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">   /** スクリーンエンティティのフィールド名 */
+   public static final String FIELD_SCREEN_ENTITY = "screenEntity";</v>
+      </c>
+      <c r="J12" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">   /** スクリーンエンティティ */
+   private String screenEntity;</v>
+      </c>
+      <c r="K12" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   /**
+    * スクリーンエンティティを取得します。
+    * 
+    * @return スクリーンエンティティ
+    */
+   public String getScreenEntity(){
+      return screenEntity;
+   }
+</v>
+      </c>
+      <c r="L12" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">   /**
+    * スクリーンエンティティを設定します。
+    * 
+    * @param screenEntity スクリーンエンティティ
+    */
+   public void setScreenEntity(String screenEntity){
+      this.screenEntity = screenEntity;
+   }
+</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="8">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>ScreenNm</v>
+      </c>
+      <c r="E13" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>screenNm</v>
+      </c>
+      <c r="F13" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>SCREEN_NM</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="I13" s="9" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">   /** スクリーン名称のフィールド名 */
    public static final String FIELD_SCREEN_NM = "screenNm";</v>
       </c>
-      <c r="J12" s="9" t="str">
+      <c r="J13" s="9" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">   /** スクリーン名称 */
    private String screenNm;</v>
       </c>
-      <c r="K12" s="9" t="str">
+      <c r="K13" s="9" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">   /**
     * スクリーン名称を取得します。
@@ -6673,7 +6741,7 @@
    }
 </v>
       </c>
-      <c r="L12" s="9" t="str">
+      <c r="L13" s="9" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">   /**
     * スクリーン名称を設定します。
@@ -6686,46 +6754,46 @@
 </v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="10">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="10">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C14" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="D13" s="11" t="str">
+      <c r="D14" s="11" t="str">
         <f t="shared" si="3"/>
         <v>LayoutScreenObjGrpDtoList</v>
       </c>
-      <c r="E13" s="11" t="str">
+      <c r="E14" s="11" t="str">
         <f t="shared" si="4"/>
         <v>layoutScreenObjGrpDtoList</v>
       </c>
-      <c r="F13" s="11" t="str">
+      <c r="F14" s="11" t="str">
         <f t="shared" si="5"/>
         <v>LAYOUT_SCREEN_OBJ_GRP_DTO_LIST</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G14" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H14" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="I13" s="11" t="str">
+      <c r="I14" s="11" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">   /** レイアウト・スクリーンオブジェクトグループDTOリストのフィールド名 */
    public static final String FIELD_LAYOUT_SCREEN_OBJ_GRP_DTO_LIST = "layoutScreenObjGrpDtoList";</v>
       </c>
-      <c r="J13" s="11" t="str">
+      <c r="J14" s="11" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">   /** レイアウト・スクリーンオブジェクトグループDTOリスト */
    private List&lt;LayoutScreenObjGrpDto&gt; layoutScreenObjGrpDtoList;</v>
       </c>
-      <c r="K13" s="11" t="str">
+      <c r="K14" s="11" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">   /**
     * レイアウト・スクリーンオブジェクトグループDTOリストを取得します。
@@ -6737,7 +6805,7 @@
    }
 </v>
       </c>
-      <c r="L13" s="11" t="str">
+      <c r="L14" s="11" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">   /**
     * レイアウト・スクリーンオブジェクトグループDTOリストを設定します。

--- a/03_設計/06_データオブジェクト/データオブジェクト定義書.xlsx
+++ b/03_設計/06_データオブジェクト/データオブジェクト定義書.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12195" tabRatio="955"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12195" tabRatio="585"/>
   </bookViews>
   <sheets>
-    <sheet name="施設リストDTO" sheetId="19" r:id="rId1"/>
+    <sheet name="リソースDTO" sheetId="19" r:id="rId1"/>
     <sheet name="施設DTO" sheetId="11" r:id="rId2"/>
     <sheet name="属性DTO" sheetId="10" r:id="rId3"/>
   </sheets>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="60">
   <si>
     <t>論理名</t>
     <rPh sb="0" eb="3">
@@ -260,29 +260,108 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>施設DTOリスト</t>
+    <t>リソースDTO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ResourceDto</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エンティティ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>件数</t>
     <rPh sb="0" eb="2">
-      <t>シセツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>施設リストDTO</t>
+      <t>ケンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DTOリスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Entity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>All Count</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Count</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dto List</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Integer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Index</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始位置</t>
     <rPh sb="0" eb="2">
-      <t>シセツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FacilityListDto</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Facility Dto List</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>List&lt;FacilityDto&gt;</t>
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全件数</t>
+    <rPh sb="0" eb="1">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ケンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>List&lt;? extends IDto&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緯度</t>
+    <rPh sb="0" eb="2">
+      <t>イド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経度</t>
+    <rPh sb="0" eb="2">
+      <t>ケイド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Latitude</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Float</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Longitude</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -345,7 +424,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -368,58 +447,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -436,24 +470,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -473,6 +489,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -762,7 +781,7 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
@@ -774,46 +793,45 @@
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="43.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.75" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="6" width="6.25" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="43.75" style="1" customWidth="1"/>
-    <col min="8" max="12" width="5" style="1" customWidth="1"/>
+    <col min="2" max="4" width="33.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="8" width="6.25" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="12" width="5" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="I2" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="10" t="s">
         <v>29</v>
       </c>
     </row>
@@ -828,19 +846,19 @@
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>14</v>
@@ -856,65 +874,321 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="10">
-        <f t="shared" ref="A5" si="0">ROW()-4</f>
+      <c r="A5" s="12">
+        <f t="shared" ref="A5:A9" si="0">ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="5" t="str">
+        <f t="shared" ref="F5:F9" si="1">SUBSTITUTE($C5," ","")</f>
+        <v>Entity</v>
+      </c>
+      <c r="G5" s="5" t="str">
+        <f>LOWER(LEFT($C5,1))&amp;RIGHT($F5,LEN($F5)-1)</f>
+        <v>entity</v>
+      </c>
+      <c r="H5" s="5" t="str">
+        <f t="shared" ref="H5:H9" si="2">UPPER(SUBSTITUTE($C5," ","_"))</f>
+        <v>ENTITY</v>
+      </c>
+      <c r="I5" s="5" t="str">
+        <f>"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$H5&amp;" = """&amp;$G5&amp;""";"</f>
+        <v xml:space="preserve">   /** エンティティのフィールド名 */
+   public static final String FIELD_ENTITY = "entity";</v>
+      </c>
+      <c r="J5" s="5" t="str">
+        <f>"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$D5&amp;" "&amp;$G5&amp;";"</f>
+        <v xml:space="preserve">   /** エンティティ */
+   private String entity;</v>
+      </c>
+      <c r="K5" s="5" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$D5&amp;" get"&amp;$F5&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$G5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * エンティティを取得します。
+    * 
+    * @return エンティティ
+    */
+   public String getEntity(){
+      return entity;
+   }
+</v>
+      </c>
+      <c r="L5" s="5" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$G5&amp;" "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$F5&amp;"("&amp;$D5&amp;" "&amp;$G5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$G5&amp;" = "&amp;$G5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * エンティティを設定します。
+    * 
+    * @param entity エンティティ
+    */
+   public void setEntity(String entity){
+      this.entity = entity;
+   }
+</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>AllCount</v>
+      </c>
+      <c r="G6" s="5" t="str">
+        <f t="shared" ref="G6:G9" si="3">LOWER(LEFT($C6,1))&amp;RIGHT($F6,LEN($F6)-1)</f>
+        <v>allCount</v>
+      </c>
+      <c r="H6" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>ALL_COUNT</v>
+      </c>
+      <c r="I6" s="5" t="str">
+        <f t="shared" ref="I6:I9" si="4">"   /** "&amp;$B6&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$H6&amp;" = """&amp;$G6&amp;""";"</f>
+        <v xml:space="preserve">   /** 全件数のフィールド名 */
+   public static final String FIELD_ALL_COUNT = "allCount";</v>
+      </c>
+      <c r="J6" s="5" t="str">
+        <f t="shared" ref="J6:J9" si="5">"   /** "&amp;$B6&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$D6&amp;" "&amp;$G6&amp;";"</f>
+        <v xml:space="preserve">   /** 全件数 */
+   private Integer allCount;</v>
+      </c>
+      <c r="K6" s="5" t="str">
+        <f t="shared" ref="K6:K9" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$D6&amp;" get"&amp;$F6&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$G6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 全件数を取得します。
+    * 
+    * @return 全件数
+    */
+   public Integer getAllCount(){
+      return allCount;
+   }
+</v>
+      </c>
+      <c r="L6" s="5" t="str">
+        <f t="shared" ref="L6:L9" si="7">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$G6&amp;" "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$F6&amp;"("&amp;$D6&amp;" "&amp;$G6&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$G6&amp;" = "&amp;$G6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 全件数を設定します。
+    * 
+    * @param allCount 全件数
+    */
+   public void setAllCount(Integer allCount){
+      this.allCount = allCount;
+   }
+</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Index</v>
+      </c>
+      <c r="G7" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>index</v>
+      </c>
+      <c r="H7" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>INDEX</v>
+      </c>
+      <c r="I7" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">   /** 開始位置のフィールド名 */
+   public static final String FIELD_INDEX = "index";</v>
+      </c>
+      <c r="J7" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">   /** 開始位置 */
+   private Integer index;</v>
+      </c>
+      <c r="K7" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   /**
+    * 開始位置を取得します。
+    * 
+    * @return 開始位置
+    */
+   public Integer getIndex(){
+      return index;
+   }
+</v>
+      </c>
+      <c r="L7" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">   /**
+    * 開始位置を設定します。
+    * 
+    * @param index 開始位置
+    */
+   public void setIndex(Integer index){
+      this.index = index;
+   }
+</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="11" t="str">
-        <f t="shared" ref="D5" si="1">SUBSTITUTE($C5," ","")</f>
-        <v>FacilityDtoList</v>
-      </c>
-      <c r="E5" s="11" t="str">
-        <f>LOWER(LEFT($C5,1))&amp;RIGHT($D5,LEN($D5)-1)</f>
-        <v>facilityDtoList</v>
-      </c>
-      <c r="F5" s="11" t="str">
-        <f t="shared" ref="F5" si="2">UPPER(SUBSTITUTE($C5," ","_"))</f>
-        <v>FACILITY_DTO_LIST</v>
-      </c>
-      <c r="G5" s="11" t="s">
+      <c r="C8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Count</v>
+      </c>
+      <c r="G8" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>count</v>
+      </c>
+      <c r="H8" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>COUNT</v>
+      </c>
+      <c r="I8" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">   /** 件数のフィールド名 */
+   public static final String FIELD_COUNT = "count";</v>
+      </c>
+      <c r="J8" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">   /** 件数 */
+   private Integer count;</v>
+      </c>
+      <c r="K8" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   /**
+    * 件数を取得します。
+    * 
+    * @return 件数
+    */
+   public Integer getCount(){
+      return count;
+   }
+</v>
+      </c>
+      <c r="L8" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">   /**
+    * 件数を設定します。
+    * 
+    * @param count 件数
+    */
+   public void setCount(Integer count){
+      this.count = count;
+   }
+</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="11" t="str">
-        <f t="shared" ref="I5" si="3">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
-        <v xml:space="preserve">   /** 施設DTOリストのフィールド名 */
-   public static final String FIELD_FACILITY_DTO_LIST = "facilityDtoList";</v>
-      </c>
-      <c r="J5" s="11" t="str">
-        <f t="shared" ref="J5" si="4">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G5&amp;" "&amp;$E5&amp;";"</f>
-        <v xml:space="preserve">   /** 施設DTOリスト */
-   private List&lt;FacilityDto&gt; facilityDtoList;</v>
-      </c>
-      <c r="K5" s="11" t="str">
-        <f t="shared" ref="K5" si="5">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G5&amp;" get"&amp;$D5&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
-        <v xml:space="preserve">   /**
-    * 施設DTOリストを取得します。
-    * 
-    * @return 施設DTOリスト
-    */
-   public List&lt;FacilityDto&gt; getFacilityDtoList(){
-      return facilityDtoList;
-   }
-</v>
-      </c>
-      <c r="L5" s="11" t="str">
-        <f t="shared" ref="L5" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E5&amp;" "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D5&amp;"("&amp;$G5&amp;" "&amp;$E5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E5&amp;" = "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
-        <v xml:space="preserve">   /**
-    * 施設DTOリストを設定します。
-    * 
-    * @param facilityDtoList 施設DTOリスト
-    */
-   public void setFacilityDtoList(List&lt;FacilityDto&gt; facilityDtoList){
-      this.facilityDtoList = facilityDtoList;
+      <c r="C9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>DtoList</v>
+      </c>
+      <c r="G9" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>dtoList</v>
+      </c>
+      <c r="H9" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>DTO_LIST</v>
+      </c>
+      <c r="I9" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">   /** DTOリストのフィールド名 */
+   public static final String FIELD_DTO_LIST = "dtoList";</v>
+      </c>
+      <c r="J9" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">   /** DTOリスト */
+   private List&lt;? extends IDto&gt; dtoList;</v>
+      </c>
+      <c r="K9" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   /**
+    * DTOリストを取得します。
+    * 
+    * @return DTOリスト
+    */
+   public List&lt;? extends IDto&gt; getDtoList(){
+      return dtoList;
+   }
+</v>
+      </c>
+      <c r="L9" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">   /**
+    * DTOリストを設定します。
+    * 
+    * @param dtoList DTOリスト
+    */
+   public void setDtoList(List&lt;? extends IDto&gt; dtoList){
+      this.dtoList = dtoList;
    }
 </v>
       </c>
@@ -931,7 +1205,7 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
@@ -943,46 +1217,45 @@
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="43.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.75" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="6" width="6.25" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="43.75" style="1" customWidth="1"/>
-    <col min="8" max="12" width="5" style="1" customWidth="1"/>
+    <col min="2" max="4" width="33.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="8" width="6.25" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="12" width="5" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="17" t="s">
+      <c r="C1" s="9"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="I2" s="16" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="10" t="s">
         <v>29</v>
       </c>
     </row>
@@ -997,19 +1270,19 @@
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>14</v>
@@ -1025,46 +1298,46 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="6">
-        <f t="shared" ref="A5:A6" si="0">ROW()-4</f>
+      <c r="A5" s="12">
+        <f t="shared" ref="A5:A8" si="0">ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="7" t="str">
-        <f>SUBSTITUTE($C5," ","")</f>
+      <c r="D5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="5" t="str">
+        <f t="shared" ref="F5:F8" si="1">SUBSTITUTE($C5," ","")</f>
         <v>FacilityId</v>
       </c>
-      <c r="E5" s="7" t="str">
-        <f>LOWER(LEFT($C5,1))&amp;RIGHT($D5,LEN($D5)-1)</f>
+      <c r="G5" s="5" t="str">
+        <f t="shared" ref="G5:G6" si="2">LOWER(LEFT($C5,1))&amp;RIGHT($F5,LEN($F5)-1)</f>
         <v>facilityId</v>
       </c>
-      <c r="F5" s="7" t="str">
-        <f>UPPER(SUBSTITUTE($C5," ","_"))</f>
+      <c r="H5" s="5" t="str">
+        <f t="shared" ref="H5:H8" si="3">UPPER(SUBSTITUTE($C5," ","_"))</f>
         <v>FACILITY_ID</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="7" t="str">
-        <f t="shared" ref="I5:I6" si="1">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
+      <c r="I5" s="5" t="str">
+        <f t="shared" ref="I5:I6" si="4">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$H5&amp;" = """&amp;$G5&amp;""";"</f>
         <v xml:space="preserve">   /** 施設IDのフィールド名 */
    public static final String FIELD_FACILITY_ID = "facilityId";</v>
       </c>
-      <c r="J5" s="7" t="str">
-        <f t="shared" ref="J5:J6" si="2">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G5&amp;" "&amp;$E5&amp;";"</f>
+      <c r="J5" s="5" t="str">
+        <f t="shared" ref="J5:J6" si="5">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$D5&amp;" "&amp;$G5&amp;";"</f>
         <v xml:space="preserve">   /** 施設ID */
    private Integer facilityId;</v>
       </c>
-      <c r="K5" s="7" t="str">
-        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G5&amp;" get"&amp;$D5&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+      <c r="K5" s="5" t="str">
+        <f t="shared" ref="K5:K6" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$D5&amp;" get"&amp;$F5&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$G5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
     * 施設IDを取得します。
     * 
@@ -1075,8 +1348,8 @@
    }
 </v>
       </c>
-      <c r="L5" s="7" t="str">
-        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E5&amp;" "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D5&amp;"("&amp;$G5&amp;" "&amp;$E5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E5&amp;" = "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+      <c r="L5" s="5" t="str">
+        <f t="shared" ref="L5:L6" si="7">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$G5&amp;" "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$F5&amp;"("&amp;$D5&amp;" "&amp;$G5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$G5&amp;" = "&amp;$G5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
     * 施設IDを設定します。
     * 
@@ -1089,46 +1362,174 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="10">
+      <c r="A6" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Latitude</v>
+      </c>
+      <c r="G6" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>latitude</v>
+      </c>
+      <c r="H6" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>LATITUDE</v>
+      </c>
+      <c r="I6" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">   /** 緯度のフィールド名 */
+   public static final String FIELD_LATITUDE = "latitude";</v>
+      </c>
+      <c r="J6" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">   /** 緯度 */
+   private Float latitude;</v>
+      </c>
+      <c r="K6" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   /**
+    * 緯度を取得します。
+    * 
+    * @return 緯度
+    */
+   public Float getLatitude(){
+      return latitude;
+   }
+</v>
+      </c>
+      <c r="L6" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">   /**
+    * 緯度を設定します。
+    * 
+    * @param latitude 緯度
+    */
+   public void setLatitude(Float latitude){
+      this.latitude = latitude;
+   }
+</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Longitude</v>
+      </c>
+      <c r="G7" s="5" t="str">
+        <f>LOWER(LEFT($C7,1))&amp;RIGHT($F7,LEN($F7)-1)</f>
+        <v>longitude</v>
+      </c>
+      <c r="H7" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>LONGITUDE</v>
+      </c>
+      <c r="I7" s="5" t="str">
+        <f>"   /** "&amp;$B7&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$H7&amp;" = """&amp;$G7&amp;""";"</f>
+        <v xml:space="preserve">   /** 経度のフィールド名 */
+   public static final String FIELD_LONGITUDE = "longitude";</v>
+      </c>
+      <c r="J7" s="5" t="str">
+        <f>"   /** "&amp;$B7&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$D7&amp;" "&amp;$G7&amp;";"</f>
+        <v xml:space="preserve">   /** 経度 */
+   private Float longitude;</v>
+      </c>
+      <c r="K7" s="5" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B7&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B7&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$D7&amp;" get"&amp;$F7&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$G7&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 経度を取得します。
+    * 
+    * @return 経度
+    */
+   public Float getLongitude(){
+      return longitude;
+   }
+</v>
+      </c>
+      <c r="L7" s="5" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B7&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$G7&amp;" "&amp;$B7&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$F7&amp;"("&amp;$D7&amp;" "&amp;$G7&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$G7&amp;" = "&amp;$G7&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 経度を設定します。
+    * 
+    * @param longitude 経度
+    */
+   public void setLongitude(Float longitude){
+      this.longitude = longitude;
+   }
+</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="11" t="str">
-        <f t="shared" ref="D6" si="3">SUBSTITUTE($C6," ","")</f>
+      <c r="D8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="5" t="str">
+        <f t="shared" si="1"/>
         <v>AttrDtoList</v>
       </c>
-      <c r="E6" s="11" t="str">
-        <f>LOWER(LEFT($C6,1))&amp;RIGHT($D6,LEN($D6)-1)</f>
+      <c r="G8" s="5" t="str">
+        <f>LOWER(LEFT($C8,1))&amp;RIGHT($F8,LEN($F8)-1)</f>
         <v>attrDtoList</v>
       </c>
-      <c r="F6" s="11" t="str">
-        <f t="shared" ref="F6" si="4">UPPER(SUBSTITUTE($C6," ","_"))</f>
+      <c r="H8" s="5" t="str">
+        <f t="shared" si="3"/>
         <v>ATTR_DTO_LIST</v>
       </c>
-      <c r="G6" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="11" t="str">
-        <f t="shared" si="1"/>
+      <c r="I8" s="5" t="str">
+        <f>"   /** "&amp;$B8&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$H8&amp;" = """&amp;$G8&amp;""";"</f>
         <v xml:space="preserve">   /** 属性DTOリストのフィールド名 */
    public static final String FIELD_ATTR_DTO_LIST = "attrDtoList";</v>
       </c>
-      <c r="J6" s="11" t="str">
-        <f t="shared" si="2"/>
+      <c r="J8" s="5" t="str">
+        <f>"   /** "&amp;$B8&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$D8&amp;" "&amp;$G8&amp;";"</f>
         <v xml:space="preserve">   /** 属性DTOリスト */
    private List&lt;AttrDto&gt; attrDtoList;</v>
       </c>
-      <c r="K6" s="11" t="str">
-        <f t="shared" ref="K6" si="5">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G6&amp;" get"&amp;$D6&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+      <c r="K8" s="5" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B8&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B8&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$D8&amp;" get"&amp;$F8&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$G8&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
     * 属性DTOリストを取得します。
     * 
@@ -1139,8 +1540,8 @@
    }
 </v>
       </c>
-      <c r="L6" s="11" t="str">
-        <f t="shared" ref="L6" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E6&amp;" "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D6&amp;"("&amp;$G6&amp;" "&amp;$E6&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E6&amp;" = "&amp;$E6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+      <c r="L8" s="5" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B8&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$G8&amp;" "&amp;$B8&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$F8&amp;"("&amp;$D8&amp;" "&amp;$G8&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$G8&amp;" = "&amp;$G8&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
     * 属性DTOリストを設定します。
     * 
@@ -1176,46 +1577,45 @@
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="43.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.75" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="6" width="6.25" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="43.75" style="1" customWidth="1"/>
-    <col min="8" max="12" width="5" style="1" customWidth="1"/>
+    <col min="2" max="4" width="33.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="8" width="6.25" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="12" width="5" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="17" t="s">
+      <c r="C1" s="9"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="I2" s="16" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="10" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1230,19 +1630,19 @@
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>14</v>
@@ -1258,46 +1658,46 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="8">
+      <c r="A5" s="12">
         <f t="shared" ref="A5:A9" si="0">ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="9" t="str">
-        <f t="shared" ref="D5:D9" si="1">SUBSTITUTE($C5," ","")</f>
+      <c r="D5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="5" t="str">
+        <f t="shared" ref="F5:F9" si="1">SUBSTITUTE($C5," ","")</f>
         <v>AttrGrpId</v>
       </c>
-      <c r="E5" s="9" t="str">
-        <f t="shared" ref="E5" si="2">LOWER(LEFT($C5,1))&amp;RIGHT($D5,LEN($D5)-1)</f>
+      <c r="G5" s="5" t="str">
+        <f>LOWER(LEFT($C5,1))&amp;RIGHT($F5,LEN($F5)-1)</f>
         <v>attrGrpId</v>
       </c>
-      <c r="F5" s="9" t="str">
-        <f t="shared" ref="F5:F9" si="3">UPPER(SUBSTITUTE($C5," ","_"))</f>
+      <c r="H5" s="5" t="str">
+        <f t="shared" ref="H5:H9" si="2">UPPER(SUBSTITUTE($C5," ","_"))</f>
         <v>ATTR_GRP_ID</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="9" t="str">
-        <f t="shared" ref="I5:I9" si="4">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$F5&amp;" = """&amp;$E5&amp;""";"</f>
+      <c r="I5" s="5" t="str">
+        <f>"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$H5&amp;" = """&amp;$G5&amp;""";"</f>
         <v xml:space="preserve">   /** 属性グループIDのフィールド名 */
    public static final String FIELD_ATTR_GRP_ID = "attrGrpId";</v>
       </c>
-      <c r="J5" s="9" t="str">
-        <f t="shared" ref="J5:J9" si="5">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$G5&amp;" "&amp;$E5&amp;";"</f>
+      <c r="J5" s="5" t="str">
+        <f>"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$D5&amp;" "&amp;$G5&amp;";"</f>
         <v xml:space="preserve">   /** 属性グループID */
    private Integer attrGrpId;</v>
       </c>
-      <c r="K5" s="9" t="str">
-        <f t="shared" ref="K5:K9" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$G5&amp;" get"&amp;$D5&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+      <c r="K5" s="5" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$D5&amp;" get"&amp;$F5&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$G5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
     * 属性グループIDを取得します。
     * 
@@ -1308,8 +1708,8 @@
    }
 </v>
       </c>
-      <c r="L5" s="9" t="str">
-        <f t="shared" ref="L5:L9" si="7">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$E5&amp;" "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$D5&amp;"("&amp;$G5&amp;" "&amp;$E5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$E5&amp;" = "&amp;$E5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+      <c r="L5" s="5" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$G5&amp;" "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$F5&amp;"("&amp;$D5&amp;" "&amp;$G5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$G5&amp;" = "&amp;$G5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
     * 属性グループIDを設定します。
     * 
@@ -1322,46 +1722,46 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="8">
+      <c r="A6" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="9" t="str">
+      <c r="D6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="5" t="str">
         <f t="shared" si="1"/>
         <v>AttrGrpType</v>
       </c>
-      <c r="E6" s="9" t="str">
-        <f>LOWER(LEFT($C6,1))&amp;RIGHT($D6,LEN($D6)-1)</f>
+      <c r="G6" s="5" t="str">
+        <f t="shared" ref="G6:G9" si="3">LOWER(LEFT($C6,1))&amp;RIGHT($F6,LEN($F6)-1)</f>
         <v>attrGrpType</v>
       </c>
-      <c r="F6" s="9" t="str">
-        <f t="shared" si="3"/>
+      <c r="H6" s="5" t="str">
+        <f t="shared" si="2"/>
         <v>ATTR_GRP_TYPE</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="9" t="str">
-        <f t="shared" si="4"/>
+      <c r="I6" s="5" t="str">
+        <f t="shared" ref="I6:I9" si="4">"   /** "&amp;$B6&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$H6&amp;" = """&amp;$G6&amp;""";"</f>
         <v xml:space="preserve">   /** 属性グループ種別のフィールド名 */
    public static final String FIELD_ATTR_GRP_TYPE = "attrGrpType";</v>
       </c>
-      <c r="J6" s="9" t="str">
-        <f t="shared" si="5"/>
+      <c r="J6" s="5" t="str">
+        <f t="shared" ref="J6:J9" si="5">"   /** "&amp;$B6&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$D6&amp;" "&amp;$G6&amp;";"</f>
         <v xml:space="preserve">   /** 属性グループ種別 */
    private String attrGrpType;</v>
       </c>
-      <c r="K6" s="9" t="str">
-        <f t="shared" si="6"/>
+      <c r="K6" s="5" t="str">
+        <f t="shared" ref="K6:K9" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$D6&amp;" get"&amp;$F6&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$G6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
     * 属性グループ種別を取得します。
     * 
@@ -1372,8 +1772,8 @@
    }
 </v>
       </c>
-      <c r="L6" s="9" t="str">
-        <f t="shared" si="7"/>
+      <c r="L6" s="5" t="str">
+        <f t="shared" ref="L6:L9" si="7">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$G6&amp;" "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$F6&amp;"("&amp;$D6&amp;" "&amp;$G6&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$G6&amp;" = "&amp;$G6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
     * 属性グループ種別を設定します。
     * 
@@ -1386,43 +1786,43 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="8">
+      <c r="A7" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="9" t="str">
+      <c r="D7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="str">
         <f t="shared" si="1"/>
         <v>AttrGrpNm</v>
       </c>
-      <c r="E7" s="9" t="str">
-        <f t="shared" ref="E7:E9" si="8">LOWER(LEFT($C7,1))&amp;RIGHT($D7,LEN($D7)-1)</f>
+      <c r="G7" s="5" t="str">
+        <f t="shared" si="3"/>
         <v>attrGrpNm</v>
       </c>
-      <c r="F7" s="9" t="str">
-        <f t="shared" si="3"/>
+      <c r="H7" s="5" t="str">
+        <f t="shared" si="2"/>
         <v>ATTR_GRP_NM</v>
       </c>
-      <c r="G7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9" t="str">
+      <c r="I7" s="5" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">   /** 属性グループ名称のフィールド名 */
    public static final String FIELD_ATTR_GRP_NM = "attrGrpNm";</v>
       </c>
-      <c r="J7" s="9" t="str">
+      <c r="J7" s="5" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">   /** 属性グループ名称 */
    private String attrGrpNm;</v>
       </c>
-      <c r="K7" s="9" t="str">
+      <c r="K7" s="5" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">   /**
     * 属性グループ名称を取得します。
@@ -1434,7 +1834,7 @@
    }
 </v>
       </c>
-      <c r="L7" s="9" t="str">
+      <c r="L7" s="5" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">   /**
     * 属性グループ名称を設定します。
@@ -1448,43 +1848,43 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="8">
+      <c r="A8" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="9" t="str">
+      <c r="D8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="str">
         <f t="shared" si="1"/>
         <v>AttrVal</v>
       </c>
-      <c r="E8" s="9" t="str">
-        <f t="shared" si="8"/>
+      <c r="G8" s="5" t="str">
+        <f t="shared" si="3"/>
         <v>attrVal</v>
       </c>
-      <c r="F8" s="9" t="str">
-        <f t="shared" si="3"/>
+      <c r="H8" s="5" t="str">
+        <f t="shared" si="2"/>
         <v>ATTR_VAL</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9" t="str">
+      <c r="I8" s="5" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">   /** 属性値のフィールド名 */
    public static final String FIELD_ATTR_VAL = "attrVal";</v>
       </c>
-      <c r="J8" s="9" t="str">
+      <c r="J8" s="5" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">   /** 属性値 */
    private String attrVal;</v>
       </c>
-      <c r="K8" s="9" t="str">
+      <c r="K8" s="5" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">   /**
     * 属性値を取得します。
@@ -1496,7 +1896,7 @@
    }
 </v>
       </c>
-      <c r="L8" s="9" t="str">
+      <c r="L8" s="5" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">   /**
     * 属性値を設定します。
@@ -1510,43 +1910,43 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="10">
+      <c r="A9" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="11" t="str">
+      <c r="D9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5" t="str">
         <f t="shared" si="1"/>
         <v>AttrCdVal</v>
       </c>
-      <c r="E9" s="11" t="str">
-        <f t="shared" si="8"/>
+      <c r="G9" s="5" t="str">
+        <f t="shared" si="3"/>
         <v>attrCdVal</v>
       </c>
-      <c r="F9" s="11" t="str">
-        <f t="shared" si="3"/>
+      <c r="H9" s="5" t="str">
+        <f t="shared" si="2"/>
         <v>ATTR_CD_VAL</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11" t="str">
+      <c r="I9" s="5" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">   /** 属性コード値のフィールド名 */
    public static final String FIELD_ATTR_CD_VAL = "attrCdVal";</v>
       </c>
-      <c r="J9" s="11" t="str">
+      <c r="J9" s="5" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">   /** 属性コード値 */
    private String attrCdVal;</v>
       </c>
-      <c r="K9" s="11" t="str">
+      <c r="K9" s="5" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">   /**
     * 属性コード値を取得します。
@@ -1558,7 +1958,7 @@
    }
 </v>
       </c>
-      <c r="L9" s="11" t="str">
+      <c r="L9" s="5" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">   /**
     * 属性コード値を設定します。

--- a/03_設計/06_データオブジェクト/データオブジェクト定義書.xlsx
+++ b/03_設計/06_データオブジェクト/データオブジェクト定義書.xlsx
@@ -15,6 +15,9 @@
     <sheet name="リソースDTO" sheetId="19" r:id="rId1"/>
     <sheet name="施設DTO" sheetId="11" r:id="rId2"/>
     <sheet name="属性DTO" sheetId="10" r:id="rId3"/>
+    <sheet name="施設検索条件DTO" sheetId="21" r:id="rId4"/>
+    <sheet name="属性グループ検索条件DTO" sheetId="22" r:id="rId5"/>
+    <sheet name="エラーDTO" sheetId="23" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="88">
   <si>
     <t>論理名</t>
     <rPh sb="0" eb="3">
@@ -272,13 +275,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>件数</t>
-    <rPh sb="0" eb="2">
-      <t>ケンスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DTOリスト</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -362,6 +358,182 @@
   </si>
   <si>
     <t>Longitude</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Attr Grp Alias</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Object</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>施設検索条件DTO</t>
+    <rPh sb="0" eb="2">
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FacilitySearchConditionDto</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取得対象属性グループエイリアスリスト</t>
+    <rPh sb="0" eb="4">
+      <t>シュトクタイショウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ゾクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地域ID</t>
+    <rPh sb="0" eb="2">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Region Id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索値</t>
+    <rPh sb="0" eb="3">
+      <t>ケンサクチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>属性グループ検索条件DTOリスト</t>
+    <rPh sb="0" eb="2">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>ケンサクジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>属性グループ検索条件DTO</t>
+    <rPh sb="0" eb="2">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AttrGrpSearchConditionDto</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索対象属性グループエイリアス</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ゾクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Val</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Integer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Attr Grp Search Condition Dto List</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>List&lt;AttrGrpSearchConditionDto&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Target Attr Grp Alias List</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>属性グループ検索条件の個数</t>
+    <rPh sb="0" eb="2">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>ケンサクジョウケン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Num Of Search Condition</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>List&lt;String&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取得件数</t>
+    <rPh sb="2" eb="4">
+      <t>ケンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>属性グループエイリアス</t>
+    <rPh sb="0" eb="2">
+      <t>ゾクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Attr Grp Alias</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーDTO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ErrorDto</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーメッセージリスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Err Msg List</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>List&lt;String&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -882,13 +1054,13 @@
         <v>41</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F5" s="5" t="str">
         <f t="shared" ref="F5:F9" si="1">SUBSTITUTE($C5," ","")</f>
@@ -943,16 +1115,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="F6" s="5" t="str">
         <f t="shared" si="1"/>
@@ -1007,16 +1179,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F7" s="5" t="str">
         <f t="shared" si="1"/>
@@ -1071,16 +1243,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F8" s="5" t="str">
         <f t="shared" si="1"/>
@@ -1096,20 +1268,20 @@
       </c>
       <c r="I8" s="5" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   /** 件数のフィールド名 */
+        <v xml:space="preserve">   /** 取得件数のフィールド名 */
    public static final String FIELD_COUNT = "count";</v>
       </c>
       <c r="J8" s="5" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">   /** 件数 */
+        <v xml:space="preserve">   /** 取得件数 */
    private Integer count;</v>
       </c>
       <c r="K8" s="5" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">   /**
-    * 件数を取得します。
-    * 
-    * @return 件数
+    * 取得件数を取得します。
+    * 
+    * @return 取得件数
     */
    public Integer getCount(){
       return count;
@@ -1119,9 +1291,9 @@
       <c r="L8" s="5" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">   /**
-    * 件数を設定します。
-    * 
-    * @param count 件数
+    * 取得件数を設定します。
+    * 
+    * @param count 取得件数
     */
    public void setCount(Integer count){
       this.count = count;
@@ -1135,16 +1307,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F9" s="5" t="str">
         <f t="shared" si="1"/>
@@ -1367,13 +1539,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>12</v>
@@ -1431,13 +1603,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>12</v>
@@ -1565,7 +1737,7 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
@@ -1659,7 +1831,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="12">
-        <f t="shared" ref="A5:A9" si="0">ROW()-4</f>
+        <f t="shared" ref="A5:A10" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -1675,7 +1847,7 @@
         <v>12</v>
       </c>
       <c r="F5" s="5" t="str">
-        <f t="shared" ref="F5:F9" si="1">SUBSTITUTE($C5," ","")</f>
+        <f t="shared" ref="F5:F10" si="1">SUBSTITUTE($C5," ","")</f>
         <v>AttrGrpId</v>
       </c>
       <c r="G5" s="5" t="str">
@@ -1683,7 +1855,7 @@
         <v>attrGrpId</v>
       </c>
       <c r="H5" s="5" t="str">
-        <f t="shared" ref="H5:H9" si="2">UPPER(SUBSTITUTE($C5," ","_"))</f>
+        <f t="shared" ref="H5:H10" si="2">UPPER(SUBSTITUTE($C5," ","_"))</f>
         <v>ATTR_GRP_ID</v>
       </c>
       <c r="I5" s="5" t="str">
@@ -1727,10 +1899,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>9</v>
@@ -1740,47 +1912,47 @@
       </c>
       <c r="F6" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>AttrGrpType</v>
+        <v>AttrGrpAlias</v>
       </c>
       <c r="G6" s="5" t="str">
-        <f t="shared" ref="G6:G9" si="3">LOWER(LEFT($C6,1))&amp;RIGHT($F6,LEN($F6)-1)</f>
-        <v>attrGrpType</v>
+        <f t="shared" ref="G6:G10" si="3">LOWER(LEFT($C6,1))&amp;RIGHT($F6,LEN($F6)-1)</f>
+        <v>attrGrpAlias</v>
       </c>
       <c r="H6" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>ATTR_GRP_TYPE</v>
+        <v>ATTR_GRP_ALIAS</v>
       </c>
       <c r="I6" s="5" t="str">
-        <f t="shared" ref="I6:I9" si="4">"   /** "&amp;$B6&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$H6&amp;" = """&amp;$G6&amp;""";"</f>
-        <v xml:space="preserve">   /** 属性グループ種別のフィールド名 */
-   public static final String FIELD_ATTR_GRP_TYPE = "attrGrpType";</v>
+        <f t="shared" ref="I6:I10" si="4">"   /** "&amp;$B6&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$H6&amp;" = """&amp;$G6&amp;""";"</f>
+        <v xml:space="preserve">   /** 属性グループエイリアスのフィールド名 */
+   public static final String FIELD_ATTR_GRP_ALIAS = "attrGrpAlias";</v>
       </c>
       <c r="J6" s="5" t="str">
-        <f t="shared" ref="J6:J9" si="5">"   /** "&amp;$B6&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$D6&amp;" "&amp;$G6&amp;";"</f>
-        <v xml:space="preserve">   /** 属性グループ種別 */
-   private String attrGrpType;</v>
+        <f t="shared" ref="J6:J10" si="5">"   /** "&amp;$B6&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$D6&amp;" "&amp;$G6&amp;";"</f>
+        <v xml:space="preserve">   /** 属性グループエイリアス */
+   private String attrGrpAlias;</v>
       </c>
       <c r="K6" s="5" t="str">
-        <f t="shared" ref="K6:K9" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$D6&amp;" get"&amp;$F6&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$G6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
-        <v xml:space="preserve">   /**
-    * 属性グループ種別を取得します。
-    * 
-    * @return 属性グループ種別
-    */
-   public String getAttrGrpType(){
-      return attrGrpType;
+        <f t="shared" ref="K6:K10" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$D6&amp;" get"&amp;$F6&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$G6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 属性グループエイリアスを取得します。
+    * 
+    * @return 属性グループエイリアス
+    */
+   public String getAttrGrpAlias(){
+      return attrGrpAlias;
    }
 </v>
       </c>
       <c r="L6" s="5" t="str">
-        <f t="shared" ref="L6:L9" si="7">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$G6&amp;" "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$F6&amp;"("&amp;$D6&amp;" "&amp;$G6&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$G6&amp;" = "&amp;$G6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
-        <v xml:space="preserve">   /**
-    * 属性グループ種別を設定します。
-    * 
-    * @param attrGrpType 属性グループ種別
-    */
-   public void setAttrGrpType(String attrGrpType){
-      this.attrGrpType = attrGrpType;
+        <f t="shared" ref="L6:L10" si="7">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$G6&amp;" "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$F6&amp;"("&amp;$D6&amp;" "&amp;$G6&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$G6&amp;" = "&amp;$G6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 属性グループエイリアスを設定します。
+    * 
+    * @param attrGrpAlias 属性グループエイリアス
+    */
+   public void setAttrGrpAlias(String attrGrpAlias){
+      this.attrGrpAlias = attrGrpAlias;
    }
 </v>
       </c>
@@ -1791,58 +1963,60 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="F7" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>AttrGrpNm</v>
+        <v>AttrGrpType</v>
       </c>
       <c r="G7" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>attrGrpNm</v>
+        <v>attrGrpType</v>
       </c>
       <c r="H7" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>ATTR_GRP_NM</v>
+        <v>ATTR_GRP_TYPE</v>
       </c>
       <c r="I7" s="5" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   /** 属性グループ名称のフィールド名 */
-   public static final String FIELD_ATTR_GRP_NM = "attrGrpNm";</v>
+        <v xml:space="preserve">   /** 属性グループ種別のフィールド名 */
+   public static final String FIELD_ATTR_GRP_TYPE = "attrGrpType";</v>
       </c>
       <c r="J7" s="5" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">   /** 属性グループ名称 */
-   private String attrGrpNm;</v>
+        <v xml:space="preserve">   /** 属性グループ種別 */
+   private String attrGrpType;</v>
       </c>
       <c r="K7" s="5" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">   /**
-    * 属性グループ名称を取得します。
-    * 
-    * @return 属性グループ名称
-    */
-   public String getAttrGrpNm(){
-      return attrGrpNm;
+    * 属性グループ種別を取得します。
+    * 
+    * @return 属性グループ種別
+    */
+   public String getAttrGrpType(){
+      return attrGrpType;
    }
 </v>
       </c>
       <c r="L7" s="5" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">   /**
-    * 属性グループ名称を設定します。
-    * 
-    * @param attrGrpNm 属性グループ名称
-    */
-   public void setAttrGrpNm(String attrGrpNm){
-      this.attrGrpNm = attrGrpNm;
+    * 属性グループ種別を設定します。
+    * 
+    * @param attrGrpType 属性グループ種別
+    */
+   public void setAttrGrpType(String attrGrpType){
+      this.attrGrpType = attrGrpType;
    }
 </v>
       </c>
@@ -1853,10 +2027,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>9</v>
@@ -1864,47 +2038,47 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>AttrVal</v>
+        <v>AttrGrpNm</v>
       </c>
       <c r="G8" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>attrVal</v>
+        <v>attrGrpNm</v>
       </c>
       <c r="H8" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>ATTR_VAL</v>
+        <v>ATTR_GRP_NM</v>
       </c>
       <c r="I8" s="5" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   /** 属性値のフィールド名 */
-   public static final String FIELD_ATTR_VAL = "attrVal";</v>
+        <v xml:space="preserve">   /** 属性グループ名称のフィールド名 */
+   public static final String FIELD_ATTR_GRP_NM = "attrGrpNm";</v>
       </c>
       <c r="J8" s="5" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">   /** 属性値 */
-   private String attrVal;</v>
+        <v xml:space="preserve">   /** 属性グループ名称 */
+   private String attrGrpNm;</v>
       </c>
       <c r="K8" s="5" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">   /**
-    * 属性値を取得します。
-    * 
-    * @return 属性値
-    */
-   public String getAttrVal(){
-      return attrVal;
+    * 属性グループ名称を取得します。
+    * 
+    * @return 属性グループ名称
+    */
+   public String getAttrGrpNm(){
+      return attrGrpNm;
    }
 </v>
       </c>
       <c r="L8" s="5" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">   /**
-    * 属性値を設定します。
-    * 
-    * @param attrVal 属性値
-    */
-   public void setAttrVal(String attrVal){
-      this.attrVal = attrVal;
+    * 属性グループ名称を設定します。
+    * 
+    * @param attrGrpNm 属性グループ名称
+    */
+   public void setAttrGrpNm(String attrGrpNm){
+      this.attrGrpNm = attrGrpNm;
    }
 </v>
       </c>
@@ -1915,10 +2089,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>9</v>
@@ -1926,27 +2100,89 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>AttrCdVal</v>
+        <v>AttrVal</v>
       </c>
       <c r="G9" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>attrCdVal</v>
+        <v>attrVal</v>
       </c>
       <c r="H9" s="5" t="str">
         <f t="shared" si="2"/>
+        <v>ATTR_VAL</v>
+      </c>
+      <c r="I9" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">   /** 属性値のフィールド名 */
+   public static final String FIELD_ATTR_VAL = "attrVal";</v>
+      </c>
+      <c r="J9" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">   /** 属性値 */
+   private String attrVal;</v>
+      </c>
+      <c r="K9" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   /**
+    * 属性値を取得します。
+    * 
+    * @return 属性値
+    */
+   public String getAttrVal(){
+      return attrVal;
+   }
+</v>
+      </c>
+      <c r="L9" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">   /**
+    * 属性値を設定します。
+    * 
+    * @param attrVal 属性値
+    */
+   public void setAttrVal(String attrVal){
+      this.attrVal = attrVal;
+   }
+</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>AttrCdVal</v>
+      </c>
+      <c r="G10" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>attrCdVal</v>
+      </c>
+      <c r="H10" s="5" t="str">
+        <f t="shared" si="2"/>
         <v>ATTR_CD_VAL</v>
       </c>
-      <c r="I9" s="5" t="str">
+      <c r="I10" s="5" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">   /** 属性コード値のフィールド名 */
    public static final String FIELD_ATTR_CD_VAL = "attrCdVal";</v>
       </c>
-      <c r="J9" s="5" t="str">
+      <c r="J10" s="5" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">   /** 属性コード値 */
    private String attrCdVal;</v>
       </c>
-      <c r="K9" s="5" t="str">
+      <c r="K10" s="5" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">   /**
     * 属性コード値を取得します。
@@ -1958,7 +2194,7 @@
    }
 </v>
       </c>
-      <c r="L9" s="5" t="str">
+      <c r="L10" s="5" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">   /**
     * 属性コード値を設定します。
@@ -1967,6 +2203,758 @@
     */
    public void setAttrCdVal(String attrCdVal){
       this.attrCdVal = attrCdVal;
+   }
+</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.375" style="2" customWidth="1"/>
+    <col min="2" max="4" width="33.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="8" width="6.25" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="12" width="5" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="12">
+        <f t="shared" ref="A5:A8" si="0">ROW()-4</f>
+        <v>1</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5" t="str">
+        <f t="shared" ref="F5:F8" si="1">SUBSTITUTE($C5," ","")</f>
+        <v>TargetAttrGrpAliasList</v>
+      </c>
+      <c r="G5" s="5" t="str">
+        <f>LOWER(LEFT($C5,1))&amp;RIGHT($F5,LEN($F5)-1)</f>
+        <v>targetAttrGrpAliasList</v>
+      </c>
+      <c r="H5" s="5" t="str">
+        <f t="shared" ref="H5:H8" si="2">UPPER(SUBSTITUTE($C5," ","_"))</f>
+        <v>TARGET_ATTR_GRP_ALIAS_LIST</v>
+      </c>
+      <c r="I5" s="5" t="str">
+        <f>"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$H5&amp;" = """&amp;$G5&amp;""";"</f>
+        <v xml:space="preserve">   /** 取得対象属性グループエイリアスリストのフィールド名 */
+   public static final String FIELD_TARGET_ATTR_GRP_ALIAS_LIST = "targetAttrGrpAliasList";</v>
+      </c>
+      <c r="J5" s="5" t="str">
+        <f>"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$D5&amp;" "&amp;$G5&amp;";"</f>
+        <v xml:space="preserve">   /** 取得対象属性グループエイリアスリスト */
+   private List&lt;String&gt; targetAttrGrpAliasList;</v>
+      </c>
+      <c r="K5" s="5" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$D5&amp;" get"&amp;$F5&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$G5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 取得対象属性グループエイリアスリストを取得します。
+    * 
+    * @return 取得対象属性グループエイリアスリスト
+    */
+   public List&lt;String&gt; getTargetAttrGrpAliasList(){
+      return targetAttrGrpAliasList;
+   }
+</v>
+      </c>
+      <c r="L5" s="5" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$G5&amp;" "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$F5&amp;"("&amp;$D5&amp;" "&amp;$G5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$G5&amp;" = "&amp;$G5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 取得対象属性グループエイリアスリストを設定します。
+    * 
+    * @param targetAttrGrpAliasList 取得対象属性グループエイリアスリスト
+    */
+   public void setTargetAttrGrpAliasList(List&lt;String&gt; targetAttrGrpAliasList){
+      this.targetAttrGrpAliasList = targetAttrGrpAliasList;
+   }
+</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>RegionId</v>
+      </c>
+      <c r="G6" s="5" t="str">
+        <f t="shared" ref="G6:G8" si="3">LOWER(LEFT($C6,1))&amp;RIGHT($F6,LEN($F6)-1)</f>
+        <v>regionId</v>
+      </c>
+      <c r="H6" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>REGION_ID</v>
+      </c>
+      <c r="I6" s="5" t="str">
+        <f t="shared" ref="I6:I8" si="4">"   /** "&amp;$B6&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$H6&amp;" = """&amp;$G6&amp;""";"</f>
+        <v xml:space="preserve">   /** 地域IDのフィールド名 */
+   public static final String FIELD_REGION_ID = "regionId";</v>
+      </c>
+      <c r="J6" s="5" t="str">
+        <f t="shared" ref="J6:J8" si="5">"   /** "&amp;$B6&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$D6&amp;" "&amp;$G6&amp;";"</f>
+        <v xml:space="preserve">   /** 地域ID */
+   private Integer regionId;</v>
+      </c>
+      <c r="K6" s="5" t="str">
+        <f t="shared" ref="K6:K8" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$D6&amp;" get"&amp;$F6&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$G6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 地域IDを取得します。
+    * 
+    * @return 地域ID
+    */
+   public Integer getRegionId(){
+      return regionId;
+   }
+</v>
+      </c>
+      <c r="L6" s="5" t="str">
+        <f t="shared" ref="L6:L8" si="7">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$G6&amp;" "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$F6&amp;"("&amp;$D6&amp;" "&amp;$G6&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$G6&amp;" = "&amp;$G6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 地域IDを設定します。
+    * 
+    * @param regionId 地域ID
+    */
+   public void setRegionId(Integer regionId){
+      this.regionId = regionId;
+   }
+</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>AttrGrpSearchConditionDtoList</v>
+      </c>
+      <c r="G7" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>attrGrpSearchConditionDtoList</v>
+      </c>
+      <c r="H7" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>ATTR_GRP_SEARCH_CONDITION_DTO_LIST</v>
+      </c>
+      <c r="I7" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">   /** 属性グループ検索条件DTOリストのフィールド名 */
+   public static final String FIELD_ATTR_GRP_SEARCH_CONDITION_DTO_LIST = "attrGrpSearchConditionDtoList";</v>
+      </c>
+      <c r="J7" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">   /** 属性グループ検索条件DTOリスト */
+   private List&lt;AttrGrpSearchConditionDto&gt; attrGrpSearchConditionDtoList;</v>
+      </c>
+      <c r="K7" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   /**
+    * 属性グループ検索条件DTOリストを取得します。
+    * 
+    * @return 属性グループ検索条件DTOリスト
+    */
+   public List&lt;AttrGrpSearchConditionDto&gt; getAttrGrpSearchConditionDtoList(){
+      return attrGrpSearchConditionDtoList;
+   }
+</v>
+      </c>
+      <c r="L7" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">   /**
+    * 属性グループ検索条件DTOリストを設定します。
+    * 
+    * @param attrGrpSearchConditionDtoList 属性グループ検索条件DTOリスト
+    */
+   public void setAttrGrpSearchConditionDtoList(List&lt;AttrGrpSearchConditionDto&gt; attrGrpSearchConditionDtoList){
+      this.attrGrpSearchConditionDtoList = attrGrpSearchConditionDtoList;
+   }
+</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>NumOfSearchCondition</v>
+      </c>
+      <c r="G8" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>numOfSearchCondition</v>
+      </c>
+      <c r="H8" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>NUM_OF_SEARCH_CONDITION</v>
+      </c>
+      <c r="I8" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">   /** 属性グループ検索条件の個数のフィールド名 */
+   public static final String FIELD_NUM_OF_SEARCH_CONDITION = "numOfSearchCondition";</v>
+      </c>
+      <c r="J8" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">   /** 属性グループ検索条件の個数 */
+   private Integer numOfSearchCondition;</v>
+      </c>
+      <c r="K8" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   /**
+    * 属性グループ検索条件の個数を取得します。
+    * 
+    * @return 属性グループ検索条件の個数
+    */
+   public Integer getNumOfSearchCondition(){
+      return numOfSearchCondition;
+   }
+</v>
+      </c>
+      <c r="L8" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">   /**
+    * 属性グループ検索条件の個数を設定します。
+    * 
+    * @param numOfSearchCondition 属性グループ検索条件の個数
+    */
+   public void setNumOfSearchCondition(Integer numOfSearchCondition){
+      this.numOfSearchCondition = numOfSearchCondition;
+   }
+</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.375" style="2" customWidth="1"/>
+    <col min="2" max="4" width="33.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="8" width="6.25" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="12" width="5" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="12">
+        <f t="shared" ref="A5:A6" si="0">ROW()-4</f>
+        <v>1</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="5" t="str">
+        <f t="shared" ref="F5:F6" si="1">SUBSTITUTE($C5," ","")</f>
+        <v>AttrGrpAlias</v>
+      </c>
+      <c r="G5" s="5" t="str">
+        <f>LOWER(LEFT($C5,1))&amp;RIGHT($F5,LEN($F5)-1)</f>
+        <v>attrGrpAlias</v>
+      </c>
+      <c r="H5" s="5" t="str">
+        <f t="shared" ref="H5:H6" si="2">UPPER(SUBSTITUTE($C5," ","_"))</f>
+        <v>ATTR_GRP_ALIAS</v>
+      </c>
+      <c r="I5" s="5" t="str">
+        <f>"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$H5&amp;" = """&amp;$G5&amp;""";"</f>
+        <v xml:space="preserve">   /** 検索対象属性グループエイリアスのフィールド名 */
+   public static final String FIELD_ATTR_GRP_ALIAS = "attrGrpAlias";</v>
+      </c>
+      <c r="J5" s="5" t="str">
+        <f>"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$D5&amp;" "&amp;$G5&amp;";"</f>
+        <v xml:space="preserve">   /** 検索対象属性グループエイリアス */
+   private String attrGrpAlias;</v>
+      </c>
+      <c r="K5" s="5" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$D5&amp;" get"&amp;$F5&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$G5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 検索対象属性グループエイリアスを取得します。
+    * 
+    * @return 検索対象属性グループエイリアス
+    */
+   public String getAttrGrpAlias(){
+      return attrGrpAlias;
+   }
+</v>
+      </c>
+      <c r="L5" s="5" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$G5&amp;" "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$F5&amp;"("&amp;$D5&amp;" "&amp;$G5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$G5&amp;" = "&amp;$G5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 検索対象属性グループエイリアスを設定します。
+    * 
+    * @param attrGrpAlias 検索対象属性グループエイリアス
+    */
+   public void setAttrGrpAlias(String attrGrpAlias){
+      this.attrGrpAlias = attrGrpAlias;
+   }
+</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Val</v>
+      </c>
+      <c r="G6" s="5" t="str">
+        <f t="shared" ref="G6" si="3">LOWER(LEFT($C6,1))&amp;RIGHT($F6,LEN($F6)-1)</f>
+        <v>val</v>
+      </c>
+      <c r="H6" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>VAL</v>
+      </c>
+      <c r="I6" s="5" t="str">
+        <f t="shared" ref="I6" si="4">"   /** "&amp;$B6&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$H6&amp;" = """&amp;$G6&amp;""";"</f>
+        <v xml:space="preserve">   /** 検索値のフィールド名 */
+   public static final String FIELD_VAL = "val";</v>
+      </c>
+      <c r="J6" s="5" t="str">
+        <f t="shared" ref="J6" si="5">"   /** "&amp;$B6&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$D6&amp;" "&amp;$G6&amp;";"</f>
+        <v xml:space="preserve">   /** 検索値 */
+   private Object val;</v>
+      </c>
+      <c r="K6" s="5" t="str">
+        <f t="shared" ref="K6" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$D6&amp;" get"&amp;$F6&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$G6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 検索値を取得します。
+    * 
+    * @return 検索値
+    */
+   public Object getVal(){
+      return val;
+   }
+</v>
+      </c>
+      <c r="L6" s="5" t="str">
+        <f t="shared" ref="L6" si="7">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$G6&amp;" "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$F6&amp;"("&amp;$D6&amp;" "&amp;$G6&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$G6&amp;" = "&amp;$G6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 検索値を設定します。
+    * 
+    * @param val 検索値
+    */
+   public void setVal(Object val){
+      this.val = val;
+   }
+</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.375" style="2" customWidth="1"/>
+    <col min="2" max="4" width="33.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="8" width="6.25" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="12" width="5" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="12">
+        <f t="shared" ref="A5" si="0">ROW()-4</f>
+        <v>1</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="5" t="str">
+        <f t="shared" ref="F5" si="1">SUBSTITUTE($C5," ","")</f>
+        <v>ErrMsgList</v>
+      </c>
+      <c r="G5" s="5" t="str">
+        <f t="shared" ref="G5" si="2">LOWER(LEFT($C5,1))&amp;RIGHT($F5,LEN($F5)-1)</f>
+        <v>errMsgList</v>
+      </c>
+      <c r="H5" s="5" t="str">
+        <f t="shared" ref="H5" si="3">UPPER(SUBSTITUTE($C5," ","_"))</f>
+        <v>ERR_MSG_LIST</v>
+      </c>
+      <c r="I5" s="5" t="str">
+        <f t="shared" ref="I5" si="4">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$H5&amp;" = """&amp;$G5&amp;""";"</f>
+        <v xml:space="preserve">   /** エラーメッセージリストのフィールド名 */
+   public static final String FIELD_ERR_MSG_LIST = "errMsgList";</v>
+      </c>
+      <c r="J5" s="5" t="str">
+        <f t="shared" ref="J5" si="5">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$D5&amp;" "&amp;$G5&amp;";"</f>
+        <v xml:space="preserve">   /** エラーメッセージリスト */
+   private List&lt;String&gt; errMsgList;</v>
+      </c>
+      <c r="K5" s="5" t="str">
+        <f t="shared" ref="K5" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$D5&amp;" get"&amp;$F5&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$G5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * エラーメッセージリストを取得します。
+    * 
+    * @return エラーメッセージリスト
+    */
+   public List&lt;String&gt; getErrMsgList(){
+      return errMsgList;
+   }
+</v>
+      </c>
+      <c r="L5" s="5" t="str">
+        <f t="shared" ref="L5" si="7">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$G5&amp;" "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$F5&amp;"("&amp;$D5&amp;" "&amp;$G5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$G5&amp;" = "&amp;$G5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * エラーメッセージリストを設定します。
+    * 
+    * @param errMsgList エラーメッセージリスト
+    */
+   public void setErrMsgList(List&lt;String&gt; errMsgList){
+      this.errMsgList = errMsgList;
    }
 </v>
       </c>

--- a/03_設計/06_データオブジェクト/データオブジェクト定義書.xlsx
+++ b/03_設計/06_データオブジェクト/データオブジェクト定義書.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="88">
   <si>
     <t>論理名</t>
     <rPh sb="0" eb="3">
@@ -1187,9 +1187,7 @@
       <c r="D7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>52</v>
-      </c>
+      <c r="E7" s="5"/>
       <c r="F7" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Index</v>
@@ -1251,9 +1249,7 @@
       <c r="D8" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>52</v>
-      </c>
+      <c r="E8" s="5"/>
       <c r="F8" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Count</v>
@@ -1315,9 +1311,7 @@
       <c r="D9" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>52</v>
-      </c>
+      <c r="E9" s="5"/>
       <c r="F9" s="5" t="str">
         <f t="shared" si="1"/>
         <v>DtoList</v>

--- a/03_設計/06_データオブジェクト/データオブジェクト定義書.xlsx
+++ b/03_設計/06_データオブジェクト/データオブジェクト定義書.xlsx
@@ -9,15 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12195" tabRatio="585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12195" tabRatio="680"/>
   </bookViews>
   <sheets>
-    <sheet name="リソースDTO" sheetId="19" r:id="rId1"/>
-    <sheet name="施設DTO" sheetId="11" r:id="rId2"/>
-    <sheet name="属性DTO" sheetId="10" r:id="rId3"/>
-    <sheet name="施設検索条件DTO" sheetId="21" r:id="rId4"/>
-    <sheet name="属性グループ検索条件DTO" sheetId="22" r:id="rId5"/>
-    <sheet name="エラーDTO" sheetId="23" r:id="rId6"/>
+    <sheet name="リソース基底DTO" sheetId="19" r:id="rId1"/>
+    <sheet name="リソースシングルDTO" sheetId="24" r:id="rId2"/>
+    <sheet name="リソースマルチDTO" sheetId="25" r:id="rId3"/>
+    <sheet name="リソースエラーDTO" sheetId="23" r:id="rId4"/>
+    <sheet name="施設DTO" sheetId="11" r:id="rId5"/>
+    <sheet name="属性DTO" sheetId="10" r:id="rId6"/>
+    <sheet name="施設検索条件DTO" sheetId="21" r:id="rId7"/>
+    <sheet name="属性グループ検索条件DTO" sheetId="22" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="96">
   <si>
     <t>論理名</t>
     <rPh sb="0" eb="3">
@@ -263,14 +265,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>リソースDTO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ResourceDto</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>エンティティ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -296,10 +290,6 @@
   </si>
   <si>
     <t>String</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Integer</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -517,14 +507,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>エラーDTO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ErrorDto</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>エラーメッセージリスト</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -534,6 +516,64 @@
   </si>
   <si>
     <t>List&lt;String&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リソース基底DTO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AbstractResourceDto</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DTO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リソースシングルDTO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ResourceSingleDto</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dto</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;T extends IDto&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リソース基底DTOを継承する。</t>
+    <rPh sb="4" eb="6">
+      <t>キテイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リソースマルチDTO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ResourceMultiDto</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リソースエラーDTO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ResourceErrorDto</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -625,7 +665,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -664,6 +704,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -953,7 +996,7 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
@@ -977,7 +1020,7 @@
         <v>10</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="7"/>
@@ -996,7 +1039,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="7"/>
@@ -1047,23 +1090,23 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="12">
-        <f t="shared" ref="A5:A9" si="0">ROW()-4</f>
+        <f t="shared" ref="A5" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="D5" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F5" s="5" t="str">
-        <f t="shared" ref="F5:F9" si="1">SUBSTITUTE($C5," ","")</f>
+        <f t="shared" ref="F5" si="1">SUBSTITUTE($C5," ","")</f>
         <v>Entity</v>
       </c>
       <c r="G5" s="5" t="str">
@@ -1071,7 +1114,7 @@
         <v>entity</v>
       </c>
       <c r="H5" s="5" t="str">
-        <f t="shared" ref="H5:H9" si="2">UPPER(SUBSTITUTE($C5," ","_"))</f>
+        <f t="shared" ref="H5" si="2">UPPER(SUBSTITUTE($C5," ","_"))</f>
         <v>ENTITY</v>
       </c>
       <c r="I5" s="5" t="str">
@@ -1105,256 +1148,6 @@
     */
    public void setEntity(String entity){
       this.entity = entity;
-   }
-</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>AllCount</v>
-      </c>
-      <c r="G6" s="5" t="str">
-        <f t="shared" ref="G6:G9" si="3">LOWER(LEFT($C6,1))&amp;RIGHT($F6,LEN($F6)-1)</f>
-        <v>allCount</v>
-      </c>
-      <c r="H6" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>ALL_COUNT</v>
-      </c>
-      <c r="I6" s="5" t="str">
-        <f t="shared" ref="I6:I9" si="4">"   /** "&amp;$B6&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$H6&amp;" = """&amp;$G6&amp;""";"</f>
-        <v xml:space="preserve">   /** 全件数のフィールド名 */
-   public static final String FIELD_ALL_COUNT = "allCount";</v>
-      </c>
-      <c r="J6" s="5" t="str">
-        <f t="shared" ref="J6:J9" si="5">"   /** "&amp;$B6&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$D6&amp;" "&amp;$G6&amp;";"</f>
-        <v xml:space="preserve">   /** 全件数 */
-   private Integer allCount;</v>
-      </c>
-      <c r="K6" s="5" t="str">
-        <f t="shared" ref="K6:K9" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$D6&amp;" get"&amp;$F6&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$G6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
-        <v xml:space="preserve">   /**
-    * 全件数を取得します。
-    * 
-    * @return 全件数
-    */
-   public Integer getAllCount(){
-      return allCount;
-   }
-</v>
-      </c>
-      <c r="L6" s="5" t="str">
-        <f t="shared" ref="L6:L9" si="7">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$G6&amp;" "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$F6&amp;"("&amp;$D6&amp;" "&amp;$G6&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$G6&amp;" = "&amp;$G6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
-        <v xml:space="preserve">   /**
-    * 全件数を設定します。
-    * 
-    * @param allCount 全件数
-    */
-   public void setAllCount(Integer allCount){
-      this.allCount = allCount;
-   }
-</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="12">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Index</v>
-      </c>
-      <c r="G7" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>index</v>
-      </c>
-      <c r="H7" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>INDEX</v>
-      </c>
-      <c r="I7" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">   /** 開始位置のフィールド名 */
-   public static final String FIELD_INDEX = "index";</v>
-      </c>
-      <c r="J7" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">   /** 開始位置 */
-   private Integer index;</v>
-      </c>
-      <c r="K7" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">   /**
-    * 開始位置を取得します。
-    * 
-    * @return 開始位置
-    */
-   public Integer getIndex(){
-      return index;
-   }
-</v>
-      </c>
-      <c r="L7" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">   /**
-    * 開始位置を設定します。
-    * 
-    * @param index 開始位置
-    */
-   public void setIndex(Integer index){
-      this.index = index;
-   }
-</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Count</v>
-      </c>
-      <c r="G8" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>count</v>
-      </c>
-      <c r="H8" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>COUNT</v>
-      </c>
-      <c r="I8" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">   /** 取得件数のフィールド名 */
-   public static final String FIELD_COUNT = "count";</v>
-      </c>
-      <c r="J8" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">   /** 取得件数 */
-   private Integer count;</v>
-      </c>
-      <c r="K8" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">   /**
-    * 取得件数を取得します。
-    * 
-    * @return 取得件数
-    */
-   public Integer getCount(){
-      return count;
-   }
-</v>
-      </c>
-      <c r="L8" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">   /**
-    * 取得件数を設定します。
-    * 
-    * @param count 取得件数
-    */
-   public void setCount(Integer count){
-      this.count = count;
-   }
-</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="12">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>DtoList</v>
-      </c>
-      <c r="G9" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>dtoList</v>
-      </c>
-      <c r="H9" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>DTO_LIST</v>
-      </c>
-      <c r="I9" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">   /** DTOリストのフィールド名 */
-   public static final String FIELD_DTO_LIST = "dtoList";</v>
-      </c>
-      <c r="J9" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">   /** DTOリスト */
-   private List&lt;? extends IDto&gt; dtoList;</v>
-      </c>
-      <c r="K9" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">   /**
-    * DTOリストを取得します。
-    * 
-    * @return DTOリスト
-    */
-   public List&lt;? extends IDto&gt; getDtoList(){
-      return dtoList;
-   }
-</v>
-      </c>
-      <c r="L9" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">   /**
-    * DTOリストを設定します。
-    * 
-    * @param dtoList DTOリスト
-    */
-   public void setDtoList(List&lt;? extends IDto&gt; dtoList){
-      this.dtoList = dtoList;
    }
 </v>
       </c>
@@ -1367,6 +1160,174 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.375" style="2" customWidth="1"/>
+    <col min="2" max="4" width="33.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="8" width="6.25" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="12" width="5" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="12">
+        <f t="shared" ref="A5" si="0">ROW()-4</f>
+        <v>1</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5" t="str">
+        <f t="shared" ref="F5" si="1">SUBSTITUTE($C5," ","")</f>
+        <v>Dto</v>
+      </c>
+      <c r="G5" s="5" t="str">
+        <f t="shared" ref="G5" si="2">LOWER(LEFT($C5,1))&amp;RIGHT($F5,LEN($F5)-1)</f>
+        <v>dto</v>
+      </c>
+      <c r="H5" s="5" t="str">
+        <f t="shared" ref="H5" si="3">UPPER(SUBSTITUTE($C5," ","_"))</f>
+        <v>DTO</v>
+      </c>
+      <c r="I5" s="5" t="str">
+        <f t="shared" ref="I5" si="4">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$H5&amp;" = """&amp;$G5&amp;""";"</f>
+        <v xml:space="preserve">   /** DTOのフィールド名 */
+   public static final String FIELD_DTO = "dto";</v>
+      </c>
+      <c r="J5" s="5" t="str">
+        <f t="shared" ref="J5" si="5">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$D5&amp;" "&amp;$G5&amp;";"</f>
+        <v xml:space="preserve">   /** DTO */
+   private &lt;T extends IDto&gt; dto;</v>
+      </c>
+      <c r="K5" s="5" t="str">
+        <f t="shared" ref="K5" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$D5&amp;" get"&amp;$F5&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$G5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * DTOを取得します。
+    * 
+    * @return DTO
+    */
+   public &lt;T extends IDto&gt; getDto(){
+      return dto;
+   }
+</v>
+      </c>
+      <c r="L5" s="5" t="str">
+        <f t="shared" ref="L5" si="7">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$G5&amp;" "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$F5&amp;"("&amp;$D5&amp;" "&amp;$G5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$G5&amp;" = "&amp;$G5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * DTOを設定します。
+    * 
+    * @param dto DTO
+    */
+   public void setDto(&lt;T extends IDto&gt; dto){
+      this.dto = dto;
+   }
+</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryRight="0"/>
@@ -1395,9 +1356,11 @@
         <v>10</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="9"/>
+        <v>93</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="D1" s="7"/>
       <c r="E1" s="11" t="s">
         <v>28</v>
@@ -1414,7 +1377,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="7"/>
@@ -1469,10 +1432,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>6</v>
@@ -1482,47 +1445,47 @@
       </c>
       <c r="F5" s="5" t="str">
         <f t="shared" ref="F5:F8" si="1">SUBSTITUTE($C5," ","")</f>
-        <v>FacilityId</v>
+        <v>AllCount</v>
       </c>
       <c r="G5" s="5" t="str">
-        <f t="shared" ref="G5:G6" si="2">LOWER(LEFT($C5,1))&amp;RIGHT($F5,LEN($F5)-1)</f>
-        <v>facilityId</v>
+        <f t="shared" ref="G5:G8" si="2">LOWER(LEFT($C5,1))&amp;RIGHT($F5,LEN($F5)-1)</f>
+        <v>allCount</v>
       </c>
       <c r="H5" s="5" t="str">
         <f t="shared" ref="H5:H8" si="3">UPPER(SUBSTITUTE($C5," ","_"))</f>
-        <v>FACILITY_ID</v>
+        <v>ALL_COUNT</v>
       </c>
       <c r="I5" s="5" t="str">
-        <f t="shared" ref="I5:I6" si="4">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$H5&amp;" = """&amp;$G5&amp;""";"</f>
-        <v xml:space="preserve">   /** 施設IDのフィールド名 */
-   public static final String FIELD_FACILITY_ID = "facilityId";</v>
+        <f t="shared" ref="I5:I8" si="4">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$H5&amp;" = """&amp;$G5&amp;""";"</f>
+        <v xml:space="preserve">   /** 全件数のフィールド名 */
+   public static final String FIELD_ALL_COUNT = "allCount";</v>
       </c>
       <c r="J5" s="5" t="str">
-        <f t="shared" ref="J5:J6" si="5">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$D5&amp;" "&amp;$G5&amp;";"</f>
-        <v xml:space="preserve">   /** 施設ID */
-   private Integer facilityId;</v>
+        <f t="shared" ref="J5:J8" si="5">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$D5&amp;" "&amp;$G5&amp;";"</f>
+        <v xml:space="preserve">   /** 全件数 */
+   private Integer allCount;</v>
       </c>
       <c r="K5" s="5" t="str">
-        <f t="shared" ref="K5:K6" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$D5&amp;" get"&amp;$F5&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$G5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
-        <v xml:space="preserve">   /**
-    * 施設IDを取得します。
-    * 
-    * @return 施設ID
-    */
-   public Integer getFacilityId(){
-      return facilityId;
+        <f t="shared" ref="K5:K8" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$D5&amp;" get"&amp;$F5&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$G5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 全件数を取得します。
+    * 
+    * @return 全件数
+    */
+   public Integer getAllCount(){
+      return allCount;
    }
 </v>
       </c>
       <c r="L5" s="5" t="str">
-        <f t="shared" ref="L5:L6" si="7">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$G5&amp;" "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$F5&amp;"("&amp;$D5&amp;" "&amp;$G5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$G5&amp;" = "&amp;$G5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
-        <v xml:space="preserve">   /**
-    * 施設IDを設定します。
-    * 
-    * @param facilityId 施設ID
-    */
-   public void setFacilityId(Integer facilityId){
-      this.facilityId = facilityId;
+        <f t="shared" ref="L5:L8" si="7">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$G5&amp;" "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$F5&amp;"("&amp;$D5&amp;" "&amp;$G5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$G5&amp;" = "&amp;$G5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 全件数を設定します。
+    * 
+    * @param allCount 全件数
+    */
+   public void setAllCount(Integer allCount){
+      this.allCount = allCount;
    }
 </v>
       </c>
@@ -1533,60 +1496,58 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>12</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E6" s="5"/>
       <c r="F6" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Latitude</v>
+        <v>Index</v>
       </c>
       <c r="G6" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>latitude</v>
+        <v>index</v>
       </c>
       <c r="H6" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>LATITUDE</v>
+        <v>INDEX</v>
       </c>
       <c r="I6" s="5" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   /** 緯度のフィールド名 */
-   public static final String FIELD_LATITUDE = "latitude";</v>
+        <v xml:space="preserve">   /** 開始位置のフィールド名 */
+   public static final String FIELD_INDEX = "index";</v>
       </c>
       <c r="J6" s="5" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">   /** 緯度 */
-   private Float latitude;</v>
+        <v xml:space="preserve">   /** 開始位置 */
+   private Integer index;</v>
       </c>
       <c r="K6" s="5" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">   /**
-    * 緯度を取得します。
-    * 
-    * @return 緯度
-    */
-   public Float getLatitude(){
-      return latitude;
+    * 開始位置を取得します。
+    * 
+    * @return 開始位置
+    */
+   public Integer getIndex(){
+      return index;
    }
 </v>
       </c>
       <c r="L6" s="5" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">   /**
-    * 緯度を設定します。
-    * 
-    * @param latitude 緯度
-    */
-   public void setLatitude(Float latitude){
-      this.latitude = latitude;
+    * 開始位置を設定します。
+    * 
+    * @param index 開始位置
+    */
+   public void setIndex(Integer index){
+      this.index = index;
    }
 </v>
       </c>
@@ -1597,60 +1558,60 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="F7" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Longitude</v>
+        <v>Count</v>
       </c>
       <c r="G7" s="5" t="str">
-        <f>LOWER(LEFT($C7,1))&amp;RIGHT($F7,LEN($F7)-1)</f>
-        <v>longitude</v>
+        <f t="shared" si="2"/>
+        <v>count</v>
       </c>
       <c r="H7" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>LONGITUDE</v>
+        <v>COUNT</v>
       </c>
       <c r="I7" s="5" t="str">
-        <f>"   /** "&amp;$B7&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$H7&amp;" = """&amp;$G7&amp;""";"</f>
-        <v xml:space="preserve">   /** 経度のフィールド名 */
-   public static final String FIELD_LONGITUDE = "longitude";</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">   /** 取得件数のフィールド名 */
+   public static final String FIELD_COUNT = "count";</v>
       </c>
       <c r="J7" s="5" t="str">
-        <f>"   /** "&amp;$B7&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$D7&amp;" "&amp;$G7&amp;";"</f>
-        <v xml:space="preserve">   /** 経度 */
-   private Float longitude;</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">   /** 取得件数 */
+   private Integer count;</v>
       </c>
       <c r="K7" s="5" t="str">
-        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B7&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B7&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$D7&amp;" get"&amp;$F7&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$G7&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
-        <v xml:space="preserve">   /**
-    * 経度を取得します。
-    * 
-    * @return 経度
-    */
-   public Float getLongitude(){
-      return longitude;
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   /**
+    * 取得件数を取得します。
+    * 
+    * @return 取得件数
+    */
+   public Integer getCount(){
+      return count;
    }
 </v>
       </c>
       <c r="L7" s="5" t="str">
-        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B7&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$G7&amp;" "&amp;$B7&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$F7&amp;"("&amp;$D7&amp;" "&amp;$G7&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$G7&amp;" = "&amp;$G7&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
-        <v xml:space="preserve">   /**
-    * 経度を設定します。
-    * 
-    * @param longitude 経度
-    */
-   public void setLongitude(Float longitude){
-      this.longitude = longitude;
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">   /**
+    * 取得件数を設定します。
+    * 
+    * @param count 取得件数
+    */
+   public void setCount(Integer count){
+      this.count = count;
    }
 </v>
       </c>
@@ -1661,60 +1622,60 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="F8" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>AttrDtoList</v>
+        <v>DtoList</v>
       </c>
       <c r="G8" s="5" t="str">
-        <f>LOWER(LEFT($C8,1))&amp;RIGHT($F8,LEN($F8)-1)</f>
-        <v>attrDtoList</v>
+        <f t="shared" si="2"/>
+        <v>dtoList</v>
       </c>
       <c r="H8" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>ATTR_DTO_LIST</v>
+        <v>DTO_LIST</v>
       </c>
       <c r="I8" s="5" t="str">
-        <f>"   /** "&amp;$B8&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$H8&amp;" = """&amp;$G8&amp;""";"</f>
-        <v xml:space="preserve">   /** 属性DTOリストのフィールド名 */
-   public static final String FIELD_ATTR_DTO_LIST = "attrDtoList";</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">   /** DTOリストのフィールド名 */
+   public static final String FIELD_DTO_LIST = "dtoList";</v>
       </c>
       <c r="J8" s="5" t="str">
-        <f>"   /** "&amp;$B8&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$D8&amp;" "&amp;$G8&amp;";"</f>
-        <v xml:space="preserve">   /** 属性DTOリスト */
-   private List&lt;AttrDto&gt; attrDtoList;</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">   /** DTOリスト */
+   private List&lt;? extends IDto&gt; dtoList;</v>
       </c>
       <c r="K8" s="5" t="str">
-        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B8&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B8&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$D8&amp;" get"&amp;$F8&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$G8&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
-        <v xml:space="preserve">   /**
-    * 属性DTOリストを取得します。
-    * 
-    * @return 属性DTOリスト
-    */
-   public List&lt;AttrDto&gt; getAttrDtoList(){
-      return attrDtoList;
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   /**
+    * DTOリストを取得します。
+    * 
+    * @return DTOリスト
+    */
+   public List&lt;? extends IDto&gt; getDtoList(){
+      return dtoList;
    }
 </v>
       </c>
       <c r="L8" s="5" t="str">
-        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B8&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$G8&amp;" "&amp;$B8&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$F8&amp;"("&amp;$D8&amp;" "&amp;$G8&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$G8&amp;" = "&amp;$G8&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
-        <v xml:space="preserve">   /**
-    * 属性DTOリストを設定します。
-    * 
-    * @param attrDtoList 属性DTOリスト
-    */
-   public void setAttrDtoList(List&lt;AttrDto&gt; attrDtoList){
-      this.attrDtoList = attrDtoList;
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">   /**
+    * DTOリストを設定します。
+    * 
+    * @param dtoList DTOリスト
+    */
+   public void setDtoList(List&lt;? extends IDto&gt; dtoList){
+      this.dtoList = dtoList;
    }
 </v>
       </c>
@@ -1726,7 +1687,537 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.375" style="2" customWidth="1"/>
+    <col min="2" max="4" width="33.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="8" width="6.25" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="12" width="5" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="12">
+        <f t="shared" ref="A5" si="0">ROW()-4</f>
+        <v>1</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="5" t="str">
+        <f t="shared" ref="F5" si="1">SUBSTITUTE($C5," ","")</f>
+        <v>ErrMsgList</v>
+      </c>
+      <c r="G5" s="5" t="str">
+        <f t="shared" ref="G5" si="2">LOWER(LEFT($C5,1))&amp;RIGHT($F5,LEN($F5)-1)</f>
+        <v>errMsgList</v>
+      </c>
+      <c r="H5" s="5" t="str">
+        <f t="shared" ref="H5" si="3">UPPER(SUBSTITUTE($C5," ","_"))</f>
+        <v>ERR_MSG_LIST</v>
+      </c>
+      <c r="I5" s="5" t="str">
+        <f t="shared" ref="I5" si="4">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$H5&amp;" = """&amp;$G5&amp;""";"</f>
+        <v xml:space="preserve">   /** エラーメッセージリストのフィールド名 */
+   public static final String FIELD_ERR_MSG_LIST = "errMsgList";</v>
+      </c>
+      <c r="J5" s="5" t="str">
+        <f t="shared" ref="J5" si="5">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$D5&amp;" "&amp;$G5&amp;";"</f>
+        <v xml:space="preserve">   /** エラーメッセージリスト */
+   private List&lt;String&gt; errMsgList;</v>
+      </c>
+      <c r="K5" s="5" t="str">
+        <f t="shared" ref="K5" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$D5&amp;" get"&amp;$F5&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$G5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * エラーメッセージリストを取得します。
+    * 
+    * @return エラーメッセージリスト
+    */
+   public List&lt;String&gt; getErrMsgList(){
+      return errMsgList;
+   }
+</v>
+      </c>
+      <c r="L5" s="5" t="str">
+        <f t="shared" ref="L5" si="7">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$G5&amp;" "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$F5&amp;"("&amp;$D5&amp;" "&amp;$G5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$G5&amp;" = "&amp;$G5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * エラーメッセージリストを設定します。
+    * 
+    * @param errMsgList エラーメッセージリスト
+    */
+   public void setErrMsgList(List&lt;String&gt; errMsgList){
+      this.errMsgList = errMsgList;
+   }
+</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.375" style="2" customWidth="1"/>
+    <col min="2" max="4" width="33.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="8" width="6.25" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="12" width="5" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="12">
+        <f t="shared" ref="A5:A8" si="0">ROW()-4</f>
+        <v>1</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="5" t="str">
+        <f t="shared" ref="F5:F8" si="1">SUBSTITUTE($C5," ","")</f>
+        <v>FacilityId</v>
+      </c>
+      <c r="G5" s="5" t="str">
+        <f t="shared" ref="G5:G6" si="2">LOWER(LEFT($C5,1))&amp;RIGHT($F5,LEN($F5)-1)</f>
+        <v>facilityId</v>
+      </c>
+      <c r="H5" s="5" t="str">
+        <f t="shared" ref="H5:H8" si="3">UPPER(SUBSTITUTE($C5," ","_"))</f>
+        <v>FACILITY_ID</v>
+      </c>
+      <c r="I5" s="5" t="str">
+        <f t="shared" ref="I5:I6" si="4">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$H5&amp;" = """&amp;$G5&amp;""";"</f>
+        <v xml:space="preserve">   /** 施設IDのフィールド名 */
+   public static final String FIELD_FACILITY_ID = "facilityId";</v>
+      </c>
+      <c r="J5" s="5" t="str">
+        <f t="shared" ref="J5:J6" si="5">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$D5&amp;" "&amp;$G5&amp;";"</f>
+        <v xml:space="preserve">   /** 施設ID */
+   private Integer facilityId;</v>
+      </c>
+      <c r="K5" s="5" t="str">
+        <f t="shared" ref="K5:K6" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$D5&amp;" get"&amp;$F5&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$G5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 施設IDを取得します。
+    * 
+    * @return 施設ID
+    */
+   public Integer getFacilityId(){
+      return facilityId;
+   }
+</v>
+      </c>
+      <c r="L5" s="5" t="str">
+        <f t="shared" ref="L5:L6" si="7">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$G5&amp;" "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$F5&amp;"("&amp;$D5&amp;" "&amp;$G5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$G5&amp;" = "&amp;$G5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 施設IDを設定します。
+    * 
+    * @param facilityId 施設ID
+    */
+   public void setFacilityId(Integer facilityId){
+      this.facilityId = facilityId;
+   }
+</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Latitude</v>
+      </c>
+      <c r="G6" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>latitude</v>
+      </c>
+      <c r="H6" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>LATITUDE</v>
+      </c>
+      <c r="I6" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">   /** 緯度のフィールド名 */
+   public static final String FIELD_LATITUDE = "latitude";</v>
+      </c>
+      <c r="J6" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">   /** 緯度 */
+   private Float latitude;</v>
+      </c>
+      <c r="K6" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   /**
+    * 緯度を取得します。
+    * 
+    * @return 緯度
+    */
+   public Float getLatitude(){
+      return latitude;
+   }
+</v>
+      </c>
+      <c r="L6" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">   /**
+    * 緯度を設定します。
+    * 
+    * @param latitude 緯度
+    */
+   public void setLatitude(Float latitude){
+      this.latitude = latitude;
+   }
+</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Longitude</v>
+      </c>
+      <c r="G7" s="5" t="str">
+        <f>LOWER(LEFT($C7,1))&amp;RIGHT($F7,LEN($F7)-1)</f>
+        <v>longitude</v>
+      </c>
+      <c r="H7" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>LONGITUDE</v>
+      </c>
+      <c r="I7" s="5" t="str">
+        <f>"   /** "&amp;$B7&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$H7&amp;" = """&amp;$G7&amp;""";"</f>
+        <v xml:space="preserve">   /** 経度のフィールド名 */
+   public static final String FIELD_LONGITUDE = "longitude";</v>
+      </c>
+      <c r="J7" s="5" t="str">
+        <f>"   /** "&amp;$B7&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$D7&amp;" "&amp;$G7&amp;";"</f>
+        <v xml:space="preserve">   /** 経度 */
+   private Float longitude;</v>
+      </c>
+      <c r="K7" s="5" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B7&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B7&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$D7&amp;" get"&amp;$F7&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$G7&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 経度を取得します。
+    * 
+    * @return 経度
+    */
+   public Float getLongitude(){
+      return longitude;
+   }
+</v>
+      </c>
+      <c r="L7" s="5" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B7&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$G7&amp;" "&amp;$B7&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$F7&amp;"("&amp;$D7&amp;" "&amp;$G7&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$G7&amp;" = "&amp;$G7&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 経度を設定します。
+    * 
+    * @param longitude 経度
+    */
+   public void setLongitude(Float longitude){
+      this.longitude = longitude;
+   }
+</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>AttrDtoList</v>
+      </c>
+      <c r="G8" s="5" t="str">
+        <f>LOWER(LEFT($C8,1))&amp;RIGHT($F8,LEN($F8)-1)</f>
+        <v>attrDtoList</v>
+      </c>
+      <c r="H8" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>ATTR_DTO_LIST</v>
+      </c>
+      <c r="I8" s="5" t="str">
+        <f>"   /** "&amp;$B8&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$H8&amp;" = """&amp;$G8&amp;""";"</f>
+        <v xml:space="preserve">   /** 属性DTOリストのフィールド名 */
+   public static final String FIELD_ATTR_DTO_LIST = "attrDtoList";</v>
+      </c>
+      <c r="J8" s="5" t="str">
+        <f>"   /** "&amp;$B8&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$D8&amp;" "&amp;$G8&amp;";"</f>
+        <v xml:space="preserve">   /** 属性DTOリスト */
+   private List&lt;AttrDto&gt; attrDtoList;</v>
+      </c>
+      <c r="K8" s="5" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B8&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B8&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$D8&amp;" get"&amp;$F8&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$G8&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 属性DTOリストを取得します。
+    * 
+    * @return 属性DTOリスト
+    */
+   public List&lt;AttrDto&gt; getAttrDtoList(){
+      return attrDtoList;
+   }
+</v>
+      </c>
+      <c r="L8" s="5" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B8&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$G8&amp;" "&amp;$B8&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$F8&amp;"("&amp;$D8&amp;" "&amp;$G8&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$G8&amp;" = "&amp;$G8&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 属性DTOリストを設定します。
+    * 
+    * @param attrDtoList 属性DTOリスト
+    */
+   public void setAttrDtoList(List&lt;AttrDto&gt; attrDtoList){
+      this.attrDtoList = attrDtoList;
+   }
+</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryRight="0"/>
@@ -1893,10 +2384,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>9</v>
@@ -2208,7 +2699,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryRight="0"/>
@@ -2237,7 +2728,7 @@
         <v>10</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="7"/>
@@ -2256,7 +2747,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="7"/>
@@ -2311,13 +2802,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>79</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5" t="str">
@@ -2373,13 +2864,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="str">
@@ -2435,13 +2926,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5" t="str">
@@ -2497,13 +2988,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="str">
@@ -2560,7 +3051,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryRight="0"/>
@@ -2589,7 +3080,7 @@
         <v>10</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="7"/>
@@ -2608,7 +3099,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="7"/>
@@ -2663,13 +3154,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>12</v>
@@ -2727,13 +3218,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>12</v>
@@ -2781,174 +3272,6 @@
     */
    public void setVal(Object val){
       this.val = val;
-   }
-</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:L5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="4.375" style="2" customWidth="1"/>
-    <col min="2" max="4" width="33.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="8" width="6.25" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="12" width="5" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="12">
-        <f t="shared" ref="A5" si="0">ROW()-4</f>
-        <v>1</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="5" t="str">
-        <f t="shared" ref="F5" si="1">SUBSTITUTE($C5," ","")</f>
-        <v>ErrMsgList</v>
-      </c>
-      <c r="G5" s="5" t="str">
-        <f t="shared" ref="G5" si="2">LOWER(LEFT($C5,1))&amp;RIGHT($F5,LEN($F5)-1)</f>
-        <v>errMsgList</v>
-      </c>
-      <c r="H5" s="5" t="str">
-        <f t="shared" ref="H5" si="3">UPPER(SUBSTITUTE($C5," ","_"))</f>
-        <v>ERR_MSG_LIST</v>
-      </c>
-      <c r="I5" s="5" t="str">
-        <f t="shared" ref="I5" si="4">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$H5&amp;" = """&amp;$G5&amp;""";"</f>
-        <v xml:space="preserve">   /** エラーメッセージリストのフィールド名 */
-   public static final String FIELD_ERR_MSG_LIST = "errMsgList";</v>
-      </c>
-      <c r="J5" s="5" t="str">
-        <f t="shared" ref="J5" si="5">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$D5&amp;" "&amp;$G5&amp;";"</f>
-        <v xml:space="preserve">   /** エラーメッセージリスト */
-   private List&lt;String&gt; errMsgList;</v>
-      </c>
-      <c r="K5" s="5" t="str">
-        <f t="shared" ref="K5" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$D5&amp;" get"&amp;$F5&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$G5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
-        <v xml:space="preserve">   /**
-    * エラーメッセージリストを取得します。
-    * 
-    * @return エラーメッセージリスト
-    */
-   public List&lt;String&gt; getErrMsgList(){
-      return errMsgList;
-   }
-</v>
-      </c>
-      <c r="L5" s="5" t="str">
-        <f t="shared" ref="L5" si="7">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$G5&amp;" "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$F5&amp;"("&amp;$D5&amp;" "&amp;$G5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$G5&amp;" = "&amp;$G5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
-        <v xml:space="preserve">   /**
-    * エラーメッセージリストを設定します。
-    * 
-    * @param errMsgList エラーメッセージリスト
-    */
-   public void setErrMsgList(List&lt;String&gt; errMsgList){
-      this.errMsgList = errMsgList;
    }
 </v>
       </c>

--- a/03_設計/06_データオブジェクト/データオブジェクト定義書.xlsx
+++ b/03_設計/06_データオブジェクト/データオブジェクト定義書.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="103">
   <si>
     <t>論理名</t>
     <rPh sb="0" eb="3">
@@ -574,6 +574,43 @@
   </si>
   <si>
     <t>ResourceErrorDto</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緯度</t>
+    <rPh sb="0" eb="2">
+      <t>イド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>latitude</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Float</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経度</t>
+    <rPh sb="0" eb="2">
+      <t>ケイド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>longitude</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半径</t>
+    <rPh sb="0" eb="2">
+      <t>ハンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>radius</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2704,7 +2741,7 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
@@ -2798,7 +2835,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="12">
-        <f t="shared" ref="A5:A8" si="0">ROW()-4</f>
+        <f t="shared" ref="A5:A11" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -2812,7 +2849,7 @@
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5" t="str">
-        <f t="shared" ref="F5:F8" si="1">SUBSTITUTE($C5," ","")</f>
+        <f t="shared" ref="F5:F11" si="1">SUBSTITUTE($C5," ","")</f>
         <v>TargetAttrGrpAliasList</v>
       </c>
       <c r="G5" s="5" t="str">
@@ -2820,7 +2857,7 @@
         <v>targetAttrGrpAliasList</v>
       </c>
       <c r="H5" s="5" t="str">
-        <f t="shared" ref="H5:H8" si="2">UPPER(SUBSTITUTE($C5," ","_"))</f>
+        <f t="shared" ref="H5:H11" si="2">UPPER(SUBSTITUTE($C5," ","_"))</f>
         <v>TARGET_ATTR_GRP_ALIAS_LIST</v>
       </c>
       <c r="I5" s="5" t="str">
@@ -2878,7 +2915,7 @@
         <v>RegionId</v>
       </c>
       <c r="G6" s="5" t="str">
-        <f t="shared" ref="G6:G8" si="3">LOWER(LEFT($C6,1))&amp;RIGHT($F6,LEN($F6)-1)</f>
+        <f t="shared" ref="G6:G11" si="3">LOWER(LEFT($C6,1))&amp;RIGHT($F6,LEN($F6)-1)</f>
         <v>regionId</v>
       </c>
       <c r="H6" s="5" t="str">
@@ -2886,17 +2923,17 @@
         <v>REGION_ID</v>
       </c>
       <c r="I6" s="5" t="str">
-        <f t="shared" ref="I6:I8" si="4">"   /** "&amp;$B6&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$H6&amp;" = """&amp;$G6&amp;""";"</f>
+        <f t="shared" ref="I6:I11" si="4">"   /** "&amp;$B6&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$H6&amp;" = """&amp;$G6&amp;""";"</f>
         <v xml:space="preserve">   /** 地域IDのフィールド名 */
    public static final String FIELD_REGION_ID = "regionId";</v>
       </c>
       <c r="J6" s="5" t="str">
-        <f t="shared" ref="J6:J8" si="5">"   /** "&amp;$B6&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$D6&amp;" "&amp;$G6&amp;";"</f>
+        <f t="shared" ref="J6:J11" si="5">"   /** "&amp;$B6&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$D6&amp;" "&amp;$G6&amp;";"</f>
         <v xml:space="preserve">   /** 地域ID */
    private Integer regionId;</v>
       </c>
       <c r="K6" s="5" t="str">
-        <f t="shared" ref="K6:K8" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$D6&amp;" get"&amp;$F6&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$G6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <f t="shared" ref="K6:K11" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$D6&amp;" get"&amp;$F6&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$G6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
     * 地域IDを取得します。
     * 
@@ -2908,7 +2945,7 @@
 </v>
       </c>
       <c r="L6" s="5" t="str">
-        <f t="shared" ref="L6:L8" si="7">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$G6&amp;" "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$F6&amp;"("&amp;$D6&amp;" "&amp;$G6&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$G6&amp;" = "&amp;$G6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <f t="shared" ref="L6:L11" si="7">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$G6&amp;" "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$F6&amp;"("&amp;$D6&amp;" "&amp;$G6&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$G6&amp;" = "&amp;$G6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
     * 地域IDを設定します。
     * 
@@ -3040,6 +3077,192 @@
     */
    public void setNumOfSearchCondition(Integer numOfSearchCondition){
       this.numOfSearchCondition = numOfSearchCondition;
+   }
+</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>latitude</v>
+      </c>
+      <c r="G9" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>latitude</v>
+      </c>
+      <c r="H9" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>LATITUDE</v>
+      </c>
+      <c r="I9" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">   /** 緯度のフィールド名 */
+   public static final String FIELD_LATITUDE = "latitude";</v>
+      </c>
+      <c r="J9" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">   /** 緯度 */
+   private Float latitude;</v>
+      </c>
+      <c r="K9" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   /**
+    * 緯度を取得します。
+    * 
+    * @return 緯度
+    */
+   public Float getlatitude(){
+      return latitude;
+   }
+</v>
+      </c>
+      <c r="L9" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">   /**
+    * 緯度を設定します。
+    * 
+    * @param latitude 緯度
+    */
+   public void setlatitude(Float latitude){
+      this.latitude = latitude;
+   }
+</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>longitude</v>
+      </c>
+      <c r="G10" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>longitude</v>
+      </c>
+      <c r="H10" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>LONGITUDE</v>
+      </c>
+      <c r="I10" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">   /** 経度のフィールド名 */
+   public static final String FIELD_LONGITUDE = "longitude";</v>
+      </c>
+      <c r="J10" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">   /** 経度 */
+   private Float longitude;</v>
+      </c>
+      <c r="K10" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   /**
+    * 経度を取得します。
+    * 
+    * @return 経度
+    */
+   public Float getlongitude(){
+      return longitude;
+   }
+</v>
+      </c>
+      <c r="L10" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">   /**
+    * 経度を設定します。
+    * 
+    * @param longitude 経度
+    */
+   public void setlongitude(Float longitude){
+      this.longitude = longitude;
+   }
+</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>radius</v>
+      </c>
+      <c r="G11" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>radius</v>
+      </c>
+      <c r="H11" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>RADIUS</v>
+      </c>
+      <c r="I11" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">   /** 半径のフィールド名 */
+   public static final String FIELD_RADIUS = "radius";</v>
+      </c>
+      <c r="J11" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">   /** 半径 */
+   private Float radius;</v>
+      </c>
+      <c r="K11" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   /**
+    * 半径を取得します。
+    * 
+    * @return 半径
+    */
+   public Float getradius(){
+      return radius;
+   }
+</v>
+      </c>
+      <c r="L11" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">   /**
+    * 半径を設定します。
+    * 
+    * @param radius 半径
+    */
+   public void setradius(Float radius){
+      this.radius = radius;
    }
 </v>
       </c>

--- a/03_設計/06_データオブジェクト/データオブジェクト定義書.xlsx
+++ b/03_設計/06_データオブジェクト/データオブジェクト定義書.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="105">
   <si>
     <t>論理名</t>
     <rPh sb="0" eb="3">
@@ -611,6 +611,17 @@
   </si>
   <si>
     <t>radius</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>距離</t>
+    <rPh sb="0" eb="2">
+      <t>キョリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Distance</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1899,7 +1910,7 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
@@ -1993,7 +2004,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="12">
-        <f t="shared" ref="A5:A8" si="0">ROW()-4</f>
+        <f t="shared" ref="A5:A9" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -2009,7 +2020,7 @@
         <v>12</v>
       </c>
       <c r="F5" s="5" t="str">
-        <f t="shared" ref="F5:F8" si="1">SUBSTITUTE($C5," ","")</f>
+        <f t="shared" ref="F5:F9" si="1">SUBSTITUTE($C5," ","")</f>
         <v>FacilityId</v>
       </c>
       <c r="G5" s="5" t="str">
@@ -2017,7 +2028,7 @@
         <v>facilityId</v>
       </c>
       <c r="H5" s="5" t="str">
-        <f t="shared" ref="H5:H8" si="3">UPPER(SUBSTITUTE($C5," ","_"))</f>
+        <f t="shared" ref="H5:H9" si="3">UPPER(SUBSTITUTE($C5," ","_"))</f>
         <v>FACILITY_ID</v>
       </c>
       <c r="I5" s="5" t="str">
@@ -2189,41 +2200,105 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>AttrDtoList</v>
+        <v>Distance</v>
       </c>
       <c r="G8" s="5" t="str">
         <f>LOWER(LEFT($C8,1))&amp;RIGHT($F8,LEN($F8)-1)</f>
-        <v>attrDtoList</v>
+        <v>distance</v>
       </c>
       <c r="H8" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>ATTR_DTO_LIST</v>
+        <v>DISTANCE</v>
       </c>
       <c r="I8" s="5" t="str">
         <f>"   /** "&amp;$B8&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$H8&amp;" = """&amp;$G8&amp;""";"</f>
+        <v xml:space="preserve">   /** 距離のフィールド名 */
+   public static final String FIELD_DISTANCE = "distance";</v>
+      </c>
+      <c r="J8" s="5" t="str">
+        <f>"   /** "&amp;$B8&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$D8&amp;" "&amp;$G8&amp;";"</f>
+        <v xml:space="preserve">   /** 距離 */
+   private Integer distance;</v>
+      </c>
+      <c r="K8" s="5" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B8&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B8&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$D8&amp;" get"&amp;$F8&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$G8&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 距離を取得します。
+    * 
+    * @return 距離
+    */
+   public Integer getDistance(){
+      return distance;
+   }
+</v>
+      </c>
+      <c r="L8" s="5" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B8&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$G8&amp;" "&amp;$B8&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$F8&amp;"("&amp;$D8&amp;" "&amp;$G8&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$G8&amp;" = "&amp;$G8&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 距離を設定します。
+    * 
+    * @param distance 距離
+    */
+   public void setDistance(Integer distance){
+      this.distance = distance;
+   }
+</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>AttrDtoList</v>
+      </c>
+      <c r="G9" s="5" t="str">
+        <f>LOWER(LEFT($C9,1))&amp;RIGHT($F9,LEN($F9)-1)</f>
+        <v>attrDtoList</v>
+      </c>
+      <c r="H9" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>ATTR_DTO_LIST</v>
+      </c>
+      <c r="I9" s="5" t="str">
+        <f>"   /** "&amp;$B9&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$H9&amp;" = """&amp;$G9&amp;""";"</f>
         <v xml:space="preserve">   /** 属性DTOリストのフィールド名 */
    public static final String FIELD_ATTR_DTO_LIST = "attrDtoList";</v>
       </c>
-      <c r="J8" s="5" t="str">
-        <f>"   /** "&amp;$B8&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$D8&amp;" "&amp;$G8&amp;";"</f>
+      <c r="J9" s="5" t="str">
+        <f>"   /** "&amp;$B9&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$D9&amp;" "&amp;$G9&amp;";"</f>
         <v xml:space="preserve">   /** 属性DTOリスト */
    private List&lt;AttrDto&gt; attrDtoList;</v>
       </c>
-      <c r="K8" s="5" t="str">
-        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B8&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B8&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$D8&amp;" get"&amp;$F8&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$G8&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+      <c r="K9" s="5" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B9&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B9&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$D9&amp;" get"&amp;$F9&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$G9&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
     * 属性DTOリストを取得します。
     * 
@@ -2234,8 +2309,8 @@
    }
 </v>
       </c>
-      <c r="L8" s="5" t="str">
-        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B8&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$G8&amp;" "&amp;$B8&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$F8&amp;"("&amp;$D8&amp;" "&amp;$G8&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$G8&amp;" = "&amp;$G8&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+      <c r="L9" s="5" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B9&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$G9&amp;" "&amp;$B9&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$F9&amp;"("&amp;$D9&amp;" "&amp;$G9&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$G9&amp;" = "&amp;$G9&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
     * 属性DTOリストを設定します。
     * 

--- a/03_設計/06_データオブジェクト/データオブジェクト定義書.xlsx
+++ b/03_設計/06_データオブジェクト/データオブジェクト定義書.xlsx
@@ -20,6 +20,8 @@
     <sheet name="属性DTO" sheetId="10" r:id="rId6"/>
     <sheet name="施設検索条件DTO" sheetId="21" r:id="rId7"/>
     <sheet name="属性グループ検索条件DTO" sheetId="22" r:id="rId8"/>
+    <sheet name="施設登録更新DTO" sheetId="28" r:id="rId9"/>
+    <sheet name="属性登録更新DTO" sheetId="29" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="121">
   <si>
     <t>論理名</t>
     <rPh sb="0" eb="3">
@@ -622,6 +624,109 @@
   </si>
   <si>
     <t>Distance</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Region Id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公開ステータス</t>
+    <rPh sb="0" eb="2">
+      <t>コウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Publish Sts</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>親施設ID</t>
+    <rPh sb="0" eb="1">
+      <t>オヤ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>シセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Parent Facility Id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>施設登録更新DTO</t>
+    <rPh sb="0" eb="2">
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FacilityStoreDto</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>属性登録更新DTO</t>
+    <rPh sb="0" eb="2">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AttrStoreDto</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>属性登録更新DTOリスト</t>
+    <rPh sb="0" eb="2">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Attr Store Dto List</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>List&lt;AttrStoreDto&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>言語区分</t>
+    <rPh sb="0" eb="4">
+      <t>ゲンゴクブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lang Div</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1207,6 +1312,303 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="K5" sqref="K5:L12"/>
+      <selection pane="topRight" activeCell="K5" sqref="K5:L12"/>
+      <selection pane="bottomLeft" activeCell="K5" sqref="K5:L12"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.375" style="2" customWidth="1"/>
+    <col min="2" max="4" width="33.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="8" width="6.25" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="12" width="5" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="12">
+        <f t="shared" ref="A5:A7" si="0">ROW()-4</f>
+        <v>1</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" s="5" t="str">
+        <f t="shared" ref="F5:F7" si="1">SUBSTITUTE($C5," ","")</f>
+        <v>AttrGrpAlias</v>
+      </c>
+      <c r="G5" s="5" t="str">
+        <f t="shared" ref="G5:G7" si="2">LOWER(LEFT($C5,1))&amp;RIGHT($F5,LEN($F5)-1)</f>
+        <v>attrGrpAlias</v>
+      </c>
+      <c r="H5" s="5" t="str">
+        <f t="shared" ref="H5:H7" si="3">UPPER(SUBSTITUTE($C5," ","_"))</f>
+        <v>ATTR_GRP_ALIAS</v>
+      </c>
+      <c r="I5" s="5" t="str">
+        <f t="shared" ref="I5:I7" si="4">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$H5&amp;" = """&amp;$G5&amp;""";"</f>
+        <v xml:space="preserve">   /** 属性グループエイリアスのフィールド名 */
+   public static final String FIELD_ATTR_GRP_ALIAS = "attrGrpAlias";</v>
+      </c>
+      <c r="J5" s="5" t="str">
+        <f t="shared" ref="J5:J7" si="5">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$D5&amp;" "&amp;$G5&amp;";"</f>
+        <v xml:space="preserve">   /** 属性グループエイリアス */
+   private String attrGrpAlias;</v>
+      </c>
+      <c r="K5" s="5" t="str">
+        <f t="shared" ref="K5:K7" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$D5&amp;" get"&amp;$F5&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$G5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 属性グループエイリアスを取得します。
+    * 
+    * @return 属性グループエイリアス
+    */
+   public String getAttrGrpAlias(){
+      return attrGrpAlias;
+   }
+</v>
+      </c>
+      <c r="L5" s="5" t="str">
+        <f t="shared" ref="L5:L7" si="7">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$G5&amp;" "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$F5&amp;"("&amp;$D5&amp;" "&amp;$G5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$G5&amp;" = "&amp;$G5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 属性グループエイリアスを設定します。
+    * 
+    * @param attrGrpAlias 属性グループエイリアス
+    */
+   public void setAttrGrpAlias(String attrGrpAlias){
+      this.attrGrpAlias = attrGrpAlias;
+   }
+</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F6" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>LangDiv</v>
+      </c>
+      <c r="G6" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>langDiv</v>
+      </c>
+      <c r="H6" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>LANG_DIV</v>
+      </c>
+      <c r="I6" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">   /** 言語区分のフィールド名 */
+   public static final String FIELD_LANG_DIV = "langDiv";</v>
+      </c>
+      <c r="J6" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">   /** 言語区分 */
+   private String langDiv;</v>
+      </c>
+      <c r="K6" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   /**
+    * 言語区分を取得します。
+    * 
+    * @return 言語区分
+    */
+   public String getLangDiv(){
+      return langDiv;
+   }
+</v>
+      </c>
+      <c r="L6" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">   /**
+    * 言語区分を設定します。
+    * 
+    * @param langDiv 言語区分
+    */
+   public void setLangDiv(String langDiv){
+      this.langDiv = langDiv;
+   }
+</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>AttrVal</v>
+      </c>
+      <c r="G7" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>attrVal</v>
+      </c>
+      <c r="H7" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>ATTR_VAL</v>
+      </c>
+      <c r="I7" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">   /** 属性値のフィールド名 */
+   public static final String FIELD_ATTR_VAL = "attrVal";</v>
+      </c>
+      <c r="J7" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">   /** 属性値 */
+   private String attrVal;</v>
+      </c>
+      <c r="K7" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   /**
+    * 属性値を取得します。
+    * 
+    * @return 属性値
+    */
+   public String getAttrVal(){
+      return attrVal;
+   }
+</v>
+      </c>
+      <c r="L7" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">   /**
+    * 属性値を設定します。
+    * 
+    * @param attrVal 属性値
+    */
+   public void setAttrVal(String attrVal){
+      this.attrVal = attrVal;
+   }
+</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
@@ -1910,7 +2312,7 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
@@ -2004,7 +2406,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="12">
-        <f t="shared" ref="A5:A9" si="0">ROW()-4</f>
+        <f t="shared" ref="A5:A12" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -2020,29 +2422,29 @@
         <v>12</v>
       </c>
       <c r="F5" s="5" t="str">
-        <f t="shared" ref="F5:F9" si="1">SUBSTITUTE($C5," ","")</f>
+        <f t="shared" ref="F5:F12" si="1">SUBSTITUTE($C5," ","")</f>
         <v>FacilityId</v>
       </c>
       <c r="G5" s="5" t="str">
-        <f t="shared" ref="G5:G6" si="2">LOWER(LEFT($C5,1))&amp;RIGHT($F5,LEN($F5)-1)</f>
+        <f t="shared" ref="G5:G10" si="2">LOWER(LEFT($C5,1))&amp;RIGHT($F5,LEN($F5)-1)</f>
         <v>facilityId</v>
       </c>
       <c r="H5" s="5" t="str">
-        <f t="shared" ref="H5:H9" si="3">UPPER(SUBSTITUTE($C5," ","_"))</f>
+        <f t="shared" ref="H5:H12" si="3">UPPER(SUBSTITUTE($C5," ","_"))</f>
         <v>FACILITY_ID</v>
       </c>
       <c r="I5" s="5" t="str">
-        <f t="shared" ref="I5:I6" si="4">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$H5&amp;" = """&amp;$G5&amp;""";"</f>
+        <f t="shared" ref="I5:I10" si="4">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$H5&amp;" = """&amp;$G5&amp;""";"</f>
         <v xml:space="preserve">   /** 施設IDのフィールド名 */
    public static final String FIELD_FACILITY_ID = "facilityId";</v>
       </c>
       <c r="J5" s="5" t="str">
-        <f t="shared" ref="J5:J6" si="5">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$D5&amp;" "&amp;$G5&amp;";"</f>
+        <f t="shared" ref="J5:J10" si="5">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$D5&amp;" "&amp;$G5&amp;";"</f>
         <v xml:space="preserve">   /** 施設ID */
    private Integer facilityId;</v>
       </c>
       <c r="K5" s="5" t="str">
-        <f t="shared" ref="K5:K6" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$D5&amp;" get"&amp;$F5&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$G5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <f t="shared" ref="K5:K10" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$D5&amp;" get"&amp;$F5&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$G5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
     * 施設IDを取得します。
     * 
@@ -2054,7 +2456,7 @@
 </v>
       </c>
       <c r="L5" s="5" t="str">
-        <f t="shared" ref="L5:L6" si="7">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$G5&amp;" "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$F5&amp;"("&amp;$D5&amp;" "&amp;$G5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$G5&amp;" = "&amp;$G5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <f t="shared" ref="L5:L10" si="7">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$G5&amp;" "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$F5&amp;"("&amp;$D5&amp;" "&amp;$G5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$G5&amp;" = "&amp;$G5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
     * 施設IDを設定します。
     * 
@@ -2072,60 +2474,60 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Latitude</v>
+        <v>RegionId</v>
       </c>
       <c r="G6" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>latitude</v>
+        <v>regionId</v>
       </c>
       <c r="H6" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>LATITUDE</v>
+        <v>REGION_ID</v>
       </c>
       <c r="I6" s="5" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   /** 緯度のフィールド名 */
-   public static final String FIELD_LATITUDE = "latitude";</v>
+        <v xml:space="preserve">   /** 地域IDのフィールド名 */
+   public static final String FIELD_REGION_ID = "regionId";</v>
       </c>
       <c r="J6" s="5" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">   /** 緯度 */
-   private Float latitude;</v>
+        <v xml:space="preserve">   /** 地域ID */
+   private Integer regionId;</v>
       </c>
       <c r="K6" s="5" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">   /**
-    * 緯度を取得します。
-    * 
-    * @return 緯度
-    */
-   public Float getLatitude(){
-      return latitude;
+    * 地域IDを取得します。
+    * 
+    * @return 地域ID
+    */
+   public Integer getRegionId(){
+      return regionId;
    }
 </v>
       </c>
       <c r="L6" s="5" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">   /**
-    * 緯度を設定します。
-    * 
-    * @param latitude 緯度
-    */
-   public void setLatitude(Float latitude){
-      this.latitude = latitude;
+    * 地域IDを設定します。
+    * 
+    * @param regionId 地域ID
+    */
+   public void setRegionId(Integer regionId){
+      this.regionId = regionId;
    }
 </v>
       </c>
@@ -2136,60 +2538,60 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Longitude</v>
+        <v>PublishSts</v>
       </c>
       <c r="G7" s="5" t="str">
-        <f>LOWER(LEFT($C7,1))&amp;RIGHT($F7,LEN($F7)-1)</f>
-        <v>longitude</v>
+        <f t="shared" si="2"/>
+        <v>publishSts</v>
       </c>
       <c r="H7" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>LONGITUDE</v>
+        <v>PUBLISH_STS</v>
       </c>
       <c r="I7" s="5" t="str">
-        <f>"   /** "&amp;$B7&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$H7&amp;" = """&amp;$G7&amp;""";"</f>
-        <v xml:space="preserve">   /** 経度のフィールド名 */
-   public static final String FIELD_LONGITUDE = "longitude";</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">   /** 公開ステータスのフィールド名 */
+   public static final String FIELD_PUBLISH_STS = "publishSts";</v>
       </c>
       <c r="J7" s="5" t="str">
-        <f>"   /** "&amp;$B7&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$D7&amp;" "&amp;$G7&amp;";"</f>
-        <v xml:space="preserve">   /** 経度 */
-   private Float longitude;</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">   /** 公開ステータス */
+   private String publishSts;</v>
       </c>
       <c r="K7" s="5" t="str">
-        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B7&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B7&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$D7&amp;" get"&amp;$F7&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$G7&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
-        <v xml:space="preserve">   /**
-    * 経度を取得します。
-    * 
-    * @return 経度
-    */
-   public Float getLongitude(){
-      return longitude;
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   /**
+    * 公開ステータスを取得します。
+    * 
+    * @return 公開ステータス
+    */
+   public String getPublishSts(){
+      return publishSts;
    }
 </v>
       </c>
       <c r="L7" s="5" t="str">
-        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B7&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$G7&amp;" "&amp;$B7&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$F7&amp;"("&amp;$D7&amp;" "&amp;$G7&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$G7&amp;" = "&amp;$G7&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
-        <v xml:space="preserve">   /**
-    * 経度を設定します。
-    * 
-    * @param longitude 経度
-    */
-   public void setLongitude(Float longitude){
-      this.longitude = longitude;
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">   /**
+    * 公開ステータスを設定します。
+    * 
+    * @param publishSts 公開ステータス
+    */
+   public void setPublishSts(String publishSts){
+      this.publishSts = publishSts;
    }
 </v>
       </c>
@@ -2200,60 +2602,60 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Distance</v>
+        <v>Latitude</v>
       </c>
       <c r="G8" s="5" t="str">
-        <f>LOWER(LEFT($C8,1))&amp;RIGHT($F8,LEN($F8)-1)</f>
-        <v>distance</v>
+        <f t="shared" si="2"/>
+        <v>latitude</v>
       </c>
       <c r="H8" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>DISTANCE</v>
+        <v>LATITUDE</v>
       </c>
       <c r="I8" s="5" t="str">
-        <f>"   /** "&amp;$B8&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$H8&amp;" = """&amp;$G8&amp;""";"</f>
-        <v xml:space="preserve">   /** 距離のフィールド名 */
-   public static final String FIELD_DISTANCE = "distance";</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">   /** 緯度のフィールド名 */
+   public static final String FIELD_LATITUDE = "latitude";</v>
       </c>
       <c r="J8" s="5" t="str">
-        <f>"   /** "&amp;$B8&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$D8&amp;" "&amp;$G8&amp;";"</f>
-        <v xml:space="preserve">   /** 距離 */
-   private Integer distance;</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">   /** 緯度 */
+   private Float latitude;</v>
       </c>
       <c r="K8" s="5" t="str">
-        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B8&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B8&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$D8&amp;" get"&amp;$F8&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$G8&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
-        <v xml:space="preserve">   /**
-    * 距離を取得します。
-    * 
-    * @return 距離
-    */
-   public Integer getDistance(){
-      return distance;
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   /**
+    * 緯度を取得します。
+    * 
+    * @return 緯度
+    */
+   public Float getLatitude(){
+      return latitude;
    }
 </v>
       </c>
       <c r="L8" s="5" t="str">
-        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B8&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$G8&amp;" "&amp;$B8&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$F8&amp;"("&amp;$D8&amp;" "&amp;$G8&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$G8&amp;" = "&amp;$G8&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
-        <v xml:space="preserve">   /**
-    * 距離を設定します。
-    * 
-    * @param distance 距離
-    */
-   public void setDistance(Integer distance){
-      this.distance = distance;
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">   /**
+    * 緯度を設定します。
+    * 
+    * @param latitude 緯度
+    */
+   public void setLatitude(Float latitude){
+      this.latitude = latitude;
    }
 </v>
       </c>
@@ -2264,41 +2666,231 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>AttrDtoList</v>
+        <v>Longitude</v>
       </c>
       <c r="G9" s="5" t="str">
         <f>LOWER(LEFT($C9,1))&amp;RIGHT($F9,LEN($F9)-1)</f>
-        <v>attrDtoList</v>
+        <v>longitude</v>
       </c>
       <c r="H9" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>ATTR_DTO_LIST</v>
+        <v>LONGITUDE</v>
       </c>
       <c r="I9" s="5" t="str">
         <f>"   /** "&amp;$B9&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$H9&amp;" = """&amp;$G9&amp;""";"</f>
+        <v xml:space="preserve">   /** 経度のフィールド名 */
+   public static final String FIELD_LONGITUDE = "longitude";</v>
+      </c>
+      <c r="J9" s="5" t="str">
+        <f>"   /** "&amp;$B9&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$D9&amp;" "&amp;$G9&amp;";"</f>
+        <v xml:space="preserve">   /** 経度 */
+   private Float longitude;</v>
+      </c>
+      <c r="K9" s="5" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B9&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B9&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$D9&amp;" get"&amp;$F9&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$G9&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 経度を取得します。
+    * 
+    * @return 経度
+    */
+   public Float getLongitude(){
+      return longitude;
+   }
+</v>
+      </c>
+      <c r="L9" s="5" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B9&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$G9&amp;" "&amp;$B9&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$F9&amp;"("&amp;$D9&amp;" "&amp;$G9&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$G9&amp;" = "&amp;$G9&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 経度を設定します。
+    * 
+    * @param longitude 経度
+    */
+   public void setLongitude(Float longitude){
+      this.longitude = longitude;
+   }
+</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>ParentFacilityId</v>
+      </c>
+      <c r="G10" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>parentFacilityId</v>
+      </c>
+      <c r="H10" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>PARENT_FACILITY_ID</v>
+      </c>
+      <c r="I10" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">   /** 親施設IDのフィールド名 */
+   public static final String FIELD_PARENT_FACILITY_ID = "parentFacilityId";</v>
+      </c>
+      <c r="J10" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">   /** 親施設ID */
+   private Integer parentFacilityId;</v>
+      </c>
+      <c r="K10" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   /**
+    * 親施設IDを取得します。
+    * 
+    * @return 親施設ID
+    */
+   public Integer getParentFacilityId(){
+      return parentFacilityId;
+   }
+</v>
+      </c>
+      <c r="L10" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">   /**
+    * 親施設IDを設定します。
+    * 
+    * @param parentFacilityId 親施設ID
+    */
+   public void setParentFacilityId(Integer parentFacilityId){
+      this.parentFacilityId = parentFacilityId;
+   }
+</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Distance</v>
+      </c>
+      <c r="G11" s="5" t="str">
+        <f>LOWER(LEFT($C11,1))&amp;RIGHT($F11,LEN($F11)-1)</f>
+        <v>distance</v>
+      </c>
+      <c r="H11" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>DISTANCE</v>
+      </c>
+      <c r="I11" s="5" t="str">
+        <f>"   /** "&amp;$B11&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$H11&amp;" = """&amp;$G11&amp;""";"</f>
+        <v xml:space="preserve">   /** 距離のフィールド名 */
+   public static final String FIELD_DISTANCE = "distance";</v>
+      </c>
+      <c r="J11" s="5" t="str">
+        <f>"   /** "&amp;$B11&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$D11&amp;" "&amp;$G11&amp;";"</f>
+        <v xml:space="preserve">   /** 距離 */
+   private Integer distance;</v>
+      </c>
+      <c r="K11" s="5" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B11&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B11&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$D11&amp;" get"&amp;$F11&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$G11&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 距離を取得します。
+    * 
+    * @return 距離
+    */
+   public Integer getDistance(){
+      return distance;
+   }
+</v>
+      </c>
+      <c r="L11" s="5" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B11&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$G11&amp;" "&amp;$B11&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$F11&amp;"("&amp;$D11&amp;" "&amp;$G11&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$G11&amp;" = "&amp;$G11&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 距離を設定します。
+    * 
+    * @param distance 距離
+    */
+   public void setDistance(Integer distance){
+      this.distance = distance;
+   }
+</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="12">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>AttrDtoList</v>
+      </c>
+      <c r="G12" s="5" t="str">
+        <f>LOWER(LEFT($C12,1))&amp;RIGHT($F12,LEN($F12)-1)</f>
+        <v>attrDtoList</v>
+      </c>
+      <c r="H12" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>ATTR_DTO_LIST</v>
+      </c>
+      <c r="I12" s="5" t="str">
+        <f>"   /** "&amp;$B12&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$H12&amp;" = """&amp;$G12&amp;""";"</f>
         <v xml:space="preserve">   /** 属性DTOリストのフィールド名 */
    public static final String FIELD_ATTR_DTO_LIST = "attrDtoList";</v>
       </c>
-      <c r="J9" s="5" t="str">
-        <f>"   /** "&amp;$B9&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$D9&amp;" "&amp;$G9&amp;";"</f>
+      <c r="J12" s="5" t="str">
+        <f>"   /** "&amp;$B12&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$D12&amp;" "&amp;$G12&amp;";"</f>
         <v xml:space="preserve">   /** 属性DTOリスト */
    private List&lt;AttrDto&gt; attrDtoList;</v>
       </c>
-      <c r="K9" s="5" t="str">
-        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B9&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B9&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$D9&amp;" get"&amp;$F9&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$G9&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+      <c r="K12" s="5" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B12&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B12&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$D12&amp;" get"&amp;$F12&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$G12&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
     * 属性DTOリストを取得します。
     * 
@@ -2309,8 +2901,8 @@
    }
 </v>
       </c>
-      <c r="L9" s="5" t="str">
-        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B9&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$G9&amp;" "&amp;$B9&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$F9&amp;"("&amp;$D9&amp;" "&amp;$G9&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$G9&amp;" = "&amp;$G9&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+      <c r="L12" s="5" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B12&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$G12&amp;" "&amp;$B12&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$F12&amp;"("&amp;$D12&amp;" "&amp;$G12&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$G12&amp;" = "&amp;$G12&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
     * 属性DTOリストを設定します。
     * 
@@ -2338,8 +2930,9 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection activeCell="K5" sqref="K5:L12"/>
+      <selection pane="topRight" activeCell="K5" sqref="K5:L12"/>
+      <selection pane="bottomLeft" activeCell="K5" sqref="K5:L12"/>
       <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -3579,4 +4172,542 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.375" style="2" customWidth="1"/>
+    <col min="2" max="4" width="33.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="8" width="6.25" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="12" width="5" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="12">
+        <f t="shared" ref="A5:A11" si="0">ROW()-4</f>
+        <v>1</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5" t="str">
+        <f t="shared" ref="F5:F11" si="1">SUBSTITUTE($C5," ","")</f>
+        <v>FacilityId</v>
+      </c>
+      <c r="G5" s="5" t="str">
+        <f t="shared" ref="G5:G10" si="2">LOWER(LEFT($C5,1))&amp;RIGHT($F5,LEN($F5)-1)</f>
+        <v>facilityId</v>
+      </c>
+      <c r="H5" s="5" t="str">
+        <f t="shared" ref="H5:H11" si="3">UPPER(SUBSTITUTE($C5," ","_"))</f>
+        <v>FACILITY_ID</v>
+      </c>
+      <c r="I5" s="5" t="str">
+        <f t="shared" ref="I5:I10" si="4">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$H5&amp;" = """&amp;$G5&amp;""";"</f>
+        <v xml:space="preserve">   /** 施設IDのフィールド名 */
+   public static final String FIELD_FACILITY_ID = "facilityId";</v>
+      </c>
+      <c r="J5" s="5" t="str">
+        <f t="shared" ref="J5:J10" si="5">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$D5&amp;" "&amp;$G5&amp;";"</f>
+        <v xml:space="preserve">   /** 施設ID */
+   private Integer facilityId;</v>
+      </c>
+      <c r="K5" s="5" t="str">
+        <f t="shared" ref="K5:K10" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$D5&amp;" get"&amp;$F5&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$G5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 施設IDを取得します。
+    * 
+    * @return 施設ID
+    */
+   public Integer getFacilityId(){
+      return facilityId;
+   }
+</v>
+      </c>
+      <c r="L5" s="5" t="str">
+        <f t="shared" ref="L5:L10" si="7">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$G5&amp;" "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$F5&amp;"("&amp;$D5&amp;" "&amp;$G5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$G5&amp;" = "&amp;$G5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 施設IDを設定します。
+    * 
+    * @param facilityId 施設ID
+    */
+   public void setFacilityId(Integer facilityId){
+      this.facilityId = facilityId;
+   }
+</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>RegionId</v>
+      </c>
+      <c r="G6" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>regionId</v>
+      </c>
+      <c r="H6" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>REGION_ID</v>
+      </c>
+      <c r="I6" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">   /** 地域IDのフィールド名 */
+   public static final String FIELD_REGION_ID = "regionId";</v>
+      </c>
+      <c r="J6" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">   /** 地域ID */
+   private Integer regionId;</v>
+      </c>
+      <c r="K6" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   /**
+    * 地域IDを取得します。
+    * 
+    * @return 地域ID
+    */
+   public Integer getRegionId(){
+      return regionId;
+   }
+</v>
+      </c>
+      <c r="L6" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">   /**
+    * 地域IDを設定します。
+    * 
+    * @param regionId 地域ID
+    */
+   public void setRegionId(Integer regionId){
+      this.regionId = regionId;
+   }
+</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>PublishSts</v>
+      </c>
+      <c r="G7" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>publishSts</v>
+      </c>
+      <c r="H7" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>PUBLISH_STS</v>
+      </c>
+      <c r="I7" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">   /** 公開ステータスのフィールド名 */
+   public static final String FIELD_PUBLISH_STS = "publishSts";</v>
+      </c>
+      <c r="J7" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">   /** 公開ステータス */
+   private String publishSts;</v>
+      </c>
+      <c r="K7" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   /**
+    * 公開ステータスを取得します。
+    * 
+    * @return 公開ステータス
+    */
+   public String getPublishSts(){
+      return publishSts;
+   }
+</v>
+      </c>
+      <c r="L7" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">   /**
+    * 公開ステータスを設定します。
+    * 
+    * @param publishSts 公開ステータス
+    */
+   public void setPublishSts(String publishSts){
+      this.publishSts = publishSts;
+   }
+</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Latitude</v>
+      </c>
+      <c r="G8" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>latitude</v>
+      </c>
+      <c r="H8" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>LATITUDE</v>
+      </c>
+      <c r="I8" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">   /** 緯度のフィールド名 */
+   public static final String FIELD_LATITUDE = "latitude";</v>
+      </c>
+      <c r="J8" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">   /** 緯度 */
+   private Float latitude;</v>
+      </c>
+      <c r="K8" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   /**
+    * 緯度を取得します。
+    * 
+    * @return 緯度
+    */
+   public Float getLatitude(){
+      return latitude;
+   }
+</v>
+      </c>
+      <c r="L8" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">   /**
+    * 緯度を設定します。
+    * 
+    * @param latitude 緯度
+    */
+   public void setLatitude(Float latitude){
+      this.latitude = latitude;
+   }
+</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Longitude</v>
+      </c>
+      <c r="G9" s="5" t="str">
+        <f>LOWER(LEFT($C9,1))&amp;RIGHT($F9,LEN($F9)-1)</f>
+        <v>longitude</v>
+      </c>
+      <c r="H9" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>LONGITUDE</v>
+      </c>
+      <c r="I9" s="5" t="str">
+        <f>"   /** "&amp;$B9&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$H9&amp;" = """&amp;$G9&amp;""";"</f>
+        <v xml:space="preserve">   /** 経度のフィールド名 */
+   public static final String FIELD_LONGITUDE = "longitude";</v>
+      </c>
+      <c r="J9" s="5" t="str">
+        <f>"   /** "&amp;$B9&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$D9&amp;" "&amp;$G9&amp;";"</f>
+        <v xml:space="preserve">   /** 経度 */
+   private Float longitude;</v>
+      </c>
+      <c r="K9" s="5" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B9&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B9&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$D9&amp;" get"&amp;$F9&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$G9&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 経度を取得します。
+    * 
+    * @return 経度
+    */
+   public Float getLongitude(){
+      return longitude;
+   }
+</v>
+      </c>
+      <c r="L9" s="5" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B9&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$G9&amp;" "&amp;$B9&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$F9&amp;"("&amp;$D9&amp;" "&amp;$G9&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$G9&amp;" = "&amp;$G9&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 経度を設定します。
+    * 
+    * @param longitude 経度
+    */
+   public void setLongitude(Float longitude){
+      this.longitude = longitude;
+   }
+</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>ParentFacilityId</v>
+      </c>
+      <c r="G10" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>parentFacilityId</v>
+      </c>
+      <c r="H10" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>PARENT_FACILITY_ID</v>
+      </c>
+      <c r="I10" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">   /** 親施設IDのフィールド名 */
+   public static final String FIELD_PARENT_FACILITY_ID = "parentFacilityId";</v>
+      </c>
+      <c r="J10" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">   /** 親施設ID */
+   private Integer parentFacilityId;</v>
+      </c>
+      <c r="K10" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   /**
+    * 親施設IDを取得します。
+    * 
+    * @return 親施設ID
+    */
+   public Integer getParentFacilityId(){
+      return parentFacilityId;
+   }
+</v>
+      </c>
+      <c r="L10" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">   /**
+    * 親施設IDを設定します。
+    * 
+    * @param parentFacilityId 親施設ID
+    */
+   public void setParentFacilityId(Integer parentFacilityId){
+      this.parentFacilityId = parentFacilityId;
+   }
+</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>AttrStoreDtoList</v>
+      </c>
+      <c r="G11" s="5" t="str">
+        <f>LOWER(LEFT($C11,1))&amp;RIGHT($F11,LEN($F11)-1)</f>
+        <v>attrStoreDtoList</v>
+      </c>
+      <c r="H11" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>ATTR_STORE_DTO_LIST</v>
+      </c>
+      <c r="I11" s="5" t="str">
+        <f>"   /** "&amp;$B11&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$H11&amp;" = """&amp;$G11&amp;""";"</f>
+        <v xml:space="preserve">   /** 属性登録更新DTOリストのフィールド名 */
+   public static final String FIELD_ATTR_STORE_DTO_LIST = "attrStoreDtoList";</v>
+      </c>
+      <c r="J11" s="5" t="str">
+        <f>"   /** "&amp;$B11&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$D11&amp;" "&amp;$G11&amp;";"</f>
+        <v xml:space="preserve">   /** 属性登録更新DTOリスト */
+   private List&lt;AttrStoreDto&gt; attrStoreDtoList;</v>
+      </c>
+      <c r="K11" s="5" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B11&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B11&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$D11&amp;" get"&amp;$F11&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$G11&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 属性登録更新DTOリストを取得します。
+    * 
+    * @return 属性登録更新DTOリスト
+    */
+   public List&lt;AttrStoreDto&gt; getAttrStoreDtoList(){
+      return attrStoreDtoList;
+   }
+</v>
+      </c>
+      <c r="L11" s="5" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B11&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$G11&amp;" "&amp;$B11&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$F11&amp;"("&amp;$D11&amp;" "&amp;$G11&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$G11&amp;" = "&amp;$G11&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 属性登録更新DTOリストを設定します。
+    * 
+    * @param attrStoreDtoList 属性登録更新DTOリスト
+    */
+   public void setAttrStoreDtoList(List&lt;AttrStoreDto&gt; attrStoreDtoList){
+      this.attrStoreDtoList = attrStoreDtoList;
+   }
+</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/03_設計/06_データオブジェクト/データオブジェクト定義書.xlsx
+++ b/03_設計/06_データオブジェクト/データオブジェクト定義書.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="126">
   <si>
     <t>論理名</t>
     <rPh sb="0" eb="3">
@@ -715,18 +715,50 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>言語区分</t>
-    <rPh sb="0" eb="4">
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Attr Grp Id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Integer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Attr Lang Div</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>属性言語区分</t>
+    <rPh sb="0" eb="2">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
       <t>ゲンゴクブン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Lang Div</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>○</t>
+    <t>属性値多言語ID</t>
+    <rPh sb="0" eb="2">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>タゲンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Attr Val Lang Id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Attr Lang Div</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1317,7 +1349,7 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
@@ -1412,64 +1444,64 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="12">
-        <f t="shared" ref="A5:A7" si="0">ROW()-4</f>
+        <f t="shared" ref="A5:A8" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F5" s="5" t="str">
-        <f t="shared" ref="F5:F7" si="1">SUBSTITUTE($C5," ","")</f>
-        <v>AttrGrpAlias</v>
+        <f t="shared" ref="F5:F8" si="1">SUBSTITUTE($C5," ","")</f>
+        <v>AttrGrpId</v>
       </c>
       <c r="G5" s="5" t="str">
-        <f t="shared" ref="G5:G7" si="2">LOWER(LEFT($C5,1))&amp;RIGHT($F5,LEN($F5)-1)</f>
-        <v>attrGrpAlias</v>
+        <f t="shared" ref="G5:G8" si="2">LOWER(LEFT($C5,1))&amp;RIGHT($F5,LEN($F5)-1)</f>
+        <v>attrGrpId</v>
       </c>
       <c r="H5" s="5" t="str">
-        <f t="shared" ref="H5:H7" si="3">UPPER(SUBSTITUTE($C5," ","_"))</f>
-        <v>ATTR_GRP_ALIAS</v>
+        <f t="shared" ref="H5:H8" si="3">UPPER(SUBSTITUTE($C5," ","_"))</f>
+        <v>ATTR_GRP_ID</v>
       </c>
       <c r="I5" s="5" t="str">
-        <f t="shared" ref="I5:I7" si="4">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$H5&amp;" = """&amp;$G5&amp;""";"</f>
-        <v xml:space="preserve">   /** 属性グループエイリアスのフィールド名 */
-   public static final String FIELD_ATTR_GRP_ALIAS = "attrGrpAlias";</v>
+        <f t="shared" ref="I5:I8" si="4">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$H5&amp;" = """&amp;$G5&amp;""";"</f>
+        <v xml:space="preserve">   /** 属性グループIDのフィールド名 */
+   public static final String FIELD_ATTR_GRP_ID = "attrGrpId";</v>
       </c>
       <c r="J5" s="5" t="str">
-        <f t="shared" ref="J5:J7" si="5">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$D5&amp;" "&amp;$G5&amp;";"</f>
-        <v xml:space="preserve">   /** 属性グループエイリアス */
-   private String attrGrpAlias;</v>
+        <f t="shared" ref="J5:J8" si="5">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$D5&amp;" "&amp;$G5&amp;";"</f>
+        <v xml:space="preserve">   /** 属性グループID */
+   private Integer attrGrpId;</v>
       </c>
       <c r="K5" s="5" t="str">
-        <f t="shared" ref="K5:K7" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$D5&amp;" get"&amp;$F5&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$G5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
-        <v xml:space="preserve">   /**
-    * 属性グループエイリアスを取得します。
-    * 
-    * @return 属性グループエイリアス
-    */
-   public String getAttrGrpAlias(){
-      return attrGrpAlias;
+        <f t="shared" ref="K5:K8" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$D5&amp;" get"&amp;$F5&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$G5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 属性グループIDを取得します。
+    * 
+    * @return 属性グループID
+    */
+   public Integer getAttrGrpId(){
+      return attrGrpId;
    }
 </v>
       </c>
       <c r="L5" s="5" t="str">
-        <f t="shared" ref="L5:L7" si="7">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$G5&amp;" "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$F5&amp;"("&amp;$D5&amp;" "&amp;$G5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$G5&amp;" = "&amp;$G5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
-        <v xml:space="preserve">   /**
-    * 属性グループエイリアスを設定します。
-    * 
-    * @param attrGrpAlias 属性グループエイリアス
-    */
-   public void setAttrGrpAlias(String attrGrpAlias){
-      this.attrGrpAlias = attrGrpAlias;
+        <f t="shared" ref="L5:L8" si="7">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$G5&amp;" "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$F5&amp;"("&amp;$D5&amp;" "&amp;$G5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$G5&amp;" = "&amp;$G5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 属性グループIDを設定します。
+    * 
+    * @param attrGrpId 属性グループID
+    */
+   public void setAttrGrpId(Integer attrGrpId){
+      this.attrGrpId = attrGrpId;
    }
 </v>
       </c>
@@ -1480,60 +1512,58 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>120</v>
-      </c>
+      <c r="E6" s="5"/>
       <c r="F6" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>LangDiv</v>
+        <v>AttrGrpAlias</v>
       </c>
       <c r="G6" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>langDiv</v>
+        <v>attrGrpAlias</v>
       </c>
       <c r="H6" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>LANG_DIV</v>
+        <v>ATTR_GRP_ALIAS</v>
       </c>
       <c r="I6" s="5" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   /** 言語区分のフィールド名 */
-   public static final String FIELD_LANG_DIV = "langDiv";</v>
+        <v xml:space="preserve">   /** 属性グループエイリアスのフィールド名 */
+   public static final String FIELD_ATTR_GRP_ALIAS = "attrGrpAlias";</v>
       </c>
       <c r="J6" s="5" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">   /** 言語区分 */
-   private String langDiv;</v>
+        <v xml:space="preserve">   /** 属性グループエイリアス */
+   private String attrGrpAlias;</v>
       </c>
       <c r="K6" s="5" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">   /**
-    * 言語区分を取得します。
-    * 
-    * @return 言語区分
-    */
-   public String getLangDiv(){
-      return langDiv;
+    * 属性グループエイリアスを取得します。
+    * 
+    * @return 属性グループエイリアス
+    */
+   public String getAttrGrpAlias(){
+      return attrGrpAlias;
    }
 </v>
       </c>
       <c r="L6" s="5" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">   /**
-    * 言語区分を設定します。
-    * 
-    * @param langDiv 言語区分
-    */
-   public void setLangDiv(String langDiv){
-      this.langDiv = langDiv;
+    * 属性グループエイリアスを設定します。
+    * 
+    * @param attrGrpAlias 属性グループエイリアス
+    */
+   public void setAttrGrpAlias(String attrGrpAlias){
+      this.attrGrpAlias = attrGrpAlias;
    }
 </v>
       </c>
@@ -1544,40 +1574,104 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>36</v>
+        <v>125</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F7" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>AttrVal</v>
+        <v>AttrLangDiv</v>
       </c>
       <c r="G7" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>attrVal</v>
+        <v>attrLangDiv</v>
       </c>
       <c r="H7" s="5" t="str">
         <f t="shared" si="3"/>
+        <v>ATTR_LANG_DIV</v>
+      </c>
+      <c r="I7" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">   /** 属性言語区分のフィールド名 */
+   public static final String FIELD_ATTR_LANG_DIV = "attrLangDiv";</v>
+      </c>
+      <c r="J7" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">   /** 属性言語区分 */
+   private String attrLangDiv;</v>
+      </c>
+      <c r="K7" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   /**
+    * 属性言語区分を取得します。
+    * 
+    * @return 属性言語区分
+    */
+   public String getAttrLangDiv(){
+      return attrLangDiv;
+   }
+</v>
+      </c>
+      <c r="L7" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">   /**
+    * 属性言語区分を設定します。
+    * 
+    * @param attrLangDiv 属性言語区分
+    */
+   public void setAttrLangDiv(String attrLangDiv){
+      this.attrLangDiv = attrLangDiv;
+   }
+</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>AttrVal</v>
+      </c>
+      <c r="G8" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>attrVal</v>
+      </c>
+      <c r="H8" s="5" t="str">
+        <f t="shared" si="3"/>
         <v>ATTR_VAL</v>
       </c>
-      <c r="I7" s="5" t="str">
+      <c r="I8" s="5" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">   /** 属性値のフィールド名 */
    public static final String FIELD_ATTR_VAL = "attrVal";</v>
       </c>
-      <c r="J7" s="5" t="str">
+      <c r="J8" s="5" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">   /** 属性値 */
    private String attrVal;</v>
       </c>
-      <c r="K7" s="5" t="str">
+      <c r="K8" s="5" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">   /**
     * 属性値を取得します。
@@ -1589,7 +1683,7 @@
    }
 </v>
       </c>
-      <c r="L7" s="5" t="str">
+      <c r="L8" s="5" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">   /**
     * 属性値を設定します。
@@ -2926,7 +3020,7 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
@@ -3021,64 +3115,64 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="12">
-        <f t="shared" ref="A5:A10" si="0">ROW()-4</f>
+        <f t="shared" ref="A5:A12" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>17</v>
+        <v>123</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>33</v>
+        <v>124</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="5" t="str">
-        <f t="shared" ref="F5:F10" si="1">SUBSTITUTE($C5," ","")</f>
-        <v>AttrGrpId</v>
+        <f t="shared" ref="F5:F12" si="1">SUBSTITUTE($C5," ","")</f>
+        <v>AttrValLangId</v>
       </c>
       <c r="G5" s="5" t="str">
         <f>LOWER(LEFT($C5,1))&amp;RIGHT($F5,LEN($F5)-1)</f>
-        <v>attrGrpId</v>
+        <v>attrValLangId</v>
       </c>
       <c r="H5" s="5" t="str">
-        <f t="shared" ref="H5:H10" si="2">UPPER(SUBSTITUTE($C5," ","_"))</f>
-        <v>ATTR_GRP_ID</v>
+        <f t="shared" ref="H5:H12" si="2">UPPER(SUBSTITUTE($C5," ","_"))</f>
+        <v>ATTR_VAL_LANG_ID</v>
       </c>
       <c r="I5" s="5" t="str">
         <f>"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$H5&amp;" = """&amp;$G5&amp;""";"</f>
-        <v xml:space="preserve">   /** 属性グループIDのフィールド名 */
-   public static final String FIELD_ATTR_GRP_ID = "attrGrpId";</v>
+        <v xml:space="preserve">   /** 属性値多言語IDのフィールド名 */
+   public static final String FIELD_ATTR_VAL_LANG_ID = "attrValLangId";</v>
       </c>
       <c r="J5" s="5" t="str">
         <f>"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$D5&amp;" "&amp;$G5&amp;";"</f>
-        <v xml:space="preserve">   /** 属性グループID */
-   private Integer attrGrpId;</v>
+        <v xml:space="preserve">   /** 属性値多言語ID */
+   private Integer attrValLangId;</v>
       </c>
       <c r="K5" s="5" t="str">
         <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$D5&amp;" get"&amp;$F5&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$G5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
-    * 属性グループIDを取得します。
-    * 
-    * @return 属性グループID
-    */
-   public Integer getAttrGrpId(){
-      return attrGrpId;
+    * 属性値多言語IDを取得します。
+    * 
+    * @return 属性値多言語ID
+    */
+   public Integer getAttrValLangId(){
+      return attrValLangId;
    }
 </v>
       </c>
       <c r="L5" s="5" t="str">
         <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$G5&amp;" "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$F5&amp;"("&amp;$D5&amp;" "&amp;$G5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$G5&amp;" = "&amp;$G5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
-    * 属性グループIDを設定します。
-    * 
-    * @param attrGrpId 属性グループID
-    */
-   public void setAttrGrpId(Integer attrGrpId){
-      this.attrGrpId = attrGrpId;
+    * 属性値多言語IDを設定します。
+    * 
+    * @param attrValLangId 属性値多言語ID
+    */
+   public void setAttrValLangId(Integer attrValLangId){
+      this.attrValLangId = attrValLangId;
    }
 </v>
       </c>
@@ -3089,60 +3183,60 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>AttrGrpAlias</v>
+        <v>AttrGrpId</v>
       </c>
       <c r="G6" s="5" t="str">
-        <f t="shared" ref="G6:G10" si="3">LOWER(LEFT($C6,1))&amp;RIGHT($F6,LEN($F6)-1)</f>
-        <v>attrGrpAlias</v>
+        <f>LOWER(LEFT($C6,1))&amp;RIGHT($F6,LEN($F6)-1)</f>
+        <v>attrGrpId</v>
       </c>
       <c r="H6" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>ATTR_GRP_ALIAS</v>
+        <v>ATTR_GRP_ID</v>
       </c>
       <c r="I6" s="5" t="str">
-        <f t="shared" ref="I6:I10" si="4">"   /** "&amp;$B6&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$H6&amp;" = """&amp;$G6&amp;""";"</f>
-        <v xml:space="preserve">   /** 属性グループエイリアスのフィールド名 */
-   public static final String FIELD_ATTR_GRP_ALIAS = "attrGrpAlias";</v>
+        <f>"   /** "&amp;$B6&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$H6&amp;" = """&amp;$G6&amp;""";"</f>
+        <v xml:space="preserve">   /** 属性グループIDのフィールド名 */
+   public static final String FIELD_ATTR_GRP_ID = "attrGrpId";</v>
       </c>
       <c r="J6" s="5" t="str">
-        <f t="shared" ref="J6:J10" si="5">"   /** "&amp;$B6&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$D6&amp;" "&amp;$G6&amp;";"</f>
-        <v xml:space="preserve">   /** 属性グループエイリアス */
-   private String attrGrpAlias;</v>
+        <f>"   /** "&amp;$B6&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$D6&amp;" "&amp;$G6&amp;";"</f>
+        <v xml:space="preserve">   /** 属性グループID */
+   private Integer attrGrpId;</v>
       </c>
       <c r="K6" s="5" t="str">
-        <f t="shared" ref="K6:K10" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$D6&amp;" get"&amp;$F6&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$G6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
-        <v xml:space="preserve">   /**
-    * 属性グループエイリアスを取得します。
-    * 
-    * @return 属性グループエイリアス
-    */
-   public String getAttrGrpAlias(){
-      return attrGrpAlias;
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$D6&amp;" get"&amp;$F6&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$G6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 属性グループIDを取得します。
+    * 
+    * @return 属性グループID
+    */
+   public Integer getAttrGrpId(){
+      return attrGrpId;
    }
 </v>
       </c>
       <c r="L6" s="5" t="str">
-        <f t="shared" ref="L6:L10" si="7">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$G6&amp;" "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$F6&amp;"("&amp;$D6&amp;" "&amp;$G6&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$G6&amp;" = "&amp;$G6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
-        <v xml:space="preserve">   /**
-    * 属性グループエイリアスを設定します。
-    * 
-    * @param attrGrpAlias 属性グループエイリアス
-    */
-   public void setAttrGrpAlias(String attrGrpAlias){
-      this.attrGrpAlias = attrGrpAlias;
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B6&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$G6&amp;" "&amp;$B6&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$F6&amp;"("&amp;$D6&amp;" "&amp;$G6&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$G6&amp;" = "&amp;$G6&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 属性グループIDを設定します。
+    * 
+    * @param attrGrpId 属性グループID
+    */
+   public void setAttrGrpId(Integer attrGrpId){
+      this.attrGrpId = attrGrpId;
    }
 </v>
       </c>
@@ -3153,10 +3247,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>9</v>
@@ -3166,47 +3260,47 @@
       </c>
       <c r="F7" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>AttrGrpType</v>
+        <v>AttrGrpAlias</v>
       </c>
       <c r="G7" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>attrGrpType</v>
+        <f t="shared" ref="G7:G12" si="3">LOWER(LEFT($C7,1))&amp;RIGHT($F7,LEN($F7)-1)</f>
+        <v>attrGrpAlias</v>
       </c>
       <c r="H7" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>ATTR_GRP_TYPE</v>
+        <v>ATTR_GRP_ALIAS</v>
       </c>
       <c r="I7" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">   /** 属性グループ種別のフィールド名 */
-   public static final String FIELD_ATTR_GRP_TYPE = "attrGrpType";</v>
+        <f t="shared" ref="I7:I12" si="4">"   /** "&amp;$B7&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$H7&amp;" = """&amp;$G7&amp;""";"</f>
+        <v xml:space="preserve">   /** 属性グループエイリアスのフィールド名 */
+   public static final String FIELD_ATTR_GRP_ALIAS = "attrGrpAlias";</v>
       </c>
       <c r="J7" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">   /** 属性グループ種別 */
-   private String attrGrpType;</v>
+        <f t="shared" ref="J7:J12" si="5">"   /** "&amp;$B7&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$D7&amp;" "&amp;$G7&amp;";"</f>
+        <v xml:space="preserve">   /** 属性グループエイリアス */
+   private String attrGrpAlias;</v>
       </c>
       <c r="K7" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">   /**
-    * 属性グループ種別を取得します。
-    * 
-    * @return 属性グループ種別
-    */
-   public String getAttrGrpType(){
-      return attrGrpType;
+        <f t="shared" ref="K7:K12" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B7&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B7&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$D7&amp;" get"&amp;$F7&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$G7&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 属性グループエイリアスを取得します。
+    * 
+    * @return 属性グループエイリアス
+    */
+   public String getAttrGrpAlias(){
+      return attrGrpAlias;
    }
 </v>
       </c>
       <c r="L7" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">   /**
-    * 属性グループ種別を設定します。
-    * 
-    * @param attrGrpType 属性グループ種別
-    */
-   public void setAttrGrpType(String attrGrpType){
-      this.attrGrpType = attrGrpType;
+        <f t="shared" ref="L7:L12" si="7">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B7&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$G7&amp;" "&amp;$B7&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$F7&amp;"("&amp;$D7&amp;" "&amp;$G7&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$G7&amp;" = "&amp;$G7&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 属性グループエイリアスを設定します。
+    * 
+    * @param attrGrpAlias 属性グループエイリアス
+    */
+   public void setAttrGrpAlias(String attrGrpAlias){
+      this.attrGrpAlias = attrGrpAlias;
    }
 </v>
       </c>
@@ -3217,58 +3311,60 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="F8" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>AttrGrpNm</v>
+        <v>AttrGrpType</v>
       </c>
       <c r="G8" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>attrGrpNm</v>
+        <v>attrGrpType</v>
       </c>
       <c r="H8" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>ATTR_GRP_NM</v>
+        <v>ATTR_GRP_TYPE</v>
       </c>
       <c r="I8" s="5" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   /** 属性グループ名称のフィールド名 */
-   public static final String FIELD_ATTR_GRP_NM = "attrGrpNm";</v>
+        <v xml:space="preserve">   /** 属性グループ種別のフィールド名 */
+   public static final String FIELD_ATTR_GRP_TYPE = "attrGrpType";</v>
       </c>
       <c r="J8" s="5" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">   /** 属性グループ名称 */
-   private String attrGrpNm;</v>
+        <v xml:space="preserve">   /** 属性グループ種別 */
+   private String attrGrpType;</v>
       </c>
       <c r="K8" s="5" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">   /**
-    * 属性グループ名称を取得します。
-    * 
-    * @return 属性グループ名称
-    */
-   public String getAttrGrpNm(){
-      return attrGrpNm;
+    * 属性グループ種別を取得します。
+    * 
+    * @return 属性グループ種別
+    */
+   public String getAttrGrpType(){
+      return attrGrpType;
    }
 </v>
       </c>
       <c r="L8" s="5" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">   /**
-    * 属性グループ名称を設定します。
-    * 
-    * @param attrGrpNm 属性グループ名称
-    */
-   public void setAttrGrpNm(String attrGrpNm){
-      this.attrGrpNm = attrGrpNm;
+    * 属性グループ種別を設定します。
+    * 
+    * @param attrGrpType 属性グループ種別
+    */
+   public void setAttrGrpType(String attrGrpType){
+      this.attrGrpType = attrGrpType;
    }
 </v>
       </c>
@@ -3279,10 +3375,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>9</v>
@@ -3290,47 +3386,47 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>AttrVal</v>
+        <v>AttrGrpNm</v>
       </c>
       <c r="G9" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>attrVal</v>
+        <v>attrGrpNm</v>
       </c>
       <c r="H9" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>ATTR_VAL</v>
+        <v>ATTR_GRP_NM</v>
       </c>
       <c r="I9" s="5" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   /** 属性値のフィールド名 */
-   public static final String FIELD_ATTR_VAL = "attrVal";</v>
+        <v xml:space="preserve">   /** 属性グループ名称のフィールド名 */
+   public static final String FIELD_ATTR_GRP_NM = "attrGrpNm";</v>
       </c>
       <c r="J9" s="5" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">   /** 属性値 */
-   private String attrVal;</v>
+        <v xml:space="preserve">   /** 属性グループ名称 */
+   private String attrGrpNm;</v>
       </c>
       <c r="K9" s="5" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">   /**
-    * 属性値を取得します。
-    * 
-    * @return 属性値
-    */
-   public String getAttrVal(){
-      return attrVal;
+    * 属性グループ名称を取得します。
+    * 
+    * @return 属性グループ名称
+    */
+   public String getAttrGrpNm(){
+      return attrGrpNm;
    }
 </v>
       </c>
       <c r="L9" s="5" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">   /**
-    * 属性値を設定します。
-    * 
-    * @param attrVal 属性値
-    */
-   public void setAttrVal(String attrVal){
-      this.attrVal = attrVal;
+    * 属性グループ名称を設定します。
+    * 
+    * @param attrGrpNm 属性グループ名称
+    */
+   public void setAttrGrpNm(String attrGrpNm){
+      this.attrGrpNm = attrGrpNm;
    }
 </v>
       </c>
@@ -3341,10 +3437,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>9</v>
@@ -3352,27 +3448,151 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>AttrCdVal</v>
+        <v>AttrLangDiv</v>
       </c>
       <c r="G10" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>attrCdVal</v>
+        <v>attrLangDiv</v>
       </c>
       <c r="H10" s="5" t="str">
         <f t="shared" si="2"/>
+        <v>ATTR_LANG_DIV</v>
+      </c>
+      <c r="I10" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">   /** 属性言語区分のフィールド名 */
+   public static final String FIELD_ATTR_LANG_DIV = "attrLangDiv";</v>
+      </c>
+      <c r="J10" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">   /** 属性言語区分 */
+   private String attrLangDiv;</v>
+      </c>
+      <c r="K10" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   /**
+    * 属性言語区分を取得します。
+    * 
+    * @return 属性言語区分
+    */
+   public String getAttrLangDiv(){
+      return attrLangDiv;
+   }
+</v>
+      </c>
+      <c r="L10" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">   /**
+    * 属性言語区分を設定します。
+    * 
+    * @param attrLangDiv 属性言語区分
+    */
+   public void setAttrLangDiv(String attrLangDiv){
+      this.attrLangDiv = attrLangDiv;
+   }
+</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>AttrVal</v>
+      </c>
+      <c r="G11" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>attrVal</v>
+      </c>
+      <c r="H11" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>ATTR_VAL</v>
+      </c>
+      <c r="I11" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">   /** 属性値のフィールド名 */
+   public static final String FIELD_ATTR_VAL = "attrVal";</v>
+      </c>
+      <c r="J11" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">   /** 属性値 */
+   private String attrVal;</v>
+      </c>
+      <c r="K11" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   /**
+    * 属性値を取得します。
+    * 
+    * @return 属性値
+    */
+   public String getAttrVal(){
+      return attrVal;
+   }
+</v>
+      </c>
+      <c r="L11" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">   /**
+    * 属性値を設定します。
+    * 
+    * @param attrVal 属性値
+    */
+   public void setAttrVal(String attrVal){
+      this.attrVal = attrVal;
+   }
+</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="12">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>AttrCdVal</v>
+      </c>
+      <c r="G12" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>attrCdVal</v>
+      </c>
+      <c r="H12" s="5" t="str">
+        <f t="shared" si="2"/>
         <v>ATTR_CD_VAL</v>
       </c>
-      <c r="I10" s="5" t="str">
+      <c r="I12" s="5" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">   /** 属性コード値のフィールド名 */
    public static final String FIELD_ATTR_CD_VAL = "attrCdVal";</v>
       </c>
-      <c r="J10" s="5" t="str">
+      <c r="J12" s="5" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">   /** 属性コード値 */
    private String attrCdVal;</v>
       </c>
-      <c r="K10" s="5" t="str">
+      <c r="K12" s="5" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">   /**
     * 属性コード値を取得します。
@@ -3384,7 +3604,7 @@
    }
 </v>
       </c>
-      <c r="L10" s="5" t="str">
+      <c r="L12" s="5" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">   /**
     * 属性コード値を設定します。
@@ -4179,7 +4399,7 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
@@ -4273,62 +4493,62 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="12">
-        <f t="shared" ref="A5:A11" si="0">ROW()-4</f>
+        <f t="shared" ref="A5:A10" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5" t="str">
-        <f t="shared" ref="F5:F11" si="1">SUBSTITUTE($C5," ","")</f>
-        <v>FacilityId</v>
+        <f t="shared" ref="F5:F10" si="1">SUBSTITUTE($C5," ","")</f>
+        <v>RegionId</v>
       </c>
       <c r="G5" s="5" t="str">
-        <f t="shared" ref="G5:G10" si="2">LOWER(LEFT($C5,1))&amp;RIGHT($F5,LEN($F5)-1)</f>
-        <v>facilityId</v>
+        <f t="shared" ref="G5:G9" si="2">LOWER(LEFT($C5,1))&amp;RIGHT($F5,LEN($F5)-1)</f>
+        <v>regionId</v>
       </c>
       <c r="H5" s="5" t="str">
-        <f t="shared" ref="H5:H11" si="3">UPPER(SUBSTITUTE($C5," ","_"))</f>
-        <v>FACILITY_ID</v>
+        <f t="shared" ref="H5:H10" si="3">UPPER(SUBSTITUTE($C5," ","_"))</f>
+        <v>REGION_ID</v>
       </c>
       <c r="I5" s="5" t="str">
-        <f t="shared" ref="I5:I10" si="4">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$H5&amp;" = """&amp;$G5&amp;""";"</f>
-        <v xml:space="preserve">   /** 施設IDのフィールド名 */
-   public static final String FIELD_FACILITY_ID = "facilityId";</v>
+        <f t="shared" ref="I5:I9" si="4">"   /** "&amp;$B5&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$H5&amp;" = """&amp;$G5&amp;""";"</f>
+        <v xml:space="preserve">   /** 地域IDのフィールド名 */
+   public static final String FIELD_REGION_ID = "regionId";</v>
       </c>
       <c r="J5" s="5" t="str">
-        <f t="shared" ref="J5:J10" si="5">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$D5&amp;" "&amp;$G5&amp;";"</f>
-        <v xml:space="preserve">   /** 施設ID */
-   private Integer facilityId;</v>
+        <f t="shared" ref="J5:J9" si="5">"   /** "&amp;$B5&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$D5&amp;" "&amp;$G5&amp;";"</f>
+        <v xml:space="preserve">   /** 地域ID */
+   private Integer regionId;</v>
       </c>
       <c r="K5" s="5" t="str">
-        <f t="shared" ref="K5:K10" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$D5&amp;" get"&amp;$F5&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$G5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
-        <v xml:space="preserve">   /**
-    * 施設IDを取得します。
-    * 
-    * @return 施設ID
-    */
-   public Integer getFacilityId(){
-      return facilityId;
+        <f t="shared" ref="K5:K9" si="6">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$D5&amp;" get"&amp;$F5&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$G5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 地域IDを取得します。
+    * 
+    * @return 地域ID
+    */
+   public Integer getRegionId(){
+      return regionId;
    }
 </v>
       </c>
       <c r="L5" s="5" t="str">
-        <f t="shared" ref="L5:L10" si="7">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$G5&amp;" "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$F5&amp;"("&amp;$D5&amp;" "&amp;$G5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$G5&amp;" = "&amp;$G5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
-        <v xml:space="preserve">   /**
-    * 施設IDを設定します。
-    * 
-    * @param facilityId 施設ID
-    */
-   public void setFacilityId(Integer facilityId){
-      this.facilityId = facilityId;
+        <f t="shared" ref="L5:L9" si="7">"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B5&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$G5&amp;" "&amp;$B5&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$F5&amp;"("&amp;$D5&amp;" "&amp;$G5&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$G5&amp;" = "&amp;$G5&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 地域IDを設定します。
+    * 
+    * @param regionId 地域ID
+    */
+   public void setRegionId(Integer regionId){
+      this.regionId = regionId;
    }
 </v>
       </c>
@@ -4339,58 +4559,58 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>6</v>
+        <v>108</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>RegionId</v>
+        <v>PublishSts</v>
       </c>
       <c r="G6" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>regionId</v>
+        <v>publishSts</v>
       </c>
       <c r="H6" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>REGION_ID</v>
+        <v>PUBLISH_STS</v>
       </c>
       <c r="I6" s="5" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   /** 地域IDのフィールド名 */
-   public static final String FIELD_REGION_ID = "regionId";</v>
+        <v xml:space="preserve">   /** 公開ステータスのフィールド名 */
+   public static final String FIELD_PUBLISH_STS = "publishSts";</v>
       </c>
       <c r="J6" s="5" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">   /** 地域ID */
-   private Integer regionId;</v>
+        <v xml:space="preserve">   /** 公開ステータス */
+   private String publishSts;</v>
       </c>
       <c r="K6" s="5" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">   /**
-    * 地域IDを取得します。
-    * 
-    * @return 地域ID
-    */
-   public Integer getRegionId(){
-      return regionId;
+    * 公開ステータスを取得します。
+    * 
+    * @return 公開ステータス
+    */
+   public String getPublishSts(){
+      return publishSts;
    }
 </v>
       </c>
       <c r="L6" s="5" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">   /**
-    * 地域IDを設定します。
-    * 
-    * @param regionId 地域ID
-    */
-   public void setRegionId(Integer regionId){
-      this.regionId = regionId;
+    * 公開ステータスを設定します。
+    * 
+    * @param publishSts 公開ステータス
+    */
+   public void setPublishSts(String publishSts){
+      this.publishSts = publishSts;
    }
 </v>
       </c>
@@ -4401,58 +4621,58 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>PublishSts</v>
+        <v>Latitude</v>
       </c>
       <c r="G7" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>publishSts</v>
+        <v>latitude</v>
       </c>
       <c r="H7" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>PUBLISH_STS</v>
+        <v>LATITUDE</v>
       </c>
       <c r="I7" s="5" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   /** 公開ステータスのフィールド名 */
-   public static final String FIELD_PUBLISH_STS = "publishSts";</v>
+        <v xml:space="preserve">   /** 緯度のフィールド名 */
+   public static final String FIELD_LATITUDE = "latitude";</v>
       </c>
       <c r="J7" s="5" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">   /** 公開ステータス */
-   private String publishSts;</v>
+        <v xml:space="preserve">   /** 緯度 */
+   private Float latitude;</v>
       </c>
       <c r="K7" s="5" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">   /**
-    * 公開ステータスを取得します。
-    * 
-    * @return 公開ステータス
-    */
-   public String getPublishSts(){
-      return publishSts;
+    * 緯度を取得します。
+    * 
+    * @return 緯度
+    */
+   public Float getLatitude(){
+      return latitude;
    }
 </v>
       </c>
       <c r="L7" s="5" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">   /**
-    * 公開ステータスを設定します。
-    * 
-    * @param publishSts 公開ステータス
-    */
-   public void setPublishSts(String publishSts){
-      this.publishSts = publishSts;
+    * 緯度を設定します。
+    * 
+    * @param latitude 緯度
+    */
+   public void setLatitude(Float latitude){
+      this.latitude = latitude;
    }
 </v>
       </c>
@@ -4463,10 +4683,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>54</v>
@@ -4474,47 +4694,47 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Latitude</v>
+        <v>Longitude</v>
       </c>
       <c r="G8" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>latitude</v>
+        <f>LOWER(LEFT($C8,1))&amp;RIGHT($F8,LEN($F8)-1)</f>
+        <v>longitude</v>
       </c>
       <c r="H8" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>LATITUDE</v>
+        <v>LONGITUDE</v>
       </c>
       <c r="I8" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">   /** 緯度のフィールド名 */
-   public static final String FIELD_LATITUDE = "latitude";</v>
+        <f>"   /** "&amp;$B8&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$H8&amp;" = """&amp;$G8&amp;""";"</f>
+        <v xml:space="preserve">   /** 経度のフィールド名 */
+   public static final String FIELD_LONGITUDE = "longitude";</v>
       </c>
       <c r="J8" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">   /** 緯度 */
-   private Float latitude;</v>
+        <f>"   /** "&amp;$B8&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$D8&amp;" "&amp;$G8&amp;";"</f>
+        <v xml:space="preserve">   /** 経度 */
+   private Float longitude;</v>
       </c>
       <c r="K8" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">   /**
-    * 緯度を取得します。
-    * 
-    * @return 緯度
-    */
-   public Float getLatitude(){
-      return latitude;
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B8&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B8&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$D8&amp;" get"&amp;$F8&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$G8&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 経度を取得します。
+    * 
+    * @return 経度
+    */
+   public Float getLongitude(){
+      return longitude;
    }
 </v>
       </c>
       <c r="L8" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">   /**
-    * 緯度を設定します。
-    * 
-    * @param latitude 緯度
-    */
-   public void setLatitude(Float latitude){
-      this.latitude = latitude;
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B8&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$G8&amp;" "&amp;$B8&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$F8&amp;"("&amp;$D8&amp;" "&amp;$G8&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$G8&amp;" = "&amp;$G8&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+        <v xml:space="preserve">   /**
+    * 経度を設定します。
+    * 
+    * @param longitude 経度
+    */
+   public void setLongitude(Float longitude){
+      this.longitude = longitude;
    }
 </v>
       </c>
@@ -4525,58 +4745,58 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Longitude</v>
+        <v>ParentFacilityId</v>
       </c>
       <c r="G9" s="5" t="str">
-        <f>LOWER(LEFT($C9,1))&amp;RIGHT($F9,LEN($F9)-1)</f>
-        <v>longitude</v>
+        <f t="shared" si="2"/>
+        <v>parentFacilityId</v>
       </c>
       <c r="H9" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>LONGITUDE</v>
+        <v>PARENT_FACILITY_ID</v>
       </c>
       <c r="I9" s="5" t="str">
-        <f>"   /** "&amp;$B9&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$H9&amp;" = """&amp;$G9&amp;""";"</f>
-        <v xml:space="preserve">   /** 経度のフィールド名 */
-   public static final String FIELD_LONGITUDE = "longitude";</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">   /** 親施設IDのフィールド名 */
+   public static final String FIELD_PARENT_FACILITY_ID = "parentFacilityId";</v>
       </c>
       <c r="J9" s="5" t="str">
-        <f>"   /** "&amp;$B9&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$D9&amp;" "&amp;$G9&amp;";"</f>
-        <v xml:space="preserve">   /** 経度 */
-   private Float longitude;</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">   /** 親施設ID */
+   private Integer parentFacilityId;</v>
       </c>
       <c r="K9" s="5" t="str">
-        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B9&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B9&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$D9&amp;" get"&amp;$F9&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$G9&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
-        <v xml:space="preserve">   /**
-    * 経度を取得します。
-    * 
-    * @return 経度
-    */
-   public Float getLongitude(){
-      return longitude;
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   /**
+    * 親施設IDを取得します。
+    * 
+    * @return 親施設ID
+    */
+   public Integer getParentFacilityId(){
+      return parentFacilityId;
    }
 </v>
       </c>
       <c r="L9" s="5" t="str">
-        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B9&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$G9&amp;" "&amp;$B9&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$F9&amp;"("&amp;$D9&amp;" "&amp;$G9&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$G9&amp;" = "&amp;$G9&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
-        <v xml:space="preserve">   /**
-    * 経度を設定します。
-    * 
-    * @param longitude 経度
-    */
-   public void setLongitude(Float longitude){
-      this.longitude = longitude;
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">   /**
+    * 親施設IDを設定します。
+    * 
+    * @param parentFacilityId 親施設ID
+    */
+   public void setParentFacilityId(Integer parentFacilityId){
+      this.parentFacilityId = parentFacilityId;
    }
 </v>
       </c>
@@ -4587,101 +4807,39 @@
         <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>6</v>
+        <v>117</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>ParentFacilityId</v>
+        <v>AttrStoreDtoList</v>
       </c>
       <c r="G10" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>parentFacilityId</v>
+        <f>LOWER(LEFT($C10,1))&amp;RIGHT($F10,LEN($F10)-1)</f>
+        <v>attrStoreDtoList</v>
       </c>
       <c r="H10" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>PARENT_FACILITY_ID</v>
+        <v>ATTR_STORE_DTO_LIST</v>
       </c>
       <c r="I10" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">   /** 親施設IDのフィールド名 */
-   public static final String FIELD_PARENT_FACILITY_ID = "parentFacilityId";</v>
-      </c>
-      <c r="J10" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">   /** 親施設ID */
-   private Integer parentFacilityId;</v>
-      </c>
-      <c r="K10" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">   /**
-    * 親施設IDを取得します。
-    * 
-    * @return 親施設ID
-    */
-   public Integer getParentFacilityId(){
-      return parentFacilityId;
-   }
-</v>
-      </c>
-      <c r="L10" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">   /**
-    * 親施設IDを設定します。
-    * 
-    * @param parentFacilityId 親施設ID
-    */
-   public void setParentFacilityId(Integer parentFacilityId){
-      this.parentFacilityId = parentFacilityId;
-   }
-</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="12">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>AttrStoreDtoList</v>
-      </c>
-      <c r="G11" s="5" t="str">
-        <f>LOWER(LEFT($C11,1))&amp;RIGHT($F11,LEN($F11)-1)</f>
-        <v>attrStoreDtoList</v>
-      </c>
-      <c r="H11" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>ATTR_STORE_DTO_LIST</v>
-      </c>
-      <c r="I11" s="5" t="str">
-        <f>"   /** "&amp;$B11&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$H11&amp;" = """&amp;$G11&amp;""";"</f>
+        <f>"   /** "&amp;$B10&amp;"のフィールド名 */"&amp;CHAR(10)&amp;"   public static final String FIELD_"&amp;$H10&amp;" = """&amp;$G10&amp;""";"</f>
         <v xml:space="preserve">   /** 属性登録更新DTOリストのフィールド名 */
    public static final String FIELD_ATTR_STORE_DTO_LIST = "attrStoreDtoList";</v>
       </c>
-      <c r="J11" s="5" t="str">
-        <f>"   /** "&amp;$B11&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$D11&amp;" "&amp;$G11&amp;";"</f>
+      <c r="J10" s="5" t="str">
+        <f>"   /** "&amp;$B10&amp;" */"&amp;CHAR(10)&amp;"   private "&amp;$D10&amp;" "&amp;$G10&amp;";"</f>
         <v xml:space="preserve">   /** 属性登録更新DTOリスト */
    private List&lt;AttrStoreDto&gt; attrStoreDtoList;</v>
       </c>
-      <c r="K11" s="5" t="str">
-        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B11&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B11&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$D11&amp;" get"&amp;$F11&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$G11&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+      <c r="K10" s="5" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B10&amp;"を取得します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @return "&amp;$B10&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public "&amp;$D10&amp;" get"&amp;$F10&amp;"(){"&amp;CHAR(10)&amp;"      return "&amp;$G10&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
     * 属性登録更新DTOリストを取得します。
     * 
@@ -4692,8 +4850,8 @@
    }
 </v>
       </c>
-      <c r="L11" s="5" t="str">
-        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B11&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$G11&amp;" "&amp;$B11&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$F11&amp;"("&amp;$D11&amp;" "&amp;$G11&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$G11&amp;" = "&amp;$G11&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
+      <c r="L10" s="5" t="str">
+        <f>"   /**"&amp;CHAR(10)&amp;"    * "&amp;$B10&amp;"を設定します。"&amp;CHAR(10)&amp;"    * "&amp;CHAR(10)&amp;"    * @param "&amp;$G10&amp;" "&amp;$B10&amp;""&amp;CHAR(10)&amp;"    */"&amp;CHAR(10)&amp;"   public void set"&amp;$F10&amp;"("&amp;$D10&amp;" "&amp;$G10&amp;"){"&amp;CHAR(10)&amp;"      this."&amp;$G10&amp;" = "&amp;$G10&amp;";"&amp;CHAR(10)&amp;"   }"&amp;CHAR(10)</f>
         <v xml:space="preserve">   /**
     * 属性登録更新DTOリストを設定します。
     * 
